--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2017-10-20</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,16 +488,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5683.31</v>
+        <v>4619.77</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3518710744383258</v>
+        <v>0.4329219852936401</v>
       </c>
       <c r="E2" t="n">
-        <v>1999.792396066082</v>
+        <v>2000</v>
       </c>
       <c r="F2" t="n">
-        <v>1.999792396066082</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2017-11-11</t>
+          <t>2017-09-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6503</v>
+        <v>4374.44</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3518710744383258</v>
+        <v>-0.4329219852936401</v>
       </c>
       <c r="E3" t="n">
-        <v>1999.792396066082</v>
+        <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>2.288217597072433</v>
+        <v>1.893791249347911</v>
       </c>
       <c r="G3" t="n">
-        <v>-288.4252010063511</v>
+        <v>106.2087506520891</v>
       </c>
       <c r="H3" t="n">
-        <v>-288.4252010063511</v>
+        <v>106.2087506520891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -548,28 +548,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7240.14</v>
+        <v>4192.11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2770257074969357</v>
+        <v>0.4764602788366257</v>
       </c>
       <c r="E4" t="n">
-        <v>2005.704905876864</v>
+        <v>1997.373899513807</v>
       </c>
       <c r="F4" t="n">
-        <v>2.005704905876864</v>
+        <v>1.997373899513807</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-288.4252010063511</v>
+        <v>106.2087506520891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2017-12-20</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,28 +578,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17295.2</v>
+        <v>5903.3386029962</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2770257074969357</v>
+        <v>-0.4764602788366257</v>
       </c>
       <c r="E5" t="n">
-        <v>2005.704905876864</v>
+        <v>1997.373899513807</v>
       </c>
       <c r="F5" t="n">
-        <v>4.791215016301003</v>
+        <v>2.812706356850586</v>
       </c>
       <c r="G5" t="n">
-        <v>-2785.510110424138</v>
+        <v>-815.3324573367792</v>
       </c>
       <c r="H5" t="n">
-        <v>-3073.935311430489</v>
+        <v>-709.1237066846901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018-04-27</t>
+          <t>2017-10-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,28 +608,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9267.030000000001</v>
+        <v>6133.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2224538104500652</v>
+        <v>0.3264205713314435</v>
       </c>
       <c r="E6" t="n">
-        <v>2061.486135055067</v>
+        <v>2001.940628181456</v>
       </c>
       <c r="F6" t="n">
-        <v>2.061486135055068</v>
+        <v>2.001940628181456</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-3073.935311430489</v>
+        <v>-709.1237066846901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018-05-11</t>
+          <t>2017-11-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,28 +638,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9002.209999999999</v>
+        <v>7091.029075542973</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2224538104500652</v>
+        <v>-0.3264205713314435</v>
       </c>
       <c r="E7" t="n">
-        <v>2061.486135055067</v>
+        <v>2001.940628181456</v>
       </c>
       <c r="F7" t="n">
-        <v>2.002575916971681</v>
+        <v>2.314657762166615</v>
       </c>
       <c r="G7" t="n">
-        <v>58.9102180833866</v>
+        <v>-312.7171339851586</v>
       </c>
       <c r="H7" t="n">
-        <v>-3015.025093347103</v>
+        <v>-1021.840840669849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3924.46</v>
+        <v>7240.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5250059947671608</v>
+        <v>0.2790275781437551</v>
       </c>
       <c r="E8" t="n">
-        <v>2060.365026223932</v>
+        <v>2020.198729621727</v>
       </c>
       <c r="F8" t="n">
-        <v>2.060365026223932</v>
+        <v>2.020198729621727</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-3015.025093347103</v>
+        <v>-1021.840840669849</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2017-12-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -698,28 +698,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3935.47</v>
+        <v>17608.85202379849</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5250059947671608</v>
+        <v>-0.2790275781437551</v>
       </c>
       <c r="E9" t="n">
-        <v>2060.365026223932</v>
+        <v>2020.198729621727</v>
       </c>
       <c r="F9" t="n">
-        <v>2.066145342226319</v>
+        <v>4.913355334092253</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.780316002386316</v>
+        <v>-2893.156604470526</v>
       </c>
       <c r="H9" t="n">
-        <v>-3020.805409349489</v>
+        <v>-3914.997445140374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-03-28</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4039.58</v>
+        <v>16960.39</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5101548019812221</v>
+        <v>0.122514922618148</v>
       </c>
       <c r="E10" t="n">
-        <v>2060.811134987305</v>
+        <v>2077.900868423612</v>
       </c>
       <c r="F10" t="n">
-        <v>2.060811134987305</v>
+        <v>2.077900868423612</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-3020.805409349489</v>
+        <v>-3914.997445140374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-04-12</t>
+          <t>2018-01-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5017.37</v>
+        <v>14739.54</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5101548019812221</v>
+        <v>-0.122514922618148</v>
       </c>
       <c r="E11" t="n">
-        <v>2060.811134987305</v>
+        <v>2077.900868423612</v>
       </c>
       <c r="F11" t="n">
-        <v>2.559635398816524</v>
+        <v>1.805813602527098</v>
       </c>
       <c r="G11" t="n">
-        <v>-498.8242638292191</v>
+        <v>272.0872658965141</v>
       </c>
       <c r="H11" t="n">
-        <v>-3519.629673178708</v>
+        <v>-3642.91017924386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2018-02-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5357.14</v>
+        <v>11039.55</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3863842786423692</v>
+        <v>0.1877233627110038</v>
       </c>
       <c r="E12" t="n">
-        <v>2069.914674486182</v>
+        <v>2072.381448816262</v>
       </c>
       <c r="F12" t="n">
-        <v>2.069914674486182</v>
+        <v>2.072381448816262</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-3519.629673178708</v>
+        <v>-3642.91017924386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-04-26</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -818,28 +818,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5220.47</v>
+        <v>10596.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3863842786423692</v>
+        <v>-0.1877233627110038</v>
       </c>
       <c r="E13" t="n">
-        <v>2069.914674486182</v>
+        <v>2072.381448816262</v>
       </c>
       <c r="F13" t="n">
-        <v>2.017107535124129</v>
+        <v>1.989210612967152</v>
       </c>
       <c r="G13" t="n">
-        <v>52.80713936205262</v>
+        <v>83.17083584911012</v>
       </c>
       <c r="H13" t="n">
-        <v>-3466.822533816656</v>
+        <v>-3559.73934339475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-05-02</t>
+          <t>2019-07-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5383.2</v>
+        <v>11940</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3843024207264729</v>
+        <v>0.1734201675257994</v>
       </c>
       <c r="E14" t="n">
-        <v>2068.776791254749</v>
+        <v>2070.636800258045</v>
       </c>
       <c r="F14" t="n">
-        <v>2.068776791254749</v>
+        <v>2.070636800258045</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3466.822533816656</v>
+        <v>-3559.73934339475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-05-19</t>
+          <t>2019-07-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -878,28 +878,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7257.32</v>
+        <v>11466.59</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3843024207264729</v>
+        <v>-0.1734201675257994</v>
       </c>
       <c r="E15" t="n">
-        <v>2068.776791254749</v>
+        <v>2070.636800258045</v>
       </c>
       <c r="F15" t="n">
-        <v>2.789005643986646</v>
+        <v>1.988537958749656</v>
       </c>
       <c r="G15" t="n">
-        <v>-720.2288527318974</v>
+        <v>82.09884150838866</v>
       </c>
       <c r="H15" t="n">
-        <v>-4187.051386548554</v>
+        <v>-3477.640501886362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-05-20</t>
+          <t>2019-08-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8147.94</v>
+        <v>10523.75</v>
       </c>
       <c r="D16" t="n">
-        <v>0.255640832727169</v>
+        <v>0.1965947157555716</v>
       </c>
       <c r="E16" t="n">
-        <v>2082.946166611009</v>
+        <v>2068.913639932697</v>
       </c>
       <c r="F16" t="n">
-        <v>2.082946166611009</v>
+        <v>2.068913639932697</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-4187.051386548554</v>
+        <v>-3477.640501886362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-08-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8115.66</v>
+        <v>11383.29579018446</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.255640832727169</v>
+        <v>-0.1965947157555716</v>
       </c>
       <c r="E17" t="n">
-        <v>2082.946166611009</v>
+        <v>2068.913639932697</v>
       </c>
       <c r="F17" t="n">
-        <v>2.074694080530576</v>
+        <v>2.237895800232909</v>
       </c>
       <c r="G17" t="n">
-        <v>8.252086080432949</v>
+        <v>-168.9821603002118</v>
       </c>
       <c r="H17" t="n">
-        <v>-4178.79930046812</v>
+        <v>-3646.622662186574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-07-04</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11940</v>
+        <v>10611.85</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1744418775656726</v>
+        <v>0.1952098434473606</v>
       </c>
       <c r="E18" t="n">
-        <v>2082.83601813413</v>
+        <v>2071.537577186873</v>
       </c>
       <c r="F18" t="n">
-        <v>2.082836018134131</v>
+        <v>2.071537577186874</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-4178.79930046812</v>
+        <v>-3646.622662186574</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-07-12</t>
+          <t>2019-09-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -998,28 +998,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11342.88</v>
+        <v>10155.42</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1744418775656726</v>
+        <v>-0.1952098434473606</v>
       </c>
       <c r="E19" t="n">
-        <v>2082.83601813413</v>
+        <v>2071.537577186873</v>
       </c>
       <c r="F19" t="n">
-        <v>1.978673284202116</v>
+        <v>1.982437948342195</v>
       </c>
       <c r="G19" t="n">
-        <v>104.1627339320145</v>
+        <v>89.09962884467848</v>
       </c>
       <c r="H19" t="n">
-        <v>-4074.636566536106</v>
+        <v>-3557.523033341895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8907.57</v>
+        <v>8655.879999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233584640173408</v>
+        <v>0.2392073126188609</v>
       </c>
       <c r="E20" t="n">
-        <v>2080.671533269443</v>
+        <v>2070.549793151346</v>
       </c>
       <c r="F20" t="n">
-        <v>2.080671533269443</v>
+        <v>2.070549793151345</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-4074.636566536106</v>
+        <v>-3557.523033341895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9197.02</v>
+        <v>9326.587701653174</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.233584640173408</v>
+        <v>-0.2392073126188609</v>
       </c>
       <c r="E21" t="n">
-        <v>2080.671533269443</v>
+        <v>2070.549793151346</v>
       </c>
       <c r="F21" t="n">
-        <v>2.148282607367637</v>
+        <v>2.230987980016574</v>
       </c>
       <c r="G21" t="n">
-        <v>-67.6110740981931</v>
+        <v>-160.4381868652287</v>
       </c>
       <c r="H21" t="n">
-        <v>-4142.247640634299</v>
+        <v>-3717.961220207123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9612.030000000001</v>
+        <v>7500.71</v>
       </c>
       <c r="D22" t="n">
-        <v>0.216597015375362</v>
+        <v>0.2764091704851782</v>
       </c>
       <c r="E22" t="n">
-        <v>2081.937009698441</v>
+        <v>2073.265029149881</v>
       </c>
       <c r="F22" t="n">
-        <v>2.081937009698441</v>
+        <v>2.07326502914988</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-4142.247640634299</v>
+        <v>-3717.961220207123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1118,28 +1118,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9706</v>
+        <v>7233.27</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.216597015375362</v>
+        <v>-0.2764091704851782</v>
       </c>
       <c r="E23" t="n">
-        <v>2081.937009698441</v>
+        <v>2073.265029149881</v>
       </c>
       <c r="F23" t="n">
-        <v>2.102290631233263</v>
+        <v>1.999342160595325</v>
       </c>
       <c r="G23" t="n">
-        <v>-20.35362153482262</v>
+        <v>73.92286855455593</v>
       </c>
       <c r="H23" t="n">
-        <v>-4162.601262169122</v>
+        <v>-3644.038351652568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10164.78</v>
+        <v>7388.43</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2048521368092619</v>
+        <v>0.280433079912056</v>
       </c>
       <c r="E24" t="n">
-        <v>2082.276903196049</v>
+        <v>2071.960180614632</v>
       </c>
       <c r="F24" t="n">
-        <v>2.082276903196049</v>
+        <v>2.071960180614632</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-4162.601262169122</v>
+        <v>-3644.038351652568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1178,28 +1178,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9594.65</v>
+        <v>7189.37</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2048521368092619</v>
+        <v>-0.280433079912056</v>
       </c>
       <c r="E25" t="n">
-        <v>2082.276903196049</v>
+        <v>2071.960180614632</v>
       </c>
       <c r="F25" t="n">
-        <v>1.965484554436985</v>
+        <v>2.016137171727338</v>
       </c>
       <c r="G25" t="n">
-        <v>116.7923487590647</v>
+        <v>55.82300888729398</v>
       </c>
       <c r="H25" t="n">
-        <v>-4045.808913410057</v>
+        <v>-3588.215342765274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1208,28 +1208,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9791.969999999998</v>
+        <v>7758.899999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2124029829862948</v>
+        <v>0.2669126935040804</v>
       </c>
       <c r="E26" t="n">
-        <v>2079.843637312309</v>
+        <v>2070.948897628809</v>
       </c>
       <c r="F26" t="n">
-        <v>2.079843637312309</v>
+        <v>2.07094889762881</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-4045.808913410057</v>
+        <v>-3588.215342765274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9067.51</v>
+        <v>8654.560924196441</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2124029829862948</v>
+        <v>-0.2669126935040804</v>
       </c>
       <c r="E27" t="n">
-        <v>2079.843637312309</v>
+        <v>2070.948897628809</v>
       </c>
       <c r="F27" t="n">
-        <v>1.925966172258058</v>
+        <v>2.310012167372435</v>
       </c>
       <c r="G27" t="n">
-        <v>153.8774650542505</v>
+        <v>-239.0632697436264</v>
       </c>
       <c r="H27" t="n">
-        <v>-3891.931448355806</v>
+        <v>-3827.2786125089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1268,28 +1268,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9788.139999999999</v>
+        <v>8907.57</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2121437702746599</v>
+        <v>0.2329930971497533</v>
       </c>
       <c r="E28" t="n">
-        <v>2076.49292357621</v>
+        <v>2075.402322378228</v>
       </c>
       <c r="F28" t="n">
-        <v>2.07649292357621</v>
+        <v>2.075402322378228</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-3891.931448355806</v>
+        <v>-3827.2786125089</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1298,28 +1298,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9278.879999999999</v>
+        <v>9280.452203669664</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2121437702746599</v>
+        <v>-0.2329930971497533</v>
       </c>
       <c r="E29" t="n">
-        <v>2076.49292357621</v>
+        <v>2075.402322378228</v>
       </c>
       <c r="F29" t="n">
-        <v>1.968456587126136</v>
+        <v>2.162281301883248</v>
       </c>
       <c r="G29" t="n">
-        <v>108.0363364500733</v>
+        <v>-86.87897950502008</v>
       </c>
       <c r="H29" t="n">
-        <v>-3783.895111905733</v>
+        <v>-3914.15759201392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1328,28 +1328,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11744.91</v>
+        <v>9612.030000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1766251482664104</v>
+        <v>0.2160888997856691</v>
       </c>
       <c r="E30" t="n">
-        <v>2074.446470125647</v>
+        <v>2077.052987406846</v>
       </c>
       <c r="F30" t="n">
-        <v>2.074446470125646</v>
+        <v>2.077052987406846</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-3783.895111905733</v>
+        <v>-3914.15759201392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11754.38</v>
+        <v>9739.459999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1766251482664104</v>
+        <v>-0.2160888997856691</v>
       </c>
       <c r="E31" t="n">
-        <v>2074.446470125647</v>
+        <v>2077.052987406846</v>
       </c>
       <c r="F31" t="n">
-        <v>2.076119110279729</v>
+        <v>2.104589195906533</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.672640154082791</v>
+        <v>-27.53620849968749</v>
       </c>
       <c r="H31" t="n">
-        <v>-3785.567752059816</v>
+        <v>-3941.693800513608</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11360.31</v>
+        <v>10164.78</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1826021471115931</v>
+        <v>0.20438578568618</v>
       </c>
       <c r="E32" t="n">
-        <v>2074.416997853302</v>
+        <v>2077.536546627169</v>
       </c>
       <c r="F32" t="n">
-        <v>2.074416997853302</v>
+        <v>2.077536546627169</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3785.567752059816</v>
+        <v>-3941.693800513608</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1418,28 +1418,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17149.47</v>
+        <v>9799.209999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1826021471115931</v>
+        <v>-0.20438578568618</v>
       </c>
       <c r="E33" t="n">
-        <v>2074.416997853302</v>
+        <v>2077.536546627169</v>
       </c>
       <c r="F33" t="n">
-        <v>3.131530043825853</v>
+        <v>2.002819234953872</v>
       </c>
       <c r="G33" t="n">
-        <v>-1057.113045972551</v>
+        <v>74.71731167329715</v>
       </c>
       <c r="H33" t="n">
-        <v>-4842.680798032367</v>
+        <v>-3866.976488840311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19695.87</v>
+        <v>6643.360000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1063895656092235</v>
+        <v>0.3125050860574977</v>
       </c>
       <c r="E34" t="n">
-        <v>2095.435053595737</v>
+        <v>2076.083788510938</v>
       </c>
       <c r="F34" t="n">
-        <v>2.095435053595737</v>
+        <v>2.076083788510938</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-4842.680798032367</v>
+        <v>-3866.976488840311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-12-09</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1478,28 +1478,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18324.11</v>
+        <v>7073.403807882798</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1063895656092235</v>
+        <v>-0.3125050860574977</v>
       </c>
       <c r="E35" t="n">
-        <v>2095.435053595737</v>
+        <v>2076.083788510938</v>
       </c>
       <c r="F35" t="n">
-        <v>1.949494103075629</v>
+        <v>2.210474665701846</v>
       </c>
       <c r="G35" t="n">
-        <v>145.9409505201083</v>
+        <v>-134.3908771909076</v>
       </c>
       <c r="H35" t="n">
-        <v>-4696.739847512258</v>
+        <v>-4001.367366031218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-12-16</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1508,28 +1508,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19426.43</v>
+        <v>7248.6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1077107495305211</v>
+        <v>0.2867517000038362</v>
       </c>
       <c r="E36" t="n">
-        <v>2092.435336002202</v>
+        <v>2078.548372647807</v>
       </c>
       <c r="F36" t="n">
-        <v>2.092435336002202</v>
+        <v>2.078548372647807</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-4696.739847512258</v>
+        <v>-4001.367366031218</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1538,28 +1538,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35410.37</v>
+        <v>6942.48</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1077107495305211</v>
+        <v>-0.2867517000038362</v>
       </c>
       <c r="E37" t="n">
-        <v>2092.435336002202</v>
+        <v>2078.548372647807</v>
       </c>
       <c r="F37" t="n">
-        <v>3.814077493853081</v>
+        <v>1.990767942242632</v>
       </c>
       <c r="G37" t="n">
-        <v>-1721.642157850878</v>
+        <v>87.78043040517456</v>
       </c>
       <c r="H37" t="n">
-        <v>-6418.382005363137</v>
+        <v>-3913.586935626044</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1568,28 +1568,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>39145.21</v>
+        <v>7483.96</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05433075014121071</v>
+        <v>0.2775465296133194</v>
       </c>
       <c r="E38" t="n">
-        <v>2126.788623735223</v>
+        <v>2077.147125764898</v>
       </c>
       <c r="F38" t="n">
-        <v>2.126788623735223</v>
+        <v>2.077147125764898</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6418.382005363137</v>
+        <v>-3913.586935626044</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1598,28 +1598,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35468.23</v>
+        <v>9299.59344062325</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05433075014121071</v>
+        <v>-0.2775465296133194</v>
       </c>
       <c r="E39" t="n">
-        <v>2126.788623735223</v>
+        <v>2077.147125764898</v>
       </c>
       <c r="F39" t="n">
-        <v>1.927015542080994</v>
+        <v>2.581069886259772</v>
       </c>
       <c r="G39" t="n">
-        <v>199.7730816542287</v>
+        <v>-503.9227604948739</v>
       </c>
       <c r="H39" t="n">
-        <v>-6218.608923708908</v>
+        <v>-4417.509696120917</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1628,28 +1628,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>56900.74</v>
+        <v>9791.969999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03730484239990196</v>
+        <v>0.2131026277201406</v>
       </c>
       <c r="E40" t="n">
-        <v>2122.673138137797</v>
+        <v>2086.694537556785</v>
       </c>
       <c r="F40" t="n">
-        <v>2.122673138137797</v>
+        <v>2.086694537556785</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-6218.608923708908</v>
+        <v>-4417.509696120917</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1658,28 +1658,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>54083.25</v>
+        <v>9282.540000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.03730484239990196</v>
+        <v>-0.2131026277201406</v>
       </c>
       <c r="E41" t="n">
-        <v>2122.673138137797</v>
+        <v>2086.694537556785</v>
       </c>
       <c r="F41" t="n">
-        <v>2.017567117724497</v>
+        <v>1.978133665917314</v>
       </c>
       <c r="G41" t="n">
-        <v>105.1060204132997</v>
+        <v>108.5608716394709</v>
       </c>
       <c r="H41" t="n">
-        <v>-6113.502903295608</v>
+        <v>-4308.948824481447</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1688,28 +1688,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>59129.99</v>
+        <v>9697.719999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03586147377959709</v>
+        <v>0.2149416723298057</v>
       </c>
       <c r="E42" t="n">
-        <v>2120.488585972838</v>
+        <v>2084.444154586203</v>
       </c>
       <c r="F42" t="n">
-        <v>2.120488585972838</v>
+        <v>2.084444154586203</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-6113.502903295608</v>
+        <v>-4308.948824481447</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2020-06-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1718,28 +1718,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>55953.44</v>
+        <v>9753.738835544653</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03586147377959709</v>
+        <v>-0.2149416723298057</v>
       </c>
       <c r="E43" t="n">
-        <v>2120.488585972838</v>
+        <v>2084.444154586203</v>
       </c>
       <c r="F43" t="n">
-        <v>2.006572821438259</v>
+        <v>2.096484936780139</v>
       </c>
       <c r="G43" t="n">
-        <v>113.915764534579</v>
+        <v>-12.04078219393618</v>
       </c>
       <c r="H43" t="n">
-        <v>-5999.58713876103</v>
+        <v>-4320.989606675383</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1748,28 +1748,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>59769.13</v>
+        <v>9788.139999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03543849022821644</v>
+        <v>0.2129521477698834</v>
       </c>
       <c r="E44" t="n">
-        <v>2118.127729453998</v>
+        <v>2084.405435672306</v>
       </c>
       <c r="F44" t="n">
-        <v>2.118127729453998</v>
+        <v>2.084405435672306</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-5999.58713876103</v>
+        <v>-4320.989606675383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1778,28 +1778,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>60006.67</v>
+        <v>9490.6</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.03543849022821644</v>
+        <v>-0.2129521477698834</v>
       </c>
       <c r="E45" t="n">
-        <v>2118.127729453998</v>
+        <v>2084.405435672306</v>
       </c>
       <c r="F45" t="n">
-        <v>2.126545788422809</v>
+        <v>2.021043653624855</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.418058968810564</v>
+        <v>63.36178204745089</v>
       </c>
       <c r="H45" t="n">
-        <v>-6008.00519772984</v>
+        <v>-4257.627824627932</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1808,28 +1808,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40862.46</v>
+        <v>9436.059999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0518375838645793</v>
+        <v>0.2207756210776023</v>
       </c>
       <c r="E46" t="n">
-        <v>2118.211197163017</v>
+        <v>2083.25200702552</v>
       </c>
       <c r="F46" t="n">
-        <v>2.118211197163017</v>
+        <v>2.08325200702552</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-6008.00519772984</v>
+        <v>-4257.627824627932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1838,28 +1838,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46982.91</v>
+        <v>9253.07</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0518375838645793</v>
+        <v>-0.2207756210776023</v>
       </c>
       <c r="E47" t="n">
-        <v>2118.211197163017</v>
+        <v>2083.25200702552</v>
       </c>
       <c r="F47" t="n">
-        <v>2.435480537326981</v>
+        <v>2.042852276124529</v>
       </c>
       <c r="G47" t="n">
-        <v>-317.2693401639646</v>
+        <v>40.39973090099039</v>
       </c>
       <c r="H47" t="n">
-        <v>-6325.274537893804</v>
+        <v>-4217.228093726942</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49246.62999999999</v>
+        <v>9390</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04313929864314817</v>
+        <v>0.221763736988481</v>
       </c>
       <c r="E48" t="n">
-        <v>2124.465078738619</v>
+        <v>2082.361490321837</v>
       </c>
       <c r="F48" t="n">
-        <v>2.12446507873862</v>
+        <v>2.082361490321837</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-6325.274537893804</v>
+        <v>-4217.228093726942</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1898,28 +1898,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46868.57</v>
+        <v>11789.95005118318</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04313929864314817</v>
+        <v>-0.221763736988481</v>
       </c>
       <c r="E49" t="n">
-        <v>2124.465078738619</v>
+        <v>2082.361490321837</v>
       </c>
       <c r="F49" t="n">
-        <v>2.021877238207295</v>
+        <v>2.614583382257916</v>
       </c>
       <c r="G49" t="n">
-        <v>102.5878405313245</v>
+        <v>-532.2218919360794</v>
       </c>
       <c r="H49" t="n">
-        <v>-6222.68669736248</v>
+        <v>-4749.449985663021</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1928,28 +1928,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>63078.78</v>
+        <v>11852.4</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03364571772749315</v>
+        <v>0.1765812822097725</v>
       </c>
       <c r="E50" t="n">
-        <v>2122.330826474641</v>
+        <v>2092.911989263107</v>
       </c>
       <c r="F50" t="n">
-        <v>2.122330826474641</v>
+        <v>2.092911989263107</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-6222.68669736248</v>
+        <v>-4749.449985663021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1958,28 +1958,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>58413.44</v>
+        <v>11943.83575978267</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.03364571772749315</v>
+        <v>-0.1765812822097725</v>
       </c>
       <c r="E51" t="n">
-        <v>2122.330826474641</v>
+        <v>2092.911989263107</v>
       </c>
       <c r="F51" t="n">
-        <v>1.965362113731858</v>
+        <v>2.109057832965355</v>
       </c>
       <c r="G51" t="n">
-        <v>156.9687127427828</v>
+        <v>-16.14584370224848</v>
       </c>
       <c r="H51" t="n">
-        <v>-6065.717984619698</v>
+        <v>-4765.595829365269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1988,28 +1988,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>65519.11</v>
+        <v>10925.44</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03234338839149166</v>
+        <v>0.1915827610587555</v>
       </c>
       <c r="E52" t="n">
-        <v>2119.110021794865</v>
+        <v>2093.125960981769</v>
       </c>
       <c r="F52" t="n">
-        <v>2.119110021794865</v>
+        <v>2.093125960981769</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-6065.717984619698</v>
+        <v>-4765.595829365269</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2018,28 +2018,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60058.87</v>
+        <v>18323.0972708146</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03234338839149166</v>
+        <v>-0.1915827610587555</v>
       </c>
       <c r="E53" t="n">
-        <v>2119.110021794865</v>
+        <v>2093.125960981769</v>
       </c>
       <c r="F53" t="n">
-        <v>1.942507358764107</v>
+        <v>3.510389566290808</v>
       </c>
       <c r="G53" t="n">
-        <v>176.6026630307584</v>
+        <v>-1417.263605309039</v>
       </c>
       <c r="H53" t="n">
-        <v>-5889.115321588939</v>
+        <v>-6182.859434674308</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2048,28 +2048,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>46283.49</v>
+        <v>19695.87</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04570736590418645</v>
+        <v>0.107707050693183</v>
       </c>
       <c r="E54" t="n">
-        <v>2115.496412752755</v>
+        <v>2121.384068536343</v>
       </c>
       <c r="F54" t="n">
-        <v>2.115496412752754</v>
+        <v>2.121384068536343</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-5889.115321588939</v>
+        <v>-6182.859434674308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2020-12-09</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>43170.47</v>
+        <v>18560.25</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.04570736590418645</v>
+        <v>-0.107707050693183</v>
       </c>
       <c r="E55" t="n">
-        <v>2115.496412752755</v>
+        <v>2121.384068536343</v>
       </c>
       <c r="F55" t="n">
-        <v>1.973208468545704</v>
+        <v>1.99906978762815</v>
       </c>
       <c r="G55" t="n">
-        <v>142.2879442070504</v>
+        <v>122.3142809081924</v>
       </c>
       <c r="H55" t="n">
-        <v>-5746.827377381888</v>
+        <v>-6060.545153766116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2108,28 +2108,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23845.25</v>
+        <v>19426.43</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08860357681589418</v>
+        <v>0.1090707543198135</v>
       </c>
       <c r="E56" t="n">
-        <v>2112.7744400692</v>
+        <v>2118.855373841055</v>
       </c>
       <c r="F56" t="n">
-        <v>2.112774440069201</v>
+        <v>2.118855373841055</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-5746.827377381888</v>
+        <v>-6060.545153766116</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2138,28 +2138,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23342.66</v>
+        <v>36417.71924312636</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08860357681589418</v>
+        <v>-0.1090707543198135</v>
       </c>
       <c r="E57" t="n">
-        <v>2112.7744400692</v>
+        <v>2118.855373841055</v>
       </c>
       <c r="F57" t="n">
-        <v>2.0682431683973</v>
+        <v>3.972108108454981</v>
       </c>
       <c r="G57" t="n">
-        <v>44.53127167189994</v>
+        <v>-1853.252734613926</v>
       </c>
       <c r="H57" t="n">
-        <v>-5702.296105709988</v>
+        <v>-7913.797888380042</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2168,28 +2168,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21148.52</v>
+        <v>39145.21</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09984597664448291</v>
+        <v>0.05507283550086699</v>
       </c>
       <c r="E58" t="n">
-        <v>2111.59463398538</v>
+        <v>2155.837710976894</v>
       </c>
       <c r="F58" t="n">
-        <v>2.11159463398538</v>
+        <v>2.155837710976894</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-5702.296105709988</v>
+        <v>-7913.797888380042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2198,28 +2198,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18545.38</v>
+        <v>35572.74</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.09984597664448291</v>
+        <v>-0.05507283550086699</v>
       </c>
       <c r="E59" t="n">
-        <v>2111.59463398538</v>
+        <v>2155.837710976894</v>
       </c>
       <c r="F59" t="n">
-        <v>1.851681578343061</v>
+        <v>1.959091658335111</v>
       </c>
       <c r="G59" t="n">
-        <v>259.9130556423192</v>
+        <v>196.7460526417824</v>
       </c>
       <c r="H59" t="n">
-        <v>-5442.38305006767</v>
+        <v>-7717.051835738259</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2021-02-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2228,28 +2228,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>23743.37</v>
+        <v>37620.26</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08871579869466258</v>
+        <v>0.05719952219786149</v>
       </c>
       <c r="E60" t="n">
-        <v>2106.412033252891</v>
+        <v>2151.860896959321</v>
       </c>
       <c r="F60" t="n">
-        <v>2.10641203325289</v>
+        <v>2.151860896959321</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-5442.38305006767</v>
+        <v>-7717.051835738259</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2258,28 +2258,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22762.52</v>
+        <v>53375.31462430977</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.08871579869466258</v>
+        <v>-0.05719952219786149</v>
       </c>
       <c r="E61" t="n">
-        <v>2106.412033252891</v>
+        <v>2151.860896959321</v>
       </c>
       <c r="F61" t="n">
-        <v>2.019395142103231</v>
+        <v>3.053042493671047</v>
       </c>
       <c r="G61" t="n">
-        <v>87.01689114965966</v>
+        <v>-901.1815967117266</v>
       </c>
       <c r="H61" t="n">
-        <v>-5355.36615891801</v>
+        <v>-8618.233432449986</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2288,28 +2288,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>27968.05</v>
+        <v>54874.67000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07524637053286828</v>
+        <v>0.03953212516265771</v>
       </c>
       <c r="E62" t="n">
-        <v>2104.494253381787</v>
+        <v>2169.312322699539</v>
       </c>
       <c r="F62" t="n">
-        <v>2.104494253381787</v>
+        <v>2.169312322699538</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-5355.36615891801</v>
+        <v>-8618.233432449986</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2318,28 +2318,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>29430.27</v>
+        <v>55909.37342955366</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.07524637053286828</v>
+        <v>-0.03953212516265771</v>
       </c>
       <c r="E63" t="n">
-        <v>2104.494253381787</v>
+        <v>2169.312322699539</v>
       </c>
       <c r="F63" t="n">
-        <v>2.214521001302357</v>
+        <v>2.210216348182885</v>
       </c>
       <c r="G63" t="n">
-        <v>-110.026747920571</v>
+        <v>-40.9040254833461</v>
       </c>
       <c r="H63" t="n">
-        <v>-5465.392906838581</v>
+        <v>-8659.137457933331</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-04-19</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2348,28 +2348,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30380.01</v>
+        <v>58912.96999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06934192609005412</v>
+        <v>0.0368413171738946</v>
       </c>
       <c r="E64" t="n">
-        <v>2106.608408035105</v>
+        <v>2170.431413426137</v>
       </c>
       <c r="F64" t="n">
-        <v>2.106608408035105</v>
+        <v>2.170431413426138</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-5465.392906838581</v>
+        <v>-8659.137457933331</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2021-03-23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2378,28 +2378,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>28797.1</v>
+        <v>54829.18</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.06934192609005412</v>
+        <v>-0.0368413171738946</v>
       </c>
       <c r="E65" t="n">
-        <v>2106.608408035105</v>
+        <v>2170.431413426137</v>
       </c>
       <c r="F65" t="n">
-        <v>1.996846379807897</v>
+        <v>2.019979210764558</v>
       </c>
       <c r="G65" t="n">
-        <v>109.7620282272076</v>
+        <v>150.4522026615788</v>
       </c>
       <c r="H65" t="n">
-        <v>-5355.630878611374</v>
+        <v>-8508.685255271752</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2408,28 +2408,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30447.31</v>
+        <v>58950.01</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06911385926621444</v>
+        <v>0.03676570302804735</v>
       </c>
       <c r="E66" t="n">
-        <v>2104.331098374804</v>
+        <v>2167.338561160422</v>
       </c>
       <c r="F66" t="n">
-        <v>2.104331098374804</v>
+        <v>2.167338561160422</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-5355.630878611374</v>
+        <v>-8508.685255271752</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2021-04-08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2438,28 +2438,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>30380</v>
+        <v>56747.1</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.06911385926621444</v>
+        <v>-0.03676570302804735</v>
       </c>
       <c r="E67" t="n">
-        <v>2104.331098374804</v>
+        <v>2167.338561160422</v>
       </c>
       <c r="F67" t="n">
-        <v>2.099679044507595</v>
+        <v>2.086347026302906</v>
       </c>
       <c r="G67" t="n">
-        <v>4.652053867208984</v>
+        <v>80.99153485751592</v>
       </c>
       <c r="H67" t="n">
-        <v>-5350.978824744165</v>
+        <v>-8427.693720414236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2021-04-11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2468,28 +2468,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27931.1</v>
+        <v>59769.13</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07533375808443572</v>
+        <v>0.03623331403270421</v>
       </c>
       <c r="E68" t="n">
-        <v>2104.154730432183</v>
+        <v>2165.633656751522</v>
       </c>
       <c r="F68" t="n">
-        <v>2.104154730432183</v>
+        <v>2.165633656751522</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-5350.978824744165</v>
+        <v>-8427.693720414236</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>26875.52</v>
+        <v>61307.71723540165</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.07533375808443572</v>
+        <v>-0.03623331403270421</v>
       </c>
       <c r="E69" t="n">
-        <v>2104.154730432183</v>
+        <v>2165.633656751522</v>
       </c>
       <c r="F69" t="n">
-        <v>2.024633922073414</v>
+        <v>2.22138177121854</v>
       </c>
       <c r="G69" t="n">
-        <v>79.52080835876852</v>
+        <v>-55.74811446701806</v>
       </c>
       <c r="H69" t="n">
-        <v>-5271.458016385396</v>
+        <v>-8483.441834881254</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2528,28 +2528,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>36701.1</v>
+        <v>63078.78</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05728660879429946</v>
+        <v>0.03434849054994886</v>
       </c>
       <c r="E70" t="n">
-        <v>2102.481558020464</v>
+        <v>2166.660878732303</v>
       </c>
       <c r="F70" t="n">
-        <v>2.102481558020464</v>
+        <v>2.166660878732303</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-5271.458016385396</v>
+        <v>-8483.441834881254</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2558,28 +2558,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35551.2</v>
+        <v>59516.23</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.05728660879429946</v>
+        <v>-0.03434849054994886</v>
       </c>
       <c r="E71" t="n">
-        <v>2102.481558020464</v>
+        <v>2166.660878732303</v>
       </c>
       <c r="F71" t="n">
-        <v>2.036607686567899</v>
+        <v>2.044292663723583</v>
       </c>
       <c r="G71" t="n">
-        <v>65.87387145256504</v>
+        <v>122.3682150087202</v>
       </c>
       <c r="H71" t="n">
-        <v>-5205.584144932831</v>
+        <v>-8361.073619872534</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2588,28 +2588,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37359.85</v>
+        <v>67525.82000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05623898820660551</v>
+        <v>0.03204891069626659</v>
       </c>
       <c r="E72" t="n">
-        <v>2101.080163550551</v>
+        <v>2164.128974872173</v>
       </c>
       <c r="F72" t="n">
-        <v>2.101080163550551</v>
+        <v>2.164128974872173</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-5205.584144932831</v>
+        <v>-8361.073619872534</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2618,28 +2618,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>35741.65</v>
+        <v>64597.69215294673</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.05623898820660551</v>
+        <v>-0.03204891069626659</v>
       </c>
       <c r="E73" t="n">
-        <v>2101.080163550551</v>
+        <v>2164.128974872173</v>
       </c>
       <c r="F73" t="n">
-        <v>2.010074232834622</v>
+        <v>2.070285666994711</v>
       </c>
       <c r="G73" t="n">
-        <v>91.00593071592888</v>
+        <v>93.84330787746187</v>
       </c>
       <c r="H73" t="n">
-        <v>-5114.578214216902</v>
+        <v>-8267.230311995072</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-11-23</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2648,28 +2648,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>37408.35</v>
+        <v>65519.11</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05611525088357802</v>
+        <v>0.03300057145032354</v>
       </c>
       <c r="E74" t="n">
-        <v>2099.178945390696</v>
+        <v>2162.168070916608</v>
       </c>
       <c r="F74" t="n">
-        <v>2.099178945390696</v>
+        <v>2.162168070916608</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-5114.578214216902</v>
+        <v>-8267.230311995072</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2678,28 +2678,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>41253.41</v>
+        <v>63013.21</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.05611525088357802</v>
+        <v>-0.03300057145032354</v>
       </c>
       <c r="E75" t="n">
-        <v>2099.178945390696</v>
+        <v>2162.168070916608</v>
       </c>
       <c r="F75" t="n">
-        <v>2.314945451953107</v>
+        <v>2.079471938919242</v>
       </c>
       <c r="G75" t="n">
-        <v>-215.7665065624104</v>
+        <v>82.69613199736581</v>
       </c>
       <c r="H75" t="n">
-        <v>-5330.344720779312</v>
+        <v>-8184.534179997706</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>43969.04</v>
+        <v>71620</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04783832969474631</v>
+        <v>0.03016516315932349</v>
       </c>
       <c r="E76" t="n">
-        <v>2103.405431881488</v>
+        <v>2160.428985470749</v>
       </c>
       <c r="F76" t="n">
-        <v>2.103405431881488</v>
+        <v>2.160428985470749</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-5330.344720779312</v>
+        <v>-8184.534179997706</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2738,28 +2738,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>42508.93</v>
+        <v>68953.83</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.04783832969474631</v>
+        <v>-0.03016516315932349</v>
       </c>
       <c r="E77" t="n">
-        <v>2103.405431881488</v>
+        <v>2160.428985470749</v>
       </c>
       <c r="F77" t="n">
-        <v>2.033556208310892</v>
+        <v>2.080003532410255</v>
       </c>
       <c r="G77" t="n">
-        <v>69.84922357059607</v>
+        <v>80.42545306049347</v>
       </c>
       <c r="H77" t="n">
-        <v>-5260.495497208716</v>
+        <v>-8104.108726937213</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2768,28 +2768,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>44179.55</v>
+        <v>69290.56</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04757689266136194</v>
+        <v>0.03115482623045504</v>
       </c>
       <c r="E78" t="n">
-        <v>2101.925708177273</v>
+        <v>2158.735356210918</v>
       </c>
       <c r="F78" t="n">
-        <v>2.101925708177273</v>
+        <v>2.158735356210919</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-5260.495497208716</v>
+        <v>-8104.108726937213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2798,28 +2798,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>42845.23</v>
+        <v>68975.27</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.04757689266136194</v>
+        <v>-0.03115482623045504</v>
       </c>
       <c r="E79" t="n">
-        <v>2101.925708177273</v>
+        <v>2158.735356210918</v>
       </c>
       <c r="F79" t="n">
-        <v>2.038442908761365</v>
+        <v>2.148912551048719</v>
       </c>
       <c r="G79" t="n">
-        <v>63.48279941590845</v>
+        <v>9.82280516219997</v>
       </c>
       <c r="H79" t="n">
-        <v>-5197.012697792808</v>
+        <v>-8094.285921775013</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2828,28 +2828,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>44151.1</v>
+        <v>64724.06</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04757691755848928</v>
+        <v>0.03334850117278951</v>
       </c>
       <c r="E80" t="n">
-        <v>2100.573244816616</v>
+        <v>2158.450390817698</v>
       </c>
       <c r="F80" t="n">
-        <v>2.100573244816616</v>
+        <v>2.158450390817698</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-5197.012697792808</v>
+        <v>-8094.285921775013</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-01-13</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2858,28 +2858,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>42782.74</v>
+        <v>65715.56693185028</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.04757691755848928</v>
+        <v>-0.03334850117278951</v>
       </c>
       <c r="E81" t="n">
-        <v>2100.573244816616</v>
+        <v>2158.450390817698</v>
       </c>
       <c r="F81" t="n">
-        <v>2.035470893906282</v>
+        <v>2.191515660897336</v>
       </c>
       <c r="G81" t="n">
-        <v>65.10235091033442</v>
+        <v>-33.06527007963796</v>
       </c>
       <c r="H81" t="n">
-        <v>-5131.910346882473</v>
+        <v>-8127.351191854651</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2888,28 +2888,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>54476.48</v>
+        <v>67908</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03853385648731709</v>
+        <v>0.03179342172811109</v>
       </c>
       <c r="E82" t="n">
-        <v>2099.1888622542</v>
+        <v>2159.027682712568</v>
       </c>
       <c r="F82" t="n">
-        <v>2.0991888622542</v>
+        <v>2.159027682712568</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-5131.910346882473</v>
+        <v>-8127.351191854651</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2918,28 +2918,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>69499.84</v>
+        <v>64835.56</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03853385648731709</v>
+        <v>-0.03179342172811109</v>
       </c>
       <c r="E83" t="n">
-        <v>2099.1888622542</v>
+        <v>2159.027682712568</v>
       </c>
       <c r="F83" t="n">
-        <v>2.6780968604515</v>
+        <v>2.06134430205825</v>
       </c>
       <c r="G83" t="n">
-        <v>-578.9079981972999</v>
+        <v>97.6833806543177</v>
       </c>
       <c r="H83" t="n">
-        <v>-5710.818345079773</v>
+        <v>-8029.667811200334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2948,28 +2948,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>71620</v>
+        <v>61156.03</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02947041456527683</v>
+        <v>0.03527026345113587</v>
       </c>
       <c r="E84" t="n">
-        <v>2110.671091165127</v>
+        <v>2156.989289725569</v>
       </c>
       <c r="F84" t="n">
-        <v>2.110671091165127</v>
+        <v>2.156989289725569</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-5710.818345079773</v>
+        <v>-8029.667811200334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2978,28 +2978,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>67116.52</v>
+        <v>62542.9222505897</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02947041456527683</v>
+        <v>-0.03527026345113587</v>
       </c>
       <c r="E85" t="n">
-        <v>2110.671091165127</v>
+        <v>2156.989289725569</v>
       </c>
       <c r="F85" t="n">
-        <v>1.977951668578694</v>
+        <v>2.205905344782206</v>
       </c>
       <c r="G85" t="n">
-        <v>132.7194225864328</v>
+        <v>-48.91605505663743</v>
       </c>
       <c r="H85" t="n">
-        <v>-5578.09892249334</v>
+        <v>-8078.583866256971</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>69290.56</v>
+        <v>66084</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03042167109114852</v>
+        <v>0.03265360267946912</v>
       </c>
       <c r="E86" t="n">
-        <v>2107.934626041492</v>
+        <v>2157.880679470038</v>
       </c>
       <c r="F86" t="n">
-        <v>2.107934626041492</v>
+        <v>2.157880679470038</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-5578.09892249334</v>
+        <v>-8078.583866256971</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3038,28 +3038,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>67314.23</v>
+        <v>70199.14086540291</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03042167109114852</v>
+        <v>-0.03265360267946912</v>
       </c>
       <c r="E87" t="n">
-        <v>2107.934626041492</v>
+        <v>2157.880679470038</v>
       </c>
       <c r="F87" t="n">
-        <v>2.047811364813922</v>
+        <v>2.292254854258951</v>
       </c>
       <c r="G87" t="n">
-        <v>60.12326122756961</v>
+        <v>-134.3741747889133</v>
       </c>
       <c r="H87" t="n">
-        <v>-5517.97566126577</v>
+        <v>-8212.958041045884</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3068,112 +3068,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>65173.99000000001</v>
+        <v>75571.99000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03232346753841271</v>
+        <v>0.02858835441172206</v>
       </c>
       <c r="E88" t="n">
-        <v>2106.649350113835</v>
+        <v>2160.478833719115</v>
       </c>
       <c r="F88" t="n">
-        <v>2.106649350113835</v>
+        <v>2.160478833719115</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-5517.97566126577</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>60804.92</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-0.03232346753841271</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2106.649350113835</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.965425857795782</v>
-      </c>
-      <c r="G89" t="n">
-        <v>141.223492318053</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-5376.752168947717</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>68198.27</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.03084745595876195</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2103.743130288756</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2.103743130288756</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-5376.752168947717</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2024-11-02</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>69496</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-0.03084745595876195</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2103.743130288756</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2.14377479931012</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-40.03166902136402</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-5416.783837969081</v>
+        <v>-8212.958041045884</v>
       </c>
     </row>
   </sheetData>
@@ -3227,20 +3137,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>105222.9560892576</v>
+        <v>108626.9297732689</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.22%</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.22%</t>
+          <t>25.29%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4374.44</v>
+        <v>4282.8</v>
       </c>
       <c r="D3" t="n">
         <v>-0.4329219852936401</v>
@@ -527,13 +527,13 @@
         <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>1.893791249347911</v>
+        <v>1.854118278615602</v>
       </c>
       <c r="G3" t="n">
-        <v>106.2087506520891</v>
+        <v>145.881721384398</v>
       </c>
       <c r="H3" t="n">
-        <v>106.2087506520891</v>
+        <v>145.881721384398</v>
       </c>
     </row>
     <row r="4">
@@ -551,25 +551,25 @@
         <v>4192.11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4764602788366257</v>
+        <v>0.4762712337721774</v>
       </c>
       <c r="E4" t="n">
-        <v>1997.373899513807</v>
+        <v>1996.581401808682</v>
       </c>
       <c r="F4" t="n">
-        <v>1.997373899513807</v>
+        <v>1.996581401808682</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>106.2087506520891</v>
+        <v>145.881721384398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2017-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5903.3386029962</v>
+        <v>5506.92</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4764602788366257</v>
+        <v>-0.4762712337721774</v>
       </c>
       <c r="E5" t="n">
-        <v>1997.373899513807</v>
+        <v>1996.581401808682</v>
       </c>
       <c r="F5" t="n">
-        <v>2.812706356850586</v>
+        <v>2.622787582684679</v>
       </c>
       <c r="G5" t="n">
-        <v>-815.3324573367792</v>
+        <v>-626.2061808759968</v>
       </c>
       <c r="H5" t="n">
-        <v>-709.1237066846901</v>
+        <v>-480.3244594915988</v>
       </c>
     </row>
     <row r="6">
@@ -611,25 +611,25 @@
         <v>6133.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3264205713314435</v>
+        <v>0.325679664998034</v>
       </c>
       <c r="E6" t="n">
-        <v>2001.940628181456</v>
+        <v>1997.396642229592</v>
       </c>
       <c r="F6" t="n">
-        <v>2.001940628181456</v>
+        <v>1.997396642229592</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-709.1237066846901</v>
+        <v>-480.3244594915988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017-11-15</t>
+          <t>2017-11-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7091.029075542973</v>
+        <v>6503</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3264205713314435</v>
+        <v>-0.325679664998034</v>
       </c>
       <c r="E7" t="n">
-        <v>2001.940628181456</v>
+        <v>1997.396642229592</v>
       </c>
       <c r="F7" t="n">
-        <v>2.314657762166615</v>
+        <v>2.117894861482215</v>
       </c>
       <c r="G7" t="n">
-        <v>-312.7171339851586</v>
+        <v>-120.4982192526225</v>
       </c>
       <c r="H7" t="n">
-        <v>-1021.840840669849</v>
+        <v>-600.8226787442213</v>
       </c>
     </row>
     <row r="8">
@@ -671,55 +671,55 @@
         <v>7240.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2790275781437551</v>
+        <v>0.2778657466926445</v>
       </c>
       <c r="E8" t="n">
-        <v>2020.198729621727</v>
+        <v>2011.786907259283</v>
       </c>
       <c r="F8" t="n">
-        <v>2.020198729621727</v>
+        <v>2.011786907259284</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-1021.840840669849</v>
+        <v>-600.8226787442213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017-12-20</t>
+          <t>2017-11-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17608.85202379849</v>
+        <v>7876.98</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2790275781437551</v>
+        <v>0.2506820146374489</v>
       </c>
       <c r="E9" t="n">
-        <v>2020.198729621727</v>
+        <v>1974.617215658892</v>
       </c>
       <c r="F9" t="n">
-        <v>4.913355334092253</v>
+        <v>1.974617215658892</v>
       </c>
       <c r="G9" t="n">
-        <v>-2893.156604470526</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-3914.997445140374</v>
+        <v>-600.8226787442213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018-01-06</t>
+          <t>2017-11-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16960.39</v>
+        <v>8700.040000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.122514922618148</v>
+        <v>0.222063752508184</v>
       </c>
       <c r="E10" t="n">
-        <v>2077.900868423612</v>
+        <v>1931.963529371302</v>
       </c>
       <c r="F10" t="n">
-        <v>2.077900868423612</v>
+        <v>1.931963529371302</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-3914.997445140374</v>
+        <v>-600.8226787442213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018-01-10</t>
+          <t>2017-12-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14739.54</v>
+        <v>17295.2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.122514922618148</v>
+        <v>-0.7506115138382774</v>
       </c>
       <c r="E11" t="n">
-        <v>2077.900868423612</v>
+        <v>5918.367652289478</v>
       </c>
       <c r="F11" t="n">
-        <v>1.805813602527098</v>
+        <v>12.98197625413578</v>
       </c>
       <c r="G11" t="n">
-        <v>272.0872658965141</v>
+        <v>-6451.626059282208</v>
       </c>
       <c r="H11" t="n">
-        <v>-3642.91017924386</v>
+        <v>-7052.448738026429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018-02-18</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11039.55</v>
+        <v>16960.39</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1877233627110038</v>
+        <v>0.1269227207132823</v>
       </c>
       <c r="E12" t="n">
-        <v>2072.381448816262</v>
+        <v>2152.658843158345</v>
       </c>
       <c r="F12" t="n">
-        <v>2.072381448816262</v>
+        <v>2.152658843158346</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-3642.91017924386</v>
+        <v>-7052.448738026429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2018-01-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -818,28 +818,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10596.5</v>
+        <v>14401</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1877233627110038</v>
+        <v>-0.1269227207132823</v>
       </c>
       <c r="E13" t="n">
-        <v>2072.381448816262</v>
+        <v>2152.658843158345</v>
       </c>
       <c r="F13" t="n">
-        <v>1.989210612967152</v>
+        <v>1.827814100991978</v>
       </c>
       <c r="G13" t="n">
-        <v>83.17083584911012</v>
+        <v>324.8447421663675</v>
       </c>
       <c r="H13" t="n">
-        <v>-3559.73934339475</v>
+        <v>-6727.603995860061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-07-04</t>
+          <t>2018-02-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -848,58 +848,58 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11940</v>
+        <v>11039.55</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1734201675257994</v>
+        <v>0.194399440090958</v>
       </c>
       <c r="E14" t="n">
-        <v>2070.636800258045</v>
+        <v>2146.082338856135</v>
       </c>
       <c r="F14" t="n">
-        <v>2.070636800258045</v>
+        <v>2.146082338856135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3559.73934339475</v>
+        <v>-6727.603995860061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-07-12</t>
+          <t>2018-03-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11466.59</v>
+        <v>10923.36</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1734201675257994</v>
+        <v>0.1925932024205343</v>
       </c>
       <c r="E15" t="n">
-        <v>2070.636800258045</v>
+        <v>2103.764883592368</v>
       </c>
       <c r="F15" t="n">
-        <v>1.988537958749656</v>
+        <v>2.103764883592368</v>
       </c>
       <c r="G15" t="n">
-        <v>82.09884150838866</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-3477.640501886362</v>
+        <v>-6727.603995860061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-08-03</t>
+          <t>2018-03-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10523.75</v>
+        <v>11038.99</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1965947157555716</v>
+        <v>0.1867017299993402</v>
       </c>
       <c r="E16" t="n">
-        <v>2068.913639932697</v>
+        <v>2060.998530445416</v>
       </c>
       <c r="F16" t="n">
-        <v>2.068913639932697</v>
+        <v>2.060998530445416</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-3477.640501886362</v>
+        <v>-6727.603995860061</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-08-11</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11383.29579018446</v>
+        <v>9910</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1965947157555716</v>
+        <v>-0.5736943725108326</v>
       </c>
       <c r="E17" t="n">
-        <v>2068.913639932697</v>
+        <v>6310.84575289392</v>
       </c>
       <c r="F17" t="n">
-        <v>2.237895800232909</v>
+        <v>5.68531123158235</v>
       </c>
       <c r="G17" t="n">
-        <v>-168.9821603002118</v>
+        <v>647.6952096210047</v>
       </c>
       <c r="H17" t="n">
-        <v>-3646.622662186574</v>
+        <v>-6079.908786239057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2018-04-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10611.85</v>
+        <v>7922.989999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1952098434473606</v>
+        <v>0.2692580746295865</v>
       </c>
       <c r="E18" t="n">
-        <v>2071.537577186873</v>
+        <v>2133.329032709467</v>
       </c>
       <c r="F18" t="n">
-        <v>2.071537577186874</v>
+        <v>2.133329032709467</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-3646.622662186574</v>
+        <v>-6079.908786239057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-09-11</t>
+          <t>2018-04-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -998,28 +998,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10155.42</v>
+        <v>8915.35</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1952098434473606</v>
+        <v>-0.2692580746295865</v>
       </c>
       <c r="E19" t="n">
-        <v>2071.537577186873</v>
+        <v>2133.329032709467</v>
       </c>
       <c r="F19" t="n">
-        <v>1.982437948342195</v>
+        <v>2.400529975648884</v>
       </c>
       <c r="G19" t="n">
-        <v>89.09962884467848</v>
+        <v>-267.2009429394168</v>
       </c>
       <c r="H19" t="n">
-        <v>-3557.523033341895</v>
+        <v>-6347.109729178474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8655.879999999999</v>
+        <v>9750</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2392073126188609</v>
+        <v>0.2193420581506497</v>
       </c>
       <c r="E20" t="n">
-        <v>2070.549793151346</v>
+        <v>2138.585066968835</v>
       </c>
       <c r="F20" t="n">
-        <v>2.070549793151345</v>
+        <v>2.138585066968835</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3557.523033341895</v>
+        <v>-6347.109729178474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2018-05-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9326.587701653174</v>
+        <v>9002.209999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2392073126188609</v>
+        <v>-0.2193420581506497</v>
       </c>
       <c r="E21" t="n">
-        <v>2070.549793151346</v>
+        <v>2138.585066968835</v>
       </c>
       <c r="F21" t="n">
-        <v>2.230987980016574</v>
+        <v>1.97456326930436</v>
       </c>
       <c r="G21" t="n">
-        <v>-160.4381868652287</v>
+        <v>164.0217976644745</v>
       </c>
       <c r="H21" t="n">
-        <v>-3717.961220207123</v>
+        <v>-6183.087931513999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2018-07-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7500.71</v>
+        <v>6753.48</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2764091704851782</v>
+        <v>0.3160024697496248</v>
       </c>
       <c r="E22" t="n">
-        <v>2073.265029149881</v>
+        <v>2134.116359404696</v>
       </c>
       <c r="F22" t="n">
-        <v>2.07326502914988</v>
+        <v>2.134116359404696</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-3717.961220207123</v>
+        <v>-6183.087931513999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2018-07-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1118,28 +1118,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7233.27</v>
+        <v>6296.91</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2764091704851782</v>
+        <v>-0.3160024697496248</v>
       </c>
       <c r="E23" t="n">
-        <v>2073.265029149881</v>
+        <v>2134.116359404696</v>
       </c>
       <c r="F23" t="n">
-        <v>1.999342160595325</v>
+        <v>1.98983911179111</v>
       </c>
       <c r="G23" t="n">
-        <v>73.92286855455593</v>
+        <v>144.2772476135861</v>
       </c>
       <c r="H23" t="n">
-        <v>-3644.038351652568</v>
+        <v>-6038.810683900413</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2018-07-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1148,478 +1148,478 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7388.43</v>
+        <v>6723.33</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280433079912056</v>
+        <v>0.317141654679159</v>
       </c>
       <c r="E24" t="n">
-        <v>2071.960180614632</v>
+        <v>2132.24800115403</v>
       </c>
       <c r="F24" t="n">
-        <v>2.071960180614632</v>
+        <v>2.13224800115403</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-3644.038351652568</v>
+        <v>-6038.810683900413</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2018-07-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7189.37</v>
+        <v>7317.44</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.280433079912056</v>
+        <v>0.2855598049323289</v>
       </c>
       <c r="E25" t="n">
-        <v>2071.960180614632</v>
+        <v>2089.56673900402</v>
       </c>
       <c r="F25" t="n">
-        <v>2.016137171727338</v>
+        <v>2.08956673900402</v>
       </c>
       <c r="G25" t="n">
-        <v>55.82300888729398</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-3588.215342765274</v>
+        <v>-6038.810683900413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7758.899999999999</v>
+        <v>7735.67</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2669126935040804</v>
+        <v>-0.6027014596114879</v>
       </c>
       <c r="E26" t="n">
-        <v>2070.948897628809</v>
+        <v>4221.81474015805</v>
       </c>
       <c r="F26" t="n">
-        <v>2.07094889762881</v>
+        <v>4.662299600072799</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-252.0678314533129</v>
       </c>
       <c r="H26" t="n">
-        <v>-3588.215342765274</v>
+        <v>-6290.878515353726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8654.560924196441</v>
+        <v>6689.120000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2669126935040804</v>
+        <v>0.3200545300956349</v>
       </c>
       <c r="E27" t="n">
-        <v>2070.948897628809</v>
+        <v>2140.883158353314</v>
       </c>
       <c r="F27" t="n">
-        <v>2.310012167372435</v>
+        <v>2.140883158353314</v>
       </c>
       <c r="G27" t="n">
-        <v>-239.0632697436264</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-3827.2786125089</v>
+        <v>-6290.878515353726</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8907.57</v>
+        <v>6525.79</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2329930971497533</v>
+        <v>-0.3200545300956349</v>
       </c>
       <c r="E28" t="n">
-        <v>2075.402322378228</v>
+        <v>2140.883158353314</v>
       </c>
       <c r="F28" t="n">
-        <v>2.075402322378228</v>
+        <v>2.088608651952793</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>52.27450640052032</v>
       </c>
       <c r="H28" t="n">
-        <v>-3827.2786125089</v>
+        <v>-6238.604008953205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2018-10-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9280.452203669664</v>
+        <v>6752.5</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2329930971497533</v>
+        <v>0.316883565928826</v>
       </c>
       <c r="E29" t="n">
-        <v>2075.402322378228</v>
+        <v>2139.756278934398</v>
       </c>
       <c r="F29" t="n">
-        <v>2.162281301883248</v>
+        <v>2.139756278934398</v>
       </c>
       <c r="G29" t="n">
-        <v>-86.87897950502008</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3914.15759201392</v>
+        <v>-6238.604008953205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2018-10-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9612.030000000001</v>
+        <v>6528.88</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2160888997856691</v>
+        <v>-0.316883565928826</v>
       </c>
       <c r="E30" t="n">
-        <v>2077.052987406846</v>
+        <v>2139.756278934398</v>
       </c>
       <c r="F30" t="n">
-        <v>2.077052987406846</v>
+        <v>2.068894775921394</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>70.86150301300405</v>
       </c>
       <c r="H30" t="n">
-        <v>-3914.15759201392</v>
+        <v>-6167.742505940201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9739.459999999999</v>
+        <v>6578.459999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2160888997856691</v>
+        <v>0.3250388200054482</v>
       </c>
       <c r="E31" t="n">
-        <v>2077.052987406846</v>
+        <v>2138.254875853041</v>
       </c>
       <c r="F31" t="n">
-        <v>2.104589195906533</v>
+        <v>2.138254875853041</v>
       </c>
       <c r="G31" t="n">
-        <v>-27.53620849968749</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-3941.693800513608</v>
+        <v>-6167.742505940201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10164.78</v>
+        <v>6479.84</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20438578568618</v>
+        <v>-0.3250388200054482</v>
       </c>
       <c r="E32" t="n">
-        <v>2077.536546627169</v>
+        <v>2138.254875853041</v>
       </c>
       <c r="F32" t="n">
-        <v>2.077536546627169</v>
+        <v>2.106199547424104</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32.05532842893697</v>
       </c>
       <c r="H32" t="n">
-        <v>-3941.693800513608</v>
+        <v>-6135.687177511264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-02-23</t>
+          <t>2018-12-21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9799.209999999999</v>
+        <v>4051.86</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.20438578568618</v>
+        <v>0.5278344338965127</v>
       </c>
       <c r="E33" t="n">
-        <v>2077.536546627169</v>
+        <v>2138.711229327924</v>
       </c>
       <c r="F33" t="n">
-        <v>2.002819234953872</v>
+        <v>2.138711229327924</v>
       </c>
       <c r="G33" t="n">
-        <v>74.71731167329715</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-3866.976488840311</v>
+        <v>-6135.687177511264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2018-12-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6643.360000000001</v>
+        <v>3567.89</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3125050860574977</v>
+        <v>-0.5278344338965127</v>
       </c>
       <c r="E34" t="n">
-        <v>2076.083788510938</v>
+        <v>2138.711229327924</v>
       </c>
       <c r="F34" t="n">
-        <v>2.076083788510938</v>
+        <v>1.883255198355029</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>255.4560309728954</v>
       </c>
       <c r="H34" t="n">
-        <v>-3866.976488840311</v>
+        <v>-5880.231146538368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2019-01-07</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7073.403807882798</v>
+        <v>3987.62</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3125050860574977</v>
+        <v>0.53474253191092</v>
       </c>
       <c r="E35" t="n">
-        <v>2076.083788510938</v>
+        <v>2132.350015098623</v>
       </c>
       <c r="F35" t="n">
-        <v>2.210474665701846</v>
+        <v>2.132350015098623</v>
       </c>
       <c r="G35" t="n">
-        <v>-134.3908771909076</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-4001.367366031218</v>
+        <v>-5880.231146538368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2019-01-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7248.6</v>
+        <v>3585.88</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2867517000038362</v>
+        <v>-0.53474253191092</v>
       </c>
       <c r="E36" t="n">
-        <v>2078.548372647807</v>
+        <v>2132.350015098623</v>
       </c>
       <c r="F36" t="n">
-        <v>2.078548372647807</v>
+        <v>1.91752255032873</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>214.8274647698929</v>
       </c>
       <c r="H36" t="n">
-        <v>-4001.367366031218</v>
+        <v>-5665.403681768476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-02-09</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6942.48</v>
+        <v>3660.27</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2867517000038362</v>
+        <v>0.581562861707245</v>
       </c>
       <c r="E37" t="n">
-        <v>2078.548372647807</v>
+        <v>2128.677095821178</v>
       </c>
       <c r="F37" t="n">
-        <v>1.990767942242632</v>
+        <v>2.128677095821178</v>
       </c>
       <c r="G37" t="n">
-        <v>87.78043040517456</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-3913.586935626044</v>
+        <v>-5665.403681768476</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2019-02-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7483.96</v>
+        <v>3608.34</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2775465296133194</v>
+        <v>-0.581562861707245</v>
       </c>
       <c r="E38" t="n">
-        <v>2077.147125764898</v>
+        <v>2128.677095821178</v>
       </c>
       <c r="F38" t="n">
-        <v>2.077147125764898</v>
+        <v>2.098476536412721</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>30.20055940845714</v>
       </c>
       <c r="H38" t="n">
-        <v>-3913.586935626044</v>
+        <v>-5635.203122360019</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2019-02-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9299.59344062325</v>
+        <v>3667.62</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2775465296133194</v>
+        <v>0.5800209454846151</v>
       </c>
       <c r="E39" t="n">
-        <v>2077.147125764898</v>
+        <v>2127.296420078284</v>
       </c>
       <c r="F39" t="n">
-        <v>2.581069886259772</v>
+        <v>2.127296420078284</v>
       </c>
       <c r="G39" t="n">
-        <v>-503.9227604948739</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-4417.509696120917</v>
+        <v>-5635.203122360019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2019-02-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1628,28 +1628,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9791.969999999999</v>
+        <v>3897.35</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2131026277201406</v>
+        <v>0.5347265030807206</v>
       </c>
       <c r="E40" t="n">
-        <v>2086.694537556785</v>
+        <v>2084.016336781646</v>
       </c>
       <c r="F40" t="n">
-        <v>2.086694537556785</v>
+        <v>2.084016336781646</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-4417.509696120917</v>
+        <v>-5635.203122360019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2019-02-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1658,28 +1658,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9282.540000000001</v>
+        <v>3743.559999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2131026277201406</v>
+        <v>-1.114747448565336</v>
       </c>
       <c r="E41" t="n">
-        <v>2086.694537556785</v>
+        <v>4211.31275685993</v>
       </c>
       <c r="F41" t="n">
-        <v>1.978133665917314</v>
+        <v>4.173123958551248</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5608716394709</v>
+        <v>171.4370101148635</v>
       </c>
       <c r="H41" t="n">
-        <v>-4308.948824481447</v>
+        <v>-5463.766112245155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2019-03-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1688,178 +1688,178 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9697.719999999999</v>
+        <v>3924.46</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2149416723298057</v>
+        <v>0.5419143256825041</v>
       </c>
       <c r="E42" t="n">
-        <v>2084.444154586203</v>
+        <v>2126.72109456796</v>
       </c>
       <c r="F42" t="n">
-        <v>2.084444154586203</v>
+        <v>2.12672109456796</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-4308.948824481447</v>
+        <v>-5463.766112245155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-06-04</t>
+          <t>2019-03-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9753.738835544653</v>
+        <v>4006.01</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2149416723298057</v>
+        <v>0.5201596596680318</v>
       </c>
       <c r="E43" t="n">
-        <v>2084.444154586203</v>
+        <v>2083.764798226732</v>
       </c>
       <c r="F43" t="n">
-        <v>2.096484936780139</v>
+        <v>2.083764798226732</v>
       </c>
       <c r="G43" t="n">
-        <v>-12.04078219393618</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-4320.989606675383</v>
+        <v>-5463.766112245155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9788.139999999999</v>
+        <v>3935.47</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2129521477698834</v>
+        <v>-1.062073985350536</v>
       </c>
       <c r="E44" t="n">
-        <v>2084.405435672306</v>
+        <v>4210.485892794692</v>
       </c>
       <c r="F44" t="n">
-        <v>2.084405435672306</v>
+        <v>4.179760307127474</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>74.91869892662724</v>
       </c>
       <c r="H44" t="n">
-        <v>-4320.989606675383</v>
+        <v>-5388.847413318528</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2019-03-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9490.6</v>
+        <v>4039.58</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2129521477698834</v>
+        <v>0.5263826445691955</v>
       </c>
       <c r="E45" t="n">
-        <v>2084.405435672306</v>
+        <v>2126.364803348831</v>
       </c>
       <c r="F45" t="n">
-        <v>2.021043653624855</v>
+        <v>2.126364803348831</v>
       </c>
       <c r="G45" t="n">
-        <v>63.36178204745089</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-4257.627824627932</v>
+        <v>-5388.847413318528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2019-04-12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9436.059999999999</v>
+        <v>5017.37</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2207756210776023</v>
+        <v>-0.5263826445691955</v>
       </c>
       <c r="E46" t="n">
-        <v>2083.25200702552</v>
+        <v>2126.364803348831</v>
       </c>
       <c r="F46" t="n">
-        <v>2.08325200702552</v>
+        <v>2.641056489382144</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-514.6916860333137</v>
       </c>
       <c r="H46" t="n">
-        <v>-4257.627824627932</v>
+        <v>-5903.539099351842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2019-05-02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9253.07</v>
+        <v>5383.2</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2207756210776023</v>
+        <v>0.3967450444340637</v>
       </c>
       <c r="E47" t="n">
-        <v>2083.25200702552</v>
+        <v>2135.757923197451</v>
       </c>
       <c r="F47" t="n">
-        <v>2.042852276124529</v>
+        <v>2.135757923197452</v>
       </c>
       <c r="G47" t="n">
-        <v>40.39973090099039</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-4217.228093726942</v>
+        <v>-5903.539099351842</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2019-05-03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9390</v>
+        <v>5494.81</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221763736988481</v>
+        <v>0.3810394292191583</v>
       </c>
       <c r="E48" t="n">
-        <v>2082.361490321837</v>
+        <v>2093.739266067724</v>
       </c>
       <c r="F48" t="n">
-        <v>2.082361490321837</v>
+        <v>2.093739266067724</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-4217.228093726942</v>
+        <v>-5903.539099351842</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2019-05-19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1898,28 +1898,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11789.95005118318</v>
+        <v>7257.320000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.221763736988481</v>
+        <v>-0.777784473653222</v>
       </c>
       <c r="E49" t="n">
-        <v>2082.361490321837</v>
+        <v>4229.497189265176</v>
       </c>
       <c r="F49" t="n">
-        <v>2.614583382257916</v>
+        <v>5.644630816333001</v>
       </c>
       <c r="G49" t="n">
-        <v>-532.2218919360794</v>
+        <v>-1370.85291265854</v>
       </c>
       <c r="H49" t="n">
-        <v>-4749.449985663021</v>
+        <v>-7274.392012010383</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2019-05-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1928,178 +1928,178 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>11852.4</v>
+        <v>8147.939999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1765812822097725</v>
+        <v>0.2655542031371122</v>
       </c>
       <c r="E50" t="n">
-        <v>2092.911989263107</v>
+        <v>2163.719713909002</v>
       </c>
       <c r="F50" t="n">
-        <v>2.092911989263107</v>
+        <v>2.163719713909002</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-4749.449985663021</v>
+        <v>-7274.392012010383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11943.83575978267</v>
+        <v>8612.540000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1765812822097725</v>
+        <v>0.2461620147248556</v>
       </c>
       <c r="E51" t="n">
-        <v>2092.911989263107</v>
+        <v>2120.080198298408</v>
       </c>
       <c r="F51" t="n">
-        <v>2.109057832965355</v>
+        <v>2.120080198298408</v>
       </c>
       <c r="G51" t="n">
-        <v>-16.14584370224848</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-4765.595829365269</v>
+        <v>-7274.392012010383</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10925.44</v>
+        <v>8115.66</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1915827610587555</v>
+        <v>-0.5117162178619677</v>
       </c>
       <c r="E52" t="n">
-        <v>2093.125960981769</v>
+        <v>4283.79991220741</v>
       </c>
       <c r="F52" t="n">
-        <v>2.093125960981769</v>
+        <v>4.152914840653658</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>254.2615543312551</v>
       </c>
       <c r="H52" t="n">
-        <v>-4765.595829365269</v>
+        <v>-7020.130457679128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2019-06-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18323.0972708146</v>
+        <v>8650.879999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1915827610587555</v>
+        <v>0.2498354540407588</v>
       </c>
       <c r="E53" t="n">
-        <v>2093.125960981769</v>
+        <v>2161.296532652119</v>
       </c>
       <c r="F53" t="n">
-        <v>3.510389566290808</v>
+        <v>2.161296532652119</v>
       </c>
       <c r="G53" t="n">
-        <v>-1417.263605309039</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-6182.859434674308</v>
+        <v>-7020.130457679128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2019-07-01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19695.87</v>
+        <v>10854.1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.107707050693183</v>
+        <v>-0.2498354540407588</v>
       </c>
       <c r="E54" t="n">
-        <v>2121.384068536343</v>
+        <v>2161.296532652119</v>
       </c>
       <c r="F54" t="n">
-        <v>2.121384068536343</v>
+        <v>2.7117390017038</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>-550.4424690516809</v>
       </c>
       <c r="H54" t="n">
-        <v>-6182.859434674308</v>
+        <v>-7570.572926730809</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-12-09</t>
+          <t>2019-07-04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>18560.25</v>
+        <v>11940</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.107707050693183</v>
+        <v>0.1819085482515</v>
       </c>
       <c r="E55" t="n">
-        <v>2121.384068536343</v>
+        <v>2171.98806612291</v>
       </c>
       <c r="F55" t="n">
-        <v>1.99906978762815</v>
+        <v>2.17198806612291</v>
       </c>
       <c r="G55" t="n">
-        <v>122.3142809081924</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-6060.545153766116</v>
+        <v>-7570.572926730809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-12-16</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2108,28 +2108,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19426.43</v>
+        <v>12238.6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1090707543198135</v>
+        <v>0.1739173488012623</v>
       </c>
       <c r="E56" t="n">
-        <v>2118.855373841055</v>
+        <v>2128.504865039129</v>
       </c>
       <c r="F56" t="n">
-        <v>2.118855373841055</v>
+        <v>2.128504865039129</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-6060.545153766116</v>
+        <v>-7570.572926730809</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2019-07-12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2138,28 +2138,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36417.71924312636</v>
+        <v>11342.88</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1090707543198135</v>
+        <v>-0.3558258970527623</v>
       </c>
       <c r="E57" t="n">
-        <v>2118.855373841055</v>
+        <v>4300.492931162039</v>
       </c>
       <c r="F57" t="n">
-        <v>3.972108108454981</v>
+        <v>4.036090451161837</v>
       </c>
       <c r="G57" t="n">
-        <v>-1853.252734613926</v>
+        <v>318.7203725081006</v>
       </c>
       <c r="H57" t="n">
-        <v>-7913.797888380042</v>
+        <v>-7251.852554222708</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2019-08-03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2168,418 +2168,418 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>39145.21</v>
+        <v>10523.75</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05507283550086699</v>
+        <v>0.2058708430792502</v>
       </c>
       <c r="E58" t="n">
-        <v>2155.837710976894</v>
+        <v>2166.533284855259</v>
       </c>
       <c r="F58" t="n">
-        <v>2.155837710976894</v>
+        <v>2.16653328485526</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-7913.797888380042</v>
+        <v>-7251.852554222708</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2019-08-04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35572.74</v>
+        <v>10816.86</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.05507283550086699</v>
+        <v>0.1962824043661892</v>
       </c>
       <c r="E59" t="n">
-        <v>2155.837710976894</v>
+        <v>2123.159288492457</v>
       </c>
       <c r="F59" t="n">
-        <v>1.959091658335111</v>
+        <v>2.123159288492457</v>
       </c>
       <c r="G59" t="n">
-        <v>196.7460526417824</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-7717.051835738259</v>
+        <v>-7251.852554222708</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021-02-04</t>
+          <t>2019-08-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>37620.26</v>
+        <v>11309.24</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05719952219786149</v>
+        <v>-0.4021532474454394</v>
       </c>
       <c r="E60" t="n">
-        <v>2151.860896959321</v>
+        <v>4289.692573347716</v>
       </c>
       <c r="F60" t="n">
-        <v>2.151860896959321</v>
+        <v>4.548047592139861</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-198.0122159771851</v>
       </c>
       <c r="H60" t="n">
-        <v>-7717.051835738259</v>
+        <v>-7449.864770199893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>53375.31462430977</v>
+        <v>10611.85</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.05719952219786149</v>
+        <v>0.2045658362688307</v>
       </c>
       <c r="E61" t="n">
-        <v>2151.860896959321</v>
+        <v>2170.821969609391</v>
       </c>
       <c r="F61" t="n">
-        <v>3.053042493671047</v>
+        <v>2.170821969609391</v>
       </c>
       <c r="G61" t="n">
-        <v>-901.1815967117266</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-8618.233432449986</v>
+        <v>-7449.864770199893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2019-09-11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>54874.67000000001</v>
+        <v>10098.19</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03953212516265771</v>
+        <v>-0.2045658362688307</v>
       </c>
       <c r="E62" t="n">
-        <v>2169.312322699539</v>
+        <v>2170.821969609391</v>
       </c>
       <c r="F62" t="n">
-        <v>2.169312322699538</v>
+        <v>2.065744682151543</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>105.0772874578475</v>
       </c>
       <c r="H62" t="n">
-        <v>-8618.233432449986</v>
+        <v>-7344.787482742046</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021-03-16</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>55909.37342955366</v>
+        <v>8655.879999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.03953212516265771</v>
+        <v>0.2506449844536004</v>
       </c>
       <c r="E63" t="n">
-        <v>2169.312322699539</v>
+        <v>2169.55290803223</v>
       </c>
       <c r="F63" t="n">
-        <v>2.210216348182885</v>
+        <v>2.169552908032231</v>
       </c>
       <c r="G63" t="n">
-        <v>-40.9040254833461</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-8659.137457933331</v>
+        <v>-7344.787482742046</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>58912.96999999999</v>
+        <v>9307.73</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0368413171738946</v>
+        <v>-0.2506449844536004</v>
       </c>
       <c r="E64" t="n">
-        <v>2170.431413426137</v>
+        <v>2169.55290803223</v>
       </c>
       <c r="F64" t="n">
-        <v>2.170431413426138</v>
+        <v>2.33293584114831</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-163.3829331160795</v>
       </c>
       <c r="H64" t="n">
-        <v>-8659.137457933331</v>
+        <v>-7508.170415858125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54829.18</v>
+        <v>7500.71</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0368413171738946</v>
+        <v>0.289613055924321</v>
       </c>
       <c r="E65" t="n">
-        <v>2170.431413426137</v>
+        <v>2172.303544702114</v>
       </c>
       <c r="F65" t="n">
-        <v>2.019979210764558</v>
+        <v>2.172303544702114</v>
       </c>
       <c r="G65" t="n">
-        <v>150.4522026615788</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-8508.685255271752</v>
+        <v>-7508.170415858125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021-04-03</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>58950.01</v>
+        <v>7205.01</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03676570302804735</v>
+        <v>-0.289613055924321</v>
       </c>
       <c r="E66" t="n">
-        <v>2167.338561160422</v>
+        <v>2172.303544702114</v>
       </c>
       <c r="F66" t="n">
-        <v>2.167338561160422</v>
+        <v>2.086664964065292</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>85.63858063682167</v>
       </c>
       <c r="H66" t="n">
-        <v>-8508.685255271752</v>
+        <v>-7422.531835221303</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>56747.1</v>
+        <v>7388.43</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.03676570302804735</v>
+        <v>0.2938070516455917</v>
       </c>
       <c r="E67" t="n">
-        <v>2167.338561160422</v>
+        <v>2170.772834589839</v>
       </c>
       <c r="F67" t="n">
-        <v>2.086347026302906</v>
+        <v>2.17077283458984</v>
       </c>
       <c r="G67" t="n">
-        <v>80.99153485751592</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-8427.693720414236</v>
+        <v>-7422.531835221303</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>59769.13</v>
+        <v>6965.49</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03623331403270421</v>
+        <v>-0.2938070516455917</v>
       </c>
       <c r="E68" t="n">
-        <v>2165.633656751522</v>
+        <v>2170.772834589839</v>
       </c>
       <c r="F68" t="n">
-        <v>2.165633656751522</v>
+        <v>2.046510080166853</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>124.2627544229867</v>
       </c>
       <c r="H68" t="n">
-        <v>-8427.693720414236</v>
+        <v>-7298.269080798317</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>61307.71723540165</v>
+        <v>7758.9</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.03623331403270421</v>
+        <v>0.2794724684845672</v>
       </c>
       <c r="E69" t="n">
-        <v>2165.633656751522</v>
+        <v>2168.398935724908</v>
       </c>
       <c r="F69" t="n">
-        <v>2.22138177121854</v>
+        <v>2.168398935724908</v>
       </c>
       <c r="G69" t="n">
-        <v>-55.74811446701806</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-8483.441834881254</v>
+        <v>-7298.269080798317</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>63078.78</v>
+        <v>8642.35</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03434849054994886</v>
+        <v>-0.2794724684845672</v>
       </c>
       <c r="E70" t="n">
-        <v>2166.660878732303</v>
+        <v>2168.398935724908</v>
       </c>
       <c r="F70" t="n">
-        <v>2.166660878732303</v>
+        <v>2.415298888007599</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>-246.8999522826911</v>
       </c>
       <c r="H70" t="n">
-        <v>-8483.441834881254</v>
+        <v>-7545.169033081008</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>59516.23</v>
+        <v>8907.57</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.03434849054994886</v>
+        <v>0.2439491057148528</v>
       </c>
       <c r="E71" t="n">
-        <v>2166.660878732303</v>
+        <v>2172.993735592451</v>
       </c>
       <c r="F71" t="n">
-        <v>2.044292663723583</v>
+        <v>2.172993735592451</v>
       </c>
       <c r="G71" t="n">
-        <v>122.3682150087202</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-8361.073619872534</v>
+        <v>-7545.169033081008</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2588,28 +2588,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>67525.82000000001</v>
+        <v>9375.34</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03204891069626659</v>
+        <v>0.2271647851931939</v>
       </c>
       <c r="E72" t="n">
-        <v>2164.128974872173</v>
+        <v>2129.747097213159</v>
       </c>
       <c r="F72" t="n">
-        <v>2.164128974872173</v>
+        <v>2.129747097213159</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-8361.073619872534</v>
+        <v>-7545.169033081008</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2618,28 +2618,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>64597.69215294673</v>
+        <v>9197.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.03204891069626659</v>
+        <v>-0.4711138909080467</v>
       </c>
       <c r="E73" t="n">
-        <v>2164.128974872173</v>
+        <v>4302.74083280561</v>
       </c>
       <c r="F73" t="n">
-        <v>2.070285666994711</v>
+        <v>4.332843876959124</v>
       </c>
       <c r="G73" t="n">
-        <v>93.84330787746187</v>
+        <v>84.00902902672276</v>
       </c>
       <c r="H73" t="n">
-        <v>-8267.230311995072</v>
+        <v>-7461.160004054285</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2648,28 +2648,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>65519.11</v>
+        <v>9612.030000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03300057145032354</v>
+        <v>0.2261146525379967</v>
       </c>
       <c r="E74" t="n">
-        <v>2162.168070916608</v>
+        <v>2173.4208236348</v>
       </c>
       <c r="F74" t="n">
-        <v>2.162168070916608</v>
+        <v>2.1734208236348</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-8267.230311995072</v>
+        <v>-7461.160004054285</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2678,28 +2678,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>63013.21</v>
+        <v>9706</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.03300057145032354</v>
+        <v>-0.2261146525379967</v>
       </c>
       <c r="E75" t="n">
-        <v>2162.168070916608</v>
+        <v>2173.4208236348</v>
       </c>
       <c r="F75" t="n">
-        <v>2.079471938919242</v>
+        <v>2.194668817533796</v>
       </c>
       <c r="G75" t="n">
-        <v>82.69613199736581</v>
+        <v>-21.2479938989954</v>
       </c>
       <c r="H75" t="n">
-        <v>-8184.534179997706</v>
+        <v>-7482.407997953281</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>71620</v>
+        <v>10164.78</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03016516315932349</v>
+        <v>0.213853684253312</v>
       </c>
       <c r="E76" t="n">
-        <v>2160.428985470749</v>
+        <v>2173.775652624381</v>
       </c>
       <c r="F76" t="n">
-        <v>2.160428985470749</v>
+        <v>2.173775652624381</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-8184.534179997706</v>
+        <v>-7482.407997953281</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2738,28 +2738,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>68953.83</v>
+        <v>9594.649999999998</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.03016516315932349</v>
+        <v>-0.213853684253312</v>
       </c>
       <c r="E77" t="n">
-        <v>2160.428985470749</v>
+        <v>2173.775652624381</v>
       </c>
       <c r="F77" t="n">
-        <v>2.080003532410255</v>
+        <v>2.05185125162104</v>
       </c>
       <c r="G77" t="n">
-        <v>80.42545306049347</v>
+        <v>121.9244010033414</v>
       </c>
       <c r="H77" t="n">
-        <v>-8104.108726937213</v>
+        <v>-7360.483596949939</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2768,238 +2768,238 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>69290.56</v>
+        <v>6643.359999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03115482623045504</v>
+        <v>0.3268498916603438</v>
       </c>
       <c r="E78" t="n">
-        <v>2158.735356210918</v>
+        <v>2171.381496260661</v>
       </c>
       <c r="F78" t="n">
-        <v>2.158735356210919</v>
+        <v>2.171381496260662</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-8104.108726937213</v>
+        <v>-7360.483596949939</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>68975.27</v>
+        <v>6793.86</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.03115482623045504</v>
+        <v>0.3131790460169342</v>
       </c>
       <c r="E79" t="n">
-        <v>2158.735356210918</v>
+        <v>2127.694593572608</v>
       </c>
       <c r="F79" t="n">
-        <v>2.148912551048719</v>
+        <v>2.127694593572608</v>
       </c>
       <c r="G79" t="n">
-        <v>9.82280516219997</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-8094.285921775013</v>
+        <v>-7360.483596949939</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>64724.06</v>
+        <v>6858.92</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03334850117278951</v>
+        <v>-0.640028937677278</v>
       </c>
       <c r="E80" t="n">
-        <v>2158.450390817698</v>
+        <v>4299.07608983327</v>
       </c>
       <c r="F80" t="n">
-        <v>2.158450390817698</v>
+        <v>4.389907281213436</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>-41.64028268528396</v>
       </c>
       <c r="H80" t="n">
-        <v>-8094.285921775013</v>
+        <v>-7402.123879635223</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>65715.56693185028</v>
+        <v>7248.600000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.03334850117278951</v>
+        <v>0.2997655445835766</v>
       </c>
       <c r="E81" t="n">
-        <v>2158.450390817698</v>
+        <v>2172.880526468513</v>
       </c>
       <c r="F81" t="n">
-        <v>2.191515660897336</v>
+        <v>2.172880526468513</v>
       </c>
       <c r="G81" t="n">
-        <v>-33.06527007963796</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>-8127.351191854651</v>
+        <v>-7402.123879635223</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>67908</v>
+        <v>6828.98</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03179342172811109</v>
+        <v>-0.2997655445835766</v>
       </c>
       <c r="E82" t="n">
-        <v>2159.027682712568</v>
+        <v>2172.880526468513</v>
       </c>
       <c r="F82" t="n">
-        <v>2.159027682712568</v>
+        <v>2.047092908650353</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>125.7876178181609</v>
       </c>
       <c r="H82" t="n">
-        <v>-8127.351191854651</v>
+        <v>-7276.336261817062</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>64835.56</v>
+        <v>7483.96</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03179342172811109</v>
+        <v>0.2900517581472561</v>
       </c>
       <c r="E83" t="n">
-        <v>2159.027682712568</v>
+        <v>2170.735755903739</v>
       </c>
       <c r="F83" t="n">
-        <v>2.06134430205825</v>
+        <v>2.170735755903739</v>
       </c>
       <c r="G83" t="n">
-        <v>97.6833806543177</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>-8029.667811200334</v>
+        <v>-7276.336261817062</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>61156.03</v>
+        <v>8722.77</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03527026345113587</v>
+        <v>-0.2900517581472561</v>
       </c>
       <c r="E84" t="n">
-        <v>2156.989289725569</v>
+        <v>2170.735755903739</v>
       </c>
       <c r="F84" t="n">
-        <v>2.156989289725569</v>
+        <v>2.530054774414142</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>-359.3190185104025</v>
       </c>
       <c r="H84" t="n">
-        <v>-8029.667811200334</v>
+        <v>-7635.655280327464</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>62542.9222505897</v>
+        <v>9791.969999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.03527026345113587</v>
+        <v>0.2223628662643357</v>
       </c>
       <c r="E85" t="n">
-        <v>2156.989289725569</v>
+        <v>2177.370515574387</v>
       </c>
       <c r="F85" t="n">
-        <v>2.205905344782206</v>
+        <v>2.177370515574387</v>
       </c>
       <c r="G85" t="n">
-        <v>-48.91605505663743</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-8078.583866256971</v>
+        <v>-7635.655280327464</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>66084</v>
+        <v>9681.110000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03265360267946912</v>
+        <v>0.2204310913468591</v>
       </c>
       <c r="E86" t="n">
-        <v>2157.880679470038</v>
+        <v>2134.017642748992</v>
       </c>
       <c r="F86" t="n">
-        <v>2.157880679470038</v>
+        <v>2.134017642748992</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-8078.583866256971</v>
+        <v>-7635.655280327464</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3038,52 +3038,4732 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>70199.14086540291</v>
+        <v>9067.51</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03265360267946912</v>
+        <v>-0.4427939576111948</v>
       </c>
       <c r="E87" t="n">
-        <v>2157.880679470038</v>
+        <v>4311.388158323379</v>
       </c>
       <c r="F87" t="n">
-        <v>2.292254854258951</v>
+        <v>4.015038638579085</v>
       </c>
       <c r="G87" t="n">
-        <v>-134.3741747889133</v>
+        <v>271.6983723902293</v>
       </c>
       <c r="H87" t="n">
-        <v>-8212.958041045884</v>
+        <v>-7363.956907937235</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>9697.719999999999</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2238958456495162</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2171.279220272226</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.171279220272226</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-7363.956907937235</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>9518.02</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.2238958456495162</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2171.279220272226</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.131045136809008</v>
+      </c>
+      <c r="G89" t="n">
+        <v>40.23408346321781</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-7323.722824474017</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>9788.139999999999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2217157206223907</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2170.184513652847</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.170184513652848</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-7323.722824474017</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>9885.219999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2151685784676267</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2126.988735239753</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.126988735239753</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-7323.722824474017</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>9278.879999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.4368842990900175</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4297.173248892601</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.053796985140381</v>
+      </c>
+      <c r="G92" t="n">
+        <v>264.9004259102413</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-7058.822398563776</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>9436.059999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2294764920354571</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2165.353947436095</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.165353947436095</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-7058.822398563776</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>9232.42</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.2294764920354571</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2165.353947436095</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.118623354597994</v>
+      </c>
+      <c r="G94" t="n">
+        <v>46.73059283810035</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-7012.091805725676</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.2304934670961973</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2164.333656033292</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.164333656033292</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-7012.091805725676</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-08-12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>11392.09</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-0.2304934670961973</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2164.333656033292</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.625802321571918</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-461.4686655386256</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-7473.560471264302</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>11852.4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1833778160224522</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2173.467226624512</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.173467226624512</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-7473.560471264302</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>11754.38</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.1833778160224522</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2173.467226624512</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.155492533097991</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17.97469352652084</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-7455.585777737781</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>10925.44</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.1988931610486947</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2172.995297447851</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.172995297447851</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-7455.585777737781</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>11503.14</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1851249126502748</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2129.517787703881</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.129517787703882</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-7455.585777737781</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-11-27</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>17149.47</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.3840180736989695</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4302.513085151732</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.585706434358267</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2168.292770068703</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-9623.878547806484</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>19695.87</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1126361646453052</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2218.467256152528</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.218467256152528</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-9623.878547806484</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>19358.67</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.112299634373191</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2173.971562951261</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.173971562951261</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-9623.878547806484</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-12-09</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>18324.11</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.2249357990184962</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4392.438819103789</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.121748324152817</v>
+      </c>
+      <c r="G104" t="n">
+        <v>232.7095802325749</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-9391.168967573909</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>19426.43</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1139109534026912</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2212.883162510643</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.212883162510643</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-9391.168967573909</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>21335.52</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.101641827412558</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2168.58124159718</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.168581241597181</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-9391.168967573909</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>35410.37</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.2155527808152493</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4381.464404107824</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.632803723196879</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3033.873057057512</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-12425.04202463142</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>39145.21</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.05818619891759707</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2277.71097573111</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.27771097573111</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-12425.04202463142</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2021-01-21</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>35468.23</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.05818619891759707</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2277.71097573111</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.063761486035084</v>
+      </c>
+      <c r="G109" t="n">
+        <v>213.9494896960258</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-12211.09253493539</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>37620.26</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0604298811816177</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2273.387841821565</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.273387841821565</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-12211.09253493539</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2021-02-24</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>48891</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.0604298811816177</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2273.387841821565</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.954477320850471</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-681.0894790289058</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-12892.1820139643</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>54874.67</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.04166606376233813</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2286.411499157263</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.286411499157263</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-12892.1820139643</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>55605.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.04166606376233813</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2286.411499157263</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.316849808717564</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-30.43830956030113</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-12922.6203235246</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>58912.97</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.03882570811705973</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2287.337777529096</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.287337777529096</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-12922.6203235246</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>54083.24999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.03882570811705973</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2287.337777529096</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.099820478521971</v>
+      </c>
+      <c r="G115" t="n">
+        <v>187.517299007126</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-12735.10302451748</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>58950.01000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.03873620527602679</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2283.499688383833</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.283499688383833</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-12735.10302451748</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>59129.99</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.03784516156052772</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2237.784024622388</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.237784024622389</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-12735.10302451748</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>55953.44</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.0765813668365545</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4521.283713006221</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.284990914407143</v>
+      </c>
+      <c r="G118" t="n">
+        <v>243.2645408246569</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-12491.83848369282</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>59769.13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.03812332063256237</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2278.597706919303</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.278597706919303</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-12491.83848369282</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>60006.67</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.03812332063256237</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2278.597706919303</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.287653520502361</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-9.055813583058899</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-12500.89429727588</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>57315.49000000001</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.03975743588110243</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2278.716918668968</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.278716918668967</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-12500.89429727588</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>58866.53000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.03793730570808633</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2233.237544584235</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.233237544584235</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-12500.89429727588</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>49537.15</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.07769474158918876</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4511.954463253203</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.848776068314883</v>
+      </c>
+      <c r="G123" t="n">
+        <v>724.8437682873463</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-11776.05052898853</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>39020.56</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.05805288635345455</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2265.256135128154</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.265256135128154</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-11776.05052898853</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>38349</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.05805288635345455</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2265.256135128154</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.226270138768629</v>
+      </c>
+      <c r="G125" t="n">
+        <v>38.9859963595258</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-11737.06453262901</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2021-07-25</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>34261.51</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.06609778479521508</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2264.60991473911</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.26460991473911</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-11737.06453262901</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2021-08-04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>38207.04</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.06609778479521508</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2264.60991473911</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.525400707582175</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-260.7907928430649</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-11997.85532547207</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>40862.46</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.05554015056481583</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2269.507180848764</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.269507180848764</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-11997.85532547207</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2021-08-07</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>42836.87</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.05191956478351877</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2224.071647088172</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.224071647088172</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-11997.85532547207</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>46760.62</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0466107107372286</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2179.545732713467</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.179545732713467</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-11997.85532547207</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2021-08-21</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>49322.46999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.04330503373299317</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2135.911227144543</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.135911227144543</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-11997.85532547207</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>46982.91</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.1973754598185564</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8809.035787794945</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9.273273464863852</v>
+      </c>
+      <c r="G132" t="n">
+        <v>461.7717307730998</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-11536.08359469897</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>49246.63</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.04626570032402391</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2278.429825548086</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.278429825548086</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-11536.08359469897</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>49997.99999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.04465709056391003</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2232.765214014374</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.232765214014374</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-11536.08359469897</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2021-09-08</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>46868.57</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.09092279088793395</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4511.195039562459</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.261421189326494</v>
+      </c>
+      <c r="G135" t="n">
+        <v>284.5365094884265</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-11251.54708521054</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>48141.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.04722026037093052</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2273.258886673188</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.273258886673188</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-11251.54708521054</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2021-10-23</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>60688.23000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.04722026037093052</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2273.258886673188</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.865714022050917</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-592.4551353777285</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-11844.00222058827</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>63078.78</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.03622463342070301</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2285.005682125172</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.285005682125172</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-11844.00222058827</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>58413.44</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.03622463342070301</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2285.005682125172</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.11600545084223</v>
+      </c>
+      <c r="G139" t="n">
+        <v>169.0002312829424</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-11675.00198930533</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2021-11-09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>67525.82000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.03378762848641556</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2281.53731940057</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.28153731940057</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-11675.00198930533</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2021-11-13</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>64122.21999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.03378762848641556</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2281.53731940057</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.166537747084206</v>
+      </c>
+      <c r="G141" t="n">
+        <v>114.9995723163644</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-11560.00241698896</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2021-11-15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>65519.11000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.03478601971530741</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2279.149052189395</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.279149052189395</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-11560.00241698896</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>60058.87</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.03478601971530741</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2279.149052189395</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.089209035899085</v>
+      </c>
+      <c r="G143" t="n">
+        <v>189.9400162903103</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-11370.06240069865</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>50838.82</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.04475444127904705</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2275.262984386043</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.275262984386043</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-11370.06240069865</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>47543.74</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.04475444127904705</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2275.262984386043</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.12779352001628</v>
+      </c>
+      <c r="G145" t="n">
+        <v>147.4694643697624</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-11222.59293632889</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>41571.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.05465462603472452</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2272.085717127757</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.272085717127757</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-11222.59293632889</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>42217.87</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.05465462603472452</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2272.085717127757</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.307401896832616</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-35.31617970485824</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-11257.90911603375</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>44544.85</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.05102361574974001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2272.839310029806</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.272839310029806</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-11257.90911603375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>40515.71</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.05102361574974001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2272.839310029806</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.067258018867899</v>
+      </c>
+      <c r="G149" t="n">
+        <v>205.5812911619074</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-11052.32782487184</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>44421.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.05107114153818779</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2268.641392496148</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.268641392496147</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-11052.32782487184</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>39148.65</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.05107114153818779</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2268.641392496148</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.999366245178976</v>
+      </c>
+      <c r="G151" t="n">
+        <v>269.2751473171718</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-10783.05267755467</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>41941.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.05395990123905418</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2263.169989798038</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.263169989798039</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-10783.05267755467</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>39422.00999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.05395990123905418</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2263.169989798038</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.127207766245006</v>
+      </c>
+      <c r="G153" t="n">
+        <v>135.9622235530325</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-10647.09045400164</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>42364.13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.05335559770425756</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2260.363477370869</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.260363477370869</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-10647.09045400164</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2022-04-03</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>45810.99</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.05335559770425756</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2260.363477370869</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.444272752873766</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-183.9092755028972</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-10830.99972950453</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>31734.23</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.07134089226570944</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2263.948283565245</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.263948283565245</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-10830.99972950453</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>29805.84</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.07134089226570944</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2263.948283565245</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.126375220328973</v>
+      </c>
+      <c r="G157" t="n">
+        <v>137.5730632362717</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-10693.42666626826</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>31373.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.07207156138288912</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2261.108302421519</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.261108302421519</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-10693.42666626826</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>29091.87</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.07207156138288912</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2261.108302421519</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.09669649444803</v>
+      </c>
+      <c r="G159" t="n">
+        <v>164.4118079734886</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-10529.01485829477</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>21624.99</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1044039305546692</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2257.733954205417</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.257733954205417</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-10529.01485829477</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>19963.61</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.1044039305546692</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2257.733954205417</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.084279352060501</v>
+      </c>
+      <c r="G161" t="n">
+        <v>173.4546021449165</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-10355.56025614986</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2022-07-17</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>21195.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1063511756146128</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2254.176977857088</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.254176977857088</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-10355.56025614986</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>21310.9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.1063511756146128</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2254.176977857088</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.266439268405453</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-12.26229054836517</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-10367.82254669822</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>22954.31</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.09821748054535048</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2254.514495856944</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.254514495856944</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-10367.82254669822</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>23845.25</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.09265624783263104</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2209.411393631045</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2.209411393631045</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-10367.82254669822</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>23810.98</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0909266700980924</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2165.053123172276</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.165053123172276</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-10367.82254669822</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>23342.66</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.2818003984760739</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6628.979012660265</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6.577970889491512</v>
+      </c>
+      <c r="G167" t="n">
+        <v>131.9727626143149</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-10235.84978408391</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>21361.62</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.1054792091371117</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2253.206783487509</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.253206783487509</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-10235.84978408391</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>20173.62</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.1054792091371117</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2253.206783487509</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.12789748303262</v>
+      </c>
+      <c r="G169" t="n">
+        <v>125.3093004548888</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-10110.54048362902</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>20337.82</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1106536345482104</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2250.453701787284</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.250453701787283</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-10110.54048362902</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>19530.09</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.1106536345482104</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2250.453701787284</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.161075441553657</v>
+      </c>
+      <c r="G171" t="n">
+        <v>89.37826023362589</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-10021.16222339539</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>20079.02</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1119805810437784</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2248.460326389648</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.248460326389648</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-10021.16222339539</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>20151.84</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.1119805810437784</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2248.460326389648</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.256614752301256</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-8.154425911607914</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-10029.316649307</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>21148.52</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1063266315097417</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2248.650893016403</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.248650893016403</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-10029.316649307</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>18545.38</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.1063266315097417</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2248.650893016403</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.971867785468134</v>
+      </c>
+      <c r="G175" t="n">
+        <v>276.783107548269</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-9752.533541758734</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>17165.53</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1306850307097951</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2243.277815199909</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.243277815199909</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-9752.533541758734</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>17208.93</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1277247014428129</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2198.005446400267</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.198005446400267</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-9752.533541758734</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>17775.82</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.1211900245627005</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2154.252062422142</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.154252062422142</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-9752.533541758734</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2022-12-16</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>17356.96</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.3795997567153085</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6595.535324022318</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.588697793317342</v>
+      </c>
+      <c r="G179" t="n">
+        <v>158.9991540977744</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-9593.53438766096</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>16850.36</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1330909479213157</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2242.630385215422</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.242630385215422</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-9593.53438766096</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>16950.31</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1296547875688194</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2197.688842275636</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.197688842275636</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-9593.53438766096</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>23743.37</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.09071299723620084</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2153.832257188094</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2.153832257188094</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-9593.53438766096</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>23731.41</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.08893295030949525</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2110.504306304259</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.110504306304259</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-9593.53438766096</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>22762.52</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.4423916830358312</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8704.655790983412</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10.06994953293677</v>
+      </c>
+      <c r="G184" t="n">
+        <v>428.6288777765863</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-9164.905509884375</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>24322.87</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.09330521718003421</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2269.450667791738</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.269450667791739</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-9164.905509884375</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>23184.04</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.09330521718003421</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2269.450667791738</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.1631918873106</v>
+      </c>
+      <c r="G186" t="n">
+        <v>106.2587804811385</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-9058.646729403235</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>24112.27</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.09402819250839306</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2267.233165374351</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.267233165374351</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-9058.646729403235</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>27968.05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.079446258552759</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2221.956931516491</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.221956931516491</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-9058.646729403235</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>29637.35</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.07347060680032456</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2177.474088453599</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.177474088453599</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-9058.646729403235</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>29430.27</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.2469450578614766</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6666.664185344442</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.267659728028881</v>
+      </c>
+      <c r="G190" t="n">
+        <v>51.13738258195411</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-9007.509346821282</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>28065.01</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0812074884682953</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2279.088975937592</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.279088975937592</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-9007.509346821282</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>27210.36</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.0812074884682953</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2279.088975937592</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.209684995918164</v>
+      </c>
+      <c r="G192" t="n">
+        <v>69.4039800194287</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-8938.105366801852</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>28308</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.08045821369807188</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2277.611113365019</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.277611113365019</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-8938.105366801852</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>30617.02</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.08045821369807188</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2277.611113365019</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2.463390737958141</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-185.779624593122</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-9123.884991394974</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>31156.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.07321916925805193</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2281.231081237718</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.281231081237717</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-9123.884991394974</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>30380</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.07321916925805193</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2281.231081237718</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.224398362059618</v>
+      </c>
+      <c r="G196" t="n">
+        <v>56.83271917809996</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-9067.052272216875</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>31454.23</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.07248641325078661</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2280.00431426529</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.28000431426529</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-9067.052272216875</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>30312</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.07248641325078661</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2280.00431426529</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.197208158457844</v>
+      </c>
+      <c r="G198" t="n">
+        <v>82.79615580744623</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-8984.25611640943</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>29770.41</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.07652760179062597</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2278.258081623669</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.278258081623669</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-8984.25611640943</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>29303.85</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-0.07652760179062597</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2278.258081623669</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.242553363732235</v>
+      </c>
+      <c r="G200" t="n">
+        <v>35.70471789143456</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-8948.551398517995</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>26762.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0850986823101776</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2277.453485326128</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.277453485326128</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-8948.551398517995</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>26568.08</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.0850986823101776</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2277.453485326128</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.260908599511383</v>
+      </c>
+      <c r="G202" t="n">
+        <v>16.54488581474489</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-8932.00651270325</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>27021.39</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.08426778457196167</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2277.032671354959</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.277032671354959</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-8932.00651270325</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>27992.58</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.07971567016799219</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2231.447274431135</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.231447274431135</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-8932.00651270325</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>27590.12</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.1639834547399538</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4508.479945786095</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4.524323194289895</v>
+      </c>
+      <c r="G205" t="n">
+        <v>65.99678119464228</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-8866.009731508608</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>28500.77</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.07989847577021519</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2277.168081277476</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.277168081277476</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-8866.009731508608</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>34716.78</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.07989847577021519</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2277.168081277476</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2.773817805649891</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-496.6497243724152</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-9362.659455881023</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>36701.1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0623142488419811</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2287.001478174433</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.287001478174433</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-9362.659455881023</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>35551.2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.0623142488419811</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2287.001478174433</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.215346323431039</v>
+      </c>
+      <c r="G209" t="n">
+        <v>71.65515474339415</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-9291.004301137629</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>37359.85</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.06117468601276995</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2285.477093234183</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2.285477093234184</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-9291.004301137629</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>35741.65</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.06117468601276995</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2285.477093234183</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.186484216328319</v>
+      </c>
+      <c r="G211" t="n">
+        <v>98.99287690586415</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-9192.011424231765</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>37818.88</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.06037748902113508</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2283.409011991625</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2.283409011991625</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-9192.011424231765</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-12-12</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>41253.41</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-0.06037748902113508</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2283.409011991625</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2.490777309359384</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-207.3682973677594</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-9399.379721599524</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>43861.79</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.05215153711059882</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2287.459768922292</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.287459768922292</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-9399.379721599524</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>43969.04</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.05098281303989897</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2241.665345863839</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.24166534586384</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-9399.379721599524</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>42508.93</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.1031343501504978</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4529.125114786131</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4.384130871143</v>
+      </c>
+      <c r="G216" t="n">
+        <v>150.5874959982434</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-9248.792225601281</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>44179.55</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.05170677701436711</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2284.382140445083</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.284382140445083</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-9248.792225601281</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>42845.23</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-0.05170677701436711</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2284.382140445083</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.215388753739273</v>
+      </c>
+      <c r="G218" t="n">
+        <v>68.99338670581031</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-9179.798838895471</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>46951.04</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.04862325259021063</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2282.912277293083</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2.282912277293083</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-9179.798838895471</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-01-13</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>42782.74</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.04862325259021063</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2282.912277293083</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.080235973521308</v>
+      </c>
+      <c r="G220" t="n">
+        <v>202.6763037717751</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-8977.122535123695</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>43098.96</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.05287301635544789</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2278.772016982794</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2.278772016982794</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-8977.122535123695</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>44349.6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.05035333965746332</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2233.150472472635</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.233150472472635</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-8977.122535123695</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>51288.42</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-0.1032263560129112</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4511.92248945543</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5.294316702259716</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-716.2691036295085</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-9693.391638753204</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>54476.48</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.04211402184695304</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2294.223668865101</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.294223668865101</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-9693.391638753204</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>69499.84</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-0.04211402184695304</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2294.223668865101</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2.926917780119741</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-632.6941112546405</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-10326.08575000785</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>71620</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.03220849912204685</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2306.772707120995</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.306772707120995</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-10326.08575000785</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>67116.52</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.03220849912204685</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2306.772707120995</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2.16172237549484</v>
+      </c>
+      <c r="G227" t="n">
+        <v>145.0503316261554</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-10181.03541838169</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>66206.50999999999</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.03479692070396139</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2303.782678556027</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2.303782678556027</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-10181.03541838169</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>69290.56</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.03258250872178028</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2257.66027553704</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.25766027553704</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-10181.03541838169</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>70537.83</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.03136560805726226</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2212.461928989796</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2.212461928989796</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-10181.03541838169</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>67314.23</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-0.09874503748300395</v>
+      </c>
+      <c r="E231" t="n">
+        <v>6773.904883082862</v>
+      </c>
+      <c r="F231" t="n">
+        <v>6.646946164489549</v>
+      </c>
+      <c r="G231" t="n">
+        <v>318.3145028302121</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-9862.720915551479</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>64724.06</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.03555048764176708</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2300.971895154991</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2.300971895154991</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-9862.720915551479</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>65376.00999999999</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-0.03555048764176708</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2300.971895154991</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2.324149035573041</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-23.17714041804968</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-9885.898055969528</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>67908</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.03388917533244244</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2301.346118475501</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2.301346118475501</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-9885.898055969528</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>64628.01000000001</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.03388917533244244</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2301.346118475501</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2.190189962276843</v>
+      </c>
+      <c r="G235" t="n">
+        <v>111.1561561986576</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-9774.74189977087</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>61156.03000000001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.03759290499625564</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2299.03282573816</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2.29903282573816</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-9774.74189977087</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>59415</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-0.03759290499625564</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2299.03282573816</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2.233582450352529</v>
+      </c>
+      <c r="G237" t="n">
+        <v>65.45037538563118</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-9709.291524385239</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>60313.99000000001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.03809453106857837</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2297.633165924925</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2.297633165924925</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-9709.291524385239</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>63327.60000000001</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-0.03809453106857837</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2297.633165924925</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.412435225698504</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-114.8020597735785</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-9824.093584158816</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>66084</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.03480169713954263</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2299.835353769535</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2.299835353769535</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-9824.093584158816</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>68198.27</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.03304764140635362</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2253.791971493684</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2.253791971493684</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-9824.093584158816</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>69962.21000000001</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.03156949139686688</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2208.671386700795</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.208671386700794</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-9824.093584158816</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>69496</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-0.09941882994276313</v>
+      </c>
+      <c r="E243" t="n">
+        <v>6762.298711964013</v>
+      </c>
+      <c r="F243" t="n">
+        <v>6.909211005702266</v>
+      </c>
+      <c r="G243" t="n">
+        <v>46.35005270761624</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-9777.7435314512</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
           <t>2024-11-07</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
         <v>75571.99000000001</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.02858835441172206</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2160.478833719115</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.160478833719115</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-8212.958041045884</v>
+      <c r="D244" t="n">
+        <v>0.03046763518378933</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2302.499821432976</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2.302499821432976</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-9777.7435314512</v>
       </c>
     </row>
   </sheetData>
@@ -3137,20 +7817,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>108626.9297732689</v>
+        <v>115767.6171144018</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>15.77%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.29%</t>
+          <t>27.98%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2017-09-09</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4282.8</v>
+        <v>4691.66</v>
       </c>
       <c r="D3" t="n">
         <v>-0.4329219852936401</v>
@@ -527,13 +527,13 @@
         <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>1.854118278615602</v>
+        <v>2.03112276152276</v>
       </c>
       <c r="G3" t="n">
-        <v>145.881721384398</v>
+        <v>-31.12276152275954</v>
       </c>
       <c r="H3" t="n">
-        <v>145.881721384398</v>
+        <v>-31.12276152275954</v>
       </c>
     </row>
     <row r="4">
@@ -551,25 +551,25 @@
         <v>4192.11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4762712337721774</v>
+        <v>0.4771146751192999</v>
       </c>
       <c r="E4" t="n">
-        <v>1996.581401808682</v>
+        <v>2000.117200714368</v>
       </c>
       <c r="F4" t="n">
-        <v>1.996581401808682</v>
+        <v>2.000117200714369</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.881721384398</v>
+        <v>-31.12276152275954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2017-10-25</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,22 +578,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5506.92</v>
+        <v>4178.98</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4762712337721774</v>
+        <v>-0.4771146751192999</v>
       </c>
       <c r="E5" t="n">
-        <v>1996.581401808682</v>
+        <v>2000.117200714368</v>
       </c>
       <c r="F5" t="n">
-        <v>2.622787582684679</v>
+        <v>1.993852685030052</v>
       </c>
       <c r="G5" t="n">
-        <v>-626.2061808759968</v>
+        <v>6.264515684316461</v>
       </c>
       <c r="H5" t="n">
-        <v>-480.3244594915988</v>
+        <v>-24.85824583844308</v>
       </c>
     </row>
     <row r="6">
@@ -611,25 +611,25 @@
         <v>6133.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.325679664998034</v>
+        <v>0.3242047240126911</v>
       </c>
       <c r="E6" t="n">
-        <v>1997.396642229592</v>
+        <v>1988.350814417075</v>
       </c>
       <c r="F6" t="n">
-        <v>1.997396642229592</v>
+        <v>1.988350814417075</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-480.3244594915988</v>
+        <v>-24.85824583844308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2017-11-11</t>
+          <t>2017-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6503</v>
+        <v>6120.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.325679664998034</v>
+        <v>-0.3242047240126911</v>
       </c>
       <c r="E7" t="n">
-        <v>1997.396642229592</v>
+        <v>1988.350814417075</v>
       </c>
       <c r="F7" t="n">
-        <v>2.117894861482215</v>
+        <v>1.984301497414156</v>
       </c>
       <c r="G7" t="n">
-        <v>-120.4982192526225</v>
+        <v>4.049317002918441</v>
       </c>
       <c r="H7" t="n">
-        <v>-600.8226787442213</v>
+        <v>-20.80892883552463</v>
       </c>
     </row>
     <row r="8">
@@ -671,19 +671,19 @@
         <v>7240.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2778657466926445</v>
+        <v>0.2762651447194538</v>
       </c>
       <c r="E8" t="n">
-        <v>2011.786907259283</v>
+        <v>2000.198324889106</v>
       </c>
       <c r="F8" t="n">
-        <v>2.011786907259284</v>
+        <v>2.000198324889106</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-600.8226787442213</v>
+        <v>-20.80892883552463</v>
       </c>
     </row>
     <row r="9">
@@ -694,26 +694,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7876.98</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2506820146374489</v>
+        <v>-0.2762651447194538</v>
       </c>
       <c r="E9" t="n">
-        <v>1974.617215658892</v>
+        <v>2000.198324889106</v>
       </c>
       <c r="F9" t="n">
-        <v>1.974617215658892</v>
+        <v>2.176135019652243</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-175.9366947631367</v>
       </c>
       <c r="H9" t="n">
-        <v>-600.8226787442213</v>
+        <v>-196.7456235986614</v>
       </c>
     </row>
     <row r="10">
@@ -731,25 +731,25 @@
         <v>8700.040000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222063752508184</v>
+        <v>0.2302998997594141</v>
       </c>
       <c r="E10" t="n">
-        <v>1931.963529371302</v>
+        <v>2003.618339902893</v>
       </c>
       <c r="F10" t="n">
-        <v>1.931963529371302</v>
+        <v>2.003618339902893</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-600.8226787442213</v>
+        <v>-196.7456235986614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2017-12-20</t>
+          <t>2017-11-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17295.2</v>
+        <v>9128</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7506115138382774</v>
+        <v>-0.2302998997594141</v>
       </c>
       <c r="E11" t="n">
-        <v>5918.367652289478</v>
+        <v>2003.618339902893</v>
       </c>
       <c r="F11" t="n">
-        <v>12.98197625413578</v>
+        <v>2.102177485003932</v>
       </c>
       <c r="G11" t="n">
-        <v>-6451.626059282208</v>
+        <v>-98.55914510103867</v>
       </c>
       <c r="H11" t="n">
-        <v>-7052.448738026429</v>
+        <v>-295.3047686997</v>
       </c>
     </row>
     <row r="12">
@@ -791,25 +791,25 @@
         <v>16960.39</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1269227207132823</v>
+        <v>0.1182461310082742</v>
       </c>
       <c r="E12" t="n">
-        <v>2152.658843158345</v>
+        <v>2005.500497891423</v>
       </c>
       <c r="F12" t="n">
-        <v>2.152658843158346</v>
+        <v>2.005500497891423</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-7052.448738026429</v>
+        <v>-295.3047686997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018-01-10</t>
+          <t>2018-01-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -818,22 +818,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14401</v>
+        <v>17069.79</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1269227207132823</v>
+        <v>-0.1182461310082742</v>
       </c>
       <c r="E13" t="n">
-        <v>2152.658843158345</v>
+        <v>2005.500497891423</v>
       </c>
       <c r="F13" t="n">
-        <v>1.827814100991978</v>
+        <v>2.018436624623728</v>
       </c>
       <c r="G13" t="n">
-        <v>324.8447421663675</v>
+        <v>-12.93612673230537</v>
       </c>
       <c r="H13" t="n">
-        <v>-6727.603995860061</v>
+        <v>-308.2408954320054</v>
       </c>
     </row>
     <row r="14">
@@ -851,55 +851,55 @@
         <v>11039.55</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194399440090958</v>
+        <v>0.1816812045494263</v>
       </c>
       <c r="E14" t="n">
-        <v>2146.082338856135</v>
+        <v>2005.678741683619</v>
       </c>
       <c r="F14" t="n">
-        <v>2.146082338856135</v>
+        <v>2.005678741683619</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6727.603995860061</v>
+        <v>-308.2408954320054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2018-03-02</t>
+          <t>2018-02-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10923.36</v>
+        <v>10375.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1925932024205343</v>
+        <v>-0.1816812045494263</v>
       </c>
       <c r="E15" t="n">
-        <v>2103.764883592368</v>
+        <v>2005.678741683619</v>
       </c>
       <c r="F15" t="n">
-        <v>2.103764883592368</v>
+        <v>1.884944314012343</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>120.7344276712756</v>
       </c>
       <c r="H15" t="n">
-        <v>-6727.603995860061</v>
+        <v>-187.5064677607298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2018-03-03</t>
+          <t>2018-03-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11038.99</v>
+        <v>10923.36</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1867017299993402</v>
+        <v>0.1834419634312344</v>
       </c>
       <c r="E16" t="n">
-        <v>2060.998530445416</v>
+        <v>2003.802605666209</v>
       </c>
       <c r="F16" t="n">
-        <v>2.060998530445416</v>
+        <v>2.003802605666209</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-6727.603995860061</v>
+        <v>-187.5064677607298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2018-03-08</t>
+          <t>2018-03-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9910</v>
+        <v>11038.99</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5736943725108326</v>
+        <v>-0.1834419634312344</v>
       </c>
       <c r="E17" t="n">
-        <v>6310.84575289392</v>
+        <v>2003.802605666209</v>
       </c>
       <c r="F17" t="n">
-        <v>5.68531123158235</v>
+        <v>2.025013999897762</v>
       </c>
       <c r="G17" t="n">
-        <v>647.6952096210047</v>
+        <v>-21.21139423155349</v>
       </c>
       <c r="H17" t="n">
-        <v>-6079.908786239057</v>
+        <v>-208.7178619922833</v>
       </c>
     </row>
     <row r="18">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7922.989999999999</v>
+        <v>7922.99</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2692580746295865</v>
+        <v>0.252875159942143</v>
       </c>
       <c r="E18" t="n">
-        <v>2133.329032709467</v>
+        <v>2003.52736347</v>
       </c>
       <c r="F18" t="n">
-        <v>2.133329032709467</v>
+        <v>2.00352736347</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-6079.908786239057</v>
+        <v>-208.7178619922833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2018-04-28</t>
+          <t>2018-04-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -998,22 +998,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8915.35</v>
+        <v>7877.48</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2692580746295865</v>
+        <v>-0.252875159942143</v>
       </c>
       <c r="E19" t="n">
-        <v>2133.329032709467</v>
+        <v>2003.52736347</v>
       </c>
       <c r="F19" t="n">
-        <v>2.400529975648884</v>
+        <v>1.992019014941033</v>
       </c>
       <c r="G19" t="n">
-        <v>-267.2009429394168</v>
+        <v>11.50834852896699</v>
       </c>
       <c r="H19" t="n">
-        <v>-6347.109729178474</v>
+        <v>-197.2095134633163</v>
       </c>
     </row>
     <row r="20">
@@ -1031,25 +1031,25 @@
         <v>9750</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2193420581506497</v>
+        <v>0.205458442494713</v>
       </c>
       <c r="E20" t="n">
-        <v>2138.585066968835</v>
+        <v>2003.219814323452</v>
       </c>
       <c r="F20" t="n">
-        <v>2.138585066968835</v>
+        <v>2.003219814323452</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6347.109729178474</v>
+        <v>-197.2095134633163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2018-05-11</t>
+          <t>2018-05-05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9002.209999999999</v>
+        <v>9714</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2193420581506497</v>
+        <v>-0.205458442494713</v>
       </c>
       <c r="E21" t="n">
-        <v>2138.585066968835</v>
+        <v>2003.219814323452</v>
       </c>
       <c r="F21" t="n">
-        <v>1.97456326930436</v>
+        <v>1.995823310393642</v>
       </c>
       <c r="G21" t="n">
-        <v>164.0217976644745</v>
+        <v>7.396503929809669</v>
       </c>
       <c r="H21" t="n">
-        <v>-6183.087931513999</v>
+        <v>-189.8130095335067</v>
       </c>
     </row>
     <row r="22">
@@ -1091,25 +1091,25 @@
         <v>6753.48</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3160024697496248</v>
+        <v>0.2964330075540199</v>
       </c>
       <c r="E22" t="n">
-        <v>2134.116359404696</v>
+        <v>2001.954387855922</v>
       </c>
       <c r="F22" t="n">
-        <v>2.134116359404696</v>
+        <v>2.001954387855923</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-6183.087931513999</v>
+        <v>-189.8130095335067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018-07-11</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1118,22 +1118,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6296.91</v>
+        <v>6712.1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3160024697496248</v>
+        <v>-0.2964330075540199</v>
       </c>
       <c r="E23" t="n">
-        <v>2134.116359404696</v>
+        <v>2001.954387855922</v>
       </c>
       <c r="F23" t="n">
-        <v>1.98983911179111</v>
+        <v>1.989687990003337</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2772476135861</v>
+        <v>12.26639785258511</v>
       </c>
       <c r="H23" t="n">
-        <v>-6038.810683900413</v>
+        <v>-177.5466116809216</v>
       </c>
     </row>
     <row r="24">
@@ -1151,19 +1151,19 @@
         <v>6723.33</v>
       </c>
       <c r="D24" t="n">
-        <v>0.317141654679159</v>
+        <v>0.2978673938702808</v>
       </c>
       <c r="E24" t="n">
-        <v>2132.24800115403</v>
+        <v>2002.660785229875</v>
       </c>
       <c r="F24" t="n">
-        <v>2.13224800115403</v>
+        <v>2.002660785229875</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-6038.810683900413</v>
+        <v>-177.5466116809216</v>
       </c>
     </row>
     <row r="25">
@@ -1174,452 +1174,452 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>7317.44</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2855598049323289</v>
+        <v>-0.2978673938702808</v>
       </c>
       <c r="E25" t="n">
-        <v>2089.56673900402</v>
+        <v>2002.660785229875</v>
       </c>
       <c r="F25" t="n">
-        <v>2.08956673900402</v>
+        <v>2.179626782602148</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-176.9659973722725</v>
       </c>
       <c r="H25" t="n">
-        <v>-6038.810683900413</v>
+        <v>-354.512609053194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7735.67</v>
+        <v>6689.12</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6027014596114879</v>
+        <v>0.2999078231061201</v>
       </c>
       <c r="E26" t="n">
-        <v>4221.81474015805</v>
+        <v>2006.11941769561</v>
       </c>
       <c r="F26" t="n">
-        <v>4.662299600072799</v>
+        <v>2.00611941769561</v>
       </c>
       <c r="G26" t="n">
-        <v>-252.0678314533129</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-6290.878515353726</v>
+        <v>-354.512609053194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-09-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6689.120000000001</v>
+        <v>6634.58</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3200545300956349</v>
+        <v>-0.2999078231061201</v>
       </c>
       <c r="E27" t="n">
-        <v>2140.883158353314</v>
+        <v>2006.11941769561</v>
       </c>
       <c r="F27" t="n">
-        <v>2.140883158353314</v>
+        <v>1.989762445023402</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>16.35697267220778</v>
       </c>
       <c r="H27" t="n">
-        <v>-6290.878515353726</v>
+        <v>-338.1556363809862</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2018-10-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6525.79</v>
+        <v>6752.5</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3200545300956349</v>
+        <v>0.2970330040256413</v>
       </c>
       <c r="E28" t="n">
-        <v>2140.883158353314</v>
+        <v>2005.715359683143</v>
       </c>
       <c r="F28" t="n">
-        <v>2.088608651952793</v>
+        <v>2.005715359683143</v>
       </c>
       <c r="G28" t="n">
-        <v>52.27450640052032</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-6238.604008953205</v>
+        <v>-338.1556363809862</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2018-10-16</t>
+          <t>2018-10-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6752.5</v>
+        <v>6762.76</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316883565928826</v>
+        <v>-0.2970330040256413</v>
       </c>
       <c r="E29" t="n">
-        <v>2139.756278934398</v>
+        <v>2005.715359683143</v>
       </c>
       <c r="F29" t="n">
-        <v>2.139756278934398</v>
+        <v>2.008762918304446</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.047558621303144</v>
       </c>
       <c r="H29" t="n">
-        <v>-6238.604008953205</v>
+        <v>-341.2031950022894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2018-10-20</t>
+          <t>2018-11-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6528.88</v>
+        <v>6578.46</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.316883565928826</v>
+        <v>0.304888381367373</v>
       </c>
       <c r="E30" t="n">
-        <v>2139.756278934398</v>
+        <v>2005.696021290009</v>
       </c>
       <c r="F30" t="n">
-        <v>2.068894775921394</v>
+        <v>2.005696021290009</v>
       </c>
       <c r="G30" t="n">
-        <v>70.86150301300405</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-6167.742505940201</v>
+        <v>-341.2031950022894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018-11-08</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6578.459999999999</v>
+        <v>6479.84</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3250388200054482</v>
+        <v>-0.304888381367373</v>
       </c>
       <c r="E31" t="n">
-        <v>2138.254875853041</v>
+        <v>2005.696021290009</v>
       </c>
       <c r="F31" t="n">
-        <v>2.138254875853041</v>
+        <v>1.975627929119558</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.06809217045029</v>
       </c>
       <c r="H31" t="n">
-        <v>-6167.742505940201</v>
+        <v>-311.135102831839</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2018-12-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6479.84</v>
+        <v>4051.86</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3250388200054482</v>
+        <v>0.4951118951821631</v>
       </c>
       <c r="E32" t="n">
-        <v>2138.254875853041</v>
+        <v>2006.124083612799</v>
       </c>
       <c r="F32" t="n">
-        <v>2.106199547424104</v>
+        <v>2.0061240836128</v>
       </c>
       <c r="G32" t="n">
-        <v>32.05532842893697</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6135.687177511264</v>
+        <v>-311.135102831839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018-12-21</t>
+          <t>2018-12-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4051.86</v>
+        <v>3840.25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5278344338965127</v>
+        <v>-0.4951118951821631</v>
       </c>
       <c r="E33" t="n">
-        <v>2138.711229327924</v>
+        <v>2006.124083612799</v>
       </c>
       <c r="F33" t="n">
-        <v>2.138711229327924</v>
+        <v>1.901353455473302</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7706281394976</v>
       </c>
       <c r="H33" t="n">
-        <v>-6135.687177511264</v>
+        <v>-206.3644746923414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2018-12-28</t>
+          <t>2019-01-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3567.89</v>
+        <v>3987.62</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5278344338965127</v>
+        <v>0.5022673966430986</v>
       </c>
       <c r="E34" t="n">
-        <v>2138.711229327924</v>
+        <v>2002.851516201953</v>
       </c>
       <c r="F34" t="n">
-        <v>1.883255198355029</v>
+        <v>2.002851516201953</v>
       </c>
       <c r="G34" t="n">
-        <v>255.4560309728954</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-5880.231146538368</v>
+        <v>-206.3644746923414</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2019-01-07</t>
+          <t>2019-01-08</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3987.62</v>
+        <v>3976.76</v>
       </c>
       <c r="D35" t="n">
-        <v>0.53474253191092</v>
+        <v>-0.5022673966430986</v>
       </c>
       <c r="E35" t="n">
-        <v>2132.350015098623</v>
+        <v>2002.851516201953</v>
       </c>
       <c r="F35" t="n">
-        <v>2.132350015098623</v>
+        <v>1.997396892274409</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.454623927543887</v>
       </c>
       <c r="H35" t="n">
-        <v>-5880.231146538368</v>
+        <v>-200.9098507647976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2019-01-11</t>
+          <t>2019-02-09</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3585.88</v>
+        <v>3660.27</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.53474253191092</v>
+        <v>0.5473163380032193</v>
       </c>
       <c r="E36" t="n">
-        <v>2132.350015098623</v>
+        <v>2003.325572503044</v>
       </c>
       <c r="F36" t="n">
-        <v>1.91752255032873</v>
+        <v>2.003325572503043</v>
       </c>
       <c r="G36" t="n">
-        <v>214.8274647698929</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-5665.403681768476</v>
+        <v>-200.9098507647976</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019-02-09</t>
+          <t>2019-02-10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3660.27</v>
+        <v>3665.18</v>
       </c>
       <c r="D37" t="n">
-        <v>0.581562861707245</v>
+        <v>-0.5473163380032193</v>
       </c>
       <c r="E37" t="n">
-        <v>2128.677095821178</v>
+        <v>2003.325572503044</v>
       </c>
       <c r="F37" t="n">
-        <v>2.128677095821178</v>
+        <v>2.006012895722639</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-2.687323219595727</v>
       </c>
       <c r="H37" t="n">
-        <v>-5665.403681768476</v>
+        <v>-203.5971739843933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2019-02-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3608.34</v>
+        <v>3667.62</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.581562861707245</v>
+        <v>0.546034696748899</v>
       </c>
       <c r="E38" t="n">
-        <v>2128.677095821178</v>
+        <v>2002.647774490197</v>
       </c>
       <c r="F38" t="n">
-        <v>2.098476536412721</v>
+        <v>2.002647774490197</v>
       </c>
       <c r="G38" t="n">
-        <v>30.20055940845714</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5635.203122360019</v>
+        <v>-203.5971739843933</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019-02-18</t>
+          <t>2019-02-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3667.62</v>
+        <v>3897.35</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5800209454846151</v>
+        <v>-0.546034696748899</v>
       </c>
       <c r="E39" t="n">
-        <v>2127.296420078284</v>
+        <v>2002.647774490197</v>
       </c>
       <c r="F39" t="n">
-        <v>2.127296420078284</v>
+        <v>2.128088325374322</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-125.4405508841248</v>
       </c>
       <c r="H39" t="n">
-        <v>-5635.203122360019</v>
+        <v>-329.0377248685181</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019-02-19</t>
+          <t>2019-03-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1628,28 +1628,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3897.35</v>
+        <v>3924.46</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5347265030807206</v>
+        <v>0.5110027446627756</v>
       </c>
       <c r="E40" t="n">
-        <v>2084.016336781646</v>
+        <v>2005.409831319276</v>
       </c>
       <c r="F40" t="n">
-        <v>2.084016336781646</v>
+        <v>2.005409831319277</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-5635.203122360019</v>
+        <v>-329.0377248685181</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019-02-25</t>
+          <t>2019-03-17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1658,28 +1658,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3743.559999999999</v>
+        <v>4005.98</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.114747448565336</v>
+        <v>-0.5110027446627756</v>
       </c>
       <c r="E41" t="n">
-        <v>4211.31275685993</v>
+        <v>2005.409831319276</v>
       </c>
       <c r="F41" t="n">
-        <v>4.173123958551248</v>
+        <v>2.047066775064186</v>
       </c>
       <c r="G41" t="n">
-        <v>171.4370101148635</v>
+        <v>-41.65694374490946</v>
       </c>
       <c r="H41" t="n">
-        <v>-5463.766112245155</v>
+        <v>-370.6946686134276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2019-03-24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1688,178 +1688,178 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3924.46</v>
+        <v>4006.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5419143256825041</v>
+        <v>0.5006987548060996</v>
       </c>
       <c r="E42" t="n">
-        <v>2126.72109456796</v>
+        <v>2005.804218740783</v>
       </c>
       <c r="F42" t="n">
-        <v>2.12672109456796</v>
+        <v>2.005804218740783</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-5463.766112245155</v>
+        <v>-370.6946686134276</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4006.01</v>
+        <v>3991.35</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5201596596680318</v>
+        <v>-0.5006987548060996</v>
       </c>
       <c r="E43" t="n">
-        <v>2083.764798226732</v>
+        <v>2005.804218740783</v>
       </c>
       <c r="F43" t="n">
-        <v>2.083764798226732</v>
+        <v>1.998463974995326</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.340243745457575</v>
       </c>
       <c r="H43" t="n">
-        <v>-5463.766112245155</v>
+        <v>-363.35442486797</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2019-03-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3935.47</v>
+        <v>4039.58</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.062073985350536</v>
+        <v>0.4966697610237612</v>
       </c>
       <c r="E44" t="n">
-        <v>4210.485892794692</v>
+        <v>2006.337233236365</v>
       </c>
       <c r="F44" t="n">
-        <v>4.179760307127474</v>
+        <v>2.006337233236365</v>
       </c>
       <c r="G44" t="n">
-        <v>74.91869892662724</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-5388.847413318528</v>
+        <v>-363.35442486797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2019-03-28</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4039.58</v>
+        <v>4028.22</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5263826445691955</v>
+        <v>-0.4966697610237612</v>
       </c>
       <c r="E45" t="n">
-        <v>2126.364803348831</v>
+        <v>2006.337233236365</v>
       </c>
       <c r="F45" t="n">
-        <v>2.126364803348831</v>
+        <v>2.000695064751135</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5.64216848522999</v>
       </c>
       <c r="H45" t="n">
-        <v>-5388.847413318528</v>
+        <v>-357.71225638274</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2019-04-12</t>
+          <t>2019-05-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5017.37</v>
+        <v>5383.2</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.5263826445691955</v>
+        <v>0.372526442355167</v>
       </c>
       <c r="E46" t="n">
-        <v>2126.364803348831</v>
+        <v>2005.384344486335</v>
       </c>
       <c r="F46" t="n">
-        <v>2.641056489382144</v>
+        <v>2.005384344486335</v>
       </c>
       <c r="G46" t="n">
-        <v>-514.6916860333137</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-5903.539099351842</v>
+        <v>-357.71225638274</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019-05-02</t>
+          <t>2019-05-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5383.2</v>
+        <v>5494.81</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3967450444340637</v>
+        <v>-0.372526442355167</v>
       </c>
       <c r="E47" t="n">
-        <v>2135.757923197451</v>
+        <v>2005.384344486335</v>
       </c>
       <c r="F47" t="n">
-        <v>2.135757923197452</v>
+        <v>2.046962020717595</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>-41.5776762312604</v>
       </c>
       <c r="H47" t="n">
-        <v>-5903.539099351842</v>
+        <v>-399.2899326140004</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2019-05-03</t>
+          <t>2019-05-20</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5494.81</v>
+        <v>8147.94</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3810394292191583</v>
+        <v>0.2461974320466708</v>
       </c>
       <c r="E48" t="n">
-        <v>2093.739266067724</v>
+        <v>2006.001904470351</v>
       </c>
       <c r="F48" t="n">
-        <v>2.093739266067724</v>
+        <v>2.006001904470351</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-5903.539099351842</v>
+        <v>-399.2899326140004</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2019-05-19</t>
+          <t>2019-05-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1898,28 +1898,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7257.320000000001</v>
+        <v>7937.16</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.777784473653222</v>
+        <v>-0.2461974320466708</v>
       </c>
       <c r="E49" t="n">
-        <v>4229.497189265176</v>
+        <v>2006.001904470351</v>
       </c>
       <c r="F49" t="n">
-        <v>5.644630816333001</v>
+        <v>1.954108409743554</v>
       </c>
       <c r="G49" t="n">
-        <v>-1370.85291265854</v>
+        <v>51.89349472679721</v>
       </c>
       <c r="H49" t="n">
-        <v>-7274.392012010383</v>
+        <v>-347.3964378872032</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2019-05-20</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1928,172 +1928,172 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8147.939999999999</v>
+        <v>8612.540000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2655542031371122</v>
+        <v>0.2327510675671908</v>
       </c>
       <c r="E50" t="n">
-        <v>2163.719713909002</v>
+        <v>2004.577879465134</v>
       </c>
       <c r="F50" t="n">
-        <v>2.163719713909002</v>
+        <v>2.004577879465134</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-7274.392012010383</v>
+        <v>-347.3964378872032</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8612.540000000001</v>
+        <v>8752.52</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2461620147248556</v>
+        <v>-0.2327510675671908</v>
       </c>
       <c r="E51" t="n">
-        <v>2120.080198298408</v>
+        <v>2004.577879465134</v>
       </c>
       <c r="F51" t="n">
-        <v>2.120080198298408</v>
+        <v>2.037158373903189</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>-32.58049443805527</v>
       </c>
       <c r="H51" t="n">
-        <v>-7274.392012010383</v>
+        <v>-379.9769323252585</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2019-06-04</t>
+          <t>2019-06-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8115.66</v>
+        <v>8650.879999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5117162178619677</v>
+        <v>0.2318599484562462</v>
       </c>
       <c r="E52" t="n">
-        <v>4283.79991220741</v>
+        <v>2005.792590901171</v>
       </c>
       <c r="F52" t="n">
-        <v>4.152914840653658</v>
+        <v>2.005792590901171</v>
       </c>
       <c r="G52" t="n">
-        <v>254.2615543312551</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-7020.130457679128</v>
+        <v>-379.9769323252585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2019-06-15</t>
+          <t>2019-06-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8650.879999999999</v>
+        <v>8810.77</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2498354540407588</v>
+        <v>-0.2318599484562462</v>
       </c>
       <c r="E53" t="n">
-        <v>2161.296532652119</v>
+        <v>2005.792590901171</v>
       </c>
       <c r="F53" t="n">
-        <v>2.161296532652119</v>
+        <v>2.042864678059841</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-37.0720871586695</v>
       </c>
       <c r="H53" t="n">
-        <v>-7020.130457679128</v>
+        <v>-417.049019483928</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2019-07-01</t>
+          <t>2019-07-04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10854.1</v>
+        <v>11940</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2498354540407588</v>
+        <v>0.1680275563437457</v>
       </c>
       <c r="E54" t="n">
-        <v>2161.296532652119</v>
+        <v>2006.249022744324</v>
       </c>
       <c r="F54" t="n">
-        <v>2.7117390017038</v>
+        <v>2.006249022744324</v>
       </c>
       <c r="G54" t="n">
-        <v>-550.4424690516809</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-7570.572926730809</v>
+        <v>-417.049019483928</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2019-07-04</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11940</v>
+        <v>11145.67</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1819085482515</v>
+        <v>-0.1680275563437457</v>
       </c>
       <c r="E55" t="n">
-        <v>2171.98806612291</v>
+        <v>2006.249022744324</v>
       </c>
       <c r="F55" t="n">
-        <v>2.17198806612291</v>
+        <v>1.872779693913796</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>133.4693288305275</v>
       </c>
       <c r="H55" t="n">
-        <v>-7570.572926730809</v>
+        <v>-283.5796906534005</v>
       </c>
     </row>
     <row r="56">
@@ -2111,25 +2111,25 @@
         <v>12238.6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1739173488012623</v>
+        <v>0.1637035327237903</v>
       </c>
       <c r="E56" t="n">
-        <v>2128.504865039129</v>
+        <v>2003.50205559338</v>
       </c>
       <c r="F56" t="n">
-        <v>2.128504865039129</v>
+        <v>2.003502055593379</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-7570.572926730809</v>
+        <v>-283.5796906534005</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2019-07-12</t>
+          <t>2019-07-10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2138,22 +2138,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11342.88</v>
+        <v>12548.51</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3558258970527623</v>
+        <v>-0.1637035327237903</v>
       </c>
       <c r="E57" t="n">
-        <v>4300.492931162039</v>
+        <v>2003.50205559338</v>
       </c>
       <c r="F57" t="n">
-        <v>4.036090451161837</v>
+        <v>2.054235417419809</v>
       </c>
       <c r="G57" t="n">
-        <v>318.7203725081006</v>
+        <v>-50.73336182642981</v>
       </c>
       <c r="H57" t="n">
-        <v>-7251.852554222708</v>
+        <v>-334.3130524798303</v>
       </c>
     </row>
     <row r="58">
@@ -2171,19 +2171,19 @@
         <v>10523.75</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2058708430792502</v>
+        <v>0.190467805495232</v>
       </c>
       <c r="E58" t="n">
-        <v>2166.533284855259</v>
+        <v>2004.435568080448</v>
       </c>
       <c r="F58" t="n">
-        <v>2.16653328485526</v>
+        <v>2.004435568080448</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-7251.852554222708</v>
+        <v>-334.3130524798303</v>
       </c>
     </row>
     <row r="59">
@@ -2194,392 +2194,392 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>10816.86</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1962824043661892</v>
+        <v>-0.190467805495232</v>
       </c>
       <c r="E59" t="n">
-        <v>2123.159288492457</v>
+        <v>2004.435568080448</v>
       </c>
       <c r="F59" t="n">
-        <v>2.123159288492457</v>
+        <v>2.060263586549156</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-55.82801846870758</v>
       </c>
       <c r="H59" t="n">
-        <v>-7251.852554222708</v>
+        <v>-390.1410709485378</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2019-08-11</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11309.24</v>
+        <v>10611.85</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.4021532474454394</v>
+        <v>0.1889230274158317</v>
       </c>
       <c r="E60" t="n">
-        <v>4289.692573347716</v>
+        <v>2004.822828482693</v>
       </c>
       <c r="F60" t="n">
-        <v>4.548047592139861</v>
+        <v>2.004822828482693</v>
       </c>
       <c r="G60" t="n">
-        <v>-198.0122159771851</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-7449.864770199893</v>
+        <v>-390.1410709485378</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10611.85</v>
+        <v>10565.92</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2045658362688307</v>
+        <v>-0.1889230274158317</v>
       </c>
       <c r="E61" t="n">
-        <v>2170.821969609391</v>
+        <v>2004.822828482693</v>
       </c>
       <c r="F61" t="n">
-        <v>2.170821969609391</v>
+        <v>1.996145593833484</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>8.677234649209204</v>
       </c>
       <c r="H61" t="n">
-        <v>-7449.864770199893</v>
+        <v>-381.4638362993286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2019-09-11</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10098.19</v>
+        <v>8655.879999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.2045658362688307</v>
+        <v>0.2316825692378873</v>
       </c>
       <c r="E62" t="n">
-        <v>2170.821969609391</v>
+        <v>2005.416517414844</v>
       </c>
       <c r="F62" t="n">
-        <v>2.065744682151543</v>
+        <v>2.005416517414844</v>
       </c>
       <c r="G62" t="n">
-        <v>105.0772874578475</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-7344.787482742046</v>
+        <v>-381.4638362993286</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2019-10-27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8655.879999999999</v>
+        <v>9230</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2506449844536004</v>
+        <v>-0.2316825692378873</v>
       </c>
       <c r="E63" t="n">
-        <v>2169.55290803223</v>
+        <v>2005.416517414844</v>
       </c>
       <c r="F63" t="n">
-        <v>2.169552908032231</v>
+        <v>2.1384301140657</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>-133.013596650856</v>
       </c>
       <c r="H63" t="n">
-        <v>-7344.787482742046</v>
+        <v>-514.4774329501847</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9307.73</v>
+        <v>7500.71</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.2506449844536004</v>
+        <v>0.2676545657108085</v>
       </c>
       <c r="E64" t="n">
-        <v>2169.55290803223</v>
+        <v>2007.599277572718</v>
       </c>
       <c r="F64" t="n">
-        <v>2.33293584114831</v>
+        <v>2.007599277572718</v>
       </c>
       <c r="G64" t="n">
-        <v>-163.3829331160795</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-7508.170415858125</v>
+        <v>-514.4774329501847</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7500.71</v>
+        <v>7317.3</v>
       </c>
       <c r="D65" t="n">
-        <v>0.289613055924321</v>
+        <v>-0.2676545657108085</v>
       </c>
       <c r="E65" t="n">
-        <v>2172.303544702114</v>
+        <v>2007.599277572718</v>
       </c>
       <c r="F65" t="n">
-        <v>2.172303544702114</v>
+        <v>1.958508753675699</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>49.09052389701935</v>
       </c>
       <c r="H65" t="n">
-        <v>-7508.170415858125</v>
+        <v>-465.3869090531654</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7205.01</v>
+        <v>7388.43</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.289613055924321</v>
+        <v>0.2716118497459641</v>
       </c>
       <c r="E66" t="n">
-        <v>2172.303544702114</v>
+        <v>2006.785139018574</v>
       </c>
       <c r="F66" t="n">
-        <v>2.086664964065292</v>
+        <v>2.006785139018574</v>
       </c>
       <c r="G66" t="n">
-        <v>85.63858063682167</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-7422.531835221303</v>
+        <v>-465.3869090531654</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7388.43</v>
+        <v>7246</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2938070516455917</v>
+        <v>-0.2716118497459641</v>
       </c>
       <c r="E67" t="n">
-        <v>2170.772834589839</v>
+        <v>2006.785139018574</v>
       </c>
       <c r="F67" t="n">
-        <v>2.17077283458984</v>
+        <v>1.968099463259256</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>38.68567575931775</v>
       </c>
       <c r="H67" t="n">
-        <v>-7422.531835221303</v>
+        <v>-426.7012332938476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6965.49</v>
+        <v>7758.9</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2938070516455917</v>
+        <v>0.2585563703995734</v>
       </c>
       <c r="E68" t="n">
-        <v>2170.772834589839</v>
+        <v>2006.11302229325</v>
       </c>
       <c r="F68" t="n">
-        <v>2.046510080166853</v>
+        <v>2.00611302229325</v>
       </c>
       <c r="G68" t="n">
-        <v>124.2627544229867</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-7298.269080798317</v>
+        <v>-426.7012332938476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7758.9</v>
+        <v>8145.92</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2794724684845672</v>
+        <v>-0.2585563703995734</v>
       </c>
       <c r="E69" t="n">
-        <v>2168.398935724908</v>
+        <v>2006.11302229325</v>
       </c>
       <c r="F69" t="n">
-        <v>2.168398935724908</v>
+        <v>2.106179508765293</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>-100.066486472043</v>
       </c>
       <c r="H69" t="n">
-        <v>-7298.269080798317</v>
+        <v>-526.7677197658907</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8642.35</v>
+        <v>8907.57</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.2794724684845672</v>
+        <v>0.2254037190208676</v>
       </c>
       <c r="E70" t="n">
-        <v>2168.398935724908</v>
+        <v>2007.79940543871</v>
       </c>
       <c r="F70" t="n">
-        <v>2.415298888007599</v>
+        <v>2.00779940543871</v>
       </c>
       <c r="G70" t="n">
-        <v>-246.8999522826911</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-7545.169033081008</v>
+        <v>-526.7677197658907</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8907.57</v>
+        <v>9375.340000000002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2439491057148528</v>
+        <v>-0.2254037190208676</v>
       </c>
       <c r="E71" t="n">
-        <v>2172.993735592451</v>
+        <v>2007.79940543871</v>
       </c>
       <c r="F71" t="n">
-        <v>2.172993735592451</v>
+        <v>2.113236503085101</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>-105.4370976463918</v>
       </c>
       <c r="H71" t="n">
-        <v>-7545.169033081008</v>
+        <v>-632.2048174122824</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2588,28 +2588,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9375.34</v>
+        <v>9612.030000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2271647851931939</v>
+        <v>0.2090946070421541</v>
       </c>
       <c r="E72" t="n">
-        <v>2129.747097213159</v>
+        <v>2009.823635727397</v>
       </c>
       <c r="F72" t="n">
-        <v>2.129747097213159</v>
+        <v>2.009823635727397</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-7545.169033081008</v>
+        <v>-632.2048174122824</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2618,28 +2618,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9197.02</v>
+        <v>9772</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.4711138909080467</v>
+        <v>-0.2090946070421541</v>
       </c>
       <c r="E73" t="n">
-        <v>4302.74083280561</v>
+        <v>2009.823635727397</v>
       </c>
       <c r="F73" t="n">
-        <v>4.332843876959124</v>
+        <v>2.04327250001593</v>
       </c>
       <c r="G73" t="n">
-        <v>84.00902902672276</v>
+        <v>-33.44886428853326</v>
       </c>
       <c r="H73" t="n">
-        <v>-7461.160004054285</v>
+        <v>-665.6536817008157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2648,28 +2648,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9612.030000000001</v>
+        <v>10164.78</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2261146525379967</v>
+        <v>0.1977836693852086</v>
       </c>
       <c r="E74" t="n">
-        <v>2173.4208236348</v>
+        <v>2010.427486893381</v>
       </c>
       <c r="F74" t="n">
-        <v>2.1734208236348</v>
+        <v>2.010427486893381</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-7461.160004054285</v>
+        <v>-665.6536817008157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2678,28 +2678,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9706</v>
+        <v>9594.65</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2261146525379967</v>
+        <v>-0.1977836693852086</v>
       </c>
       <c r="E75" t="n">
-        <v>2173.4208236348</v>
+        <v>2010.427486893381</v>
       </c>
       <c r="F75" t="n">
-        <v>2.194668817533796</v>
+        <v>1.897665083466792</v>
       </c>
       <c r="G75" t="n">
-        <v>-21.2479938989954</v>
+        <v>112.7624034265892</v>
       </c>
       <c r="H75" t="n">
-        <v>-7482.407997953281</v>
+        <v>-552.8912782742266</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10164.78</v>
+        <v>6643.36</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213853684253312</v>
+        <v>0.302288787478486</v>
       </c>
       <c r="E76" t="n">
-        <v>2173.775652624381</v>
+        <v>2008.213239183074</v>
       </c>
       <c r="F76" t="n">
-        <v>2.173775652624381</v>
+        <v>2.008213239183074</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-7482.407997953281</v>
+        <v>-552.8912782742266</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2738,28 +2738,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9594.649999999998</v>
+        <v>6793.860000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.213853684253312</v>
+        <v>-0.302288787478486</v>
       </c>
       <c r="E77" t="n">
-        <v>2173.775652624381</v>
+        <v>2008.213239183074</v>
       </c>
       <c r="F77" t="n">
-        <v>2.05185125162104</v>
+        <v>2.053707701698587</v>
       </c>
       <c r="G77" t="n">
-        <v>121.9244010033414</v>
+        <v>-45.49446251551242</v>
       </c>
       <c r="H77" t="n">
-        <v>-7360.483596949939</v>
+        <v>-598.385740789739</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2768,238 +2768,238 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6643.359999999999</v>
+        <v>7248.6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3268498916603438</v>
+        <v>0.2771443979455449</v>
       </c>
       <c r="E78" t="n">
-        <v>2171.381496260661</v>
+        <v>2008.908882948077</v>
       </c>
       <c r="F78" t="n">
-        <v>2.171381496260662</v>
+        <v>2.008908882948077</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-7360.483596949939</v>
+        <v>-598.385740789739</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6793.86</v>
+        <v>7121.4</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3131790460169342</v>
+        <v>-0.2771443979455449</v>
       </c>
       <c r="E79" t="n">
-        <v>2127.694593572608</v>
+        <v>2008.908882948077</v>
       </c>
       <c r="F79" t="n">
-        <v>2.127694593572608</v>
+        <v>1.973656115529403</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>35.25276741867351</v>
       </c>
       <c r="H79" t="n">
-        <v>-7360.483596949939</v>
+        <v>-563.1329733710654</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6858.92</v>
+        <v>7483.96</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.640028937677278</v>
+        <v>0.2683800465225328</v>
       </c>
       <c r="E80" t="n">
-        <v>4299.07608983327</v>
+        <v>2008.545532972774</v>
       </c>
       <c r="F80" t="n">
-        <v>4.389907281213436</v>
+        <v>2.008545532972774</v>
       </c>
       <c r="G80" t="n">
-        <v>-41.64028268528396</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-7402.123879635223</v>
+        <v>-563.1329733710654</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7248.600000000001</v>
+        <v>7505</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2997655445835766</v>
+        <v>-0.2683800465225328</v>
       </c>
       <c r="E81" t="n">
-        <v>2172.880526468513</v>
+        <v>2008.545532972774</v>
       </c>
       <c r="F81" t="n">
-        <v>2.172880526468513</v>
+        <v>2.014192249151608</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-5.64671617883408</v>
       </c>
       <c r="H81" t="n">
-        <v>-7402.123879635223</v>
+        <v>-568.7796895498994</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6828.98</v>
+        <v>9791.969999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.2997655445835766</v>
+        <v>0.2050817767058009</v>
       </c>
       <c r="E82" t="n">
-        <v>2172.880526468513</v>
+        <v>2008.154605049901</v>
       </c>
       <c r="F82" t="n">
-        <v>2.047092908650353</v>
+        <v>2.008154605049901</v>
       </c>
       <c r="G82" t="n">
-        <v>125.7876178181609</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-7276.336261817062</v>
+        <v>-568.7796895498994</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7483.96</v>
+        <v>9315.959999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2900517581472561</v>
+        <v>-0.2050817767058009</v>
       </c>
       <c r="E83" t="n">
-        <v>2170.735755903739</v>
+        <v>2008.154605049901</v>
       </c>
       <c r="F83" t="n">
-        <v>2.170735755903739</v>
+        <v>1.910533628520173</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>97.62097652972834</v>
       </c>
       <c r="H83" t="n">
-        <v>-7276.336261817062</v>
+        <v>-471.1587130201711</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8722.77</v>
+        <v>9681.110000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.2900517581472561</v>
+        <v>0.2072435509122279</v>
       </c>
       <c r="E84" t="n">
-        <v>2170.735755903739</v>
+        <v>2006.347613171879</v>
       </c>
       <c r="F84" t="n">
-        <v>2.530054774414142</v>
+        <v>2.006347613171879</v>
       </c>
       <c r="G84" t="n">
-        <v>-359.3190185104025</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-7635.655280327464</v>
+        <v>-471.1587130201711</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9791.969999999999</v>
+        <v>9733.93</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2223628662643357</v>
+        <v>-0.2072435509122279</v>
       </c>
       <c r="E85" t="n">
-        <v>2177.370515574387</v>
+        <v>2006.347613171879</v>
       </c>
       <c r="F85" t="n">
-        <v>2.177370515574387</v>
+        <v>2.017294217531063</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>-10.94660435918382</v>
       </c>
       <c r="H85" t="n">
-        <v>-7635.655280327464</v>
+        <v>-482.1053173793549</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9681.110000000001</v>
+        <v>9697.719999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2204310913468591</v>
+        <v>0.2068800008479284</v>
       </c>
       <c r="E86" t="n">
-        <v>2134.017642748992</v>
+        <v>2006.264321822972</v>
       </c>
       <c r="F86" t="n">
-        <v>2.134017642748992</v>
+        <v>2.006264321822973</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-7635.655280327464</v>
+        <v>-482.1053173793549</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3038,28 +3038,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9067.51</v>
+        <v>9448.27</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4427939576111948</v>
+        <v>-0.2068800008479284</v>
       </c>
       <c r="E87" t="n">
-        <v>4311.388158323379</v>
+        <v>2006.264321822972</v>
       </c>
       <c r="F87" t="n">
-        <v>4.015038638579085</v>
+        <v>1.954658105611457</v>
       </c>
       <c r="G87" t="n">
-        <v>271.6983723902293</v>
+        <v>51.60621621151552</v>
       </c>
       <c r="H87" t="n">
-        <v>-7363.956907937235</v>
+        <v>-430.4991011678394</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3068,28 +3068,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9697.719999999999</v>
+        <v>9788.139999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2238958456495162</v>
+        <v>0.2048361108267998</v>
       </c>
       <c r="E88" t="n">
-        <v>2171.279220272226</v>
+        <v>2004.964529828232</v>
       </c>
       <c r="F88" t="n">
-        <v>2.171279220272226</v>
+        <v>2.004964529828233</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-7363.956907937235</v>
+        <v>-430.4991011678394</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3098,28 +3098,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9518.02</v>
+        <v>9621.17</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.2238958456495162</v>
+        <v>-0.2048361108267998</v>
       </c>
       <c r="E89" t="n">
-        <v>2171.279220272226</v>
+        <v>2004.964529828232</v>
       </c>
       <c r="F89" t="n">
-        <v>2.131045136809008</v>
+        <v>1.970763044403482</v>
       </c>
       <c r="G89" t="n">
-        <v>40.23408346321781</v>
+        <v>34.20148542475064</v>
       </c>
       <c r="H89" t="n">
-        <v>-7323.722824474017</v>
+        <v>-396.2976157430888</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3128,292 +3128,292 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>9788.139999999999</v>
+        <v>9885.219999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2217157206223907</v>
+        <v>0.2027708077683575</v>
       </c>
       <c r="E90" t="n">
-        <v>2170.184513652847</v>
+        <v>2004.434044367923</v>
       </c>
       <c r="F90" t="n">
-        <v>2.170184513652848</v>
+        <v>2.004434044367922</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-7323.722824474017</v>
+        <v>-396.2976157430888</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9885.219999999999</v>
+        <v>9278.879999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2151685784676267</v>
+        <v>-0.2027708077683575</v>
       </c>
       <c r="E91" t="n">
-        <v>2126.988735239753</v>
+        <v>2004.434044367923</v>
       </c>
       <c r="F91" t="n">
-        <v>2.126988735239753</v>
+        <v>1.881485992785657</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>122.9480515822659</v>
       </c>
       <c r="H91" t="n">
-        <v>-7323.722824474017</v>
+        <v>-273.3495641608229</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9278.879999999999</v>
+        <v>9436.059999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.4368842990900175</v>
+        <v>0.2121492185676888</v>
       </c>
       <c r="E92" t="n">
-        <v>4297.173248892601</v>
+        <v>2001.852755357825</v>
       </c>
       <c r="F92" t="n">
-        <v>4.053796985140381</v>
+        <v>2.001852755357825</v>
       </c>
       <c r="G92" t="n">
-        <v>264.9004259102413</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>-7058.822398563776</v>
+        <v>-273.3495641608229</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9436.059999999999</v>
+        <v>9232.42</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2294764920354571</v>
+        <v>-0.2121492185676888</v>
       </c>
       <c r="E93" t="n">
-        <v>2165.353947436095</v>
+        <v>2001.852755357825</v>
       </c>
       <c r="F93" t="n">
-        <v>2.165353947436095</v>
+        <v>1.958650688488701</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>43.20206686912402</v>
       </c>
       <c r="H93" t="n">
-        <v>-7058.822398563776</v>
+        <v>-230.1474972916988</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9232.42</v>
+        <v>9390</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.2294764920354571</v>
+        <v>0.2130894040417003</v>
       </c>
       <c r="E94" t="n">
-        <v>2165.353947436095</v>
+        <v>2000.909503951566</v>
       </c>
       <c r="F94" t="n">
-        <v>2.118623354597994</v>
+        <v>2.000909503951566</v>
       </c>
       <c r="G94" t="n">
-        <v>46.73059283810035</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>-7012.091805725676</v>
+        <v>-230.1474972916988</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>9390</v>
+        <v>9518.16</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2304934670961973</v>
+        <v>-0.2130894040417003</v>
       </c>
       <c r="E95" t="n">
-        <v>2164.333656033292</v>
+        <v>2000.909503951566</v>
       </c>
       <c r="F95" t="n">
-        <v>2.164333656033292</v>
+        <v>2.02821904197355</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>-27.30953802198428</v>
       </c>
       <c r="H95" t="n">
-        <v>-7012.091805725676</v>
+        <v>-257.4570353136831</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>11392.09</v>
+        <v>11852.4</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2304934670961973</v>
+        <v>0.1688582153944422</v>
       </c>
       <c r="E96" t="n">
-        <v>2164.333656033292</v>
+        <v>2001.375112141087</v>
       </c>
       <c r="F96" t="n">
-        <v>2.625802321571918</v>
+        <v>2.001375112141087</v>
       </c>
       <c r="G96" t="n">
-        <v>-461.4686655386256</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>-7473.560471264302</v>
+        <v>-257.4570353136831</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>11852.4</v>
+        <v>11910.99</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1833778160224522</v>
+        <v>-0.1688582153944422</v>
       </c>
       <c r="E97" t="n">
-        <v>2173.467226624512</v>
+        <v>2001.375112141087</v>
       </c>
       <c r="F97" t="n">
-        <v>2.173467226624512</v>
+        <v>2.011268514981047</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>-9.893402839960395</v>
       </c>
       <c r="H97" t="n">
-        <v>-7473.560471264302</v>
+        <v>-267.3504381536435</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>11754.38</v>
+        <v>10925.44</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1833778160224522</v>
+        <v>0.1831934377176974</v>
       </c>
       <c r="E98" t="n">
-        <v>2173.467226624512</v>
+        <v>2001.46891217844</v>
       </c>
       <c r="F98" t="n">
-        <v>2.155492533097991</v>
+        <v>2.00146891217844</v>
       </c>
       <c r="G98" t="n">
-        <v>17.97469352652084</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>-7455.585777737781</v>
+        <v>-267.3504381536435</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>10925.44</v>
+        <v>11050.64</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1988931610486947</v>
+        <v>-0.1831934377176974</v>
       </c>
       <c r="E99" t="n">
-        <v>2172.995297447851</v>
+        <v>2001.46891217844</v>
       </c>
       <c r="F99" t="n">
-        <v>2.172995297447851</v>
+        <v>2.024404730580696</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-22.93581840225552</v>
       </c>
       <c r="H99" t="n">
-        <v>-7455.585777737781</v>
+        <v>-290.286256555899</v>
       </c>
     </row>
     <row r="100">
@@ -3431,25 +3431,25 @@
         <v>11503.14</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1851249126502748</v>
+        <v>0.1740282154455682</v>
       </c>
       <c r="E100" t="n">
-        <v>2129.517787703881</v>
+        <v>2001.870926220533</v>
       </c>
       <c r="F100" t="n">
-        <v>2.129517787703882</v>
+        <v>2.001870926220533</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>-7455.585777737781</v>
+        <v>-290.286256555899</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3458,22 +3458,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17149.47</v>
+        <v>11751.46</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.3840180736989695</v>
+        <v>-0.1740282154455682</v>
       </c>
       <c r="E101" t="n">
-        <v>4302.513085151732</v>
+        <v>2001.870926220533</v>
       </c>
       <c r="F101" t="n">
-        <v>6.585706434358267</v>
+        <v>2.045085612679977</v>
       </c>
       <c r="G101" t="n">
-        <v>-2168.292770068703</v>
+        <v>-43.21468645944345</v>
       </c>
       <c r="H101" t="n">
-        <v>-9623.878547806484</v>
+        <v>-333.5009430153424</v>
       </c>
     </row>
     <row r="102">
@@ -3491,115 +3491,115 @@
         <v>19695.87</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1126361646453052</v>
+        <v>0.1016788941447595</v>
       </c>
       <c r="E102" t="n">
-        <v>2218.467256152528</v>
+        <v>2002.654280818944</v>
       </c>
       <c r="F102" t="n">
-        <v>2.218467256152528</v>
+        <v>2.002654280818944</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>-9623.878547806484</v>
+        <v>-333.5009430153424</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2020-12-07</t>
+          <t>2020-12-02</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>19358.67</v>
+        <v>18764.96</v>
       </c>
       <c r="D103" t="n">
-        <v>0.112299634373191</v>
+        <v>-0.1016788941447595</v>
       </c>
       <c r="E103" t="n">
-        <v>2173.971562951261</v>
+        <v>2002.654280818944</v>
       </c>
       <c r="F103" t="n">
-        <v>2.173971562951261</v>
+        <v>1.908000381470646</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>94.65389934829805</v>
       </c>
       <c r="H103" t="n">
-        <v>-9623.878547806484</v>
+        <v>-238.8470436670444</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2020-12-09</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>18324.11</v>
+        <v>19358.67</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.2249357990184962</v>
+        <v>0.1033442663377342</v>
       </c>
       <c r="E104" t="n">
-        <v>4392.438819103789</v>
+        <v>2000.607548424306</v>
       </c>
       <c r="F104" t="n">
-        <v>4.121748324152817</v>
+        <v>2.000607548424306</v>
       </c>
       <c r="G104" t="n">
-        <v>232.7095802325749</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>-9391.168967573909</v>
+        <v>-238.8470436670444</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2020-12-16</t>
+          <t>2020-12-08</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19426.43</v>
+        <v>19166.9</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1139109534026912</v>
+        <v>-0.1033442663377342</v>
       </c>
       <c r="E105" t="n">
-        <v>2212.883162510643</v>
+        <v>2000.607548424306</v>
       </c>
       <c r="F105" t="n">
-        <v>2.212883162510643</v>
+        <v>1.980789218468719</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>19.81832995558696</v>
       </c>
       <c r="H105" t="n">
-        <v>-9391.168967573909</v>
+        <v>-219.0287137114574</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2020-12-17</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3608,28 +3608,28 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21335.52</v>
+        <v>19426.43</v>
       </c>
       <c r="D106" t="n">
-        <v>0.101641827412558</v>
+        <v>0.1029631792977033</v>
       </c>
       <c r="E106" t="n">
-        <v>2168.58124159718</v>
+        <v>2000.206995204283</v>
       </c>
       <c r="F106" t="n">
-        <v>2.168581241597181</v>
+        <v>2.000206995204283</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-9391.168967573909</v>
+        <v>-219.0287137114574</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2020-12-17</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3638,22 +3638,22 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35410.37</v>
+        <v>21335.52</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.2155527808152493</v>
+        <v>-0.1029631792977033</v>
       </c>
       <c r="E107" t="n">
-        <v>4381.464404107824</v>
+        <v>2000.206995204283</v>
       </c>
       <c r="F107" t="n">
-        <v>7.632803723196879</v>
+        <v>2.196772971169735</v>
       </c>
       <c r="G107" t="n">
-        <v>-3033.873057057512</v>
+        <v>-196.5659759654525</v>
       </c>
       <c r="H107" t="n">
-        <v>-12425.04202463142</v>
+        <v>-415.5946896769099</v>
       </c>
     </row>
     <row r="108">
@@ -3671,25 +3671,25 @@
         <v>39145.21</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05818619891759707</v>
+        <v>0.05119632068679545</v>
       </c>
       <c r="E108" t="n">
-        <v>2277.71097573111</v>
+        <v>2004.090724511952</v>
       </c>
       <c r="F108" t="n">
-        <v>2.27771097573111</v>
+        <v>2.004090724511952</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-12425.04202463142</v>
+        <v>-415.5946896769099</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2021-01-16</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3698,22 +3698,22 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35468.23</v>
+        <v>36737.43</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.05818619891759707</v>
+        <v>-0.05119632068679545</v>
       </c>
       <c r="E109" t="n">
-        <v>2277.71097573111</v>
+        <v>2004.090724511952</v>
       </c>
       <c r="F109" t="n">
-        <v>2.063761486035084</v>
+        <v>1.8808212474887</v>
       </c>
       <c r="G109" t="n">
-        <v>213.9494896960258</v>
+        <v>123.2694770232523</v>
       </c>
       <c r="H109" t="n">
-        <v>-12211.09253493539</v>
+        <v>-292.3252126536576</v>
       </c>
     </row>
     <row r="110">
@@ -3731,25 +3731,25 @@
         <v>37620.26</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0604298811816177</v>
+        <v>0.0532049816314089</v>
       </c>
       <c r="E110" t="n">
-        <v>2273.387841821565</v>
+        <v>2001.585242268827</v>
       </c>
       <c r="F110" t="n">
-        <v>2.273387841821565</v>
+        <v>2.001585242268827</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-12211.09253493539</v>
+        <v>-292.3252126536576</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2021-02-05</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3758,22 +3758,22 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>48891</v>
+        <v>36936.65</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.0604298811816177</v>
+        <v>-0.0532049816314089</v>
       </c>
       <c r="E111" t="n">
-        <v>2273.387841821565</v>
+        <v>2001.585242268827</v>
       </c>
       <c r="F111" t="n">
-        <v>2.954477320850471</v>
+        <v>1.96521378477578</v>
       </c>
       <c r="G111" t="n">
-        <v>-681.0894790289058</v>
+        <v>36.37145749304747</v>
       </c>
       <c r="H111" t="n">
-        <v>-12892.1820139643</v>
+        <v>-255.9537551606101</v>
       </c>
     </row>
     <row r="112">
@@ -3791,25 +3791,25 @@
         <v>54874.67</v>
       </c>
       <c r="D112" t="n">
-        <v>0.04166606376233813</v>
+        <v>0.03645299715245575</v>
       </c>
       <c r="E112" t="n">
-        <v>2286.411499157263</v>
+        <v>2000.346189251949</v>
       </c>
       <c r="F112" t="n">
-        <v>2.286411499157263</v>
+        <v>2.000346189251949</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>-12892.1820139643</v>
+        <v>-255.9537551606101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021-03-16</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>55605.2</v>
+        <v>55851.59</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04166606376233813</v>
+        <v>-0.03645299715245575</v>
       </c>
       <c r="E113" t="n">
-        <v>2286.411499157263</v>
+        <v>2000.346189251949</v>
       </c>
       <c r="F113" t="n">
-        <v>2.316849808717564</v>
+        <v>2.035957851230126</v>
       </c>
       <c r="G113" t="n">
-        <v>-30.43830956030113</v>
+        <v>-35.61166197817701</v>
       </c>
       <c r="H113" t="n">
-        <v>-12922.6203235246</v>
+        <v>-291.5654171387871</v>
       </c>
     </row>
     <row r="114">
@@ -3851,25 +3851,25 @@
         <v>58912.97</v>
       </c>
       <c r="D114" t="n">
-        <v>0.03882570811705973</v>
+        <v>0.03397105984255609</v>
       </c>
       <c r="E114" t="n">
-        <v>2287.337777529096</v>
+        <v>2001.336029372711</v>
       </c>
       <c r="F114" t="n">
-        <v>2.287337777529096</v>
+        <v>2.001336029372712</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>-12922.6203235246</v>
+        <v>-291.5654171387871</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3878,22 +3878,22 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>54083.24999999999</v>
+        <v>57641</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.03882570811705973</v>
+        <v>-0.03397105984255609</v>
       </c>
       <c r="E115" t="n">
-        <v>2287.337777529096</v>
+        <v>2001.336029372711</v>
       </c>
       <c r="F115" t="n">
-        <v>2.099820478521971</v>
+        <v>1.958125860384775</v>
       </c>
       <c r="G115" t="n">
-        <v>187.517299007126</v>
+        <v>43.2101689879361</v>
       </c>
       <c r="H115" t="n">
-        <v>-12735.10302451748</v>
+        <v>-248.355248150851</v>
       </c>
     </row>
     <row r="116">
@@ -3908,178 +3908,178 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>58950.01000000001</v>
+        <v>58950.01</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03873620527602679</v>
+        <v>0.03393371157621784</v>
       </c>
       <c r="E116" t="n">
-        <v>2283.499688383833</v>
+        <v>2000.392636755158</v>
       </c>
       <c r="F116" t="n">
-        <v>2.283499688383833</v>
+        <v>2.000392636755158</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>-12735.10302451748</v>
+        <v>-248.355248150851</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-04-04</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>59129.99</v>
+        <v>57051.95</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03784516156052772</v>
+        <v>-0.03393371157621784</v>
       </c>
       <c r="E117" t="n">
-        <v>2237.784024622388</v>
+        <v>2000.392636755158</v>
       </c>
       <c r="F117" t="n">
-        <v>2.237784024622389</v>
+        <v>1.935984416160802</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>64.40822059435621</v>
       </c>
       <c r="H117" t="n">
-        <v>-12735.10302451748</v>
+        <v>-183.9470275564948</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>55953.44</v>
+        <v>59129.99</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0765813668365545</v>
+        <v>0.0338073073376507</v>
       </c>
       <c r="E118" t="n">
-        <v>4521.283713006221</v>
+        <v>1999.025744802213</v>
       </c>
       <c r="F118" t="n">
-        <v>4.284990914407143</v>
+        <v>1.999025744802212</v>
       </c>
       <c r="G118" t="n">
-        <v>243.2645408246569</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>-12491.83848369282</v>
+        <v>-183.9470275564948</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2021-04-07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>59769.13</v>
+        <v>57990.03</v>
       </c>
       <c r="D119" t="n">
-        <v>0.03812332063256237</v>
+        <v>-0.0338073073376507</v>
       </c>
       <c r="E119" t="n">
-        <v>2278.597706919303</v>
+        <v>1999.025744802213</v>
       </c>
       <c r="F119" t="n">
-        <v>2.278597706919303</v>
+        <v>1.960486766729584</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>38.53897807262826</v>
       </c>
       <c r="H119" t="n">
-        <v>-12491.83848369282</v>
+        <v>-145.4080494838665</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-11</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>60006.67</v>
+        <v>59769.13</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.03812332063256237</v>
+        <v>0.03343156868755709</v>
       </c>
       <c r="E120" t="n">
-        <v>2278.597706919303</v>
+        <v>1998.175774990529</v>
       </c>
       <c r="F120" t="n">
-        <v>2.287653520502361</v>
+        <v>1.998175774990529</v>
       </c>
       <c r="G120" t="n">
-        <v>-9.055813583058899</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>-12500.89429727588</v>
+        <v>-145.4080494838665</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>57315.49000000001</v>
+        <v>59998.8</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03975743588110243</v>
+        <v>-0.03343156868755709</v>
       </c>
       <c r="E121" t="n">
-        <v>2278.716918668968</v>
+        <v>1998.175774990529</v>
       </c>
       <c r="F121" t="n">
-        <v>2.278716918668967</v>
+        <v>2.005854003371001</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>-7.678228380471421</v>
       </c>
       <c r="H121" t="n">
-        <v>-12500.89429727588</v>
+        <v>-153.0862778643379</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021-05-09</t>
+          <t>2021-05-08</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4088,28 +4088,28 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>58866.53000000001</v>
+        <v>57315.49</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03793730570808633</v>
+        <v>0.03486448530199593</v>
       </c>
       <c r="E122" t="n">
-        <v>2233.237544584235</v>
+        <v>1998.275058681695</v>
       </c>
       <c r="F122" t="n">
-        <v>2.233237544584235</v>
+        <v>1.998275058681694</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>-12500.89429727588</v>
+        <v>-153.0862778643379</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-09</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4118,22 +4118,22 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>49537.15</v>
+        <v>58866.53000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.07769474158918876</v>
+        <v>-0.03486448530199593</v>
       </c>
       <c r="E123" t="n">
-        <v>4511.954463253203</v>
+        <v>1998.275058681695</v>
       </c>
       <c r="F123" t="n">
-        <v>3.848776068314883</v>
+        <v>2.052351269964502</v>
       </c>
       <c r="G123" t="n">
-        <v>724.8437682873463</v>
+        <v>-54.07621128280805</v>
       </c>
       <c r="H123" t="n">
-        <v>-11776.05052898853</v>
+        <v>-207.162489147146</v>
       </c>
     </row>
     <row r="124">
@@ -4151,25 +4151,25 @@
         <v>39020.56</v>
       </c>
       <c r="D124" t="n">
-        <v>0.05805288635345455</v>
+        <v>0.05123579103692372</v>
       </c>
       <c r="E124" t="n">
-        <v>2265.256135128154</v>
+        <v>1999.249258303744</v>
       </c>
       <c r="F124" t="n">
-        <v>2.265256135128154</v>
+        <v>1.999249258303744</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>-11776.05052898853</v>
+        <v>-207.162489147146</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4178,22 +4178,22 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>38349</v>
+        <v>40516.28</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.05805288635345455</v>
+        <v>-0.05123579103692372</v>
       </c>
       <c r="E125" t="n">
-        <v>2265.256135128154</v>
+        <v>1999.249258303744</v>
       </c>
       <c r="F125" t="n">
-        <v>2.226270138768629</v>
+        <v>2.075883655673492</v>
       </c>
       <c r="G125" t="n">
-        <v>38.9859963595258</v>
+        <v>-76.63439736974762</v>
       </c>
       <c r="H125" t="n">
-        <v>-11737.06453262901</v>
+        <v>-283.7968865168936</v>
       </c>
     </row>
     <row r="126">
@@ -4211,25 +4211,25 @@
         <v>34261.51</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06609778479521508</v>
+        <v>0.0584007466824168</v>
       </c>
       <c r="E126" t="n">
-        <v>2264.60991473911</v>
+        <v>2000.89776646709</v>
       </c>
       <c r="F126" t="n">
-        <v>2.26460991473911</v>
+        <v>2.00089776646709</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>-11737.06453262901</v>
+        <v>-283.7968865168936</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4238,22 +4238,22 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>38207.04</v>
+        <v>35381.02</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.06609778479521508</v>
+        <v>-0.0584007466824168</v>
       </c>
       <c r="E127" t="n">
-        <v>2264.60991473911</v>
+        <v>2000.89776646709</v>
       </c>
       <c r="F127" t="n">
-        <v>2.525400707582175</v>
+        <v>2.066277986385522</v>
       </c>
       <c r="G127" t="n">
-        <v>-260.7907928430649</v>
+        <v>-65.38021991843213</v>
       </c>
       <c r="H127" t="n">
-        <v>-11997.85532547207</v>
+        <v>-349.1771064353258</v>
       </c>
     </row>
     <row r="128">
@@ -4271,19 +4271,19 @@
         <v>40862.46</v>
       </c>
       <c r="D128" t="n">
-        <v>0.05554015056481583</v>
+        <v>0.04899184280227088</v>
       </c>
       <c r="E128" t="n">
-        <v>2269.507180848764</v>
+        <v>2001.927216834082</v>
       </c>
       <c r="F128" t="n">
-        <v>2.269507180848764</v>
+        <v>2.001927216834082</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>-11997.85532547207</v>
+        <v>-349.1771064353258</v>
       </c>
     </row>
     <row r="129">
@@ -4294,26 +4294,26 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>42836.87</v>
       </c>
       <c r="D129" t="n">
-        <v>0.05191956478351877</v>
+        <v>-0.04899184280227088</v>
       </c>
       <c r="E129" t="n">
-        <v>2224.071647088172</v>
+        <v>2001.927216834082</v>
       </c>
       <c r="F129" t="n">
-        <v>2.224071647088172</v>
+        <v>2.098657201181314</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>-96.72998434723182</v>
       </c>
       <c r="H129" t="n">
-        <v>-11997.85532547207</v>
+        <v>-445.9070907825576</v>
       </c>
     </row>
     <row r="130">
@@ -4331,19 +4331,19 @@
         <v>46760.62</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0466107107372286</v>
+        <v>0.0428518656260902</v>
       </c>
       <c r="E130" t="n">
-        <v>2179.545732713467</v>
+        <v>2003.779804832666</v>
       </c>
       <c r="F130" t="n">
-        <v>2.179545732713467</v>
+        <v>2.003779804832666</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>-11997.85532547207</v>
+        <v>-445.9070907825576</v>
       </c>
     </row>
     <row r="131">
@@ -4354,92 +4354,92 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>49322.46999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04330503373299317</v>
+        <v>-0.0428518656260902</v>
       </c>
       <c r="E131" t="n">
-        <v>2135.911227144543</v>
+        <v>2003.779804832666</v>
       </c>
       <c r="F131" t="n">
-        <v>2.135911227144543</v>
+        <v>2.113559856786865</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>-109.7800519541988</v>
       </c>
       <c r="H131" t="n">
-        <v>-11997.85532547207</v>
+        <v>-555.6871427367564</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>46982.91</v>
+        <v>49246.63</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1973754598185564</v>
+        <v>0.04073157192203402</v>
       </c>
       <c r="E132" t="n">
-        <v>8809.035787794945</v>
+        <v>2005.892651762798</v>
       </c>
       <c r="F132" t="n">
-        <v>9.273273464863852</v>
+        <v>2.005892651762798</v>
       </c>
       <c r="G132" t="n">
-        <v>461.7717307730998</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>-11536.08359469897</v>
+        <v>-555.6871427367564</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-09-04</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>49246.63</v>
+        <v>49998</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04626570032402391</v>
+        <v>-0.04073157192203402</v>
       </c>
       <c r="E133" t="n">
-        <v>2278.429825548086</v>
+        <v>2005.892651762798</v>
       </c>
       <c r="F133" t="n">
-        <v>2.278429825548086</v>
+        <v>2.036497132957857</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>-30.60448119505881</v>
       </c>
       <c r="H133" t="n">
-        <v>-11536.08359469897</v>
+        <v>-586.2916239318153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4448,28 +4448,28 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>49997.99999999999</v>
+        <v>48141.6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.04465709056391003</v>
+        <v>0.0416775488170571</v>
       </c>
       <c r="E134" t="n">
-        <v>2232.765214014374</v>
+        <v>2006.423884131236</v>
       </c>
       <c r="F134" t="n">
-        <v>2.232765214014374</v>
+        <v>2.006423884131236</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>-11536.08359469897</v>
+        <v>-586.2916239318153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
+          <t>2021-10-03</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4478,28 +4478,28 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>46868.57</v>
+        <v>47634.89</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.09092279088793395</v>
+        <v>-0.0416775488170571</v>
       </c>
       <c r="E135" t="n">
-        <v>4511.195039562459</v>
+        <v>2006.423884131236</v>
       </c>
       <c r="F135" t="n">
-        <v>4.261421189326494</v>
+        <v>1.985305453370145</v>
       </c>
       <c r="G135" t="n">
-        <v>284.5365094884265</v>
+        <v>21.11843076109097</v>
       </c>
       <c r="H135" t="n">
-        <v>-11251.54708521054</v>
+        <v>-565.1731931707243</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2021-10-26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4508,28 +4508,28 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>48141.6</v>
+        <v>63078.78</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04722026037093052</v>
+        <v>0.03180026781914223</v>
       </c>
       <c r="E136" t="n">
-        <v>2273.258886673188</v>
+        <v>2005.922097704753</v>
       </c>
       <c r="F136" t="n">
-        <v>2.273258886673188</v>
+        <v>2.005922097704753</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>-11251.54708521054</v>
+        <v>-565.1731931707243</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4538,28 +4538,28 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>60688.23000000001</v>
+        <v>60328.81</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.04722026037093052</v>
+        <v>-0.03180026781914223</v>
       </c>
       <c r="E137" t="n">
-        <v>2273.258886673188</v>
+        <v>2005.922097704753</v>
       </c>
       <c r="F137" t="n">
-        <v>2.865714022050917</v>
+        <v>1.918472315210146</v>
       </c>
       <c r="G137" t="n">
-        <v>-592.4551353777285</v>
+        <v>87.44978249460661</v>
       </c>
       <c r="H137" t="n">
-        <v>-11844.00222058827</v>
+        <v>-477.7234106761177</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021-10-26</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4568,28 +4568,28 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>63078.78</v>
+        <v>67525.82000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03622463342070301</v>
+        <v>0.0296789334417156</v>
       </c>
       <c r="E138" t="n">
-        <v>2285.005682125172</v>
+        <v>2004.094317377268</v>
       </c>
       <c r="F138" t="n">
-        <v>2.285005682125172</v>
+        <v>2.004094317377268</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>-11844.00222058827</v>
+        <v>-477.7234106761177</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-11-10</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4598,28 +4598,28 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>58413.44</v>
+        <v>66947.67</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.03622463342070301</v>
+        <v>-0.0296789334417156</v>
       </c>
       <c r="E139" t="n">
-        <v>2285.005682125172</v>
+        <v>2004.094317377268</v>
       </c>
       <c r="F139" t="n">
-        <v>2.11600545084223</v>
+        <v>1.98693544200794</v>
       </c>
       <c r="G139" t="n">
-        <v>169.0002312829424</v>
+        <v>17.15887536932813</v>
       </c>
       <c r="H139" t="n">
-        <v>-11675.00198930533</v>
+        <v>-460.5645353067895</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2021-11-15</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4628,28 +4628,28 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>67525.82000000001</v>
+        <v>65519.11</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03378762848641556</v>
+        <v>0.03058148869664003</v>
       </c>
       <c r="E140" t="n">
-        <v>2281.53731940057</v>
+        <v>2003.671921878915</v>
       </c>
       <c r="F140" t="n">
-        <v>2.28153731940057</v>
+        <v>2.003671921878915</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>-11675.00198930533</v>
+        <v>-460.5645353067895</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2021-11-16</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4658,28 +4658,28 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>64122.21999999999</v>
+        <v>63606.73</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.03378762848641556</v>
+        <v>-0.03058148869664003</v>
       </c>
       <c r="E141" t="n">
-        <v>2281.53731940057</v>
+        <v>2003.671921878915</v>
       </c>
       <c r="F141" t="n">
-        <v>2.166537747084206</v>
+        <v>1.945188494525235</v>
       </c>
       <c r="G141" t="n">
-        <v>114.9995723163644</v>
+        <v>58.48342735368039</v>
       </c>
       <c r="H141" t="n">
-        <v>-11560.00241698896</v>
+        <v>-402.0811079531092</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4688,28 +4688,28 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>65519.11000000001</v>
+        <v>50838.82</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03478601971530741</v>
+        <v>0.03938768374611102</v>
       </c>
       <c r="E142" t="n">
-        <v>2279.149052189395</v>
+        <v>2002.423364185464</v>
       </c>
       <c r="F142" t="n">
-        <v>2.279149052189395</v>
+        <v>2.002423364185464</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>-11560.00241698896</v>
+        <v>-402.0811079531092</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4718,28 +4718,28 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>60058.87</v>
+        <v>50819.99</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.03478601971530741</v>
+        <v>-0.03938768374611102</v>
       </c>
       <c r="E143" t="n">
-        <v>2279.149052189395</v>
+        <v>2002.423364185464</v>
       </c>
       <c r="F143" t="n">
-        <v>2.089209035899085</v>
+        <v>2.001681694100525</v>
       </c>
       <c r="G143" t="n">
-        <v>189.9400162903103</v>
+        <v>0.7416700849393393</v>
       </c>
       <c r="H143" t="n">
-        <v>-11370.06240069865</v>
+        <v>-401.3394378681698</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4748,28 +4748,28 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>50838.82</v>
+        <v>41571.7</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04475444127904705</v>
+        <v>0.0481626981799013</v>
       </c>
       <c r="E144" t="n">
-        <v>2275.262984386043</v>
+        <v>2002.205239925403</v>
       </c>
       <c r="F144" t="n">
-        <v>2.275262984386043</v>
+        <v>2.002205239925403</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-11370.06240069865</v>
+        <v>-401.3394378681698</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021-12-29</t>
+          <t>2022-02-06</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>47543.74</v>
+        <v>41382.6</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.04475444127904705</v>
+        <v>-0.0481626981799013</v>
       </c>
       <c r="E145" t="n">
-        <v>2275.262984386043</v>
+        <v>2002.205239925403</v>
       </c>
       <c r="F145" t="n">
-        <v>2.12779352001628</v>
+        <v>1.993097673699584</v>
       </c>
       <c r="G145" t="n">
-        <v>147.4694643697624</v>
+        <v>9.107566225819266</v>
       </c>
       <c r="H145" t="n">
-        <v>-11222.59293632889</v>
+        <v>-392.2318716423505</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4808,28 +4808,28 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>41571.7</v>
+        <v>44544.85</v>
       </c>
       <c r="D146" t="n">
-        <v>0.05465462603472452</v>
+        <v>0.04494493859500227</v>
       </c>
       <c r="E146" t="n">
-        <v>2272.085717127757</v>
+        <v>2002.065547973587</v>
       </c>
       <c r="F146" t="n">
-        <v>2.272085717127757</v>
+        <v>2.002065547973586</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>-11222.59293632889</v>
+        <v>-392.2318716423505</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4838,28 +4838,28 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>42217.87</v>
+        <v>43873.56</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.05465462603472452</v>
+        <v>-0.04494493859500227</v>
       </c>
       <c r="E147" t="n">
-        <v>2272.085717127757</v>
+        <v>2002.065547973587</v>
       </c>
       <c r="F147" t="n">
-        <v>2.307401896832616</v>
+        <v>1.971894460144147</v>
       </c>
       <c r="G147" t="n">
-        <v>-35.31617970485824</v>
+        <v>30.17108782943911</v>
       </c>
       <c r="H147" t="n">
-        <v>-11257.90911603375</v>
+        <v>-362.0607838129114</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4868,28 +4868,28 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>44544.85</v>
+        <v>44421.2</v>
       </c>
       <c r="D148" t="n">
-        <v>0.05102361574974001</v>
+        <v>0.04505468326984011</v>
       </c>
       <c r="E148" t="n">
-        <v>2272.839310029806</v>
+        <v>2001.383096466221</v>
       </c>
       <c r="F148" t="n">
-        <v>2.272839310029806</v>
+        <v>2.001383096466221</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>-11257.90911603375</v>
+        <v>-362.0607838129114</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4898,28 +4898,28 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>40515.71</v>
+        <v>43892.99</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.05102361574974001</v>
+        <v>-0.04505468326984011</v>
       </c>
       <c r="E149" t="n">
-        <v>2272.839310029806</v>
+        <v>2001.383096466221</v>
       </c>
       <c r="F149" t="n">
-        <v>2.067258018867899</v>
+        <v>1.977584762216259</v>
       </c>
       <c r="G149" t="n">
-        <v>205.5812911619074</v>
+        <v>23.7983342499622</v>
       </c>
       <c r="H149" t="n">
-        <v>-11052.32782487184</v>
+        <v>-338.2624495629493</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4928,28 +4928,28 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>44421.2</v>
+        <v>41941.7</v>
       </c>
       <c r="D150" t="n">
-        <v>0.05107114153818779</v>
+        <v>0.04770495886848792</v>
       </c>
       <c r="E150" t="n">
-        <v>2268.641392496148</v>
+        <v>2000.82707337446</v>
       </c>
       <c r="F150" t="n">
-        <v>2.268641392496147</v>
+        <v>2.00082707337446</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>-11052.32782487184</v>
+        <v>-338.2624495629493</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4958,28 +4958,28 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39148.65</v>
+        <v>39422.01</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.05107114153818779</v>
+        <v>-0.04770495886848792</v>
       </c>
       <c r="E151" t="n">
-        <v>2268.641392496148</v>
+        <v>2000.82707337446</v>
       </c>
       <c r="F151" t="n">
-        <v>1.999366245178976</v>
+        <v>1.88062536556312</v>
       </c>
       <c r="G151" t="n">
-        <v>269.2751473171718</v>
+        <v>120.2017078113401</v>
       </c>
       <c r="H151" t="n">
-        <v>-10783.05267755467</v>
+        <v>-218.0607417516092</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4988,28 +4988,28 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>41941.7</v>
+        <v>42364.13</v>
       </c>
       <c r="D152" t="n">
-        <v>0.05395990123905418</v>
+        <v>0.04717070519845545</v>
       </c>
       <c r="E152" t="n">
-        <v>2263.169989798038</v>
+        <v>1998.345887219042</v>
       </c>
       <c r="F152" t="n">
-        <v>2.263169989798039</v>
+        <v>1.998345887219042</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>-10783.05267755467</v>
+        <v>-218.0607417516092</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5018,28 +5018,28 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>39422.00999999999</v>
+        <v>42882.76</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.05395990123905418</v>
+        <v>-0.04717070519845545</v>
       </c>
       <c r="E153" t="n">
-        <v>2263.169989798038</v>
+        <v>1998.345887219042</v>
       </c>
       <c r="F153" t="n">
-        <v>2.127207766245006</v>
+        <v>2.022810030056118</v>
       </c>
       <c r="G153" t="n">
-        <v>135.9622235530325</v>
+        <v>-24.46414283707517</v>
       </c>
       <c r="H153" t="n">
-        <v>-10647.09045400164</v>
+        <v>-242.5248845886843</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5048,28 +5048,28 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>42364.13</v>
+        <v>31734.23</v>
       </c>
       <c r="D154" t="n">
-        <v>0.05335559770425756</v>
+        <v>0.06298420906382569</v>
       </c>
       <c r="E154" t="n">
-        <v>2260.363477370869</v>
+        <v>1998.755376799529</v>
       </c>
       <c r="F154" t="n">
-        <v>2.260363477370869</v>
+        <v>1.998755376799529</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>-10647.09045400164</v>
+        <v>-242.5248845886843</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5078,28 +5078,28 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>45810.99</v>
+        <v>31801.05</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.05335559770425756</v>
+        <v>-0.06298420906382569</v>
       </c>
       <c r="E155" t="n">
-        <v>2260.363477370869</v>
+        <v>1998.755376799529</v>
       </c>
       <c r="F155" t="n">
-        <v>2.444272752873766</v>
+        <v>2.002963981649174</v>
       </c>
       <c r="G155" t="n">
-        <v>-183.9092755028972</v>
+        <v>-4.208604849644814</v>
       </c>
       <c r="H155" t="n">
-        <v>-10830.99972950453</v>
+        <v>-246.7334894383291</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5108,28 +5108,28 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>31734.23</v>
+        <v>31373.1</v>
       </c>
       <c r="D156" t="n">
-        <v>0.07134089226570944</v>
+        <v>0.06370932055382678</v>
       </c>
       <c r="E156" t="n">
-        <v>2263.948283565245</v>
+        <v>1998.758884667263</v>
       </c>
       <c r="F156" t="n">
-        <v>2.263948283565245</v>
+        <v>1.998758884667263</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>-10830.99972950453</v>
+        <v>-246.7334894383291</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5138,28 +5138,28 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>29805.84</v>
+        <v>31125.32</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.07134089226570944</v>
+        <v>-0.06370932055382678</v>
       </c>
       <c r="E157" t="n">
-        <v>2263.948283565245</v>
+        <v>1998.758884667263</v>
       </c>
       <c r="F157" t="n">
-        <v>2.126375220328973</v>
+        <v>1.982972989220436</v>
       </c>
       <c r="G157" t="n">
-        <v>137.5730632362717</v>
+        <v>15.78589544682712</v>
       </c>
       <c r="H157" t="n">
-        <v>-10693.42666626826</v>
+        <v>-230.947593991502</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5168,28 +5168,28 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>31373.1</v>
+        <v>21624.99</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07207156138288912</v>
+        <v>0.09240995978358585</v>
       </c>
       <c r="E158" t="n">
-        <v>2261.108302421519</v>
+        <v>1998.364456220446</v>
       </c>
       <c r="F158" t="n">
-        <v>2.261108302421519</v>
+        <v>1.998364456220446</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>-10693.42666626826</v>
+        <v>-230.947593991502</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5198,28 +5198,28 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>29091.87</v>
+        <v>21594.75</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.07207156138288912</v>
+        <v>-0.09240995978358585</v>
       </c>
       <c r="E159" t="n">
-        <v>2261.108302421519</v>
+        <v>1998.364456220446</v>
       </c>
       <c r="F159" t="n">
-        <v>2.09669649444803</v>
+        <v>1.99556997903659</v>
       </c>
       <c r="G159" t="n">
-        <v>164.4118079734886</v>
+        <v>2.794477183855784</v>
       </c>
       <c r="H159" t="n">
-        <v>-10529.01485829477</v>
+        <v>-228.1531168076463</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5228,28 +5228,28 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21624.99</v>
+        <v>21195.6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1044039305546692</v>
+        <v>0.09427559323106996</v>
       </c>
       <c r="E160" t="n">
-        <v>2257.733954205417</v>
+        <v>1998.227763888466</v>
       </c>
       <c r="F160" t="n">
-        <v>2.257733954205417</v>
+        <v>1.998227763888466</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>-10529.01485829477</v>
+        <v>-228.1531168076463</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5258,28 +5258,28 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>19963.61</v>
+        <v>20799.58</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1044039305546692</v>
+        <v>-0.09427559323106996</v>
       </c>
       <c r="E161" t="n">
-        <v>2257.733954205417</v>
+        <v>1998.227763888466</v>
       </c>
       <c r="F161" t="n">
-        <v>2.084279352060501</v>
+        <v>1.960892743457098</v>
       </c>
       <c r="G161" t="n">
-        <v>173.4546021449165</v>
+        <v>37.33502043136802</v>
       </c>
       <c r="H161" t="n">
-        <v>-10355.56025614986</v>
+        <v>-190.8180963762782</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5288,28 +5288,28 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>21195.6</v>
+        <v>22954.31</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1063511756146128</v>
+        <v>0.08702347161499935</v>
       </c>
       <c r="E162" t="n">
-        <v>2254.176977857088</v>
+        <v>1997.563744726896</v>
       </c>
       <c r="F162" t="n">
-        <v>2.254176977857088</v>
+        <v>1.997563744726896</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>-10355.56025614986</v>
+        <v>-190.8180963762782</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5318,28 +5318,28 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>21310.9</v>
+        <v>23845.25</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1063511756146128</v>
+        <v>-0.08702347161499935</v>
       </c>
       <c r="E163" t="n">
-        <v>2254.176977857088</v>
+        <v>1997.563744726896</v>
       </c>
       <c r="F163" t="n">
-        <v>2.266439268405453</v>
+        <v>2.075096436527563</v>
       </c>
       <c r="G163" t="n">
-        <v>-12.26229054836517</v>
+        <v>-77.53269180066741</v>
       </c>
       <c r="H163" t="n">
-        <v>-10367.82254669822</v>
+        <v>-268.3507881769456</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5348,58 +5348,58 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>22954.31</v>
+        <v>23810.98</v>
       </c>
       <c r="D164" t="n">
-        <v>0.09821748054535048</v>
+        <v>0.0839509064133591</v>
       </c>
       <c r="E164" t="n">
-        <v>2254.514495856944</v>
+        <v>1998.953353590365</v>
       </c>
       <c r="F164" t="n">
-        <v>2.254514495856944</v>
+        <v>1.998953353590365</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>-10367.82254669822</v>
+        <v>-268.3507881769456</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>23845.25</v>
+        <v>23151.32</v>
       </c>
       <c r="D165" t="n">
-        <v>0.09265624783263104</v>
+        <v>-0.0839509064133591</v>
       </c>
       <c r="E165" t="n">
-        <v>2209.411393631045</v>
+        <v>1998.953353590365</v>
       </c>
       <c r="F165" t="n">
-        <v>2.209411393631045</v>
+        <v>1.943574298665729</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>55.37905492463646</v>
       </c>
       <c r="H165" t="n">
-        <v>-10367.82254669822</v>
+        <v>-212.9717332523092</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5408,28 +5408,28 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>23810.98</v>
+        <v>21361.62</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0909266700980924</v>
+        <v>0.09352408063678241</v>
       </c>
       <c r="E166" t="n">
-        <v>2165.053123172276</v>
+        <v>1997.825871412304</v>
       </c>
       <c r="F166" t="n">
-        <v>2.165053123172276</v>
+        <v>1.997825871412304</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>-10367.82254669822</v>
+        <v>-212.9717332523092</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5438,28 +5438,28 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>23342.66</v>
+        <v>21647.21</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.2818003984760739</v>
+        <v>-0.09352408063678241</v>
       </c>
       <c r="E167" t="n">
-        <v>6628.979012660265</v>
+        <v>1997.825871412304</v>
       </c>
       <c r="F167" t="n">
-        <v>6.577970889491512</v>
+        <v>2.024535413601363</v>
       </c>
       <c r="G167" t="n">
-        <v>131.9727626143149</v>
+        <v>-26.7095421890587</v>
       </c>
       <c r="H167" t="n">
-        <v>-10235.84978408391</v>
+        <v>-239.6812754413679</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5468,28 +5468,28 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>21361.62</v>
+        <v>20337.82</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1054792091371117</v>
+        <v>0.09824742247048224</v>
       </c>
       <c r="E168" t="n">
-        <v>2253.206783487509</v>
+        <v>1998.138393668623</v>
       </c>
       <c r="F168" t="n">
-        <v>2.253206783487509</v>
+        <v>1.998138393668623</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>-10235.84978408391</v>
+        <v>-239.6812754413679</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5498,28 +5498,28 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>20173.62</v>
+        <v>20158.26</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1054792091371117</v>
+        <v>-0.09824742247048224</v>
       </c>
       <c r="E169" t="n">
-        <v>2253.206783487509</v>
+        <v>1998.138393668623</v>
       </c>
       <c r="F169" t="n">
-        <v>2.12789748303262</v>
+        <v>1.980497086489823</v>
       </c>
       <c r="G169" t="n">
-        <v>125.3093004548888</v>
+        <v>17.64130717879992</v>
       </c>
       <c r="H169" t="n">
-        <v>-10110.54048362902</v>
+        <v>-222.039968262568</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5528,28 +5528,28 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>20337.82</v>
+        <v>20079.02</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1106536345482104</v>
+        <v>0.09948700352217119</v>
       </c>
       <c r="E170" t="n">
-        <v>2250.453701787284</v>
+        <v>1997.601533461746</v>
       </c>
       <c r="F170" t="n">
-        <v>2.250453701787283</v>
+        <v>1.997601533461746</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>-10110.54048362902</v>
+        <v>-222.039968262568</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5558,28 +5558,28 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>19530.09</v>
+        <v>20771.61</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1106536345482104</v>
+        <v>-0.09948700352217119</v>
       </c>
       <c r="E171" t="n">
-        <v>2250.453701787284</v>
+        <v>1997.601533461746</v>
       </c>
       <c r="F171" t="n">
-        <v>2.161075441553657</v>
+        <v>2.066505237231167</v>
       </c>
       <c r="G171" t="n">
-        <v>89.37826023362589</v>
+        <v>-68.90370376942056</v>
       </c>
       <c r="H171" t="n">
-        <v>-10021.16222339539</v>
+        <v>-290.9436720319885</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5588,28 +5588,28 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>20079.02</v>
+        <v>21148.52</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1119805810437784</v>
+        <v>0.0945221125050556</v>
       </c>
       <c r="E172" t="n">
-        <v>2248.460326389648</v>
+        <v>1999.002786755419</v>
       </c>
       <c r="F172" t="n">
-        <v>2.248460326389648</v>
+        <v>1.999002786755419</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>-10021.16222339539</v>
+        <v>-290.9436720319885</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-06</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5618,28 +5618,28 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>20151.84</v>
+        <v>21299.37</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1119805810437784</v>
+        <v>-0.0945221125050556</v>
       </c>
       <c r="E173" t="n">
-        <v>2248.460326389648</v>
+        <v>1999.002786755419</v>
       </c>
       <c r="F173" t="n">
-        <v>2.256614752301256</v>
+        <v>2.013261447426806</v>
       </c>
       <c r="G173" t="n">
-        <v>-8.154425911607914</v>
+        <v>-14.2586606713875</v>
       </c>
       <c r="H173" t="n">
-        <v>-10029.316649307</v>
+        <v>-305.202332703376</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5648,28 +5648,28 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>21148.52</v>
+        <v>17165.53</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1063266315097417</v>
+        <v>0.1164792383599378</v>
       </c>
       <c r="E174" t="n">
-        <v>2248.650893016403</v>
+        <v>1999.427860444662</v>
       </c>
       <c r="F174" t="n">
-        <v>2.248650893016403</v>
+        <v>1.999427860444663</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>-10029.316649307</v>
+        <v>-305.202332703376</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5678,28 +5678,28 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>18545.38</v>
+        <v>16978</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1063266315097417</v>
+        <v>-0.1164792383599378</v>
       </c>
       <c r="E175" t="n">
-        <v>2248.650893016403</v>
+        <v>1999.427860444662</v>
       </c>
       <c r="F175" t="n">
-        <v>1.971867785468134</v>
+        <v>1.977584508875024</v>
       </c>
       <c r="G175" t="n">
-        <v>276.783107548269</v>
+        <v>21.84335156963899</v>
       </c>
       <c r="H175" t="n">
-        <v>-9752.533541758734</v>
+        <v>-283.358981133737</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-13</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5708,58 +5708,58 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>17165.53</v>
+        <v>17208.93</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1306850307097951</v>
+        <v>0.1161366095658925</v>
       </c>
       <c r="E176" t="n">
-        <v>2243.277815199909</v>
+        <v>1998.586784456774</v>
       </c>
       <c r="F176" t="n">
-        <v>2.243277815199909</v>
+        <v>1.998586784456774</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>-9752.533541758734</v>
+        <v>-283.358981133737</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>17208.93</v>
+        <v>17775.82</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1277247014428129</v>
+        <v>-0.1161366095658925</v>
       </c>
       <c r="E177" t="n">
-        <v>2198.005446400267</v>
+        <v>1998.586784456774</v>
       </c>
       <c r="F177" t="n">
-        <v>2.198005446400267</v>
+        <v>2.064423467053583</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>-65.83668259680871</v>
       </c>
       <c r="H177" t="n">
-        <v>-9752.533541758734</v>
+        <v>-349.1956637305457</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5768,28 +5768,28 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>17775.82</v>
+        <v>16850.36</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1211900245627005</v>
+        <v>0.1186874809115229</v>
       </c>
       <c r="E178" t="n">
-        <v>2154.252062422142</v>
+        <v>1999.92678085229</v>
       </c>
       <c r="F178" t="n">
-        <v>2.154252062422142</v>
+        <v>1.999926780852289</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>-9752.533541758734</v>
+        <v>-349.1956637305457</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5798,28 +5798,28 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>17356.96</v>
+        <v>16831.85</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.3795997567153085</v>
+        <v>-0.1186874809115229</v>
       </c>
       <c r="E179" t="n">
-        <v>6595.535324022318</v>
+        <v>1999.92678085229</v>
       </c>
       <c r="F179" t="n">
-        <v>6.588697793317342</v>
+        <v>1.997729875580617</v>
       </c>
       <c r="G179" t="n">
-        <v>158.9991540977744</v>
+        <v>2.196905271672531</v>
       </c>
       <c r="H179" t="n">
-        <v>-9593.53438766096</v>
+        <v>-346.9987584588732</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5828,52 +5828,52 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>16850.36</v>
+        <v>16950.31</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1330909479213157</v>
+        <v>0.1179779471355805</v>
       </c>
       <c r="E180" t="n">
-        <v>2242.630385215422</v>
+        <v>1999.762777111702</v>
       </c>
       <c r="F180" t="n">
-        <v>2.242630385215422</v>
+        <v>1.999762777111701</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>-9593.53438766096</v>
+        <v>-346.9987584588732</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>16950.31</v>
+        <v>16943.83</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1296547875688194</v>
+        <v>-0.1179779471355805</v>
       </c>
       <c r="E181" t="n">
-        <v>2197.688842275636</v>
+        <v>1999.762777111702</v>
       </c>
       <c r="F181" t="n">
-        <v>2.197688842275636</v>
+        <v>1.998998280014263</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>0.7644970974385101</v>
       </c>
       <c r="H181" t="n">
-        <v>-9593.53438766096</v>
+        <v>-346.2342613614347</v>
       </c>
     </row>
     <row r="182">
@@ -5891,175 +5891,175 @@
         <v>23743.37</v>
       </c>
       <c r="D182" t="n">
-        <v>0.09071299723620084</v>
+        <v>0.08422552256734336</v>
       </c>
       <c r="E182" t="n">
-        <v>2153.832257188094</v>
+        <v>1999.797745759783</v>
       </c>
       <c r="F182" t="n">
-        <v>2.153832257188094</v>
+        <v>1.999797745759783</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>-9593.53438766096</v>
+        <v>-346.2342613614347</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>23731.41</v>
+        <v>22827.38</v>
       </c>
       <c r="D183" t="n">
-        <v>0.08893295030949525</v>
+        <v>-0.08422552256734336</v>
       </c>
       <c r="E183" t="n">
-        <v>2110.504306304259</v>
+        <v>1999.797745759783</v>
       </c>
       <c r="F183" t="n">
-        <v>2.110504306304259</v>
+        <v>1.922648009343323</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>77.14973641646067</v>
       </c>
       <c r="H183" t="n">
-        <v>-9593.53438766096</v>
+        <v>-269.0845249449741</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>22762.52</v>
+        <v>23731.41</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.4423916830358312</v>
+        <v>0.08419141304881984</v>
       </c>
       <c r="E184" t="n">
-        <v>8704.655790983412</v>
+        <v>1997.980941540894</v>
       </c>
       <c r="F184" t="n">
-        <v>10.06994953293677</v>
+        <v>1.997980941540894</v>
       </c>
       <c r="G184" t="n">
-        <v>428.6288777765863</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>-9164.905509884375</v>
+        <v>-269.0845249449741</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>24322.87</v>
+        <v>23489.33</v>
       </c>
       <c r="D185" t="n">
-        <v>0.09330521718003421</v>
+        <v>-0.08419141304881984</v>
       </c>
       <c r="E185" t="n">
-        <v>2269.450667791738</v>
+        <v>1997.980941540894</v>
       </c>
       <c r="F185" t="n">
-        <v>2.269450667791739</v>
+        <v>1.977599884270036</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>20.38105727085815</v>
       </c>
       <c r="H185" t="n">
-        <v>-9164.905509884375</v>
+        <v>-248.7034676741159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>23184.04</v>
+        <v>24322.87</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.09330521718003421</v>
+        <v>0.08212444260085272</v>
       </c>
       <c r="E186" t="n">
-        <v>2269.450667791738</v>
+        <v>1997.502141203003</v>
       </c>
       <c r="F186" t="n">
-        <v>2.1631918873106</v>
+        <v>1.997502141203003</v>
       </c>
       <c r="G186" t="n">
-        <v>106.2587804811385</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>-9058.646729403235</v>
+        <v>-248.7034676741159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>24112.27</v>
+        <v>23517.72</v>
       </c>
       <c r="D187" t="n">
-        <v>0.09402819250839306</v>
+        <v>-0.08212444260085272</v>
       </c>
       <c r="E187" t="n">
-        <v>2267.233165374351</v>
+        <v>1997.502141203003</v>
       </c>
       <c r="F187" t="n">
-        <v>2.267233165374351</v>
+        <v>1.931379646242926</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>66.12249496007639</v>
       </c>
       <c r="H187" t="n">
-        <v>-9058.646729403235</v>
+        <v>-182.5809727140395</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6068,478 +6068,478 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>27968.05</v>
+        <v>24112.27</v>
       </c>
       <c r="D188" t="n">
-        <v>0.079446258552759</v>
+        <v>0.08278348958799481</v>
       </c>
       <c r="E188" t="n">
-        <v>2221.956931516491</v>
+        <v>1996.09785248792</v>
       </c>
       <c r="F188" t="n">
-        <v>2.221956931516491</v>
+        <v>1.996097852487919</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>-9058.646729403235</v>
+        <v>-182.5809727140395</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2023-04-11</t>
+          <t>2023-03-15</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>29637.35</v>
+        <v>24670.41</v>
       </c>
       <c r="D189" t="n">
-        <v>0.07347060680032456</v>
+        <v>-0.08278348958799481</v>
       </c>
       <c r="E189" t="n">
-        <v>2177.474088453599</v>
+        <v>1996.09785248792</v>
       </c>
       <c r="F189" t="n">
-        <v>2.177474088453599</v>
+        <v>2.042302629366563</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>-46.20477687864337</v>
       </c>
       <c r="H189" t="n">
-        <v>-9058.646729403235</v>
+        <v>-228.7857495926829</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>29430.27</v>
+        <v>27968.05</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.2469450578614766</v>
+        <v>0.07140438278815495</v>
       </c>
       <c r="E190" t="n">
-        <v>6666.664185344442</v>
+        <v>1997.041348038257</v>
       </c>
       <c r="F190" t="n">
-        <v>7.267659728028881</v>
+        <v>1.997041348038257</v>
       </c>
       <c r="G190" t="n">
-        <v>51.13738258195411</v>
+        <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>-9007.509346821282</v>
+        <v>-228.7857495926829</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>28065.01</v>
+        <v>27124.9</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0812074884682953</v>
+        <v>-0.07140438278815495</v>
       </c>
       <c r="E191" t="n">
-        <v>2279.088975937592</v>
+        <v>1997.041348038257</v>
       </c>
       <c r="F191" t="n">
-        <v>2.279088975937592</v>
+        <v>1.936836742690424</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>60.20460534783269</v>
       </c>
       <c r="H191" t="n">
-        <v>-9007.509346821282</v>
+        <v>-168.5811442448502</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-04-11</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>27210.36</v>
+        <v>29637.35</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0812074884682953</v>
+        <v>0.06733932864317396</v>
       </c>
       <c r="E192" t="n">
-        <v>2279.088975937592</v>
+        <v>1995.759251762772</v>
       </c>
       <c r="F192" t="n">
-        <v>2.209684995918164</v>
+        <v>1.995759251762772</v>
       </c>
       <c r="G192" t="n">
-        <v>69.4039800194287</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>-8938.105366801852</v>
+        <v>-168.5811442448502</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2023-04-12</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28308</v>
+        <v>30200.43</v>
       </c>
       <c r="D193" t="n">
-        <v>0.08045821369807188</v>
+        <v>-0.06733932864317396</v>
       </c>
       <c r="E193" t="n">
-        <v>2277.611113365019</v>
+        <v>1995.759251762772</v>
       </c>
       <c r="F193" t="n">
-        <v>2.277611113365019</v>
+        <v>2.03367668093517</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>-37.91742917239851</v>
       </c>
       <c r="H193" t="n">
-        <v>-8938.105366801852</v>
+        <v>-206.4985734172487</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-05-29</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>30617.02</v>
+        <v>28065.01</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.08045821369807188</v>
+        <v>0.07113616027914768</v>
       </c>
       <c r="E194" t="n">
-        <v>2277.611113365019</v>
+        <v>1996.437049595882</v>
       </c>
       <c r="F194" t="n">
-        <v>2.463390737958141</v>
+        <v>1.996437049595882</v>
       </c>
       <c r="G194" t="n">
-        <v>-185.779624593122</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>-9123.884991394974</v>
+        <v>-206.4985734172487</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-05-30</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>31156.2</v>
+        <v>27736.39</v>
       </c>
       <c r="D195" t="n">
-        <v>0.07321916925805193</v>
+        <v>-0.07113616027914768</v>
       </c>
       <c r="E195" t="n">
-        <v>2281.231081237718</v>
+        <v>1996.437049595882</v>
       </c>
       <c r="F195" t="n">
-        <v>2.281231081237717</v>
+        <v>1.973060284604949</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>23.37676499093344</v>
       </c>
       <c r="H195" t="n">
-        <v>-9123.884991394974</v>
+        <v>-183.1218084263153</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>30380</v>
+        <v>28308</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.07321916925805193</v>
+        <v>0.07050622149392367</v>
       </c>
       <c r="E196" t="n">
-        <v>2281.231081237718</v>
+        <v>1995.890118049991</v>
       </c>
       <c r="F196" t="n">
-        <v>2.224398362059618</v>
+        <v>1.995890118049991</v>
       </c>
       <c r="G196" t="n">
-        <v>56.83271917809996</v>
+        <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>-9067.052272216875</v>
+        <v>-183.1218084263153</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-06-22</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>31454.23</v>
+        <v>29993.89</v>
       </c>
       <c r="D197" t="n">
-        <v>0.07248641325078661</v>
+        <v>-0.07050622149392367</v>
       </c>
       <c r="E197" t="n">
-        <v>2280.00431426529</v>
+        <v>1995.890118049991</v>
       </c>
       <c r="F197" t="n">
-        <v>2.28000431426529</v>
+        <v>2.114755851804382</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>-118.8657337543912</v>
       </c>
       <c r="H197" t="n">
-        <v>-9067.052272216875</v>
+        <v>-301.9875421807065</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>30312</v>
+        <v>31156.2</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.07248641325078661</v>
+        <v>0.06413441031780086</v>
       </c>
       <c r="E198" t="n">
-        <v>2280.00431426529</v>
+        <v>1998.184514743467</v>
       </c>
       <c r="F198" t="n">
-        <v>2.197208158457844</v>
+        <v>1.998184514743467</v>
       </c>
       <c r="G198" t="n">
-        <v>82.79615580744623</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>-8984.25611640943</v>
+        <v>-301.9875421807065</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>29770.41</v>
+        <v>30766.52</v>
       </c>
       <c r="D199" t="n">
-        <v>0.07652760179062597</v>
+        <v>-0.06413441031780086</v>
       </c>
       <c r="E199" t="n">
-        <v>2278.258081623669</v>
+        <v>1998.184514743467</v>
       </c>
       <c r="F199" t="n">
-        <v>2.278258081623669</v>
+        <v>1.973192617730827</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>24.99189701264066</v>
       </c>
       <c r="H199" t="n">
-        <v>-8984.25611640943</v>
+        <v>-276.9956451680658</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>29303.85</v>
+        <v>31454.23</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.07652760179062597</v>
+        <v>0.0635083182535565</v>
       </c>
       <c r="E200" t="n">
-        <v>2278.258081623669</v>
+        <v>1997.605249260565</v>
       </c>
       <c r="F200" t="n">
-        <v>2.242553363732235</v>
+        <v>1.997605249260564</v>
       </c>
       <c r="G200" t="n">
-        <v>35.70471789143456</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>-8948.551398517995</v>
+        <v>-276.9956451680658</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2023-09-19</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>26762.5</v>
+        <v>30312</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0850986823101776</v>
+        <v>-0.0635083182535565</v>
       </c>
       <c r="E201" t="n">
-        <v>2277.453485326128</v>
+        <v>1997.605249260565</v>
       </c>
       <c r="F201" t="n">
-        <v>2.277453485326128</v>
+        <v>1.925064142901805</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>72.54110635875982</v>
       </c>
       <c r="H201" t="n">
-        <v>-8948.551398517995</v>
+        <v>-204.454538809306</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>26568.08</v>
+        <v>29770.41</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.0850986823101776</v>
+        <v>0.0670489692031737</v>
       </c>
       <c r="E202" t="n">
-        <v>2277.453485326128</v>
+        <v>1996.075303255854</v>
       </c>
       <c r="F202" t="n">
-        <v>2.260908599511383</v>
+        <v>1.996075303255854</v>
       </c>
       <c r="G202" t="n">
-        <v>16.54488581474489</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>-8932.00651270325</v>
+        <v>-204.454538809306</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>27021.39</v>
+        <v>29581.99</v>
       </c>
       <c r="D203" t="n">
-        <v>0.08426778457196167</v>
+        <v>-0.0670489692031737</v>
       </c>
       <c r="E203" t="n">
-        <v>2277.032671354959</v>
+        <v>1996.075303255854</v>
       </c>
       <c r="F203" t="n">
-        <v>2.277032671354959</v>
+        <v>1.983441936478592</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>12.63336677726187</v>
       </c>
       <c r="H203" t="n">
-        <v>-8932.00651270325</v>
+        <v>-191.8211720320442</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-19</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6548,28 +6548,28 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>27992.58</v>
+        <v>26762.5</v>
       </c>
       <c r="D204" t="n">
-        <v>0.07971567016799219</v>
+        <v>0.07457236694410227</v>
       </c>
       <c r="E204" t="n">
-        <v>2231.447274431135</v>
+        <v>1995.742970341537</v>
       </c>
       <c r="F204" t="n">
-        <v>2.231447274431135</v>
+        <v>1.995742970341537</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>-8932.00651270325</v>
+        <v>-191.8211720320442</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6578,28 +6578,28 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>27590.12</v>
+        <v>27210.25</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1639834547399538</v>
+        <v>-0.07457236694410227</v>
       </c>
       <c r="E205" t="n">
-        <v>4508.479945786095</v>
+        <v>1995.742970341537</v>
       </c>
       <c r="F205" t="n">
-        <v>4.524323194289895</v>
+        <v>2.029132747640759</v>
       </c>
       <c r="G205" t="n">
-        <v>65.99678119464228</v>
+        <v>-33.38977729922179</v>
       </c>
       <c r="H205" t="n">
-        <v>-8866.009731508608</v>
+        <v>-225.210949331266</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6608,28 +6608,28 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>28500.77</v>
+        <v>27021.39</v>
       </c>
       <c r="D206" t="n">
-        <v>0.07989847577021519</v>
+        <v>0.07387965660156015</v>
       </c>
       <c r="E206" t="n">
-        <v>2277.168081277476</v>
+        <v>1996.331014096831</v>
       </c>
       <c r="F206" t="n">
-        <v>2.277168081277476</v>
+        <v>1.996331014096832</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>-8866.009731508608</v>
+        <v>-225.210949331266</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6638,28 +6638,28 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>34716.78</v>
+        <v>26906.96</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.07989847577021519</v>
+        <v>-0.07387965660156015</v>
       </c>
       <c r="E207" t="n">
-        <v>2277.168081277476</v>
+        <v>1996.331014096831</v>
       </c>
       <c r="F207" t="n">
-        <v>2.773817805649891</v>
+        <v>1.987876964991915</v>
       </c>
       <c r="G207" t="n">
-        <v>-496.6497243724152</v>
+        <v>8.45404910491655</v>
       </c>
       <c r="H207" t="n">
-        <v>-9362.659455881023</v>
+        <v>-216.7569002263494</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6668,28 +6668,28 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>36701.1</v>
+        <v>27992.58</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0623142488419811</v>
+        <v>0.07130757372242531</v>
       </c>
       <c r="E208" t="n">
-        <v>2287.001478174433</v>
+        <v>1996.082962030888</v>
       </c>
       <c r="F208" t="n">
-        <v>2.287001478174433</v>
+        <v>1.996082962030888</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>-9362.659455881023</v>
+        <v>-216.7569002263494</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6698,28 +6698,28 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>35551.2</v>
+        <v>27494.51</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.0623142488419811</v>
+        <v>-0.07130757372242531</v>
       </c>
       <c r="E209" t="n">
-        <v>2287.001478174433</v>
+        <v>1996.082962030888</v>
       </c>
       <c r="F209" t="n">
-        <v>2.215346323431039</v>
+        <v>1.96056679878696</v>
       </c>
       <c r="G209" t="n">
-        <v>71.65515474339415</v>
+        <v>35.51616324392862</v>
       </c>
       <c r="H209" t="n">
-        <v>-9291.004301137629</v>
+        <v>-181.2407369824208</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6728,28 +6728,28 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>37359.85</v>
+        <v>28500.77</v>
       </c>
       <c r="D210" t="n">
-        <v>0.06117468601276995</v>
+        <v>0.07000835740969391</v>
       </c>
       <c r="E210" t="n">
-        <v>2285.477093234183</v>
+        <v>1995.292092611482</v>
       </c>
       <c r="F210" t="n">
-        <v>2.285477093234184</v>
+        <v>1.995292092611482</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>-9291.004301137629</v>
+        <v>-181.2407369824208</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6758,28 +6758,28 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>35741.65</v>
+        <v>28395.91</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.06117468601276995</v>
+        <v>-0.07000835740969391</v>
       </c>
       <c r="E211" t="n">
-        <v>2285.477093234183</v>
+        <v>1995.292092611482</v>
       </c>
       <c r="F211" t="n">
-        <v>2.186484216328319</v>
+        <v>1.987951016253501</v>
       </c>
       <c r="G211" t="n">
-        <v>98.99287690586415</v>
+        <v>7.341076357980544</v>
       </c>
       <c r="H211" t="n">
-        <v>-9192.011424231765</v>
+        <v>-173.8996606244403</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6788,28 +6788,28 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>37818.88</v>
+        <v>36701.1</v>
       </c>
       <c r="D212" t="n">
-        <v>0.06037748902113508</v>
+        <v>0.05435986523304128</v>
       </c>
       <c r="E212" t="n">
-        <v>2283.409011991625</v>
+        <v>1995.066849904371</v>
       </c>
       <c r="F212" t="n">
-        <v>2.283409011991625</v>
+        <v>1.995066849904371</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>-9192.011424231765</v>
+        <v>-173.8996606244403</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-12-12</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6818,28 +6818,28 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>41253.41</v>
+        <v>37301.63</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.06037748902113508</v>
+        <v>-0.05435986523304128</v>
       </c>
       <c r="E213" t="n">
-        <v>2283.409011991625</v>
+        <v>1995.066849904371</v>
       </c>
       <c r="F213" t="n">
-        <v>2.490777309359384</v>
+        <v>2.027711579772769</v>
       </c>
       <c r="G213" t="n">
-        <v>-207.3682973677594</v>
+        <v>-32.64472986839822</v>
       </c>
       <c r="H213" t="n">
-        <v>-9399.379721599524</v>
+        <v>-206.5443904928385</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6848,238 +6848,238 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>43861.79</v>
+        <v>37359.85</v>
       </c>
       <c r="D214" t="n">
-        <v>0.05215153711059882</v>
+        <v>0.05341665480905156</v>
       </c>
       <c r="E214" t="n">
-        <v>2287.459768922292</v>
+        <v>1995.638211167945</v>
       </c>
       <c r="F214" t="n">
-        <v>2.287459768922292</v>
+        <v>1.995638211167945</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>-9399.379721599524</v>
+        <v>-206.5443904928385</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2023-12-23</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>43969.04</v>
+        <v>37448.79</v>
       </c>
       <c r="D215" t="n">
-        <v>0.05098281303989897</v>
+        <v>-0.05341665480905156</v>
       </c>
       <c r="E215" t="n">
-        <v>2241.665345863839</v>
+        <v>1995.638211167945</v>
       </c>
       <c r="F215" t="n">
-        <v>2.24166534586384</v>
+        <v>2.000389088446662</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>-4.75087727871717</v>
       </c>
       <c r="H215" t="n">
-        <v>-9399.379721599524</v>
+        <v>-211.2952677715557</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>42508.93</v>
+        <v>37818.88</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1031343501504978</v>
+        <v>0.05276873270761594</v>
       </c>
       <c r="E216" t="n">
-        <v>4529.125114786131</v>
+        <v>1995.654370021402</v>
       </c>
       <c r="F216" t="n">
-        <v>4.384130871143</v>
+        <v>1.995654370021402</v>
       </c>
       <c r="G216" t="n">
-        <v>150.5874959982434</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>-9248.792225601281</v>
+        <v>-211.2952677715557</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>44179.55</v>
+        <v>37854.65</v>
       </c>
       <c r="D217" t="n">
-        <v>0.05170677701436711</v>
+        <v>-0.05276873270761594</v>
       </c>
       <c r="E217" t="n">
-        <v>2284.382140445083</v>
+        <v>1995.654370021402</v>
       </c>
       <c r="F217" t="n">
-        <v>2.284382140445083</v>
+        <v>1.997541907590354</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>-1.887537568951637</v>
       </c>
       <c r="H217" t="n">
-        <v>-9248.792225601281</v>
+        <v>-213.1828053405073</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>42845.23</v>
+        <v>43861.79</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.05170677701436711</v>
+        <v>0.0454977162168425</v>
       </c>
       <c r="E218" t="n">
-        <v>2284.382140445083</v>
+        <v>1995.61127418274</v>
       </c>
       <c r="F218" t="n">
-        <v>2.215388753739273</v>
+        <v>1.99561127418274</v>
       </c>
       <c r="G218" t="n">
-        <v>68.99338670581031</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>-9179.798838895471</v>
+        <v>-213.1828053405073</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>46951.04</v>
+        <v>43969.04</v>
       </c>
       <c r="D219" t="n">
-        <v>0.04862325259021063</v>
+        <v>-0.0454977162168425</v>
       </c>
       <c r="E219" t="n">
-        <v>2282.912277293083</v>
+        <v>1995.61127418274</v>
       </c>
       <c r="F219" t="n">
-        <v>2.282912277293083</v>
+        <v>2.000490904246996</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>-4.879630064256357</v>
       </c>
       <c r="H219" t="n">
-        <v>-9179.798838895471</v>
+        <v>-218.0624354047637</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024-01-13</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>42782.74</v>
+        <v>44179.55</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.04862325259021063</v>
+        <v>0.04517088561829215</v>
       </c>
       <c r="E220" t="n">
-        <v>2282.912277293083</v>
+        <v>1995.629399717619</v>
       </c>
       <c r="F220" t="n">
-        <v>2.080235973521308</v>
+        <v>1.995629399717619</v>
       </c>
       <c r="G220" t="n">
-        <v>202.6763037717751</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>-8977.122535123695</v>
+        <v>-218.0624354047637</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>43098.96</v>
+        <v>44946.91</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05287301635544789</v>
+        <v>-0.04517088561829215</v>
       </c>
       <c r="E221" t="n">
-        <v>2278.772016982794</v>
+        <v>1995.629399717619</v>
       </c>
       <c r="F221" t="n">
-        <v>2.278772016982794</v>
+        <v>2.030291730505672</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>-34.66233078805269</v>
       </c>
       <c r="H221" t="n">
-        <v>-8977.122535123695</v>
+        <v>-252.7247661928164</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7088,28 +7088,28 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>44349.6</v>
+        <v>46951.04</v>
       </c>
       <c r="D222" t="n">
-        <v>0.05035333965746332</v>
+        <v>0.04251752736277568</v>
       </c>
       <c r="E222" t="n">
-        <v>2233.150472472635</v>
+        <v>1996.242127910775</v>
       </c>
       <c r="F222" t="n">
-        <v>2.233150472472635</v>
+        <v>1.996242127910775</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>-8977.122535123695</v>
+        <v>-252.7247661928164</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7118,28 +7118,28 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>51288.42</v>
+        <v>46110</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1032263560129112</v>
+        <v>-0.04251752736277568</v>
       </c>
       <c r="E223" t="n">
-        <v>4511.92248945543</v>
+        <v>1996.242127910775</v>
       </c>
       <c r="F223" t="n">
-        <v>5.294316702259716</v>
+        <v>1.960483186697586</v>
       </c>
       <c r="G223" t="n">
-        <v>-716.2691036295085</v>
+        <v>35.75894121318889</v>
       </c>
       <c r="H223" t="n">
-        <v>-9693.391638753204</v>
+        <v>-216.9658249796275</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>54476.48</v>
+        <v>43098.96</v>
       </c>
       <c r="D224" t="n">
-        <v>0.04211402184695304</v>
+        <v>0.04629922108497352</v>
       </c>
       <c r="E224" t="n">
-        <v>2294.223668865101</v>
+        <v>1995.44827757243</v>
       </c>
       <c r="F224" t="n">
-        <v>2.294223668865101</v>
+        <v>1.99544827757243</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>-9693.391638753204</v>
+        <v>-216.9658249796275</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7178,28 +7178,28 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>69499.84</v>
+        <v>44349.60000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.04211402184695304</v>
+        <v>-0.04629922108497352</v>
       </c>
       <c r="E225" t="n">
-        <v>2294.223668865101</v>
+        <v>1995.44827757243</v>
       </c>
       <c r="F225" t="n">
-        <v>2.926917780119741</v>
+        <v>2.053351935430141</v>
       </c>
       <c r="G225" t="n">
-        <v>-632.6941112546405</v>
+        <v>-57.90365785771159</v>
       </c>
       <c r="H225" t="n">
-        <v>-10326.08575000785</v>
+        <v>-274.8694828373391</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7208,28 +7208,28 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>71620</v>
+        <v>54476.48</v>
       </c>
       <c r="D226" t="n">
-        <v>0.03220849912204685</v>
+        <v>0.03664930770538387</v>
       </c>
       <c r="E226" t="n">
-        <v>2306.772707120995</v>
+        <v>1996.52527822619</v>
       </c>
       <c r="F226" t="n">
-        <v>2.306772707120995</v>
+        <v>1.99652527822619</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>-10326.08575000785</v>
+        <v>-274.8694828373391</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7238,28 +7238,28 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>67116.52</v>
+        <v>57037.34999999999</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.03220849912204685</v>
+        <v>-0.03664930770538387</v>
       </c>
       <c r="E227" t="n">
-        <v>2306.772707120995</v>
+        <v>1996.52527822619</v>
       </c>
       <c r="F227" t="n">
-        <v>2.16172237549484</v>
+        <v>2.090379390849677</v>
       </c>
       <c r="G227" t="n">
-        <v>145.0503316261554</v>
+        <v>-93.85411262348595</v>
       </c>
       <c r="H227" t="n">
-        <v>-10181.03541838169</v>
+        <v>-368.723595460825</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7268,58 +7268,58 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>66206.50999999999</v>
+        <v>71620</v>
       </c>
       <c r="D228" t="n">
-        <v>0.03479692070396139</v>
+        <v>0.02790170700771015</v>
       </c>
       <c r="E228" t="n">
-        <v>2303.782678556027</v>
+        <v>1998.320255892201</v>
       </c>
       <c r="F228" t="n">
-        <v>2.303782678556027</v>
+        <v>1.998320255892201</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>-10181.03541838169</v>
+        <v>-368.723595460825</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>69290.56</v>
+        <v>69146</v>
       </c>
       <c r="D229" t="n">
-        <v>0.03258250872178028</v>
+        <v>-0.02790170700771015</v>
       </c>
       <c r="E229" t="n">
-        <v>2257.66027553704</v>
+        <v>1998.320255892201</v>
       </c>
       <c r="F229" t="n">
-        <v>2.25766027553704</v>
+        <v>1.929291432755126</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>69.02882313707492</v>
       </c>
       <c r="H229" t="n">
-        <v>-10181.03541838169</v>
+        <v>-299.6947723237501</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7328,28 +7328,28 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>70537.83</v>
+        <v>66206.50999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>0.03136560805726226</v>
+        <v>0.03016110392779692</v>
       </c>
       <c r="E230" t="n">
-        <v>2212.461928989796</v>
+        <v>1996.861428806726</v>
       </c>
       <c r="F230" t="n">
-        <v>2.212461928989796</v>
+        <v>1.996861428806726</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>-10181.03541838169</v>
+        <v>-299.6947723237501</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7358,28 +7358,28 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>67314.23</v>
+        <v>65235.21</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.09874503748300395</v>
+        <v>-0.03016110392779692</v>
       </c>
       <c r="E231" t="n">
-        <v>6773.904883082862</v>
+        <v>1996.861428806726</v>
       </c>
       <c r="F231" t="n">
-        <v>6.646946164489549</v>
+        <v>1.967565948561657</v>
       </c>
       <c r="G231" t="n">
-        <v>318.3145028302121</v>
+        <v>29.29548024506902</v>
       </c>
       <c r="H231" t="n">
-        <v>-9862.720915551479</v>
+        <v>-270.3992920786811</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7388,28 +7388,28 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>64724.06</v>
+        <v>69290.56</v>
       </c>
       <c r="D232" t="n">
-        <v>0.03555048764176708</v>
+        <v>0.02880905625459911</v>
       </c>
       <c r="E232" t="n">
-        <v>2300.971895154991</v>
+        <v>1996.195640952675</v>
       </c>
       <c r="F232" t="n">
-        <v>2.300971895154991</v>
+        <v>1.996195640952675</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>-9862.720915551479</v>
+        <v>-270.3992920786811</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7418,28 +7418,28 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>65376.00999999999</v>
+        <v>68507.67</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.03555048764176708</v>
+        <v>-0.02880905625459911</v>
       </c>
       <c r="E233" t="n">
-        <v>2300.971895154991</v>
+        <v>1996.195640952675</v>
       </c>
       <c r="F233" t="n">
-        <v>2.324149035573041</v>
+        <v>1.973641318901512</v>
       </c>
       <c r="G233" t="n">
-        <v>-23.17714041804968</v>
+        <v>22.55432205116308</v>
       </c>
       <c r="H233" t="n">
-        <v>-9885.898055969528</v>
+        <v>-247.844970027518</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7448,28 +7448,28 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>67908</v>
+        <v>70537.83</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03388917533244244</v>
+        <v>0.02829212584143515</v>
       </c>
       <c r="E234" t="n">
-        <v>2301.346118475501</v>
+        <v>1995.665162941759</v>
       </c>
       <c r="F234" t="n">
-        <v>2.301346118475501</v>
+        <v>1.995665162941759</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>-9885.898055969528</v>
+        <v>-247.844970027518</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7478,28 +7478,28 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>64628.01000000001</v>
+        <v>71108</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.03388917533244244</v>
+        <v>-0.02829212584143515</v>
       </c>
       <c r="E235" t="n">
-        <v>2301.346118475501</v>
+        <v>1995.665162941759</v>
       </c>
       <c r="F235" t="n">
-        <v>2.190189962276843</v>
+        <v>2.01179648433277</v>
       </c>
       <c r="G235" t="n">
-        <v>111.1561561986576</v>
+        <v>-16.13132139101103</v>
       </c>
       <c r="H235" t="n">
-        <v>-9774.74189977087</v>
+        <v>-263.9762914185291</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7508,28 +7508,28 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>61156.03000000001</v>
+        <v>64724.06</v>
       </c>
       <c r="D236" t="n">
-        <v>0.03759290499625564</v>
+        <v>0.03083714859800211</v>
       </c>
       <c r="E236" t="n">
-        <v>2299.03282573816</v>
+        <v>1995.905456086004</v>
       </c>
       <c r="F236" t="n">
-        <v>2.29903282573816</v>
+        <v>1.995905456086004</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>-9774.74189977087</v>
+        <v>-263.9762914185291</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7538,28 +7538,28 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>59415</v>
+        <v>65044</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.03759290499625564</v>
+        <v>-0.03083714859800211</v>
       </c>
       <c r="E237" t="n">
-        <v>2299.03282573816</v>
+        <v>1995.905456086004</v>
       </c>
       <c r="F237" t="n">
-        <v>2.233582450352529</v>
+        <v>2.005771493408449</v>
       </c>
       <c r="G237" t="n">
-        <v>65.45037538563118</v>
+        <v>-9.866037322444866</v>
       </c>
       <c r="H237" t="n">
-        <v>-9709.291524385239</v>
+        <v>-273.8423287409739</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7568,28 +7568,28 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>60313.99000000001</v>
+        <v>67908</v>
       </c>
       <c r="D238" t="n">
-        <v>0.03809453106857837</v>
+        <v>0.02939308335094811</v>
       </c>
       <c r="E238" t="n">
-        <v>2297.633165924925</v>
+        <v>1996.025504196184</v>
       </c>
       <c r="F238" t="n">
-        <v>2.297633165924925</v>
+        <v>1.996025504196184</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>-9709.291524385239</v>
+        <v>-273.8423287409739</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7598,28 +7598,28 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>63327.60000000001</v>
+        <v>67896.49000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.03809453106857837</v>
+        <v>-0.02939308335094811</v>
       </c>
       <c r="E239" t="n">
-        <v>2297.633165924925</v>
+        <v>1996.025504196184</v>
       </c>
       <c r="F239" t="n">
-        <v>2.412435225698504</v>
+        <v>1.995687189806815</v>
       </c>
       <c r="G239" t="n">
-        <v>-114.8020597735785</v>
+        <v>0.3383143893692587</v>
       </c>
       <c r="H239" t="n">
-        <v>-9824.093584158816</v>
+        <v>-273.5040143516047</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7628,58 +7628,58 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>66084</v>
+        <v>61156.03</v>
       </c>
       <c r="D240" t="n">
-        <v>0.03480169713954263</v>
+        <v>0.03263682436096136</v>
       </c>
       <c r="E240" t="n">
-        <v>2299.835353769535</v>
+        <v>1995.938609723684</v>
       </c>
       <c r="F240" t="n">
-        <v>2.299835353769535</v>
+        <v>1.995938609723684</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>-9824.093584158816</v>
+        <v>-273.5040143516047</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>68198.27</v>
+        <v>60375.83</v>
       </c>
       <c r="D241" t="n">
-        <v>0.03304764140635362</v>
+        <v>-0.03263682436096136</v>
       </c>
       <c r="E241" t="n">
-        <v>2253.791971493684</v>
+        <v>1995.938609723684</v>
       </c>
       <c r="F241" t="n">
-        <v>2.253791971493684</v>
+        <v>1.970475359357262</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>25.46325036642196</v>
       </c>
       <c r="H241" t="n">
-        <v>-9824.093584158816</v>
+        <v>-248.0407639851827</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -7688,28 +7688,28 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>69962.21000000001</v>
+        <v>60313.99</v>
       </c>
       <c r="D242" t="n">
-        <v>0.03156949139686688</v>
+        <v>0.03308270629147523</v>
       </c>
       <c r="E242" t="n">
-        <v>2208.671386700795</v>
+        <v>1995.350016436974</v>
       </c>
       <c r="F242" t="n">
-        <v>2.208671386700794</v>
+        <v>1.995350016436974</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>-9824.093584158816</v>
+        <v>-248.0407639851827</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -7718,52 +7718,262 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>69496</v>
+        <v>61759.98</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.09941882994276313</v>
+        <v>-0.03308270629147523</v>
       </c>
       <c r="E243" t="n">
-        <v>6762.298711964013</v>
+        <v>1995.350016436974</v>
       </c>
       <c r="F243" t="n">
-        <v>6.909211005702266</v>
+        <v>2.043187278907384</v>
       </c>
       <c r="G243" t="n">
-        <v>46.35005270761624</v>
+        <v>-47.83726247041044</v>
       </c>
       <c r="H243" t="n">
-        <v>-9777.7435314512</v>
+        <v>-295.8780264555932</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>66084</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.03020740713356556</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1996.226293014546</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.996226293014546</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-295.8780264555932</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>67074.14</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-0.03020740713356556</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1996.226293014546</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2.026135855113775</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-29.90956209922858</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-325.7875885548218</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>68198.27</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.0292785057766779</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1996.743442154439</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.996743442154439</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-325.7875885548218</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>66698.32000000001</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-0.0292785057766779</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1996.743442154439</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.952827147414712</v>
+      </c>
+      <c r="G247" t="n">
+        <v>43.91629473972793</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-281.8712938150938</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>69962.21000000001</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.02852663484519587</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1995.786417632911</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1.995786417632911</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-281.8712938150938</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>72736.41</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-0.02852663484519587</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1995.786417632911</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2.074925008020454</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-79.13859038754229</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-361.0098842026362</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
           <t>2024-11-07</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
         <v>75571.99000000001</v>
       </c>
-      <c r="D244" t="n">
-        <v>0.03046763518378933</v>
-      </c>
-      <c r="E244" t="n">
-        <v>2302.499821432976</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2.302499821432976</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0</v>
-      </c>
-      <c r="H244" t="n">
-        <v>-9777.7435314512</v>
+      <c r="D250" t="n">
+        <v>0.02642894245886801</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1997.287775212149</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.997287775212149</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-361.0098842026362</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>75857.89</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-0.02642894245886801</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1997.287775212149</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2.004843809861139</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-7.556034648990209</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-368.5659188516263</v>
       </c>
     </row>
   </sheetData>
@@ -7817,20 +8027,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>115767.6171144018</v>
+        <v>99867.94266367135</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15.77%</t>
+          <t>-0.13%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.98%</t>
+          <t>26.40%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,97 +569,97 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2018-11-24</t>
+          <t>2017-10-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3888.99</v>
+        <v>6133.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4764001037544567</v>
+        <v>0.3268002233514395</v>
       </c>
       <c r="E5" t="n">
-        <v>1997.121638950096</v>
+        <v>2004.269037816612</v>
       </c>
       <c r="F5" t="n">
-        <v>1.852715239500045</v>
+        <v>2.004269037816612</v>
       </c>
       <c r="G5" t="n">
-        <v>144.4063994500509</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>263.2434844131551</v>
+        <v>118.8370849631042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2018-12-21</t>
+          <t>2017-11-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4051.86</v>
+        <v>5670.18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4925352280747002</v>
+        <v>-0.8032003271058963</v>
       </c>
       <c r="E6" t="n">
-        <v>1995.683789226755</v>
+        <v>4001.390676766707</v>
       </c>
       <c r="F6" t="n">
-        <v>1.995683789226755</v>
+        <v>4.554290430749312</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>371.7452073944219</v>
       </c>
       <c r="H6" t="n">
-        <v>263.2434844131551</v>
+        <v>490.5822923575262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2018-12-27</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3596.2</v>
+        <v>7240.14</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4925352280747002</v>
+        <v>0.2774055072057329</v>
       </c>
       <c r="E7" t="n">
-        <v>1995.683789226755</v>
+        <v>2008.454708940515</v>
       </c>
       <c r="F7" t="n">
-        <v>1.771255187202237</v>
+        <v>2.008454708940515</v>
       </c>
       <c r="G7" t="n">
-        <v>224.428602024518</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>487.6720864376731</v>
+        <v>490.5822923575262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-01-07</t>
+          <t>2017-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -668,58 +668,58 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3987.62</v>
+        <v>7876.98</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4990512086206862</v>
+        <v>0.2558149107324483</v>
       </c>
       <c r="E8" t="n">
-        <v>1990.026580520021</v>
+        <v>2015.04893554128</v>
       </c>
       <c r="F8" t="n">
-        <v>1.990026580520021</v>
+        <v>2.01504893554128</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>487.6720864376731</v>
+        <v>490.5822923575262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-01-10</t>
+          <t>2017-11-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3809.7</v>
+        <v>8700.040000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4990512086206862</v>
+        <v>0.2322597827936681</v>
       </c>
       <c r="E9" t="n">
-        <v>1990.026580520021</v>
+        <v>2020.669400696225</v>
       </c>
       <c r="F9" t="n">
-        <v>1.901235389482228</v>
+        <v>2.020669400696225</v>
       </c>
       <c r="G9" t="n">
-        <v>88.79119103779253</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>576.4632774754656</v>
+        <v>490.5822923575262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-02-09</t>
+          <t>2018-01-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3660.27</v>
+        <v>16960.39</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5433564406061953</v>
+        <v>0.126594083447921</v>
       </c>
       <c r="E10" t="n">
-        <v>1988.831278857638</v>
+        <v>2147.085026969284</v>
       </c>
       <c r="F10" t="n">
-        <v>1.988831278857638</v>
+        <v>2.147085026969284</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>576.4632774754656</v>
+        <v>490.5822923575262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-02-14</t>
+          <t>2018-01-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -758,52 +758,6532 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3568.724750136885</v>
+        <v>15084</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5433564406061953</v>
+        <v>-0.8920742841797703</v>
       </c>
       <c r="E11" t="n">
-        <v>1988.831278857638</v>
+        <v>8191.258072147304</v>
       </c>
       <c r="F11" t="n">
-        <v>1.939089577737611</v>
+        <v>13.45604850256765</v>
       </c>
       <c r="G11" t="n">
-        <v>49.74170112002685</v>
+        <v>1673.879266092079</v>
       </c>
       <c r="H11" t="n">
-        <v>626.2049785954924</v>
+        <v>2164.461558449605</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2018-02-18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11039.55</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.191429485710636</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2113.295378976852</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.113295378976852</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2164.461558449605</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2018-03-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10923.36</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1934794327077782</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2113.445496062836</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.113445496062836</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2164.461558449605</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2018-03-03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11038.99</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1914717109943813</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2113.654302949865</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.113654302949865</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2164.461558449605</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2018-03-07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10086.84</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.5763806294127956</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6340.395177989553</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.813859187986163</v>
+      </c>
+      <c r="G15" t="n">
+        <v>548.8008162953942</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2713.262374744999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2018-04-13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7922.989999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2653693770149519</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2102.518920395694</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.102518920395694</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2713.262374744999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2018-05-04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2166334537252367</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2112.176173821058</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.112176173821058</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2713.262374744999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2018-05-11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8850.099999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.4820028307401887</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4214.695094216751</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.265773252333744</v>
+      </c>
+      <c r="G18" t="n">
+        <v>433.7543473830965</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3147.016722128096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2018-07-08</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6753.48</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3112889971384958</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2102.284016394889</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.102284016394889</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3147.016722128096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2018-07-10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6406.67</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.3112889971384958</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2102.284016394889</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.994325879297287</v>
+      </c>
+      <c r="G20" t="n">
+        <v>107.9581370976018</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3254.974859225698</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2018-07-17</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6723.330000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3125127254932448</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2101.126182690498</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.101126182690498</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3254.974859225698</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2018-07-18</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7317.440000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2876420919239802</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2104.80374912821</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.10480374912821</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3254.974859225698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2018-08-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6770.461655659787</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.6001548174172251</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4205.929931818708</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.063325178782823</v>
+      </c>
+      <c r="G23" t="n">
+        <v>328.2716883786771</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3583.246547604375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2018-09-28</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6689.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3136603643197363</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2098.111816178434</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.098111816178434</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3583.246547604375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2018-10-03</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6460.38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.3136603643197363</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2098.111816178434</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.026365144443938</v>
+      </c>
+      <c r="G25" t="n">
+        <v>71.7466717344964</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3654.993219338871</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2018-10-16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6752.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3104920443995817</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2096.597529808175</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.096597529808175</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3654.993219338871</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2018-10-19</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6551.71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.3104920443995817</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2096.597529808175</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.034253832213183</v>
+      </c>
+      <c r="G27" t="n">
+        <v>62.34369759499199</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3717.336916933863</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2018-11-08</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6578.46</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3185043367032763</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2095.268038829035</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.095268038829035</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3717.336916933863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2018-11-09</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6479.84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.3185043367032763</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2095.268038829035</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.063857141143358</v>
+      </c>
+      <c r="G29" t="n">
+        <v>31.41089768567708</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3748.74781461954</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2018-12-21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4051.860000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5172230081765011</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2095.715217910038</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.095715217910038</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3748.74781461954</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2018-12-27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3596.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.5172230081765011</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2095.715217910038</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.860037382004333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>235.6778359057049</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3984.425650525245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-01-07</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3987.619999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5240655949948866</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2089.774447913509</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.08977444791351</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3984.425650525245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-01-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3809.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.5240655949948866</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2089.774447913509</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.996532697252019</v>
+      </c>
+      <c r="G33" t="n">
+        <v>93.24175066149002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4077.667401186735</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-02-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3660.27</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5705915774207105</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2088.519233085704</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.088519233085704</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4077.667401186735</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-02-14</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3568.724750136885</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.5705915774207105</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2088.519233085704</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.036284284560937</v>
+      </c>
+      <c r="G35" t="n">
+        <v>52.2349485247675</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4129.902349711503</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>3667.62</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.5417985587215985</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1987.111229938509</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.987111229938509</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>626.2049785954924</v>
+      <c r="D36" t="n">
+        <v>0.5689556084406142</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2086.712968628965</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.086712968628965</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4129.902349711503</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2019-02-19</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3897.35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5359043819509588</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2088.606942996569</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.088606942996569</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4129.902349711503</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019-02-27</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3687.157026640835</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.104859990391573</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4175.319911625535</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.073792277026613</v>
+      </c>
+      <c r="G38" t="n">
+        <v>232.2338065259833</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4362.136156237487</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3924.46</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5312492801468175</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2084.866549964979</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.08486654996498</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4362.136156237487</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2019-03-21</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3900.247105697639</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.5312492801468175</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2084.866549964979</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.072003467296579</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.86308266840017</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4374.999238905887</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4006.010000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5202568831368777</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2084.154276415164</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.084154276415163</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4374.999238905887</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019-03-25</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3923.08</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.5202568831368777</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2084.154276415164</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.041009373096622</v>
+      </c>
+      <c r="G42" t="n">
+        <v>43.14490331854165</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-03-28</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4039.579999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5158947697714992</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2083.998194073552</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.083998194073553</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-05-02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5383.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3895509224481961</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2097.030525723129</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.097030525723129</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-05-03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5494.810000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3821271192826207</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2099.715916305337</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.099715916305338</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-05-20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8147.940000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.265976426710558</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2167.159966252024</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.167159966252024</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-05-27</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8612.540000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2532658165681811</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2181.261975826123</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.181261975826123</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4418.144142224429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-06-06</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7446.16</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1.806815054781055</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10629.16657818016</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.4538339883085</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2107.432943595529</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6525.577085819958</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-06-15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8650.879999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.247308735637808</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2139.4381949544</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.1394381949544</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6525.577085819958</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019-07-04</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>11940</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1805231437750721</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2155.446336674361</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.155446336674361</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6525.577085819958</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019-07-09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>12238.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1763239455273872</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2157.958239731481</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.157958239731481</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6525.577085819958</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2019-07-11</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>11172.63</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.6041558249402672</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6452.842771360241</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.750009494402377</v>
+      </c>
+      <c r="G52" t="n">
+        <v>644.0119847115774</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7169.589070531535</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2019-08-03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10523.75</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2038151648112666</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2144.899840682567</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.144899840682567</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7169.589070531535</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2019-08-04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10816.86</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1983987726516669</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2146.051747944909</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.146051747944909</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7169.589070531535</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10098.79</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.4022139374629334</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4290.951588627477</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.061874089511298</v>
+      </c>
+      <c r="G55" t="n">
+        <v>288.8177620740085</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7458.406832605544</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2019-09-04</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10611.85</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2016104364827569</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2139.459710389544</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.139459710389544</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7458.406832605544</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2019-09-06</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10168.12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.2016104364827569</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2139.459710389544</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.049999111409051</v>
+      </c>
+      <c r="G57" t="n">
+        <v>89.46059898049364</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7547.867431586038</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2019-10-26</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>8655.879999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2470564173197329</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2138.490701549529</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.138490701549529</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7547.867431586038</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8439.265136190201</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.2470564173197329</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2138.490701549529</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.084974609358478</v>
+      </c>
+      <c r="G59" t="n">
+        <v>53.51609219105066</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7601.383523777089</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7500.71</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2848950923930066</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2136.915468463148</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.136915468463149</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7601.383523777089</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2019-12-24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>7228.97</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.2848950923930066</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2136.915468463148</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.059498076056273</v>
+      </c>
+      <c r="G61" t="n">
+        <v>77.41739240687555</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7678.800916183965</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7388.43</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2890392252771388</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2135.54608321437</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.135546083214371</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7678.800916183965</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7188.88</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.2890392252771388</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2135.54608321437</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.077868305810318</v>
+      </c>
+      <c r="G63" t="n">
+        <v>57.6777774040531</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7758.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2751035501322127</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2134.500935120825</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.134500935120825</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-01-28</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8907.57</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2403046752150823</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2140.530715805611</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.14053071580561</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>9375.34</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.228851082606088</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2145.556708800161</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.145556708800161</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>9612.030000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.223551937750195</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2148.787932213007</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.148787932213007</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>10164.78</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2124452976530947</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2159.459712678224</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.159459712678224</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7736.478693588017</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>9799.209999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.967811245703578</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8797.653524586896</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.483785637010957</v>
+      </c>
+      <c r="G69" t="n">
+        <v>353.8027570918585</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8090.281450679876</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>9750.213949999999</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.2124452976530947</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1931.182480030932</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.071387104789106</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8090.281450679876</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>6643.359999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3237031902377904</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2150.476825898127</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.150476825898127</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8090.281450679876</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>6793.860000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3166380225453586</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2151.19439585001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.15119439585001</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8090.281450679876</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>7248.6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.297581117034272</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2157.046484934624</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.157046484934624</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8090.281450679876</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>6906.16</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9379223298174211</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6458.717706682761</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6.477441677291881</v>
+      </c>
+      <c r="G74" t="n">
+        <v>321.1821226226782</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8411.463573302553</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7483.960000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2874015057647257</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2150.901373082977</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.150901373082976</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8411.463573302553</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>9791.969999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.2209638605428286</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2163.671493519561</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.163671493519561</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>8411.463573302553</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>9681.110000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.2233970464521819</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2162.731380378683</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.162731380378683</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8411.463573302553</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>9088.370000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.7317624127597362</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6477.30424698122</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.650527559253204</v>
+      </c>
+      <c r="G78" t="n">
+        <v>433.7448525392059</v>
+      </c>
+      <c r="H78" t="n">
+        <v>8845.20842584176</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>9697.719999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2220781856279869</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2153.652062328241</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.153652062328241</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8845.20842584176</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>9282.83</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.2220781856279869</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2153.652062328241</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.061514043893045</v>
+      </c>
+      <c r="G80" t="n">
+        <v>92.13801843519535</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8937.346444276955</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>9788.139999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2198091541616266</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2151.522774215584</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.151522774215584</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8937.346444276955</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>9424.450000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.2198091541616266</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2151.522774215584</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.071580382938542</v>
+      </c>
+      <c r="G82" t="n">
+        <v>79.94239127704171</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9017.288835553996</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>9885.219999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2175054819169174</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2150.08953995475</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.15008953995475</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9017.288835553996</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>9443.147000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.2175054819169174</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2150.08953995475</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.053936239047293</v>
+      </c>
+      <c r="G84" t="n">
+        <v>96.15330090745711</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9113.442136461454</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>9436.059999999999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2276410432124213</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2148.034542215</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.148034542215</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9113.442136461454</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>9232.42</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.2276410432124213</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2148.034542215</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.101677720175223</v>
+      </c>
+      <c r="G86" t="n">
+        <v>46.35682203977734</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9159.798958501231</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-07-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.228649884081891</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2147.022411528957</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.147022411528956</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>9159.798958501231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-08-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>11852.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1820930799308149</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2158.240020571991</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.158240020571991</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>9159.798958501231</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>11477.15</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.4107429640127059</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4305.262432100948</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.714158609418428</v>
+      </c>
+      <c r="G89" t="n">
+        <v>154.1312972457679</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9313.930255746998</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>10925.44</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1972455392857742</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2154.994304734369</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.154994304734369</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9313.930255746998</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>11503.14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1875362572071008</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2157.255821729289</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.157255821729289</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9313.930255746998</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>19695.87</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1127272338802234</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2220.260943964476</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.220260943964476</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9313.930255746998</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>19358.67</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1145112245976943</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2216.785008282647</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.216785008282647</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>9313.930255746998</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-12-08</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>18484.88</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.6120202549707927</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8749.29607871078</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11.31312097070451</v>
+      </c>
+      <c r="G94" t="n">
+        <v>534.7771785909273</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9848.707434337926</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>19426.43</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1135512390157822</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2205.895196153362</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.205895196153362</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>9848.707434337926</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>21335.52</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.1035918819390056</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2210.186668947292</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.210186668947292</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9848.707434337926</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>39145.21</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.05843693022463797</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2287.5259053988</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.2875259053988</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9848.707434337926</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021-01-21</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>33324.06</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.2755800511794257</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6703.607770499454</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9.183446160306254</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1604.192814923115</v>
+      </c>
+      <c r="H98" t="n">
+        <v>11452.90024926104</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>37620.26</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.05994795226094995</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2255.257550524525</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.255257550524525</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>11452.90024926104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>54874.67</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.04146577329531477</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2275.420625875211</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.27542062587521</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>11452.90024926104</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>58912.96999999999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03876840229248413</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2283.961721205049</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.283961721205049</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>11452.90024926104</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>52627.88</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.1401821278487488</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6814.639897604784</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.377488202568612</v>
+      </c>
+      <c r="G102" t="n">
+        <v>881.0572899208923</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12333.95753918193</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>58950.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.03844184837980783</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2266.147346408155</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.266147346408156</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>12333.95753918193</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>56647.70999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.03844184837980783</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2266.147346408155</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.177642678883324</v>
+      </c>
+      <c r="G104" t="n">
+        <v>88.50466752483196</v>
+      </c>
+      <c r="H104" t="n">
+        <v>12422.46220670677</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>59129.99</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.03829340030764681</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2264.288377257153</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.264288377257153</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>12422.46220670677</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>56793.19</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.03829340030764681</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2264.288377257153</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.174804359418244</v>
+      </c>
+      <c r="G106" t="n">
+        <v>89.48401783890918</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12511.94622454568</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>59769.13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.03785248195925959</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2262.409915045641</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.262409915045641</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>12511.94622454568</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>56787.62999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.03785248195925959</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2262.409915045641</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.149552740084109</v>
+      </c>
+      <c r="G108" t="n">
+        <v>112.8571749615327</v>
+      </c>
+      <c r="H108" t="n">
+        <v>12624.80339950721</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>57315.49000000001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.03943251139180242</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2260.093712351738</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.260093712351738</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>12624.80339950721</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>58866.53000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.03841590677381136</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2261.41112857777</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.26141112857777</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>12624.80339950721</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2021-05-10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>54881.99</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.07784841816561378</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4521.504840929508</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4.272476107281034</v>
+      </c>
+      <c r="G111" t="n">
+        <v>310.1901361176153</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12934.99353562482</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>39020.56</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.05778767655114659</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2254.907500124608</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.254907500124608</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12934.99353562482</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>38383.28586057187</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.05778767655114659</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2254.907500124608</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.218080908280926</v>
+      </c>
+      <c r="G113" t="n">
+        <v>36.82659184368282</v>
+      </c>
+      <c r="H113" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2021-07-25</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>34261.51</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.06579697807284143</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2254.303822212438</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.254303822212437</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>40862.46</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.05537413683777449</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2262.723451568087</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.262723451568087</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2021-08-07</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>42836.87</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.05293250945549637</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2267.463026318869</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.267463026318869</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>46760.62</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.04878208327820446</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2281.080458980473</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.281080458980473</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2021-08-21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>49322.47</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.04647891381704657</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2292.454832373865</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.292454832373865</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>49246.62999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.04654125570581687</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2291.999999479752</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.291999999479752</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>49998</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.04593497043453021</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2296.656651785641</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.296656651785641</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12971.82012746851</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2021-09-07</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>47913.69</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.3618408476017104</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15946.68224271913</v>
+      </c>
+      <c r="F121" t="n">
+        <v>17.3371302013256</v>
+      </c>
+      <c r="G121" t="n">
+        <v>754.1884970647201</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13726.00862453323</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>48141.60000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.04738573074975225</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2281.224895462273</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.281224895462273</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>13726.00862453323</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>63078.78</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.03638840079999143</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2295.335928614483</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.295335928614483</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>13726.00862453323</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>59265.54</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.08377413154974368</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4576.560824076756</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.964919144326597</v>
+      </c>
+      <c r="G124" t="n">
+        <v>319.4508693907445</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14045.45949392397</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2021-11-09</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>67525.82000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.03389520285978283</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2288.801367173181</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.288801367173181</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14045.45949392397</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2021-11-10</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>63977.76791113641</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.03389520285978283</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2288.801367173181</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.168539421864073</v>
+      </c>
+      <c r="G126" t="n">
+        <v>120.261945309108</v>
+      </c>
+      <c r="H126" t="n">
+        <v>14165.72143923308</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2021-11-15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>65519.11</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.03489527970322007</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2286.307669356043</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.286307669356043</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>14165.72143923308</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2021-11-16</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>62849.31</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.03489527970322007</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2286.307669356043</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.193144251604386</v>
+      </c>
+      <c r="G128" t="n">
+        <v>93.16341775165705</v>
+      </c>
+      <c r="H128" t="n">
+        <v>14258.88485698474</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>50838.82</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.04493327957538334</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2284.35491234259</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.28435491234259</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>14258.88485698474</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>48530.11</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.04493327957538334</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2284.35491234259</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.180617000454107</v>
+      </c>
+      <c r="G130" t="n">
+        <v>103.7379118884832</v>
+      </c>
+      <c r="H130" t="n">
+        <v>14362.62276887322</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>41571.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.05489432534161815</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2282.050424804147</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.282050424804147</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>14362.62276887322</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>44544.85</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.05130578380023926</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2285.408443514088</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.285408443514088</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>14362.62276887322</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>40855.48</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.1062001091418574</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4567.458868318236</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.338856435042973</v>
+      </c>
+      <c r="G133" t="n">
+        <v>391.811496664694</v>
+      </c>
+      <c r="H133" t="n">
+        <v>14754.43426553792</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>44421.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.05126921898467841</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2277.440230362196</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.277440230362196</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>14754.43426553792</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>40724.16</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.05126921898467841</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2277.440230362196</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.087895877007081</v>
+      </c>
+      <c r="G135" t="n">
+        <v>189.5443533551151</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14943.97861889303</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>41941.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.05420766193302434</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2273.561494496327</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.273561494496327</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>14943.97861889303</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>39543.6482</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.05420766193302434</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2273.561494496327</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.143568713224047</v>
+      </c>
+      <c r="G137" t="n">
+        <v>129.9927812722802</v>
+      </c>
+      <c r="H137" t="n">
+        <v>15073.97140016531</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>42364.13</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.05360369346292126</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2270.873838343347</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.270873838343347</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>15073.97140016531</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>40119.44</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.05360369346292126</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2270.873838343347</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.150550163664062</v>
+      </c>
+      <c r="G139" t="n">
+        <v>120.3236746792845</v>
+      </c>
+      <c r="H139" t="n">
+        <v>15194.29507484459</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>31734.23</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.07148053225728317</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2268.379651175043</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.268379651175043</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>15194.29507484459</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>30474.38444254711</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.07148053225728317</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2268.379651175043</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.178325220166337</v>
+      </c>
+      <c r="G141" t="n">
+        <v>90.05443100870612</v>
+      </c>
+      <c r="H141" t="n">
+        <v>15284.3495058533</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>31373.09999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.07224306535382605</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2266.48891365212</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.26648891365212</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>15284.3495058533</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>29863.06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.07224306535382605</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2266.48891365212</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.157398995245229</v>
+      </c>
+      <c r="G143" t="n">
+        <v>109.089918406891</v>
+      </c>
+      <c r="H143" t="n">
+        <v>15393.43942426019</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>21624.99</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.1047038488602442</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2264.219684564292</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.264219684564293</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>15393.43942426019</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>20362.34</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.1047038488602442</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2264.219684564292</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.132015369800905</v>
+      </c>
+      <c r="G145" t="n">
+        <v>132.2043147633875</v>
+      </c>
+      <c r="H145" t="n">
+        <v>15525.64373902358</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2022-07-17</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>21195.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1066960419393388</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2261.486626529449</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.261486626529449</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>15525.64373902358</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>22954.31</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.09869057009698488</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2265.373940082921</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.265373940082921</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>15525.64373902358</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>23845.25</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.09515605885099915</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2269.020012316787</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.269020012316787</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>15525.64373902358</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>23810.98</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.09527725817790129</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2268.644888928844</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.268644888928844</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>15525.64373902358</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>22934.87</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.3005426708873228</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6882.616296935597</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.892907086253534</v>
+      </c>
+      <c r="G150" t="n">
+        <v>263.3084393910926</v>
+      </c>
+      <c r="H150" t="n">
+        <v>15788.95217841467</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>22955.54</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.09527725817790128</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2181.909170922405</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.18714091119314</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>15788.95217841467</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>21361.62</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1058718417485638</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2261.594052132956</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.261594052132956</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>15788.95217841467</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>20291.45</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.1058718417485638</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2261.594052132956</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.148293183248895</v>
+      </c>
+      <c r="G153" t="n">
+        <v>113.30086888406</v>
+      </c>
+      <c r="H153" t="n">
+        <v>15902.25304729873</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>20337.82</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1110777836822986</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2259.079970529527</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.259079970529527</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>15902.25304729873</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>19802.33289265483</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.1110777836822986</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2259.079970529527</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.199599249455181</v>
+      </c>
+      <c r="G155" t="n">
+        <v>59.48072107434607</v>
+      </c>
+      <c r="H155" t="n">
+        <v>15961.73376837308</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>20079.02</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1124399059626605</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2257.68312062238</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.25768312062238</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>15961.73376837308</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>21148.52</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1068708882914629</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2260.161118449769</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.260161118449769</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>15961.73376837308</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>19961.67</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.2193107942541234</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4517.844239072148</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4.377809702338707</v>
+      </c>
+      <c r="G158" t="n">
+        <v>260.2890161605068</v>
+      </c>
+      <c r="H158" t="n">
+        <v>16222.02278453358</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>17165.53</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.1313720503756863</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2255.070871885353</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.255070871885354</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16222.02278453358</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>17208.93</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.1310235994736344</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2254.775951689812</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.254775951689812</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>16222.02278453358</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>17775.82</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.127024114300084</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2257.957791457719</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.257957791457719</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>16222.02278453358</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>17279.13310375203</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.3894197641494047</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6767.804615032886</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.728835937969287</v>
+      </c>
+      <c r="G162" t="n">
+        <v>193.4196939929833</v>
+      </c>
+      <c r="H162" t="n">
+        <v>16415.44247852657</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>16850.36</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1337522327331767</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2253.773272357811</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.253773272357811</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>16415.44247852657</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>16717.28</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.1337522327331767</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2253.773272357811</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.23597352522568</v>
+      </c>
+      <c r="G164" t="n">
+        <v>17.79974713213139</v>
+      </c>
+      <c r="H164" t="n">
+        <v>16433.2422256587</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>16950.31</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1329345766964226</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2253.28228472314</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2.25328228472314</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>16433.2422256587</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>23743.37</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.09566639386854048</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2271.442586186488</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.271442586186488</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>16433.2422256587</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>23078.94762779664</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.1329345766964226</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2631.189114795191</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.067990133500054</v>
+      </c>
+      <c r="G167" t="n">
+        <v>88.32470679648667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>16521.56693245519</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>23731.41</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.09562557645932229</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2269.329761442526</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.269329761442526</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>16521.56693245519</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>22256.38</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.1912919703278628</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4162.865517556962</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4.257466782565639</v>
+      </c>
+      <c r="G169" t="n">
+        <v>282.1613949927072</v>
+      </c>
+      <c r="H169" t="n">
+        <v>16803.72832744789</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>21483.71</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.09566639386854048</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-2055.269062617502</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.055269062617502</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>16803.72832744789</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>24322.87</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0928380566080918</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-1994.505885131828</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.258087981931258</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>16803.72832744789</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>22851.75</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.002828337260448677</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-64.63245599145804</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.06463245599145805</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4.160823510591254</v>
+      </c>
+      <c r="H172" t="n">
+        <v>16807.88915095849</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>24112.27</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.09364445972574421</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1996.189600084141</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.25798049691127</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>16807.88915095849</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>27968.05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.08097933230374899</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2264.834014837867</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.264834014837867</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>16807.88915095849</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>27658.42136432494</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.08798778520484686</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2284.180024713476</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.433603238109371</v>
+      </c>
+      <c r="G175" t="n">
+        <v>27.24353788904638</v>
+      </c>
+      <c r="H175" t="n">
+        <v>16835.13268884753</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-04-11</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>29637.35</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.07648792823942543</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2266.899500006735</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.266899500006735</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>16835.13268884753</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>28561.31162155724</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.1574672605431744</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4369.138723692398</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.497471498566549</v>
+      </c>
+      <c r="G177" t="n">
+        <v>169.4408156927006</v>
+      </c>
+      <c r="H177" t="n">
+        <v>17004.57350454024</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>28065.01</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.08064759122000692</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2263.375454065406</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.263375454065407</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>17004.57350454024</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>27416.70695960501</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.08064759122000692</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2263.375454065406</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.211091375476944</v>
+      </c>
+      <c r="G179" t="n">
+        <v>52.28407858846269</v>
+      </c>
+      <c r="H179" t="n">
+        <v>17056.8575831287</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-06-14</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>25073.36</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-0.08097933230374897</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-2030.423951411527</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.030423951411527</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>17056.8575831287</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>28308</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.07972873046264013</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-1999.067161232743</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.256960901936417</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>17056.8575831287</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>31156.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0724364238884052</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2186.52291869119</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2.25684370995193</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>17056.8575831287</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>31454.23</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.07176214084047285</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2257.222883288626</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.257222883288626</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>17056.8575831287</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>30506.55</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.07118582204729636</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2228.530231094699</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.171633839576948</v>
+      </c>
+      <c r="G184" t="n">
+        <v>67.46137983778183</v>
+      </c>
+      <c r="H184" t="n">
+        <v>17124.31896296648</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>29770.41</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.07569152206619999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2253.367645434821</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.253367645434821</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>17124.31896296648</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>29404.08</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.07176214084047285</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2190.012253031837</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.110099730244531</v>
+      </c>
+      <c r="G186" t="n">
+        <v>26.28862505409028</v>
+      </c>
+      <c r="H186" t="n">
+        <v>17150.60758802057</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>29404.08</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.07569152206619999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2309.927753466885</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.22563957015631</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>17150.60758802057</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>26762.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.08415340234724039</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2252.155430318021</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.252155430318021</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>17150.60758802057</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>26581.64479097345</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.08415340234724039</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2252.155430318021</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.236935849146215</v>
+      </c>
+      <c r="G189" t="n">
+        <v>15.21958117180562</v>
+      </c>
+      <c r="H189" t="n">
+        <v>17165.82716919238</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>27021.39</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.08333257831677124</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2251.762098403019</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.251762098403019</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>17165.82716919238</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>27992.58</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.08049763497346776</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2253.336486805594</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.253336486805595</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>17165.82716919238</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>27108.71609462956</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.163830213290239</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4505.098585208613</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4.441226739807695</v>
+      </c>
+      <c r="G192" t="n">
+        <v>144.8036121363833</v>
+      </c>
+      <c r="H192" t="n">
+        <v>17310.63078132876</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>28500.77</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.07895593506523334</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2250.30494542915</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.25030494542915</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>17310.63078132876</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>30691.13471155581</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.07176214084047285</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2045.276270801923</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2.202461531724593</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-157.1852609226696</v>
+      </c>
+      <c r="H194" t="n">
+        <v>17153.44552040609</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>36701.1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.06142978895641942</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2254.540827468445</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.254540827468445</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>17153.44552040609</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>37359.85</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.06036958525074487</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2255.398649530041</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.25539864953004</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>17153.44552040609</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>36031.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-0.1289931684319248</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4714.968151625712</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4.647868945622271</v>
+      </c>
+      <c r="G197" t="n">
+        <v>171.2964780191741</v>
+      </c>
+      <c r="H197" t="n">
+        <v>17324.74199842526</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>37818.88</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.05954263690556829</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2251.835840015258</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.251835840015258</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>17324.74199842526</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>43861.79</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.05150236505798387</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2258.985920676626</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.258985920676627</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>17324.74199842526</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>43969.04</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.05138114081186553</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2259.179435602548</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.259179435602548</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>17324.74199842526</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-12-24</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>42770.51</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.1624261427754177</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6770.001196294432</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6.947048963837431</v>
+      </c>
+      <c r="G201" t="n">
+        <v>194.6726049006212</v>
+      </c>
+      <c r="H201" t="n">
+        <v>17519.41460332588</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>44179.55</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0510440205691671</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2255.101858936547</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.255101858936547</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>17519.41460332588</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>43632.18135310362</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-0.0510440205691671</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2255.101858936547</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.227161962465451</v>
+      </c>
+      <c r="G203" t="n">
+        <v>27.9398964710963</v>
+      </c>
+      <c r="H203" t="n">
+        <v>17547.35449979698</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>46951.04</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.04801711348099418</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2254.453415730697</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.254453415730697</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>17547.35449979698</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>44686.87530933462</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.04801711348099418</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2254.453415730697</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2.145734762839358</v>
+      </c>
+      <c r="G205" t="n">
+        <v>108.7186528913395</v>
+      </c>
+      <c r="H205" t="n">
+        <v>17656.07315268832</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-02-07</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>43098.96</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.05225628556865768</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2252.191561472154</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.252191561472154</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>17656.07315268832</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-02-08</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>44349.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.05081112504053568</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2253.453071097741</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2.253453071097741</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>17656.07315268832</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>54476.48</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.04174798784513456</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2274.283424885716</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.274283424885716</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>17656.07315268832</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>71620</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.03244750706429791</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2323.890455945017</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.323890455945017</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>17656.07315268832</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>68321.58</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.1448153984543279</v>
+      </c>
+      <c r="E210" t="n">
+        <v>7437.388559195604</v>
+      </c>
+      <c r="F210" t="n">
+        <v>9.894016830729242</v>
+      </c>
+      <c r="G210" t="n">
+        <v>477.662006569724</v>
+      </c>
+      <c r="H210" t="n">
+        <v>18133.73515925805</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>68321.58</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.03244750706429791</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1666.429954205023</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.216864949693995</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>18133.73515925805</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>66206.50999999999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.03491965305889715</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2311.908359440405</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2.311908359440404</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>18133.73515925805</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>69290.56</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0333958236767419</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2314.015324222705</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2.314015324222705</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>18133.73515925805</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-05-26</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>68263.24032869971</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-0.03491965305889715</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2364.554239086219</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.38372866895431</v>
+      </c>
+      <c r="G214" t="n">
+        <v>35.87364650238617</v>
+      </c>
+      <c r="H214" t="n">
+        <v>18169.60880576043</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>70537.83</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.03280561613803613</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2314.036974190049</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.314036974190049</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>18169.60880576043</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>68339.38</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.06620143981477802</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4575.40641876694</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4.524165352049245</v>
+      </c>
+      <c r="G216" t="n">
+        <v>145.5405553607985</v>
+      </c>
+      <c r="H216" t="n">
+        <v>18315.14936112123</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>65279.93000000001</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-0.0333958236767419</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-2180.077031910054</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.180077031910054</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>18315.14936112123</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>64724.06</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.03571028275029212</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-2030.275843966045</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.311314483346873</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>18315.14936112123</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>67908</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.03403750499501906</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2311.418889201754</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2.311418889201754</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>18315.14936112123</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>62797.02</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.03635196406856928</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2461.220077145763</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.282795014653227</v>
+      </c>
+      <c r="G220" t="n">
+        <v>185.7941613151761</v>
+      </c>
+      <c r="H220" t="n">
+        <v>18500.94352243641</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>61156.03</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.03773316845101318</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2307.610781785215</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2.307610781785215</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>18500.94352243641</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>59012.64000000001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.03773316845101318</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2307.610781785215</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2.226733885858998</v>
+      </c>
+      <c r="G222" t="n">
+        <v>80.87689592621683</v>
+      </c>
+      <c r="H222" t="n">
+        <v>18581.82041836262</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>60313.99</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.03823163675580637</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2305.902556973338</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2.305902556973338</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>18581.82041836262</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>66084</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0349595774983293</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2310.268719399593</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.310268719399594</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>18581.82041836262</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>68198.27</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.0339204611389792</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2313.316767280611</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2.313316767280611</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>18581.82041836262</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>69962.21000000001</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.03311858783313866</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2317.049596885492</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.317049596885492</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>18581.82041836262</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>68959.4157936282</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.1402302632262535</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9246.537640539034</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9.670197028669149</v>
+      </c>
+      <c r="G227" t="n">
+        <v>140.6220955212806</v>
+      </c>
+      <c r="H227" t="n">
+        <v>18722.4425138839</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>75571.99000000001</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.03061977605780337</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2313.997410042556</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2.313997410042556</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>18722.4425138839</v>
       </c>
     </row>
   </sheetData>
@@ -857,20 +7337,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>149778.7824998714</v>
+        <v>116345.7055135855</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49.78%</t>
+          <t>16.35%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>33.92%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -530,10 +530,10 @@
         <v>1.97522072330314</v>
       </c>
       <c r="G3" t="n">
-        <v>24.77927669686024</v>
+        <v>-24.77927669686024</v>
       </c>
       <c r="H3" t="n">
-        <v>24.77927669686024</v>
+        <v>-24.77927669686024</v>
       </c>
     </row>
     <row r="4">
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.77927669686024</v>
+        <v>-24.77927669686024</v>
       </c>
     </row>
     <row r="5">
@@ -590,10 +590,10 @@
         <v>1.903004739529802</v>
       </c>
       <c r="G5" t="n">
-        <v>96.42017052179511</v>
+        <v>-96.42017052179511</v>
       </c>
       <c r="H5" t="n">
-        <v>121.1994472186554</v>
+        <v>-121.1994472186554</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>121.1994472186554</v>
+        <v>-121.1994472186554</v>
       </c>
     </row>
     <row r="7">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>121.1994472186554</v>
+        <v>-121.1994472186554</v>
       </c>
     </row>
     <row r="8">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>121.1994472186554</v>
+        <v>-121.1994472186554</v>
       </c>
     </row>
     <row r="9">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>121.1994472186554</v>
+        <v>-121.1994472186554</v>
       </c>
     </row>
     <row r="10">
@@ -740,10 +740,10 @@
         <v>8.774784865278793</v>
       </c>
       <c r="G10" t="n">
-        <v>423.6278770972928</v>
+        <v>-423.6278770972928</v>
       </c>
       <c r="H10" t="n">
-        <v>544.8273243159481</v>
+        <v>-544.8273243159481</v>
       </c>
     </row>
     <row r="11">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>544.8273243159481</v>
+        <v>-544.8273243159481</v>
       </c>
     </row>
     <row r="12">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>544.8273243159481</v>
+        <v>-544.8273243159481</v>
       </c>
     </row>
     <row r="13">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>544.8273243159481</v>
+        <v>-544.8273243159481</v>
       </c>
     </row>
     <row r="14">
@@ -860,10 +860,10 @@
         <v>2.114076275098652</v>
       </c>
       <c r="G14" t="n">
-        <v>31.81554426042939</v>
+        <v>-31.81554426042939</v>
       </c>
       <c r="H14" t="n">
-        <v>576.6428685763775</v>
+        <v>-576.6428685763775</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>576.6428685763775</v>
+        <v>-576.6428685763775</v>
       </c>
     </row>
     <row r="16">
@@ -920,10 +920,10 @@
         <v>4.012382264792895</v>
       </c>
       <c r="G16" t="n">
-        <v>129.0767020425694</v>
+        <v>-129.0767020425694</v>
       </c>
       <c r="H16" t="n">
-        <v>705.7195706189469</v>
+        <v>-705.7195706189469</v>
       </c>
     </row>
     <row r="17">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>705.7195706189469</v>
+        <v>-705.7195706189469</v>
       </c>
     </row>
     <row r="18">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>705.7195706189469</v>
+        <v>-705.7195706189469</v>
       </c>
     </row>
     <row r="19">
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>705.7195706189469</v>
+        <v>-705.7195706189469</v>
       </c>
     </row>
     <row r="20">
@@ -1040,10 +1040,10 @@
         <v>2.024560447774842</v>
       </c>
       <c r="G20" t="n">
-        <v>164.7767355420411</v>
+        <v>-164.7767355420411</v>
       </c>
       <c r="H20" t="n">
-        <v>870.4963061609881</v>
+        <v>-870.4963061609881</v>
       </c>
     </row>
     <row r="21">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>870.4963061609881</v>
+        <v>-870.4963061609881</v>
       </c>
     </row>
     <row r="22">
@@ -1100,10 +1100,10 @@
         <v>1.974841071621549</v>
       </c>
       <c r="G22" t="n">
-        <v>71.72793158385917</v>
+        <v>-71.72793158385917</v>
       </c>
       <c r="H22" t="n">
-        <v>942.2242377448472</v>
+        <v>-942.2242377448472</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>942.2242377448472</v>
+        <v>-942.2242377448472</v>
       </c>
     </row>
     <row r="24">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>942.2242377448472</v>
+        <v>-942.2242377448472</v>
       </c>
     </row>
     <row r="25">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>942.2242377448472</v>
+        <v>-942.2242377448472</v>
       </c>
     </row>
     <row r="26">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>942.2242377448472</v>
+        <v>-942.2242377448472</v>
       </c>
     </row>
     <row r="27">
@@ -1250,10 +1250,10 @@
         <v>8.576284029342592</v>
       </c>
       <c r="G27" t="n">
-        <v>124.714628710913</v>
+        <v>-124.714628710913</v>
       </c>
       <c r="H27" t="n">
-        <v>1066.93886645576</v>
+        <v>-1066.93886645576</v>
       </c>
     </row>
     <row r="28">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1066.93886645576</v>
+        <v>-1066.93886645576</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.63%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E2" t="n">

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,37 +659,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54476.48</v>
+        <v>51006.758102417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03702536777192133</v>
+        <v>-0.09140820863656909</v>
       </c>
       <c r="E8" t="n">
-        <v>2017.011706919717</v>
+        <v>3995.956648002278</v>
       </c>
       <c r="F8" t="n">
-        <v>2.017011706919717</v>
+        <v>4.662436386500745</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>608.5188967523596</v>
       </c>
       <c r="H8" t="n">
-        <v>-121.1994472186554</v>
+        <v>487.3194495337043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -698,28 +698,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71620</v>
+        <v>54476.48</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02877697691189824</v>
+        <v>0.03690721672967152</v>
       </c>
       <c r="E9" t="n">
-        <v>2061.007086430152</v>
+        <v>2010.575254029616</v>
       </c>
       <c r="F9" t="n">
-        <v>2.061007086430152</v>
+        <v>2.010575254029616</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-121.1994472186554</v>
+        <v>487.3194495337043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -728,88 +728,88 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68321.58</v>
+        <v>59247.03539261121</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1284335764084904</v>
+        <v>-0.03690721672967152</v>
       </c>
       <c r="E10" t="n">
-        <v>6596.055543764131</v>
+        <v>2010.575254029616</v>
       </c>
       <c r="F10" t="n">
-        <v>8.774784865278793</v>
+        <v>2.186643175825621</v>
       </c>
       <c r="G10" t="n">
-        <v>-423.6278770972928</v>
+        <v>176.0679217960049</v>
       </c>
       <c r="H10" t="n">
-        <v>-544.8273243159481</v>
+        <v>663.3873713297093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68321.58</v>
+        <v>71620</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02877697691189823</v>
+        <v>0.02812080841978179</v>
       </c>
       <c r="E11" t="n">
-        <v>1477.919897588016</v>
+        <v>2014.012299024771</v>
       </c>
       <c r="F11" t="n">
-        <v>1.966088530244408</v>
+        <v>2.014012299024771</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-544.8273243159481</v>
+        <v>663.3873713297093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>66206.50999999999</v>
+        <v>68321.58</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03096946855905164</v>
+        <v>-0.02812080841978179</v>
       </c>
       <c r="E12" t="n">
-        <v>2050.380429849538</v>
+        <v>2014.012299024771</v>
       </c>
       <c r="F12" t="n">
-        <v>2.050380429849538</v>
+        <v>1.921258062116795</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-92.75423690797659</v>
       </c>
       <c r="H12" t="n">
-        <v>-544.8273243159481</v>
+        <v>570.6331344217326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -818,28 +818,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>69290.56</v>
+        <v>66206.50999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0296180179572825</v>
+        <v>0.03039095117366708</v>
       </c>
       <c r="E13" t="n">
-        <v>2052.24905035016</v>
+        <v>2012.078812788901</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05224905035016</v>
+        <v>2.012078812788901</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-544.8273243159481</v>
+        <v>570.6331344217326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>68263.24032869971</v>
+        <v>67138.14443519607</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03096946855905164</v>
+        <v>-0.03039095117366708</v>
       </c>
       <c r="E14" t="n">
-        <v>2097.070897011532</v>
+        <v>2012.078812788901</v>
       </c>
       <c r="F14" t="n">
-        <v>2.114076275098652</v>
+        <v>2.040392069420652</v>
       </c>
       <c r="G14" t="n">
-        <v>-31.81554426042939</v>
+        <v>28.31325663175074</v>
       </c>
       <c r="H14" t="n">
-        <v>-576.6428685763775</v>
+        <v>598.9463910534834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -878,58 +878,58 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>70537.83</v>
+        <v>69290.56</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02909457593503691</v>
+        <v>0.02904527592418968</v>
       </c>
       <c r="E15" t="n">
-        <v>2052.268251227724</v>
+        <v>2012.563434141621</v>
       </c>
       <c r="F15" t="n">
-        <v>2.052268251227725</v>
+        <v>2.012563434141621</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-576.6428685763775</v>
+        <v>598.9463910534834</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68339.38</v>
+        <v>70537.83</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.05871259389231941</v>
+        <v>0.02854139033972109</v>
       </c>
       <c r="E16" t="n">
-        <v>4057.826834415891</v>
+        <v>2013.247739746889</v>
       </c>
       <c r="F16" t="n">
-        <v>4.012382264792895</v>
+        <v>2.013247739746889</v>
       </c>
       <c r="G16" t="n">
-        <v>-129.0767020425694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-705.7195706189469</v>
+        <v>598.9463910534834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>65279.93000000001</v>
+        <v>68633.02</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0296180179572825</v>
+        <v>-0.05758666626391078</v>
       </c>
       <c r="E17" t="n">
-        <v>-1933.462138990145</v>
+        <v>4025.811173888509</v>
       </c>
       <c r="F17" t="n">
-        <v>1.933462138990145</v>
+        <v>3.952346817424314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-109.6916577661598</v>
       </c>
       <c r="H17" t="n">
-        <v>-705.7195706189469</v>
+        <v>489.2547332873236</v>
       </c>
     </row>
     <row r="18">
@@ -968,178 +968,178 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>64724.05999999999</v>
+        <v>64724.06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0316706605591042</v>
+        <v>0.03106931778939466</v>
       </c>
       <c r="E18" t="n">
-        <v>-1800.606776071281</v>
+        <v>2010.932388759847</v>
       </c>
       <c r="F18" t="n">
-        <v>2.049853734267093</v>
+        <v>2.010932388759847</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-705.7195706189469</v>
+        <v>489.2547332873236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67908</v>
+        <v>65308.50595293168</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03018711093703798</v>
+        <v>-0.03106931778939466</v>
       </c>
       <c r="E19" t="n">
-        <v>2049.946329512375</v>
+        <v>2010.932388759847</v>
       </c>
       <c r="F19" t="n">
-        <v>2.049946329512375</v>
+        <v>2.029090725802207</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.15833704235999</v>
       </c>
       <c r="H19" t="n">
-        <v>-705.7195706189469</v>
+        <v>507.4130703296835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-07-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62797.02</v>
+        <v>67908</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03223975353885968</v>
+        <v>0.02961679826753562</v>
       </c>
       <c r="E20" t="n">
-        <v>2182.801692431239</v>
+        <v>2011.217536751809</v>
       </c>
       <c r="F20" t="n">
-        <v>2.024560447774842</v>
+        <v>2.011217536751809</v>
       </c>
       <c r="G20" t="n">
-        <v>-164.7767355420411</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-870.4963061609881</v>
+        <v>507.4130703296835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>61156.03</v>
+        <v>64628.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03346471318045675</v>
+        <v>-0.02961679826753562</v>
       </c>
       <c r="E21" t="n">
-        <v>2046.569003205408</v>
+        <v>2011.217536751809</v>
       </c>
       <c r="F21" t="n">
-        <v>2.046569003205408</v>
+        <v>1.914074734602275</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-97.14280214953409</v>
       </c>
       <c r="H21" t="n">
-        <v>-870.4963061609881</v>
+        <v>410.2702681801495</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59012.64</v>
+        <v>61156.03</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03346471318045675</v>
+        <v>0.03285360215003179</v>
       </c>
       <c r="E22" t="n">
-        <v>2046.569003205408</v>
+        <v>2009.195878695409</v>
       </c>
       <c r="F22" t="n">
-        <v>1.974841071621549</v>
+        <v>2.009195878695408</v>
       </c>
       <c r="G22" t="n">
-        <v>-71.72793158385917</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-942.2242377448472</v>
+        <v>410.2702681801495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>60313.99</v>
+        <v>62301.5728090342</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03390679370362058</v>
+        <v>-0.03285360215003179</v>
       </c>
       <c r="E23" t="n">
-        <v>2045.054016372234</v>
+        <v>2009.195878695409</v>
       </c>
       <c r="F23" t="n">
-        <v>2.045054016372235</v>
+        <v>2.046831086389248</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>37.63520769383955</v>
       </c>
       <c r="H23" t="n">
-        <v>-942.2242377448472</v>
+        <v>447.905475873989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1148,58 +1148,58 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66084</v>
+        <v>60313.99</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03100487666203727</v>
+        <v>0.03332340411088677</v>
       </c>
       <c r="E24" t="n">
-        <v>2048.926269334071</v>
+        <v>2009.867462309984</v>
       </c>
       <c r="F24" t="n">
-        <v>2.048926269334071</v>
+        <v>2.009867462309984</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-942.2242377448472</v>
+        <v>447.905475873989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>68198.27</v>
+        <v>62743.31900537863</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03008330732783424</v>
+        <v>-0.03332340411088677</v>
       </c>
       <c r="E25" t="n">
-        <v>2051.629515636618</v>
+        <v>2009.867462309984</v>
       </c>
       <c r="F25" t="n">
-        <v>2.051629515636618</v>
+        <v>2.090820974474515</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.95351216453082</v>
       </c>
       <c r="H25" t="n">
-        <v>-942.2242377448472</v>
+        <v>528.8589880385198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1208,82 +1208,142 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>69962.21000000001</v>
+        <v>66084</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02937214361461847</v>
+        <v>0.03043709253609745</v>
       </c>
       <c r="E26" t="n">
-        <v>2054.940079716097</v>
+        <v>2011.404823155464</v>
       </c>
       <c r="F26" t="n">
-        <v>2.054940079716097</v>
+        <v>2.011404823155464</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-942.2242377448472</v>
+        <v>528.8589880385198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>68959.4157936282</v>
+        <v>68198.27</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1243671213081105</v>
+        <v>0.02951176102107296</v>
       </c>
       <c r="E27" t="n">
-        <v>8200.549881059022</v>
+        <v>2012.65104629061</v>
       </c>
       <c r="F27" t="n">
-        <v>8.576284029342592</v>
+        <v>2.01265104629061</v>
       </c>
       <c r="G27" t="n">
-        <v>-124.714628710913</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-1066.93886645576</v>
+        <v>528.8589880385198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>69962.21000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02879734653772012</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2014.726005914748</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.014726005914748</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>528.8589880385198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>70007.18646211237</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.08874620009489052</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6038.781875360821</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.212871777846935</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.991490106183881</v>
+      </c>
+      <c r="H29" t="n">
+        <v>532.8504781447036</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2024-11-07</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>75571.99000000001</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.02715600267585514</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2052.233162659698</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.052233162659698</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-1066.93886645576</v>
+      <c r="D30" t="n">
+        <v>0.02665857130083773</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2014.641283761196</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.014641283761196</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>532.8504781447036</v>
       </c>
     </row>
   </sheetData>
@@ -1337,20 +1397,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>103184.4349314238</v>
+        <v>101294.3491201579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.18%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>24.14%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44179.55</v>
+        <v>42619.04</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04526981374866878</v>
+        <v>0.04692738269092875</v>
       </c>
       <c r="E2" t="n">
         <v>2000</v>
@@ -509,7 +509,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43632.18135310362</v>
+        <v>42283.58</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04526981374866878</v>
+        <v>-0.04692738269092875</v>
       </c>
       <c r="E3" t="n">
         <v>2000</v>
       </c>
       <c r="F3" t="n">
-        <v>1.97522072330314</v>
+        <v>1.984257740202501</v>
       </c>
       <c r="G3" t="n">
-        <v>-24.77927669686024</v>
+        <v>-15.74225979749892</v>
       </c>
       <c r="H3" t="n">
-        <v>-24.77927669686024</v>
+        <v>-15.74225979749892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -548,28 +548,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46951.04</v>
+        <v>42690.21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04258531674807623</v>
+        <v>0.04683991805260332</v>
       </c>
       <c r="E4" t="n">
-        <v>1999.424910051597</v>
+        <v>1999.605938048427</v>
       </c>
       <c r="F4" t="n">
-        <v>1.999424910051597</v>
+        <v>1.999605938048427</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-24.77927669686024</v>
+        <v>-15.74225979749892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,28 +578,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44686.87530933462</v>
+        <v>44882.86162772353</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04258531674807623</v>
+        <v>-0.04683991805260332</v>
       </c>
       <c r="E5" t="n">
-        <v>1999.424910051597</v>
+        <v>1999.605938048427</v>
       </c>
       <c r="F5" t="n">
-        <v>1.903004739529802</v>
+        <v>2.102309560608905</v>
       </c>
       <c r="G5" t="n">
-        <v>-96.42017052179511</v>
+        <v>102.7036225604773</v>
       </c>
       <c r="H5" t="n">
-        <v>-121.1994472186554</v>
+        <v>86.9613627629784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,298 +608,298 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43098.96</v>
+        <v>44244.77</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0463449447851553</v>
+        <v>0.04523873677703563</v>
       </c>
       <c r="E6" t="n">
-        <v>1997.418921497617</v>
+        <v>2001.577503790483</v>
       </c>
       <c r="F6" t="n">
-        <v>1.997418921497617</v>
+        <v>2.001577503790483</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-121.1994472186554</v>
+        <v>86.9613627629784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44349.6</v>
+        <v>43889.49</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04506326385141379</v>
+        <v>-0.04523873677703563</v>
       </c>
       <c r="E7" t="n">
-        <v>1998.537726504661</v>
+        <v>2001.577503790483</v>
       </c>
       <c r="F7" t="n">
-        <v>1.998537726504661</v>
+        <v>1.985505085388338</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-16.07241840214517</v>
       </c>
       <c r="H7" t="n">
-        <v>-121.1994472186554</v>
+        <v>70.88894436083322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51006.758102417</v>
+        <v>44636</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09140820863656909</v>
+        <v>0.04483324585767351</v>
       </c>
       <c r="E8" t="n">
-        <v>3995.956648002278</v>
+        <v>2001.176762103115</v>
       </c>
       <c r="F8" t="n">
-        <v>4.662436386500745</v>
+        <v>2.001176762103115</v>
       </c>
       <c r="G8" t="n">
-        <v>608.5188967523596</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>487.3194495337043</v>
+        <v>70.88894436083322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54476.48</v>
+        <v>45802.74690067242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03690721672967152</v>
+        <v>-0.04483324585767351</v>
       </c>
       <c r="E9" t="n">
-        <v>2010.575254029616</v>
+        <v>2001.176762103115</v>
       </c>
       <c r="F9" t="n">
-        <v>2.010575254029616</v>
+        <v>2.05348581275464</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>52.3090506515252</v>
       </c>
       <c r="H9" t="n">
-        <v>487.3194495337043</v>
+        <v>123.1979950123584</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59247.03539261121</v>
+        <v>47059.99</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03690721672967152</v>
+        <v>0.04254444117152974</v>
       </c>
       <c r="E10" t="n">
-        <v>2010.575254029616</v>
+        <v>2002.140976087778</v>
       </c>
       <c r="F10" t="n">
-        <v>2.186643175825621</v>
+        <v>2.002140976087778</v>
       </c>
       <c r="G10" t="n">
-        <v>176.0679217960049</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>663.3873713297093</v>
+        <v>123.1979950123584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71620</v>
+        <v>46173.53</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02812080841978179</v>
+        <v>-0.04254444117152974</v>
       </c>
       <c r="E11" t="n">
-        <v>2014.012299024771</v>
+        <v>2002.140976087778</v>
       </c>
       <c r="F11" t="n">
-        <v>2.014012299024771</v>
+        <v>1.964427030766864</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-37.71394532091422</v>
       </c>
       <c r="H11" t="n">
-        <v>663.3873713297093</v>
+        <v>85.4840496914442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68321.58</v>
+        <v>43252.45</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02812080841978179</v>
+        <v>0.04627015606818342</v>
       </c>
       <c r="E12" t="n">
-        <v>2014.012299024771</v>
+        <v>2001.2976118313</v>
       </c>
       <c r="F12" t="n">
-        <v>1.921258062116795</v>
+        <v>2.0012976118313</v>
       </c>
       <c r="G12" t="n">
-        <v>-92.75423690797659</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>570.6331344217326</v>
+        <v>85.4840496914442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>66206.50999999999</v>
+        <v>42769.44</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03039095117366708</v>
+        <v>-0.04627015606818342</v>
       </c>
       <c r="E13" t="n">
-        <v>2012.078812788901</v>
+        <v>2001.2976118313</v>
       </c>
       <c r="F13" t="n">
-        <v>2.012078812788901</v>
+        <v>1.978948663748807</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-22.34894808249303</v>
       </c>
       <c r="H13" t="n">
-        <v>570.6331344217326</v>
+        <v>63.13510160895117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67138.14443519607</v>
+        <v>41289.52</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03039095117366708</v>
+        <v>0.04845736175616654</v>
       </c>
       <c r="E14" t="n">
-        <v>2012.078812788901</v>
+        <v>2000.781207378473</v>
       </c>
       <c r="F14" t="n">
-        <v>2.040392069420652</v>
+        <v>2.000781207378473</v>
       </c>
       <c r="G14" t="n">
-        <v>28.31325663175074</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>598.9463910534834</v>
+        <v>63.13510160895117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>69290.56</v>
+        <v>42191.31579222112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02904527592418968</v>
+        <v>-0.04845736175616654</v>
       </c>
       <c r="E15" t="n">
-        <v>2012.563434141621</v>
+        <v>2000.781207378473</v>
       </c>
       <c r="F15" t="n">
-        <v>2.012563434141621</v>
+        <v>2.044479852312322</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>43.69864493384799</v>
       </c>
       <c r="H15" t="n">
-        <v>598.9463910534834</v>
+        <v>106.8337465427992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70537.83</v>
+        <v>42641.75</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02854139033972109</v>
+        <v>0.04693930889459172</v>
       </c>
       <c r="E16" t="n">
-        <v>2013.247739746889</v>
+        <v>2001.574275055956</v>
       </c>
       <c r="F16" t="n">
-        <v>2.013247739746889</v>
+        <v>2.001574275055956</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>598.9463910534834</v>
+        <v>106.8337465427992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68633.02</v>
+        <v>43106.96402353823</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05758666626391078</v>
+        <v>-0.04693930889459172</v>
       </c>
       <c r="E17" t="n">
-        <v>4025.811173888509</v>
+        <v>2001.574275055956</v>
       </c>
       <c r="F17" t="n">
-        <v>3.952346817424314</v>
+        <v>2.023411099808913</v>
       </c>
       <c r="G17" t="n">
-        <v>-109.6916577661598</v>
+        <v>21.83682475295694</v>
       </c>
       <c r="H17" t="n">
-        <v>489.2547332873236</v>
+        <v>128.6705712957561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>64724.06</v>
+        <v>43194.08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03106931778939466</v>
+        <v>0.04634733537196575</v>
       </c>
       <c r="E18" t="n">
-        <v>2010.932388759847</v>
+        <v>2001.930511843518</v>
       </c>
       <c r="F18" t="n">
-        <v>2.010932388759847</v>
+        <v>2.001930511843518</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>489.2547332873236</v>
+        <v>128.6705712957561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -998,28 +998,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>65308.50595293168</v>
+        <v>42644.04</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03106931778939466</v>
+        <v>-0.04634733537196575</v>
       </c>
       <c r="E19" t="n">
-        <v>2010.932388759847</v>
+        <v>2001.930511843518</v>
       </c>
       <c r="F19" t="n">
-        <v>2.029090725802207</v>
+        <v>1.976437623495522</v>
       </c>
       <c r="G19" t="n">
-        <v>18.15833704235999</v>
+        <v>-25.49288834799608</v>
       </c>
       <c r="H19" t="n">
-        <v>507.4130703296835</v>
+        <v>103.17768294776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>67908</v>
+        <v>43244.89</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02961679826753562</v>
+        <v>0.04627925025855891</v>
       </c>
       <c r="E20" t="n">
-        <v>2011.217536751809</v>
+        <v>2001.341086713852</v>
       </c>
       <c r="F20" t="n">
-        <v>2.011217536751809</v>
+        <v>2.001341086713852</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>507.4130703296835</v>
+        <v>103.17768294776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64628.01</v>
+        <v>42924.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02961679826753562</v>
+        <v>-0.04627925025855891</v>
       </c>
       <c r="E21" t="n">
-        <v>2011.217536751809</v>
+        <v>2001.341086713852</v>
       </c>
       <c r="F21" t="n">
-        <v>1.914074734602275</v>
+        <v>1.986491000890886</v>
       </c>
       <c r="G21" t="n">
-        <v>-97.14280214953409</v>
+        <v>-14.85008582296626</v>
       </c>
       <c r="H21" t="n">
-        <v>410.2702681801495</v>
+        <v>88.32759712479375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>61156.03</v>
+        <v>43615.47</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03285360215003179</v>
+        <v>0.04587739919701978</v>
       </c>
       <c r="E22" t="n">
-        <v>2009.195878695409</v>
+        <v>2000.96432835564</v>
       </c>
       <c r="F22" t="n">
-        <v>2.009195878695408</v>
+        <v>2.000964328355641</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>410.2702681801495</v>
+        <v>88.32759712479375</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1118,28 +1118,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>62301.5728090342</v>
+        <v>47972.67637523134</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.03285360215003179</v>
+        <v>-0.04587739919701978</v>
       </c>
       <c r="E23" t="n">
-        <v>2009.195878695409</v>
+        <v>2000.96432835564</v>
       </c>
       <c r="F23" t="n">
-        <v>2.046831086389248</v>
+        <v>2.200861624615928</v>
       </c>
       <c r="G23" t="n">
-        <v>37.63520769383955</v>
+        <v>199.8972962602878</v>
       </c>
       <c r="H23" t="n">
-        <v>447.905475873989</v>
+        <v>288.2248933850815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>60313.99</v>
+        <v>49917.8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03332340411088677</v>
+        <v>0.04016359370328393</v>
       </c>
       <c r="E24" t="n">
-        <v>2009.867462309984</v>
+        <v>2004.878237761787</v>
       </c>
       <c r="F24" t="n">
-        <v>2.009867462309984</v>
+        <v>2.004878237761787</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>447.905475873989</v>
+        <v>288.2248933850815</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1178,28 +1178,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>62743.31900537863</v>
+        <v>49305.89900358711</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.03332340411088677</v>
+        <v>-0.04016359370328393</v>
       </c>
       <c r="E25" t="n">
-        <v>2009.867462309984</v>
+        <v>2004.878237761787</v>
       </c>
       <c r="F25" t="n">
-        <v>2.090820974474515</v>
+        <v>1.980302094755225</v>
       </c>
       <c r="G25" t="n">
-        <v>80.95351216453082</v>
+        <v>-24.57614300656202</v>
       </c>
       <c r="H25" t="n">
-        <v>528.8589880385198</v>
+        <v>263.6487503785195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1208,28 +1208,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>66084</v>
+        <v>49699.6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03043709253609745</v>
+        <v>0.04032844156853216</v>
       </c>
       <c r="E26" t="n">
-        <v>2011.404823155464</v>
+        <v>2004.307414579421</v>
       </c>
       <c r="F26" t="n">
-        <v>2.011404823155464</v>
+        <v>2.004307414579421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>528.8589880385198</v>
+        <v>263.6487503785195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1238,112 +1238,5092 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>68198.27</v>
+        <v>51555.12</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02951176102107296</v>
+        <v>0.03890522473315353</v>
       </c>
       <c r="E27" t="n">
-        <v>2012.65104629061</v>
+        <v>2005.763529744698</v>
       </c>
       <c r="F27" t="n">
-        <v>2.01265104629061</v>
+        <v>2.005763529744699</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>528.8589880385198</v>
+        <v>263.6487503785195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>69962.21000000001</v>
+        <v>51718.07922873613</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02879734653772012</v>
+        <v>-0.07923366630168568</v>
       </c>
       <c r="E28" t="n">
-        <v>2014.726005914748</v>
+        <v>4010.070944324119</v>
       </c>
       <c r="F28" t="n">
-        <v>2.014726005914748</v>
+        <v>4.09781303137382</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>12.91185715045803</v>
       </c>
       <c r="H28" t="n">
-        <v>528.8589880385198</v>
+        <v>276.5606075289776</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>70007.18646211237</v>
+        <v>52137.68</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.08874620009489052</v>
+        <v>0.03847313651255389</v>
       </c>
       <c r="E29" t="n">
-        <v>6038.781875360821</v>
+        <v>2005.90008008785</v>
       </c>
       <c r="F29" t="n">
-        <v>6.212871777846935</v>
+        <v>2.005900080087851</v>
       </c>
       <c r="G29" t="n">
-        <v>3.991490106183881</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>532.8504781447036</v>
+        <v>276.5606075289776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>75571.99000000001</v>
+        <v>51837.67</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02665857130083773</v>
+        <v>-0.03847313651255389</v>
       </c>
       <c r="E30" t="n">
-        <v>2014.641283761196</v>
+        <v>2005.90008008785</v>
       </c>
       <c r="F30" t="n">
-        <v>2.014641283761196</v>
+        <v>1.994357754402719</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-11.54232568513137</v>
       </c>
       <c r="H30" t="n">
-        <v>532.8504781447036</v>
+        <v>265.0182818438462</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>52286.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03835746007952472</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2005.588843686093</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.005588843686093</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>265.0182818438462</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>51679.99</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.03835746007952472</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2005.588843686093</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.982313153335236</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-23.27569035085658</v>
+      </c>
+      <c r="H32" t="n">
+        <v>241.7425914929896</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>52258.82</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03836756306091747</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2005.043571839135</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.005043571839135</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>241.7425914929896</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>51897.68</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.03836756306091747</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2005.043571839135</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.991187510115315</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-13.85606172381971</v>
+      </c>
+      <c r="H34" t="n">
+        <v>227.8865297691699</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>52842.33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.03793714064755332</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2004.686905354426</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.004686905354426</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>227.8865297691699</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>61003.95563457839</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.03793714064755332</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2004.686905354426</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.314315644966103</v>
+      </c>
+      <c r="G36" t="n">
+        <v>309.628739611677</v>
+      </c>
+      <c r="H36" t="n">
+        <v>537.5152693808469</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>62730</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03205472215406101</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2010.792720724247</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.010792720724247</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>537.5152693808469</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>62356.94018072428</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.03205472215406101</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2010.792720724247</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.99883439187052</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-11.95832885372732</v>
+      </c>
+      <c r="H38" t="n">
+        <v>525.5569405271197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>67301.31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.02987272256074838</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2010.473361604921</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.010473361604921</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>525.5569405271197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>66203.58</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.02987272256074838</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2010.473361604921</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.977681177868311</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-32.7921837366102</v>
+      </c>
+      <c r="H40" t="n">
+        <v>492.7647567905095</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>68864</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02918416076151554</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2009.738046681006</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.009738046681006</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>492.7647567905095</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>69136.78</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02907072751024091</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2009.856492315473</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.009856492315473</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>492.7647567905095</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>68104.53999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.05825488827175645</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4019.59453899648</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.967422368499368</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-60.13302586963818</v>
+      </c>
+      <c r="H43" t="n">
+        <v>432.6317309208713</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>71019.99000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02828125674322549</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2008.534571091307</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.008534571091307</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>432.6317309208713</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>71310.55386247797</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.02828125674322549</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2008.534571091307</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.01675208228635</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.217511195042665</v>
+      </c>
+      <c r="H45" t="n">
+        <v>440.849242115914</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>72057.42999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02787524361585113</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2008.61841558214</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.00861841558214</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>440.849242115914</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>72855.14999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.02757557572553024</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2009.022705819864</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.009022705819864</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>440.849242115914</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>72048.24000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.05545081934138137</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4017.641121402005</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.995133940104488</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-44.74382063475343</v>
+      </c>
+      <c r="H48" t="n">
+        <v>396.1054214811605</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>65843.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.03049690030097282</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2008.008016454959</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.008008016454959</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>396.1054214811605</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>67210</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02988843806182263</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2008.801922135099</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.008801922135099</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>396.1054214811605</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>69477.66</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.06038533836279545</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4016.809938590059</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.195432007755259</v>
+      </c>
+      <c r="G51" t="n">
+        <v>136.9334163917769</v>
+      </c>
+      <c r="H51" t="n">
+        <v>533.0388378729375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>71290.38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02821440888455424</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2011.415930855248</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.011415930855248</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>533.0388378729375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>70134.77</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.02821440888455424</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2011.415930855248</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.978811077804168</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-32.60485305107974</v>
+      </c>
+      <c r="H53" t="n">
+        <v>500.4339848218577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>71023.50999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0283101270903031</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2010.684594499413</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.010684594499413</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>500.4339848218577</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>70670.00469621182</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.0283101270903031</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2010.684594499413</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.000676814422073</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-10.0077800773394</v>
+      </c>
+      <c r="H55" t="n">
+        <v>490.4262047445183</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0293489624608528</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2010.403928568417</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.010403928568417</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>490.4262047445183</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>66652.74000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.0293489624608528</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2010.403928568417</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.956188764172982</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-54.21516439543479</v>
+      </c>
+      <c r="H57" t="n">
+        <v>436.2110403490835</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>68190.62</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.02946505389490011</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2009.240293426653</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.009240293426654</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>436.2110403490835</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>67992.02</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.02954880695450311</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2009.083073426714</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.009083073426714</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>436.2110403490835</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>68259.99000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.02943685537042803</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2009.359453216864</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.009359453216864</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>436.2110403490835</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>68896</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.02918085366730256</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2010.444094262477</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.010444094262477</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>436.2110403490835</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>70875.93740322646</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.1176315698871338</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8038.126914332708</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.337247783963756</v>
+      </c>
+      <c r="G62" t="n">
+        <v>232.9031450197836</v>
+      </c>
+      <c r="H62" t="n">
+        <v>669.1141853688672</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>70977.27</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.02838789380495063</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2014.895203325308</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.014895203325309</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>669.1141853688672</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>70027.72</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.02838789380495063</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2014.895203325308</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.987939478762818</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-26.95572456249095</v>
+      </c>
+      <c r="H64" t="n">
+        <v>642.1584608063763</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64547.18</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.03120625923766797</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2014.276032140417</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.014276032140417</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>642.1584608063763</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>64808.35</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.03108239523756238</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2014.398749394276</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.014398749394276</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>642.1584608063763</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>65703.49000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.03067528541402449</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2015.473308447504</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.015473308447504</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>642.1584608063763</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>66065.8710995703</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.09296393988925483</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6044.148089982196</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.141743669631711</v>
+      </c>
+      <c r="G68" t="n">
+        <v>33.68837475745499</v>
+      </c>
+      <c r="H68" t="n">
+        <v>675.8468355638313</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>66419.56</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.03035226710171243</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2015.984225898215</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.015984225898215</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>675.8468355638313</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>65905.64</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.03035226710171243</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2015.984225898215</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.000385588789303</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-15.598637108912</v>
+      </c>
+      <c r="H70" t="n">
+        <v>660.2481984549192</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>63866</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.03155970196598726</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2015.591925759743</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.015591925759743</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>660.2481984549192</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-04-30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>63241.36</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.03155970196598726</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2015.591925759743</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.995878473523708</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-19.71345223603427</v>
+      </c>
+      <c r="H72" t="n">
+        <v>640.5347462188849</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>61690.74</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.03266482825959028</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2015.117427307036</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.015117427307036</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>640.5347462188849</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>63879.94</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.03266482825959028</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2015.117427307036</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.086627269332932</v>
+      </c>
+      <c r="G74" t="n">
+        <v>71.50984202589518</v>
+      </c>
+      <c r="H74" t="n">
+        <v>712.0445882447801</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>64540.75</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.03124329341158294</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2016.465589253622</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.016465589253622</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>712.0445882447801</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>63093.23</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.03124329341158294</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2016.465589253622</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.971240297174487</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-45.22529207913443</v>
+      </c>
+      <c r="H76" t="n">
+        <v>666.8192961656457</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>63299.63</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.03184033349475045</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2015.48132929431</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.01548132929431</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>666.8192961656457</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-05-11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>60928.02</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.03184033349475045</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2015.48132929431</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.939968475974825</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-75.51285331948513</v>
+      </c>
+      <c r="H78" t="n">
+        <v>591.3064428461606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-05-13</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>62334.36</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.03230788990458739</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2013.891640152916</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.013891640152916</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>591.3064428461606</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>62309.50346974133</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.03230788990458739</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2013.891640152916</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.013088578109909</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.8030620430072245</v>
+      </c>
+      <c r="H80" t="n">
+        <v>590.5033808031534</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-05-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>64725.12</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.03111304658094192</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2013.795673517055</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.013795673517056</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>590.5033808031534</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>65129.40907029957</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.03111304658094192</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2013.795673517055</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.026374338193452</v>
+      </c>
+      <c r="G82" t="n">
+        <v>12.57866467639628</v>
+      </c>
+      <c r="H82" t="n">
+        <v>603.0820454795497</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>66386.92999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.03033678208816197</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2013.965828912062</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.013965828912062</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>603.0820454795497</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>67170.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.02998950125147421</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2014.400796961773</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.014400796961773</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>603.0820454795497</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-05-19</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>67324.44</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.02992296552770934</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2014.546897292336</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.014546897292336</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>603.0820454795497</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>66592.14</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.09024924886734552</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6042.913523166172</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.009890615469114</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-66.08952494555739</v>
+      </c>
+      <c r="H86" t="n">
+        <v>536.9925205339923</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>67420</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.02985857188710899</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2013.064916628888</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.013064916628888</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>536.9925205339923</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.02877950486967923</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2014.565340877546</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.014565340877546</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>536.9925205339923</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>69714.81658021479</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.05863807675678823</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4027.630257506435</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.087942765716047</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-16.72260725912879</v>
+      </c>
+      <c r="H89" t="n">
+        <v>520.2699132748635</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>70373.86</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.02862012745852184</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2014.108842948172</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.014108842948172</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>520.2699132748635</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>69260.02</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.02862012745852184</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2014.108842948172</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.982230600179772</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-31.87824276839986</v>
+      </c>
+      <c r="H91" t="n">
+        <v>488.3916705064636</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>68382.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.02944294136351909</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2013.390770673253</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.013390770673253</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>488.3916705064636</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>68691.71611231672</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.02944294136351909</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2013.390770673253</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.022486169654441</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.095398981187291</v>
+      </c>
+      <c r="H93" t="n">
+        <v>497.487069487651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.02823972307915125</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2013.492255543484</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.013492255543484</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>497.487069487651</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>70344.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.02823972307915125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2013.492255543484</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.986500728224431</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-26.99152731905284</v>
+      </c>
+      <c r="H95" t="n">
+        <v>470.4955421685981</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>71700</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02807353843616195</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2012.872705872812</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.012872705872812</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>470.4955421685981</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>70804.14</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.02807353843616195</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2012.872705872812</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.987722745729392</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-25.14996014342006</v>
+      </c>
+      <c r="H97" t="n">
+        <v>445.345582025178</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>66691.99000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.03017288004189899</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2012.289414025527</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.012289414025527</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>445.345582025178</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>66222.41</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.03017288004189899</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2012.289414025527</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.998120833015452</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-14.16858101007498</v>
+      </c>
+      <c r="H99" t="n">
+        <v>431.177001015103</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>66169.86</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.03040547672694413</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2011.926138255151</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.011926138255152</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>431.177001015103</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>64831.24</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.03040547672694413</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2011.926138255151</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.97122475899893</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-40.70137925622203</v>
+      </c>
+      <c r="H101" t="n">
+        <v>390.475621758881</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>61828.17</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.03252614695853549</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2011.032143597315</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.011032143597316</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>390.475621758881</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>61350.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.03252614695853549</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2011.032143597315</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.995479441167622</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-15.55270242969321</v>
+      </c>
+      <c r="H103" t="n">
+        <v>374.9229193291878</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>61717.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.03257792243930896</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2010.640959317026</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.010640959317027</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>374.9229193291878</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>62026.83</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.03241826210447033</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2010.802032449423</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.010802032449424</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>374.9229193291878</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>62814.74137500168</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.06499618454377928</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4021.44299176645</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.082718522479378</v>
+      </c>
+      <c r="G106" t="n">
+        <v>51.21123313375187</v>
+      </c>
+      <c r="H106" t="n">
+        <v>426.1341524629397</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>57862.01</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.03476727453299669</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2011.704386701</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.011704386701</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>426.1341524629397</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>58050</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.03465624238780457</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2011.794870612055</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.011794870612055</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>426.1341524629397</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>58012.84144474992</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.06942351692080126</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4023.499257313055</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.027455479663357</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2.579677589156212</v>
+      </c>
+      <c r="H109" t="n">
+        <v>423.5544748737834</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>58777.99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.03422407761907589</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2011.622492053267</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.011622492053267</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>423.5544748737834</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>57402.01</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.03422407761907589</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2011.622492053267</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.964530845730971</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-47.09164632229591</v>
+      </c>
+      <c r="H111" t="n">
+        <v>376.4628285514875</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>58534</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.03434928650117992</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2010.601136060065</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.010601136060065</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>376.4628285514875</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>62867.12614824093</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.03434928650117992</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2010.601136060065</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.159440927571747</v>
+      </c>
+      <c r="G113" t="n">
+        <v>148.839791511682</v>
+      </c>
+      <c r="H113" t="n">
+        <v>525.3026200631695</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>65836.75999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.03058313053706957</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2013.49422521772</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.013494225217721</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>525.3026200631695</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>66662.71030690277</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.03058313053706957</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2013.49422521772</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.038754371270861</v>
+      </c>
+      <c r="G115" t="n">
+        <v>25.26014605314011</v>
+      </c>
+      <c r="H115" t="n">
+        <v>550.5627661163096</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>67422.03</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.02987034041694626</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2013.918987701563</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.013918987701564</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>550.5627661163096</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>68165.35000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.02955053798709302</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2014.322764578492</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.014322764578492</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>550.5627661163096</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>66562.33</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.05942087840403928</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4028.241752280055</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.955192117219537</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-95.25285649924329</v>
+      </c>
+      <c r="H118" t="n">
+        <v>455.3099096170663</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>68232.08</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.02949196803819024</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2012.298322539239</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.012298322539239</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>455.3099096170663</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>67532</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.02949196803819024</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2012.298322539239</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.991651585555063</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-20.64673698417627</v>
+      </c>
+      <c r="H120" t="n">
+        <v>434.66317263289</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>67042</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.03000812496346266</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2011.804713800464</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.011804713800464</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>434.66317263289</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>69347.66</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.02902979371126857</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2013.148264159191</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.013148264159191</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>434.66317263289</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>68640.67203543986</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.05903791867473123</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4024.952977959655</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.052402413407197</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-41.73909795571571</v>
+      </c>
+      <c r="H123" t="n">
+        <v>392.9240746771743</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>57049.74</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.03527084357409582</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2012.192455482837</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.012192455482837</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>392.9240746771743</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>59711.2779885398</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.03527084357409582</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2012.192455482837</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.106067145543138</v>
+      </c>
+      <c r="G125" t="n">
+        <v>93.87469006030118</v>
+      </c>
+      <c r="H125" t="n">
+        <v>486.7987647374755</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>60820.16</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.03311382139129914</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2013.987915230236</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.013987915230236</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>486.7987647374755</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>59848.02</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.03311382139129914</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2013.987915230236</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.981796644902899</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-32.19127032733777</v>
+      </c>
+      <c r="H127" t="n">
+        <v>454.6074944101377</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>59473.19</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.03385162025097818</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2013.263842994273</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.013263842994273</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>454.6074944101377</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>60024</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.03354651748036738</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2013.596165241571</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.013596165241571</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>454.6074944101377</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>58954.42</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.06739813773134556</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4026.860008235844</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.973418119031594</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-72.08770015469271</v>
+      </c>
+      <c r="H130" t="n">
+        <v>382.519794255445</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>60619.19</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.03319139255344006</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2012.035331561568</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.012035331561568</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>382.519794255445</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>60010.4209736084</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.03319139255344006</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2012.035331561568</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.991829439832229</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-20.20589172933915</v>
+      </c>
+      <c r="H132" t="n">
+        <v>362.3139025261059</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>61570</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.03267095670809856</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2011.550804517628</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.011550804517629</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>362.3139025261059</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>60331.0889258894</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.03267095670809856</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2011.550804517628</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.971074394450177</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-40.47641006745123</v>
+      </c>
+      <c r="H134" t="n">
+        <v>321.8374924586547</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>61533.04</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.03267612484367832</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2010.661297051052</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.010661297051052</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>321.8374924586547</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>63628.84</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.03162074089414967</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2011.991063035306</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.011991063035306</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>321.8374924586547</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>63868.26999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.06429686573782799</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4022.652360086358</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.106529581097347</v>
+      </c>
+      <c r="G137" t="n">
+        <v>15.39459856360771</v>
+      </c>
+      <c r="H137" t="n">
+        <v>337.2320910222624</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>59132.12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.03402848137879857</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2012.176244308883</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.012176244308883</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>337.2320910222624</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>58580.29</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.03402848137879857</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2012.176244308883</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.99339830742962</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-18.77793687926247</v>
+      </c>
+      <c r="H139" t="n">
+        <v>318.4541541429999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>55264.87</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.03640144117529049</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2011.720914365076</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.011720914365076</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>318.4541541429999</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>56753.76233853807</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.03640144117529049</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2011.720914365076</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.065918741242711</v>
+      </c>
+      <c r="G141" t="n">
+        <v>54.19782687763423</v>
+      </c>
+      <c r="H141" t="n">
+        <v>372.6519810206341</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>57585.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.03495191181998102</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2012.723318109517</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.012723318109517</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>372.6519810206341</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>59666.01</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.03375610555326462</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2014.092131502143</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.014092131502143</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>372.6519810206341</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>59560.3963100316</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.06870801737324564</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4026.815449611659</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.092276744427047</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7.256507245201325</v>
+      </c>
+      <c r="H144" t="n">
+        <v>365.3954737754328</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>60155.93</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.03347750025910902</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2013.870162161944</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.013870162161944</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>365.3954737754328</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>60335.41</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.03337923875206335</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2013.950055593631</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.01395005559363</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>365.3954737754328</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>59318.34</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.06685673901117237</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4027.820217755575</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3.965830775955986</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-67.99798354609355</v>
+      </c>
+      <c r="H147" t="n">
+        <v>297.3974902293392</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>61135.49</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.03291819810594626</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2012.470171124097</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.012470171124097</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>297.3974902293392</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>59967.98</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.03291819810594626</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2012.470171124097</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.974037845653424</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-38.43232547067315</v>
+      </c>
+      <c r="H149" t="n">
+        <v>258.965164758666</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>60510</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.03324446299918955</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2011.622456080959</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.01162245608096</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>258.965164758666</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>59382.24</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.03324446299918955</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2011.622456080959</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.974130680488994</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-37.49177559196607</v>
+      </c>
+      <c r="H151" t="n">
+        <v>221.4733891667</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>61759.98</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.03255817517233663</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2010.792247480007</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.010792247480007</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>221.4733891667</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>62829.25520239606</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.03255817517233663</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2010.792247480007</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.045605896827053</v>
+      </c>
+      <c r="G153" t="n">
+        <v>34.81364934704651</v>
+      </c>
+      <c r="H153" t="n">
+        <v>256.2870385137465</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>63578.76</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0316364729051937</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2011.407718085813</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.011407718085813</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>256.2870385137465</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>63425.62025431253</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.0316364729051937</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2011.407718085813</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.006562916670663</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4.844801415150106</v>
+      </c>
+      <c r="H155" t="n">
+        <v>251.4422370985964</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>64354</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.03126236142456649</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2011.858007116552</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.011858007116552</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>251.4422370985964</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>63548.83</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.03126236142456649</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2011.858007116552</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.986686491568334</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-25.17151554821815</v>
+      </c>
+      <c r="H157" t="n">
+        <v>226.2707215503783</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>63617.99</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.03160500269489574</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2010.64674539385</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.01064674539385</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>226.2707215503783</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>63228.39</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.03160500269489574</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2010.64674539385</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.998333436343919</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-12.31330904993133</v>
+      </c>
+      <c r="H159" t="n">
+        <v>213.9574125004469</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>64292.35</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.03126843128838123</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2010.320928343557</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.010320928343557</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>213.9574125004469</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>63863.12540900785</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.03126843128838123</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2010.320928343557</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.996899748712835</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-13.4211796307215</v>
+      </c>
+      <c r="H161" t="n">
+        <v>200.5362328697254</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>64393.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.03121365903329004</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2009.971735516498</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.009971735516498</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>200.5362328697254</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>65584.98861098854</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.03121365903329004</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2009.971735516498</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.047147472205607</v>
+      </c>
+      <c r="G163" t="n">
+        <v>37.1757366891086</v>
+      </c>
+      <c r="H163" t="n">
+        <v>237.711969558834</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>65958.81</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.03048317753414503</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2010.63411517094</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.01063411517094</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>237.711969558834</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>65602.00999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.03048317753414503</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2010.63411517094</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.999757717426757</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-10.87639774418303</v>
+      </c>
+      <c r="H165" t="n">
+        <v>226.835571814651</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>62368</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0322334640233963</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2010.336684211181</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.01033668421118</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>226.835571814651</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>62720.01</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.03205553391191924</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2010.523407510914</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.010523407510914</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>226.835571814651</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>62870.70627593587</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.06428899793531553</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4020.860091722095</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.04189470596547</v>
+      </c>
+      <c r="G168" t="n">
+        <v>9.688112572500554</v>
+      </c>
+      <c r="H168" t="n">
+        <v>236.5236843871515</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>63086</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.03187071303764645</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2010.595802692964</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.010595802692964</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>236.5236843871515</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>64300</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.03128040492731728</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2011.330036826501</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.011330036826501</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>236.5236843871515</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>65141.35514202646</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.06315111796496373</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4021.925839519466</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4.11374940297171</v>
+      </c>
+      <c r="G171" t="n">
+        <v>53.13251782454152</v>
+      </c>
+      <c r="H171" t="n">
+        <v>289.6562022116931</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>67969.69</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.02960539592148103</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2012.26958311033</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.01226958311033</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>289.6562022116931</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>68211.39169937499</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.02960539592148103</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2012.26958311033</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.019425257615222</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7.155674504891238</v>
+      </c>
+      <c r="H173" t="n">
+        <v>296.8118767165843</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>68625.99000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.02932318147625371</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2012.332358757572</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.012332358757572</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>296.8118767165843</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>68309.31</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.02932318147625371</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2012.332358757572</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.003046293647672</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-9.286065109900246</v>
+      </c>
+      <c r="H175" t="n">
+        <v>287.5258116066841</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>67701.21000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.02971979426489399</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2012.066032684384</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.012066032684384</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>287.5258116066841</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>67774.55381364406</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.02971979426489399</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2012.066032684384</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.014245795736488</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.179763052103971</v>
+      </c>
+      <c r="H177" t="n">
+        <v>289.7055746587881</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>68021.69</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0295792283772208</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2012.029103114516</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2.012029103114517</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>289.7055746587881</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>71693.31614319699</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.0295792283772208</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2012.029103114516</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.120632971319914</v>
+      </c>
+      <c r="G179" t="n">
+        <v>108.6038682053982</v>
+      </c>
+      <c r="H179" t="n">
+        <v>398.3094428641863</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>69640</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.02892187122699786</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2014.119112248131</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.014119112248131</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>398.3094428641863</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>74348.53</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.02712632153740959</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2016.802130613743</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.016802130613743</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>398.3094428641863</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>75726.81264137248</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.05604819276440746</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4030.921242861875</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4.244350992357813</v>
+      </c>
+      <c r="G182" t="n">
+        <v>77.25025116748162</v>
+      </c>
+      <c r="H182" t="n">
+        <v>475.5596940316679</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>76912.58</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.02624046563741111</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2018.221912574633</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.018221912574633</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>475.5596940316679</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>76529.07000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.02636880364646933</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2017.980020076907</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.017980020076907</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>475.5596940316679</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>76677.46000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.02631928669397537</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2018.096052705829</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.018096052705829</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>475.5596940316679</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>77205.97</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.02614940563683763</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2018.890227115517</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.018890227115517</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>475.5596940316679</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-11-13</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>87136</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.1050779616146935</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8073.188212472888</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9.15607326325793</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1043.427311172754</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1518.987005204422</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>92540</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.02203949435882727</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2039.534807965876</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.039534807965876</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1518.987005204422</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>87849.78999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.02203949435882727</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2039.534807965876</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.936164951129161</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-103.3698568367154</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1415.617148367707</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-11-16</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>91032.08</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.02238099295367998</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2037.388341038833</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.037388341038833</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1415.617148367707</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>90031.61</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.02238099295367998</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2037.388341038833</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.014996829018465</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-22.39151202036824</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1393.225636347339</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>91719.89999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.02220738617557471</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2036.859239285095</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.036859239285095</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1393.225636347339</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>90260.28999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.02220738617557471</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2036.859239285095</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.004445116349364</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-32.41412293573062</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1360.811513411608</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>91428</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.02227031249441382</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2036.130130739267</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2.036130130739267</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1360.811513411608</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-11-19</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>91620</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.02222412910226372</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2036.174708349402</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.036174708349402</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1360.811513411608</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>91620.17041709626</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.04449444159667755</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4072.30483908867</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4.076588321701134</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.00758261353670935</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1360.819096025145</v>
       </c>
     </row>
   </sheetData>
@@ -1397,20 +6377,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>101294.3491201579</v>
+        <v>101802.641126415</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>1.80%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.14%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,6 +6324,96 @@
       </c>
       <c r="H196" t="n">
         <v>1360.819096025145</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>95643.99000000001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.02128783037393781</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2036.053035406605</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.036053035406604</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1360.819096025145</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>96590.35000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.02108300481278061</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2036.414813918164</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.036414813918164</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1360.819096025145</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>96282.99000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.04237083518671843</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4072.467849324768</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4.079590700574459</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-13.0230999029898</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1347.795996122155</v>
       </c>
     </row>
   </sheetData>
@@ -6377,7 +6467,7 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>101802.641126415</v>
+        <v>101801.6119191148</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -6386,11 +6476,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backtest_center/backtest_results.xlsx
+++ b/backend/backtest_center/backtest_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44882.86162772353</v>
+        <v>44882.86162772317</v>
       </c>
       <c r="D5" t="n">
         <v>-0.04683991805260332</v>
@@ -587,13 +587,13 @@
         <v>1999.605938048427</v>
       </c>
       <c r="F5" t="n">
-        <v>2.102309560608905</v>
+        <v>2.102309560608887</v>
       </c>
       <c r="G5" t="n">
-        <v>102.7036225604773</v>
+        <v>102.7036225604606</v>
       </c>
       <c r="H5" t="n">
-        <v>86.9613627629784</v>
+        <v>86.9613627629617</v>
       </c>
     </row>
     <row r="6">
@@ -611,19 +611,19 @@
         <v>44244.77</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04523873677703563</v>
+        <v>0.04523873677703562</v>
       </c>
       <c r="E6" t="n">
-        <v>2001.577503790483</v>
+        <v>2001.577503790482</v>
       </c>
       <c r="F6" t="n">
-        <v>2.001577503790483</v>
+        <v>2.001577503790482</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>86.9613627629784</v>
+        <v>86.9613627629617</v>
       </c>
     </row>
     <row r="7">
@@ -641,19 +641,19 @@
         <v>43889.49</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04523873677703563</v>
+        <v>-0.04523873677703562</v>
       </c>
       <c r="E7" t="n">
-        <v>2001.577503790483</v>
+        <v>2001.577503790482</v>
       </c>
       <c r="F7" t="n">
-        <v>1.985505085388338</v>
+        <v>1.985505085388337</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.07241840214517</v>
+        <v>-16.07241840214516</v>
       </c>
       <c r="H7" t="n">
-        <v>70.88894436083322</v>
+        <v>70.88894436081654</v>
       </c>
     </row>
     <row r="8">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>70.88894436083322</v>
+        <v>70.88894436081654</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45802.74690067242</v>
+        <v>45802.74690067212</v>
       </c>
       <c r="D9" t="n">
         <v>-0.04483324585767351</v>
@@ -707,13 +707,13 @@
         <v>2001.176762103115</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05348581275464</v>
+        <v>2.053485812754626</v>
       </c>
       <c r="G9" t="n">
-        <v>52.3090506515252</v>
+        <v>52.30905065151182</v>
       </c>
       <c r="H9" t="n">
-        <v>123.1979950123584</v>
+        <v>123.1979950123284</v>
       </c>
     </row>
     <row r="10">
@@ -731,10 +731,10 @@
         <v>47059.99</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04254444117152974</v>
+        <v>0.04254444117152973</v>
       </c>
       <c r="E10" t="n">
-        <v>2002.140976087778</v>
+        <v>2002.140976087777</v>
       </c>
       <c r="F10" t="n">
         <v>2.002140976087778</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.1979950123584</v>
+        <v>123.1979950123284</v>
       </c>
     </row>
     <row r="11">
@@ -761,19 +761,19 @@
         <v>46173.53</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04254444117152974</v>
+        <v>-0.04254444117152973</v>
       </c>
       <c r="E11" t="n">
-        <v>2002.140976087778</v>
+        <v>2002.140976087777</v>
       </c>
       <c r="F11" t="n">
-        <v>1.964427030766864</v>
+        <v>1.964427030766863</v>
       </c>
       <c r="G11" t="n">
-        <v>-37.71394532091422</v>
+        <v>-37.71394532091421</v>
       </c>
       <c r="H11" t="n">
-        <v>85.4840496914442</v>
+        <v>85.48404969141416</v>
       </c>
     </row>
     <row r="12">
@@ -791,19 +791,19 @@
         <v>43252.45</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04627015606818342</v>
+        <v>0.0462701560681834</v>
       </c>
       <c r="E12" t="n">
-        <v>2001.2976118313</v>
+        <v>2001.297611831299</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0012976118313</v>
+        <v>2.001297611831299</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>85.4840496914442</v>
+        <v>85.48404969141416</v>
       </c>
     </row>
     <row r="13">
@@ -821,19 +821,19 @@
         <v>42769.44</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04627015606818342</v>
+        <v>-0.0462701560681834</v>
       </c>
       <c r="E13" t="n">
-        <v>2001.2976118313</v>
+        <v>2001.297611831299</v>
       </c>
       <c r="F13" t="n">
-        <v>1.978948663748807</v>
+        <v>1.978948663748806</v>
       </c>
       <c r="G13" t="n">
-        <v>-22.34894808249303</v>
+        <v>-22.34894808249302</v>
       </c>
       <c r="H13" t="n">
-        <v>63.13510160895117</v>
+        <v>63.13510160892113</v>
       </c>
     </row>
     <row r="14">
@@ -851,7 +851,7 @@
         <v>41289.52</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04845736175616654</v>
+        <v>0.04845736175616652</v>
       </c>
       <c r="E14" t="n">
         <v>2000.781207378473</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>63.13510160895117</v>
+        <v>63.13510160892113</v>
       </c>
     </row>
     <row r="15">
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42191.31579222112</v>
+        <v>42191.31579222075</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04845736175616654</v>
+        <v>-0.04845736175616652</v>
       </c>
       <c r="E15" t="n">
         <v>2000.781207378473</v>
       </c>
       <c r="F15" t="n">
-        <v>2.044479852312322</v>
+        <v>2.044479852312302</v>
       </c>
       <c r="G15" t="n">
-        <v>43.69864493384799</v>
+        <v>43.69864493382965</v>
       </c>
       <c r="H15" t="n">
-        <v>106.8337465427992</v>
+        <v>106.8337465427508</v>
       </c>
     </row>
     <row r="16">
@@ -911,10 +911,10 @@
         <v>42641.75</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04693930889459172</v>
+        <v>0.0469393088945917</v>
       </c>
       <c r="E16" t="n">
-        <v>2001.574275055956</v>
+        <v>2001.574275055955</v>
       </c>
       <c r="F16" t="n">
         <v>2.001574275055956</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.8337465427992</v>
+        <v>106.8337465427508</v>
       </c>
     </row>
     <row r="17">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>43106.96402353823</v>
+        <v>43106.96402353743</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04693930889459172</v>
+        <v>-0.0469393088945917</v>
       </c>
       <c r="E17" t="n">
-        <v>2001.574275055956</v>
+        <v>2001.574275055955</v>
       </c>
       <c r="F17" t="n">
-        <v>2.023411099808913</v>
+        <v>2.023411099808875</v>
       </c>
       <c r="G17" t="n">
-        <v>21.83682475295694</v>
+        <v>21.83682475291936</v>
       </c>
       <c r="H17" t="n">
-        <v>128.6705712957561</v>
+        <v>128.6705712956702</v>
       </c>
     </row>
     <row r="18">
@@ -971,19 +971,19 @@
         <v>43194.08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04634733537196575</v>
+        <v>0.0463473353719657</v>
       </c>
       <c r="E18" t="n">
-        <v>2001.930511843518</v>
+        <v>2001.930511843517</v>
       </c>
       <c r="F18" t="n">
-        <v>2.001930511843518</v>
+        <v>2.001930511843517</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>128.6705712957561</v>
+        <v>128.6705712956702</v>
       </c>
     </row>
     <row r="19">
@@ -1001,19 +1001,19 @@
         <v>42644.04</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04634733537196575</v>
+        <v>-0.0463473353719657</v>
       </c>
       <c r="E19" t="n">
-        <v>2001.930511843518</v>
+        <v>2001.930511843517</v>
       </c>
       <c r="F19" t="n">
-        <v>1.976437623495522</v>
+        <v>1.976437623495521</v>
       </c>
       <c r="G19" t="n">
-        <v>-25.49288834799608</v>
+        <v>-25.49288834799606</v>
       </c>
       <c r="H19" t="n">
-        <v>103.17768294776</v>
+        <v>103.1776829476741</v>
       </c>
     </row>
     <row r="20">
@@ -1031,19 +1031,19 @@
         <v>43244.89</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04627925025855891</v>
+        <v>0.04627925025855887</v>
       </c>
       <c r="E20" t="n">
-        <v>2001.341086713852</v>
+        <v>2001.34108671385</v>
       </c>
       <c r="F20" t="n">
-        <v>2.001341086713852</v>
+        <v>2.00134108671385</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>103.17768294776</v>
+        <v>103.1776829476741</v>
       </c>
     </row>
     <row r="21">
@@ -1061,19 +1061,19 @@
         <v>42924.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04627925025855891</v>
+        <v>-0.04627925025855887</v>
       </c>
       <c r="E21" t="n">
-        <v>2001.341086713852</v>
+        <v>2001.34108671385</v>
       </c>
       <c r="F21" t="n">
-        <v>1.986491000890886</v>
+        <v>1.986491000890884</v>
       </c>
       <c r="G21" t="n">
-        <v>-14.85008582296626</v>
+        <v>-14.85008582296625</v>
       </c>
       <c r="H21" t="n">
-        <v>88.32759712479375</v>
+        <v>88.32759712470785</v>
       </c>
     </row>
     <row r="22">
@@ -1091,19 +1091,19 @@
         <v>43615.47</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04587739919701978</v>
+        <v>0.04587739919701973</v>
       </c>
       <c r="E22" t="n">
-        <v>2000.96432835564</v>
+        <v>2000.964328355638</v>
       </c>
       <c r="F22" t="n">
-        <v>2.000964328355641</v>
+        <v>2.000964328355638</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>88.32759712479375</v>
+        <v>88.32759712470785</v>
       </c>
     </row>
     <row r="23">
@@ -1118,22 +1118,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>47972.67637523134</v>
+        <v>47972.67637523094</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04587739919701978</v>
+        <v>-0.04587739919701973</v>
       </c>
       <c r="E23" t="n">
-        <v>2000.96432835564</v>
+        <v>2000.964328355638</v>
       </c>
       <c r="F23" t="n">
-        <v>2.200861624615928</v>
+        <v>2.200861624615908</v>
       </c>
       <c r="G23" t="n">
-        <v>199.8972962602878</v>
+        <v>199.8972962602692</v>
       </c>
       <c r="H23" t="n">
-        <v>288.2248933850815</v>
+        <v>288.2248933849771</v>
       </c>
     </row>
     <row r="24">
@@ -1151,19 +1151,19 @@
         <v>49917.8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04016359370328393</v>
+        <v>0.04016359370328389</v>
       </c>
       <c r="E24" t="n">
-        <v>2004.878237761787</v>
+        <v>2004.878237761784</v>
       </c>
       <c r="F24" t="n">
-        <v>2.004878237761787</v>
+        <v>2.004878237761785</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>288.2248933850815</v>
+        <v>288.2248933849771</v>
       </c>
     </row>
     <row r="25">
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>49305.89900358711</v>
+        <v>49305.89900358686</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.04016359370328393</v>
+        <v>-0.04016359370328389</v>
       </c>
       <c r="E25" t="n">
-        <v>2004.878237761787</v>
+        <v>2004.878237761784</v>
       </c>
       <c r="F25" t="n">
-        <v>1.980302094755225</v>
+        <v>1.980302094755213</v>
       </c>
       <c r="G25" t="n">
-        <v>-24.57614300656202</v>
+        <v>-24.57614300657222</v>
       </c>
       <c r="H25" t="n">
-        <v>263.6487503785195</v>
+        <v>263.6487503784048</v>
       </c>
     </row>
     <row r="26">
@@ -1211,19 +1211,19 @@
         <v>49699.6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04032844156853216</v>
+        <v>0.04032844156853211</v>
       </c>
       <c r="E26" t="n">
-        <v>2004.307414579421</v>
+        <v>2004.307414579418</v>
       </c>
       <c r="F26" t="n">
-        <v>2.004307414579421</v>
+        <v>2.004307414579418</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>263.6487503785195</v>
+        <v>263.6487503784048</v>
       </c>
     </row>
     <row r="27">
@@ -1241,19 +1241,19 @@
         <v>51555.12</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03890522473315353</v>
+        <v>0.03890522473315348</v>
       </c>
       <c r="E27" t="n">
-        <v>2005.763529744698</v>
+        <v>2005.763529744696</v>
       </c>
       <c r="F27" t="n">
-        <v>2.005763529744699</v>
+        <v>2.005763529744696</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>263.6487503785195</v>
+        <v>263.6487503784048</v>
       </c>
     </row>
     <row r="28">
@@ -1268,22 +1268,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51718.07922873613</v>
+        <v>51718.07922873594</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07923366630168568</v>
+        <v>-0.07923366630168559</v>
       </c>
       <c r="E28" t="n">
-        <v>4010.070944324119</v>
+        <v>4010.070944324114</v>
       </c>
       <c r="F28" t="n">
-        <v>4.09781303137382</v>
+        <v>4.0978130313738</v>
       </c>
       <c r="G28" t="n">
-        <v>12.91185715045803</v>
+        <v>12.9118571504436</v>
       </c>
       <c r="H28" t="n">
-        <v>276.5606075289776</v>
+        <v>276.5606075288484</v>
       </c>
     </row>
     <row r="29">
@@ -1301,19 +1301,19 @@
         <v>52137.68</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03847313651255389</v>
+        <v>0.03847313651255383</v>
       </c>
       <c r="E29" t="n">
-        <v>2005.90008008785</v>
+        <v>2005.900080087848</v>
       </c>
       <c r="F29" t="n">
-        <v>2.005900080087851</v>
+        <v>2.005900080087848</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>276.5606075289776</v>
+        <v>276.5606075288484</v>
       </c>
     </row>
     <row r="30">
@@ -1331,19 +1331,19 @@
         <v>51837.67</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03847313651255389</v>
+        <v>-0.03847313651255383</v>
       </c>
       <c r="E30" t="n">
-        <v>2005.90008008785</v>
+        <v>2005.900080087848</v>
       </c>
       <c r="F30" t="n">
-        <v>1.994357754402719</v>
+        <v>1.994357754402716</v>
       </c>
       <c r="G30" t="n">
-        <v>-11.54232568513137</v>
+        <v>-11.54232568513135</v>
       </c>
       <c r="H30" t="n">
-        <v>265.0182818438462</v>
+        <v>265.0182818437171</v>
       </c>
     </row>
     <row r="31">
@@ -1361,19 +1361,19 @@
         <v>52286.8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03835746007952472</v>
+        <v>0.03835746007952466</v>
       </c>
       <c r="E31" t="n">
-        <v>2005.588843686093</v>
+        <v>2005.58884368609</v>
       </c>
       <c r="F31" t="n">
-        <v>2.005588843686093</v>
+        <v>2.00558884368609</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>265.0182818438462</v>
+        <v>265.0182818437171</v>
       </c>
     </row>
     <row r="32">
@@ -1391,19 +1391,19 @@
         <v>51679.99</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03835746007952472</v>
+        <v>-0.03835746007952466</v>
       </c>
       <c r="E32" t="n">
-        <v>2005.588843686093</v>
+        <v>2005.58884368609</v>
       </c>
       <c r="F32" t="n">
-        <v>1.982313153335236</v>
+        <v>1.982313153335234</v>
       </c>
       <c r="G32" t="n">
-        <v>-23.27569035085658</v>
+        <v>-23.27569035085655</v>
       </c>
       <c r="H32" t="n">
-        <v>241.7425914929896</v>
+        <v>241.7425914928605</v>
       </c>
     </row>
     <row r="33">
@@ -1421,19 +1421,19 @@
         <v>52258.82</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03836756306091747</v>
+        <v>0.03836756306091742</v>
       </c>
       <c r="E33" t="n">
-        <v>2005.043571839135</v>
+        <v>2005.043571839133</v>
       </c>
       <c r="F33" t="n">
-        <v>2.005043571839135</v>
+        <v>2.005043571839133</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>241.7425914929896</v>
+        <v>241.7425914928605</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>51897.68</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03836756306091747</v>
+        <v>-0.03836756306091742</v>
       </c>
       <c r="E34" t="n">
-        <v>2005.043571839135</v>
+        <v>2005.043571839133</v>
       </c>
       <c r="F34" t="n">
-        <v>1.991187510115315</v>
+        <v>1.991187510115313</v>
       </c>
       <c r="G34" t="n">
-        <v>-13.85606172381971</v>
+        <v>-13.8560617238197</v>
       </c>
       <c r="H34" t="n">
-        <v>227.8865297691699</v>
+        <v>227.8865297690408</v>
       </c>
     </row>
     <row r="35">
@@ -1481,19 +1481,19 @@
         <v>52842.33</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03793714064755332</v>
+        <v>0.03793714064755327</v>
       </c>
       <c r="E35" t="n">
-        <v>2004.686905354426</v>
+        <v>2004.686905354424</v>
       </c>
       <c r="F35" t="n">
-        <v>2.004686905354426</v>
+        <v>2.004686905354423</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>227.8865297691699</v>
+        <v>227.8865297690408</v>
       </c>
     </row>
     <row r="36">
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>61003.95563457839</v>
+        <v>61003.95563457825</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.03793714064755332</v>
+        <v>-0.03793714064755327</v>
       </c>
       <c r="E36" t="n">
-        <v>2004.686905354426</v>
+        <v>2004.686905354424</v>
       </c>
       <c r="F36" t="n">
-        <v>2.314315644966103</v>
+        <v>2.314315644966095</v>
       </c>
       <c r="G36" t="n">
-        <v>309.628739611677</v>
+        <v>309.6287396116714</v>
       </c>
       <c r="H36" t="n">
-        <v>537.5152693808469</v>
+        <v>537.5152693807122</v>
       </c>
     </row>
     <row r="37">
@@ -1541,19 +1541,19 @@
         <v>62730</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03205472215406101</v>
+        <v>0.03205472215406097</v>
       </c>
       <c r="E37" t="n">
-        <v>2010.792720724247</v>
+        <v>2010.792720724244</v>
       </c>
       <c r="F37" t="n">
-        <v>2.010792720724247</v>
+        <v>2.010792720724244</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>537.5152693808469</v>
+        <v>537.5152693807122</v>
       </c>
     </row>
     <row r="38">
@@ -1568,22 +1568,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>62356.94018072428</v>
+        <v>62356.94018072324</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03205472215406101</v>
+        <v>-0.03205472215406097</v>
       </c>
       <c r="E38" t="n">
-        <v>2010.792720724247</v>
+        <v>2010.792720724244</v>
       </c>
       <c r="F38" t="n">
-        <v>1.99883439187052</v>
+        <v>1.998834391870484</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.95832885372732</v>
+        <v>-11.95832885376066</v>
       </c>
       <c r="H38" t="n">
-        <v>525.5569405271197</v>
+        <v>525.5569405269515</v>
       </c>
     </row>
     <row r="39">
@@ -1601,19 +1601,19 @@
         <v>67301.31</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02987272256074838</v>
+        <v>0.02987272256074833</v>
       </c>
       <c r="E39" t="n">
-        <v>2010.473361604921</v>
+        <v>2010.473361604917</v>
       </c>
       <c r="F39" t="n">
-        <v>2.010473361604921</v>
+        <v>2.010473361604917</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>525.5569405271197</v>
+        <v>525.5569405269515</v>
       </c>
     </row>
     <row r="40">
@@ -1631,19 +1631,19 @@
         <v>66203.58</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.02987272256074838</v>
+        <v>-0.02987272256074833</v>
       </c>
       <c r="E40" t="n">
-        <v>2010.473361604921</v>
+        <v>2010.473361604917</v>
       </c>
       <c r="F40" t="n">
-        <v>1.977681177868311</v>
+        <v>1.977681177868307</v>
       </c>
       <c r="G40" t="n">
-        <v>-32.7921837366102</v>
+        <v>-32.79218373661014</v>
       </c>
       <c r="H40" t="n">
-        <v>492.7647567905095</v>
+        <v>492.7647567903414</v>
       </c>
     </row>
     <row r="41">
@@ -1661,19 +1661,19 @@
         <v>68864</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02918416076151554</v>
+        <v>0.02918416076151549</v>
       </c>
       <c r="E41" t="n">
-        <v>2009.738046681006</v>
+        <v>2009.738046681003</v>
       </c>
       <c r="F41" t="n">
-        <v>2.009738046681006</v>
+        <v>2.009738046681003</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>492.7647567905095</v>
+        <v>492.7647567903414</v>
       </c>
     </row>
     <row r="42">
@@ -1691,19 +1691,19 @@
         <v>69136.78</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02907072751024091</v>
+        <v>0.02907072751024085</v>
       </c>
       <c r="E42" t="n">
-        <v>2009.856492315473</v>
+        <v>2009.856492315469</v>
       </c>
       <c r="F42" t="n">
-        <v>2.009856492315473</v>
+        <v>2.009856492315469</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>492.7647567905095</v>
+        <v>492.7647567903414</v>
       </c>
     </row>
     <row r="43">
@@ -1721,19 +1721,19 @@
         <v>68104.53999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05825488827175645</v>
+        <v>-0.05825488827175634</v>
       </c>
       <c r="E43" t="n">
-        <v>4019.59453899648</v>
+        <v>4019.594538996472</v>
       </c>
       <c r="F43" t="n">
-        <v>3.967422368499368</v>
+        <v>3.96742236849936</v>
       </c>
       <c r="G43" t="n">
-        <v>-60.13302586963818</v>
+        <v>-60.13302586963808</v>
       </c>
       <c r="H43" t="n">
-        <v>432.6317309208713</v>
+        <v>432.6317309207033</v>
       </c>
     </row>
     <row r="44">
@@ -1751,19 +1751,19 @@
         <v>71019.99000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02828125674322549</v>
+        <v>0.02828125674322544</v>
       </c>
       <c r="E44" t="n">
-        <v>2008.534571091307</v>
+        <v>2008.534571091303</v>
       </c>
       <c r="F44" t="n">
-        <v>2.008534571091307</v>
+        <v>2.008534571091304</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>432.6317309208713</v>
+        <v>432.6317309207033</v>
       </c>
     </row>
     <row r="45">
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>71310.55386247797</v>
+        <v>71310.55386247733</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02828125674322549</v>
+        <v>-0.02828125674322544</v>
       </c>
       <c r="E45" t="n">
-        <v>2008.534571091307</v>
+        <v>2008.534571091303</v>
       </c>
       <c r="F45" t="n">
-        <v>2.01675208228635</v>
+        <v>2.016752082286328</v>
       </c>
       <c r="G45" t="n">
-        <v>8.217511195042665</v>
+        <v>8.217511195024544</v>
       </c>
       <c r="H45" t="n">
-        <v>440.849242115914</v>
+        <v>440.8492421157279</v>
       </c>
     </row>
     <row r="46">
@@ -1811,19 +1811,19 @@
         <v>72057.42999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02787524361585113</v>
+        <v>0.02787524361585108</v>
       </c>
       <c r="E46" t="n">
-        <v>2008.61841558214</v>
+        <v>2008.618415582136</v>
       </c>
       <c r="F46" t="n">
-        <v>2.00861841558214</v>
+        <v>2.008618415582136</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>440.849242115914</v>
+        <v>440.8492421157279</v>
       </c>
     </row>
     <row r="47">
@@ -1841,19 +1841,19 @@
         <v>72855.14999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02757557572553024</v>
+        <v>0.02757557572553018</v>
       </c>
       <c r="E47" t="n">
-        <v>2009.022705819864</v>
+        <v>2009.02270581986</v>
       </c>
       <c r="F47" t="n">
-        <v>2.009022705819864</v>
+        <v>2.00902270581986</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>440.849242115914</v>
+        <v>440.8492421157279</v>
       </c>
     </row>
     <row r="48">
@@ -1871,19 +1871,19 @@
         <v>72048.24000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.05545081934138137</v>
+        <v>-0.05545081934138127</v>
       </c>
       <c r="E48" t="n">
-        <v>4017.641121402005</v>
+        <v>4017.641121401996</v>
       </c>
       <c r="F48" t="n">
-        <v>3.995133940104488</v>
+        <v>3.99513394010448</v>
       </c>
       <c r="G48" t="n">
-        <v>-44.74382063475343</v>
+        <v>-44.74382063475335</v>
       </c>
       <c r="H48" t="n">
-        <v>396.1054214811605</v>
+        <v>396.1054214809745</v>
       </c>
     </row>
     <row r="49">
@@ -1901,19 +1901,19 @@
         <v>65843.02</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03049690030097282</v>
+        <v>0.03049690030097276</v>
       </c>
       <c r="E49" t="n">
-        <v>2008.008016454959</v>
+        <v>2008.008016454956</v>
       </c>
       <c r="F49" t="n">
-        <v>2.008008016454959</v>
+        <v>2.008008016454955</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>396.1054214811605</v>
+        <v>396.1054214809745</v>
       </c>
     </row>
     <row r="50">
@@ -1931,19 +1931,19 @@
         <v>67210</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02988843806182263</v>
+        <v>0.02988843806182258</v>
       </c>
       <c r="E50" t="n">
-        <v>2008.801922135099</v>
+        <v>2008.801922135096</v>
       </c>
       <c r="F50" t="n">
-        <v>2.008801922135099</v>
+        <v>2.008801922135095</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>396.1054214811605</v>
+        <v>396.1054214809745</v>
       </c>
     </row>
     <row r="51">
@@ -1961,19 +1961,19 @@
         <v>69477.66</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.06038533836279545</v>
+        <v>-0.06038533836279534</v>
       </c>
       <c r="E51" t="n">
-        <v>4016.809938590059</v>
+        <v>4016.809938590051</v>
       </c>
       <c r="F51" t="n">
-        <v>4.195432007755259</v>
+        <v>4.195432007755252</v>
       </c>
       <c r="G51" t="n">
-        <v>136.9334163917769</v>
+        <v>136.9334163917767</v>
       </c>
       <c r="H51" t="n">
-        <v>533.0388378729375</v>
+        <v>533.0388378727512</v>
       </c>
     </row>
     <row r="52">
@@ -1991,19 +1991,19 @@
         <v>71290.38</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02821440888455424</v>
+        <v>0.02821440888455419</v>
       </c>
       <c r="E52" t="n">
-        <v>2011.415930855248</v>
+        <v>2011.415930855244</v>
       </c>
       <c r="F52" t="n">
-        <v>2.011415930855248</v>
+        <v>2.011415930855244</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>533.0388378729375</v>
+        <v>533.0388378727512</v>
       </c>
     </row>
     <row r="53">
@@ -2021,19 +2021,19 @@
         <v>70134.77</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.02821440888455424</v>
+        <v>-0.02821440888455419</v>
       </c>
       <c r="E53" t="n">
-        <v>2011.415930855248</v>
+        <v>2011.415930855244</v>
       </c>
       <c r="F53" t="n">
-        <v>1.978811077804168</v>
+        <v>1.978811077804165</v>
       </c>
       <c r="G53" t="n">
-        <v>-32.60485305107974</v>
+        <v>-32.60485305107969</v>
       </c>
       <c r="H53" t="n">
-        <v>500.4339848218577</v>
+        <v>500.4339848216715</v>
       </c>
     </row>
     <row r="54">
@@ -2051,19 +2051,19 @@
         <v>71023.50999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0283101270903031</v>
+        <v>0.02831012709030304</v>
       </c>
       <c r="E54" t="n">
-        <v>2010.684594499413</v>
+        <v>2010.684594499409</v>
       </c>
       <c r="F54" t="n">
-        <v>2.010684594499413</v>
+        <v>2.010684594499409</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>500.4339848218577</v>
+        <v>500.4339848216715</v>
       </c>
     </row>
     <row r="55">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>70670.00469621182</v>
+        <v>70670.00469620996</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0283101270903031</v>
+        <v>-0.02831012709030304</v>
       </c>
       <c r="E55" t="n">
-        <v>2010.684594499413</v>
+        <v>2010.684594499409</v>
       </c>
       <c r="F55" t="n">
-        <v>2.000676814422073</v>
+        <v>2.000676814422017</v>
       </c>
       <c r="G55" t="n">
-        <v>-10.0077800773394</v>
+        <v>-10.00778007739211</v>
       </c>
       <c r="H55" t="n">
-        <v>490.4262047445183</v>
+        <v>490.4262047442794</v>
       </c>
     </row>
     <row r="56">
@@ -2111,19 +2111,19 @@
         <v>68500</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0293489624608528</v>
+        <v>0.02934896246085272</v>
       </c>
       <c r="E56" t="n">
-        <v>2010.403928568417</v>
+        <v>2010.403928568412</v>
       </c>
       <c r="F56" t="n">
-        <v>2.010403928568417</v>
+        <v>2.010403928568412</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>490.4262047445183</v>
+        <v>490.4262047442794</v>
       </c>
     </row>
     <row r="57">
@@ -2141,19 +2141,19 @@
         <v>66652.74000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0293489624608528</v>
+        <v>-0.02934896246085272</v>
       </c>
       <c r="E57" t="n">
-        <v>2010.403928568417</v>
+        <v>2010.403928568412</v>
       </c>
       <c r="F57" t="n">
-        <v>1.956188764172982</v>
+        <v>1.956188764172977</v>
       </c>
       <c r="G57" t="n">
-        <v>-54.21516439543479</v>
+        <v>-54.21516439543465</v>
       </c>
       <c r="H57" t="n">
-        <v>436.2110403490835</v>
+        <v>436.2110403488447</v>
       </c>
     </row>
     <row r="58">
@@ -2171,19 +2171,19 @@
         <v>68190.62</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02946505389490011</v>
+        <v>0.02946505389490003</v>
       </c>
       <c r="E58" t="n">
-        <v>2009.240293426653</v>
+        <v>2009.240293426648</v>
       </c>
       <c r="F58" t="n">
-        <v>2.009240293426654</v>
+        <v>2.009240293426648</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>436.2110403490835</v>
+        <v>436.2110403488447</v>
       </c>
     </row>
     <row r="59">
@@ -2201,19 +2201,19 @@
         <v>67992.02</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02954880695450311</v>
+        <v>0.02954880695450303</v>
       </c>
       <c r="E59" t="n">
-        <v>2009.083073426714</v>
+        <v>2009.083073426709</v>
       </c>
       <c r="F59" t="n">
-        <v>2.009083073426714</v>
+        <v>2.009083073426709</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>436.2110403490835</v>
+        <v>436.2110403488447</v>
       </c>
     </row>
     <row r="60">
@@ -2231,19 +2231,19 @@
         <v>68259.99000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02943685537042803</v>
+        <v>0.02943685537042796</v>
       </c>
       <c r="E60" t="n">
-        <v>2009.359453216864</v>
+        <v>2009.359453216859</v>
       </c>
       <c r="F60" t="n">
-        <v>2.009359453216864</v>
+        <v>2.009359453216859</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>436.2110403490835</v>
+        <v>436.2110403488447</v>
       </c>
     </row>
     <row r="61">
@@ -2261,19 +2261,19 @@
         <v>68896</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02918085366730256</v>
+        <v>0.02918085366730248</v>
       </c>
       <c r="E61" t="n">
-        <v>2010.444094262477</v>
+        <v>2010.444094262472</v>
       </c>
       <c r="F61" t="n">
-        <v>2.010444094262477</v>
+        <v>2.010444094262472</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>436.2110403490835</v>
+        <v>436.2110403488447</v>
       </c>
     </row>
     <row r="62">
@@ -2288,22 +2288,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>70875.93740322646</v>
+        <v>70875.93740322582</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1176315698871338</v>
+        <v>-0.1176315698871335</v>
       </c>
       <c r="E62" t="n">
-        <v>8038.126914332708</v>
+        <v>8038.126914332688</v>
       </c>
       <c r="F62" t="n">
-        <v>8.337247783963756</v>
+        <v>8.337247783963656</v>
       </c>
       <c r="G62" t="n">
-        <v>232.9031450197836</v>
+        <v>232.9031450197077</v>
       </c>
       <c r="H62" t="n">
-        <v>669.1141853688672</v>
+        <v>669.1141853685524</v>
       </c>
     </row>
     <row r="63">
@@ -2321,19 +2321,19 @@
         <v>70977.27</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02838789380495063</v>
+        <v>0.02838789380495053</v>
       </c>
       <c r="E63" t="n">
-        <v>2014.895203325308</v>
+        <v>2014.895203325301</v>
       </c>
       <c r="F63" t="n">
-        <v>2.014895203325309</v>
+        <v>2.014895203325301</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>669.1141853688672</v>
+        <v>669.1141853685524</v>
       </c>
     </row>
     <row r="64">
@@ -2351,19 +2351,19 @@
         <v>70027.72</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02838789380495063</v>
+        <v>-0.02838789380495053</v>
       </c>
       <c r="E64" t="n">
-        <v>2014.895203325308</v>
+        <v>2014.895203325301</v>
       </c>
       <c r="F64" t="n">
-        <v>1.987939478762818</v>
+        <v>1.98793947876281</v>
       </c>
       <c r="G64" t="n">
-        <v>-26.95572456249095</v>
+        <v>-26.95572456249086</v>
       </c>
       <c r="H64" t="n">
-        <v>642.1584608063763</v>
+        <v>642.1584608060615</v>
       </c>
     </row>
     <row r="65">
@@ -2381,19 +2381,19 @@
         <v>64547.18</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03120625923766797</v>
+        <v>0.03120625923766785</v>
       </c>
       <c r="E65" t="n">
-        <v>2014.276032140417</v>
+        <v>2014.27603214041</v>
       </c>
       <c r="F65" t="n">
-        <v>2.014276032140417</v>
+        <v>2.01427603214041</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>642.1584608063763</v>
+        <v>642.1584608060615</v>
       </c>
     </row>
     <row r="66">
@@ -2411,19 +2411,19 @@
         <v>64808.35</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03108239523756238</v>
+        <v>0.03108239523756228</v>
       </c>
       <c r="E66" t="n">
-        <v>2014.398749394276</v>
+        <v>2014.398749394269</v>
       </c>
       <c r="F66" t="n">
-        <v>2.014398749394276</v>
+        <v>2.014398749394269</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>642.1584608063763</v>
+        <v>642.1584608060615</v>
       </c>
     </row>
     <row r="67">
@@ -2441,19 +2441,19 @@
         <v>65703.49000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03067528541402449</v>
+        <v>0.03067528541402438</v>
       </c>
       <c r="E67" t="n">
-        <v>2015.473308447504</v>
+        <v>2015.473308447497</v>
       </c>
       <c r="F67" t="n">
-        <v>2.015473308447504</v>
+        <v>2.015473308447497</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>642.1584608063763</v>
+        <v>642.1584608060615</v>
       </c>
     </row>
     <row r="68">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>66065.8710995703</v>
+        <v>66065.8710995695</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.09296393988925483</v>
+        <v>-0.09296393988925451</v>
       </c>
       <c r="E68" t="n">
-        <v>6044.148089982196</v>
+        <v>6044.148089982176</v>
       </c>
       <c r="F68" t="n">
-        <v>6.141743669631711</v>
+        <v>6.141743669631616</v>
       </c>
       <c r="G68" t="n">
-        <v>33.68837475745499</v>
+        <v>33.68837475738047</v>
       </c>
       <c r="H68" t="n">
-        <v>675.8468355638313</v>
+        <v>675.846835563442</v>
       </c>
     </row>
     <row r="69">
@@ -2501,19 +2501,19 @@
         <v>66419.56</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03035226710171243</v>
+        <v>0.0303522671017123</v>
       </c>
       <c r="E69" t="n">
-        <v>2015.984225898215</v>
+        <v>2015.984225898206</v>
       </c>
       <c r="F69" t="n">
-        <v>2.015984225898215</v>
+        <v>2.015984225898206</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>675.8468355638313</v>
+        <v>675.846835563442</v>
       </c>
     </row>
     <row r="70">
@@ -2531,19 +2531,19 @@
         <v>65905.64</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.03035226710171243</v>
+        <v>-0.0303522671017123</v>
       </c>
       <c r="E70" t="n">
-        <v>2015.984225898215</v>
+        <v>2015.984225898206</v>
       </c>
       <c r="F70" t="n">
-        <v>2.000385588789303</v>
+        <v>2.000385588789294</v>
       </c>
       <c r="G70" t="n">
-        <v>-15.598637108912</v>
+        <v>-15.59863710891193</v>
       </c>
       <c r="H70" t="n">
-        <v>660.2481984549192</v>
+        <v>660.2481984545301</v>
       </c>
     </row>
     <row r="71">
@@ -2561,19 +2561,19 @@
         <v>63866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03155970196598726</v>
+        <v>0.03155970196598713</v>
       </c>
       <c r="E71" t="n">
-        <v>2015.591925759743</v>
+        <v>2015.591925759734</v>
       </c>
       <c r="F71" t="n">
-        <v>2.015591925759743</v>
+        <v>2.015591925759734</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>660.2481984549192</v>
+        <v>660.2481984545301</v>
       </c>
     </row>
     <row r="72">
@@ -2591,19 +2591,19 @@
         <v>63241.36</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.03155970196598726</v>
+        <v>-0.03155970196598713</v>
       </c>
       <c r="E72" t="n">
-        <v>2015.591925759743</v>
+        <v>2015.591925759734</v>
       </c>
       <c r="F72" t="n">
-        <v>1.995878473523708</v>
+        <v>1.9958784735237</v>
       </c>
       <c r="G72" t="n">
-        <v>-19.71345223603427</v>
+        <v>-19.71345223603419</v>
       </c>
       <c r="H72" t="n">
-        <v>640.5347462188849</v>
+        <v>640.5347462184959</v>
       </c>
     </row>
     <row r="73">
@@ -2621,19 +2621,19 @@
         <v>61690.74</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03266482825959028</v>
+        <v>0.03266482825959013</v>
       </c>
       <c r="E73" t="n">
-        <v>2015.117427307036</v>
+        <v>2015.117427307027</v>
       </c>
       <c r="F73" t="n">
-        <v>2.015117427307036</v>
+        <v>2.015117427307028</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>640.5347462188849</v>
+        <v>640.5347462184959</v>
       </c>
     </row>
     <row r="74">
@@ -2648,22 +2648,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>63879.94</v>
+        <v>63879.94000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.03266482825959028</v>
+        <v>-0.03266482825959013</v>
       </c>
       <c r="E74" t="n">
-        <v>2015.117427307036</v>
+        <v>2015.117427307027</v>
       </c>
       <c r="F74" t="n">
-        <v>2.086627269332932</v>
+        <v>2.086627269332922</v>
       </c>
       <c r="G74" t="n">
-        <v>71.50984202589518</v>
+        <v>71.5098420258951</v>
       </c>
       <c r="H74" t="n">
-        <v>712.0445882447801</v>
+        <v>712.044588244391</v>
       </c>
     </row>
     <row r="75">
@@ -2681,19 +2681,19 @@
         <v>64540.75</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03124329341158294</v>
+        <v>0.0312432934115828</v>
       </c>
       <c r="E75" t="n">
-        <v>2016.465589253622</v>
+        <v>2016.465589253613</v>
       </c>
       <c r="F75" t="n">
-        <v>2.016465589253622</v>
+        <v>2.016465589253612</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>712.0445882447801</v>
+        <v>712.044588244391</v>
       </c>
     </row>
     <row r="76">
@@ -2711,19 +2711,19 @@
         <v>63093.23</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03124329341158294</v>
+        <v>-0.0312432934115828</v>
       </c>
       <c r="E76" t="n">
-        <v>2016.465589253622</v>
+        <v>2016.465589253613</v>
       </c>
       <c r="F76" t="n">
-        <v>1.971240297174487</v>
+        <v>1.971240297174478</v>
       </c>
       <c r="G76" t="n">
-        <v>-45.22529207913443</v>
+        <v>-45.22529207913423</v>
       </c>
       <c r="H76" t="n">
-        <v>666.8192961656457</v>
+        <v>666.8192961652568</v>
       </c>
     </row>
     <row r="77">
@@ -2741,19 +2741,19 @@
         <v>63299.63</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03184033349475045</v>
+        <v>0.0318403334947503</v>
       </c>
       <c r="E77" t="n">
-        <v>2015.48132929431</v>
+        <v>2015.481329294301</v>
       </c>
       <c r="F77" t="n">
-        <v>2.01548132929431</v>
+        <v>2.015481329294301</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>666.8192961656457</v>
+        <v>666.8192961652568</v>
       </c>
     </row>
     <row r="78">
@@ -2771,19 +2771,19 @@
         <v>60928.02</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.03184033349475045</v>
+        <v>-0.0318403334947503</v>
       </c>
       <c r="E78" t="n">
-        <v>2015.48132929431</v>
+        <v>2015.481329294301</v>
       </c>
       <c r="F78" t="n">
-        <v>1.939968475974825</v>
+        <v>1.939968475974816</v>
       </c>
       <c r="G78" t="n">
-        <v>-75.51285331948513</v>
+        <v>-75.51285331948478</v>
       </c>
       <c r="H78" t="n">
-        <v>591.3064428461606</v>
+        <v>591.306442845772</v>
       </c>
     </row>
     <row r="79">
@@ -2801,19 +2801,19 @@
         <v>62334.36</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03230788990458739</v>
+        <v>0.03230788990458725</v>
       </c>
       <c r="E79" t="n">
-        <v>2013.891640152916</v>
+        <v>2013.891640152907</v>
       </c>
       <c r="F79" t="n">
-        <v>2.013891640152916</v>
+        <v>2.013891640152907</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>591.3064428461606</v>
+        <v>591.306442845772</v>
       </c>
     </row>
     <row r="80">
@@ -2828,22 +2828,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>62309.50346974133</v>
+        <v>62309.50346974018</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.03230788990458739</v>
+        <v>-0.03230788990458725</v>
       </c>
       <c r="E80" t="n">
-        <v>2013.891640152916</v>
+        <v>2013.891640152907</v>
       </c>
       <c r="F80" t="n">
-        <v>2.013088578109909</v>
+        <v>2.013088578109863</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.8030620430072245</v>
+        <v>-0.8030620430443622</v>
       </c>
       <c r="H80" t="n">
-        <v>590.5033808031534</v>
+        <v>590.5033808027276</v>
       </c>
     </row>
     <row r="81">
@@ -2861,19 +2861,19 @@
         <v>64725.12</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03111304658094192</v>
+        <v>0.03111304658094177</v>
       </c>
       <c r="E81" t="n">
-        <v>2013.795673517055</v>
+        <v>2013.795673517046</v>
       </c>
       <c r="F81" t="n">
-        <v>2.013795673517056</v>
+        <v>2.013795673517046</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>590.5033808031534</v>
+        <v>590.5033808027276</v>
       </c>
     </row>
     <row r="82">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>65129.40907029957</v>
+        <v>65129.40907029903</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.03111304658094192</v>
+        <v>-0.03111304658094177</v>
       </c>
       <c r="E82" t="n">
-        <v>2013.795673517055</v>
+        <v>2013.795673517046</v>
       </c>
       <c r="F82" t="n">
-        <v>2.026374338193452</v>
+        <v>2.026374338193425</v>
       </c>
       <c r="G82" t="n">
-        <v>12.57866467639628</v>
+        <v>12.57866467637925</v>
       </c>
       <c r="H82" t="n">
-        <v>603.0820454795497</v>
+        <v>603.0820454791069</v>
       </c>
     </row>
     <row r="83">
@@ -2921,19 +2921,19 @@
         <v>66386.92999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03033678208816197</v>
+        <v>0.03033678208816182</v>
       </c>
       <c r="E83" t="n">
-        <v>2013.965828912062</v>
+        <v>2013.965828912052</v>
       </c>
       <c r="F83" t="n">
-        <v>2.013965828912062</v>
+        <v>2.013965828912053</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>603.0820454795497</v>
+        <v>603.0820454791069</v>
       </c>
     </row>
     <row r="84">
@@ -2951,19 +2951,19 @@
         <v>67170.2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02998950125147421</v>
+        <v>0.02998950125147406</v>
       </c>
       <c r="E84" t="n">
-        <v>2014.400796961773</v>
+        <v>2014.400796961763</v>
       </c>
       <c r="F84" t="n">
-        <v>2.014400796961773</v>
+        <v>2.014400796961763</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>603.0820454795497</v>
+        <v>603.0820454791069</v>
       </c>
     </row>
     <row r="85">
@@ -2981,19 +2981,19 @@
         <v>67324.44</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02992296552770934</v>
+        <v>0.02992296552770919</v>
       </c>
       <c r="E85" t="n">
-        <v>2014.546897292336</v>
+        <v>2014.546897292326</v>
       </c>
       <c r="F85" t="n">
-        <v>2.014546897292336</v>
+        <v>2.014546897292326</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>603.0820454795497</v>
+        <v>603.0820454791069</v>
       </c>
     </row>
     <row r="86">
@@ -3011,19 +3011,19 @@
         <v>66592.14</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.09024924886734552</v>
+        <v>-0.09024924886734506</v>
       </c>
       <c r="E86" t="n">
-        <v>6042.913523166172</v>
+        <v>6042.913523166139</v>
       </c>
       <c r="F86" t="n">
-        <v>6.009890615469114</v>
+        <v>6.009890615469084</v>
       </c>
       <c r="G86" t="n">
-        <v>-66.08952494555739</v>
+        <v>-66.08952494555705</v>
       </c>
       <c r="H86" t="n">
-        <v>536.9925205339923</v>
+        <v>536.9925205335499</v>
       </c>
     </row>
     <row r="87">
@@ -3041,19 +3041,19 @@
         <v>67420</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02985857188710899</v>
+        <v>0.02985857188710884</v>
       </c>
       <c r="E87" t="n">
-        <v>2013.064916628888</v>
+        <v>2013.064916628878</v>
       </c>
       <c r="F87" t="n">
-        <v>2.013064916628888</v>
+        <v>2.013064916628878</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>536.9925205339923</v>
+        <v>536.9925205335499</v>
       </c>
     </row>
     <row r="88">
@@ -3071,19 +3071,19 @@
         <v>70000</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02877950486967923</v>
+        <v>0.02877950486967908</v>
       </c>
       <c r="E88" t="n">
-        <v>2014.565340877546</v>
+        <v>2014.565340877536</v>
       </c>
       <c r="F88" t="n">
-        <v>2.014565340877546</v>
+        <v>2.014565340877536</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>536.9925205339923</v>
+        <v>536.9925205335499</v>
       </c>
     </row>
     <row r="89">
@@ -3098,22 +3098,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>69714.81658021479</v>
+        <v>69714.81658021452</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05863807675678823</v>
+        <v>-0.05863807675678792</v>
       </c>
       <c r="E89" t="n">
-        <v>4027.630257506435</v>
+        <v>4027.630257506414</v>
       </c>
       <c r="F89" t="n">
-        <v>4.087942765716047</v>
+        <v>4.087942765716011</v>
       </c>
       <c r="G89" t="n">
-        <v>-16.72260725912879</v>
+        <v>-16.72260725914406</v>
       </c>
       <c r="H89" t="n">
-        <v>520.2699132748635</v>
+        <v>520.2699132744058</v>
       </c>
     </row>
     <row r="90">
@@ -3131,19 +3131,19 @@
         <v>70373.86</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02862012745852184</v>
+        <v>0.02862012745852168</v>
       </c>
       <c r="E90" t="n">
-        <v>2014.108842948172</v>
+        <v>2014.108842948161</v>
       </c>
       <c r="F90" t="n">
-        <v>2.014108842948172</v>
+        <v>2.014108842948161</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>520.2699132748635</v>
+        <v>520.2699132744058</v>
       </c>
     </row>
     <row r="91">
@@ -3161,19 +3161,19 @@
         <v>69260.02</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02862012745852184</v>
+        <v>-0.02862012745852168</v>
       </c>
       <c r="E91" t="n">
-        <v>2014.108842948172</v>
+        <v>2014.108842948161</v>
       </c>
       <c r="F91" t="n">
-        <v>1.982230600179772</v>
+        <v>1.982230600179761</v>
       </c>
       <c r="G91" t="n">
-        <v>-31.87824276839986</v>
+        <v>-31.87824276839969</v>
       </c>
       <c r="H91" t="n">
-        <v>488.3916705064636</v>
+        <v>488.3916705060061</v>
       </c>
     </row>
     <row r="92">
@@ -3191,19 +3191,19 @@
         <v>68382.8</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02944294136351909</v>
+        <v>0.02944294136351893</v>
       </c>
       <c r="E92" t="n">
-        <v>2013.390770673253</v>
+        <v>2013.390770673243</v>
       </c>
       <c r="F92" t="n">
-        <v>2.013390770673253</v>
+        <v>2.013390770673242</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>488.3916705064636</v>
+        <v>488.3916705060061</v>
       </c>
     </row>
     <row r="93">
@@ -3218,22 +3218,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>68691.71611231672</v>
+        <v>68691.71611231595</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.02944294136351909</v>
+        <v>-0.02944294136351893</v>
       </c>
       <c r="E93" t="n">
-        <v>2013.390770673253</v>
+        <v>2013.390770673243</v>
       </c>
       <c r="F93" t="n">
-        <v>2.022486169654441</v>
+        <v>2.022486169654407</v>
       </c>
       <c r="G93" t="n">
-        <v>9.095398981187291</v>
+        <v>9.095398981164534</v>
       </c>
       <c r="H93" t="n">
-        <v>497.487069487651</v>
+        <v>497.4870694871706</v>
       </c>
     </row>
     <row r="94">
@@ -3251,19 +3251,19 @@
         <v>71300</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02823972307915125</v>
+        <v>0.02823972307915109</v>
       </c>
       <c r="E94" t="n">
-        <v>2013.492255543484</v>
+        <v>2013.492255543473</v>
       </c>
       <c r="F94" t="n">
-        <v>2.013492255543484</v>
+        <v>2.013492255543473</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>497.487069487651</v>
+        <v>497.4870694871706</v>
       </c>
     </row>
     <row r="95">
@@ -3281,19 +3281,19 @@
         <v>70344.2</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.02823972307915125</v>
+        <v>-0.02823972307915109</v>
       </c>
       <c r="E95" t="n">
-        <v>2013.492255543484</v>
+        <v>2013.492255543473</v>
       </c>
       <c r="F95" t="n">
-        <v>1.986500728224431</v>
+        <v>1.98650072822442</v>
       </c>
       <c r="G95" t="n">
-        <v>-26.99152731905284</v>
+        <v>-26.99152731905269</v>
       </c>
       <c r="H95" t="n">
-        <v>470.4955421685981</v>
+        <v>470.4955421681179</v>
       </c>
     </row>
     <row r="96">
@@ -3311,19 +3311,19 @@
         <v>71700</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02807353843616195</v>
+        <v>0.02807353843616179</v>
       </c>
       <c r="E96" t="n">
-        <v>2012.872705872812</v>
+        <v>2012.8727058728</v>
       </c>
       <c r="F96" t="n">
-        <v>2.012872705872812</v>
+        <v>2.0128727058728</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>470.4955421685981</v>
+        <v>470.4955421681179</v>
       </c>
     </row>
     <row r="97">
@@ -3341,19 +3341,19 @@
         <v>70804.14</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02807353843616195</v>
+        <v>-0.02807353843616179</v>
       </c>
       <c r="E97" t="n">
-        <v>2012.872705872812</v>
+        <v>2012.8727058728</v>
       </c>
       <c r="F97" t="n">
-        <v>1.987722745729392</v>
+        <v>1.987722745729381</v>
       </c>
       <c r="G97" t="n">
-        <v>-25.14996014342006</v>
+        <v>-25.14996014341992</v>
       </c>
       <c r="H97" t="n">
-        <v>445.345582025178</v>
+        <v>445.345582024698</v>
       </c>
     </row>
     <row r="98">
@@ -3371,19 +3371,19 @@
         <v>66691.99000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03017288004189899</v>
+        <v>0.03017288004189882</v>
       </c>
       <c r="E98" t="n">
-        <v>2012.289414025527</v>
+        <v>2012.289414025516</v>
       </c>
       <c r="F98" t="n">
-        <v>2.012289414025527</v>
+        <v>2.012289414025516</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>445.345582025178</v>
+        <v>445.345582024698</v>
       </c>
     </row>
     <row r="99">
@@ -3401,19 +3401,19 @@
         <v>66222.41</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.03017288004189899</v>
+        <v>-0.03017288004189882</v>
       </c>
       <c r="E99" t="n">
-        <v>2012.289414025527</v>
+        <v>2012.289414025516</v>
       </c>
       <c r="F99" t="n">
-        <v>1.998120833015452</v>
+        <v>1.998120833015441</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.16858101007498</v>
+        <v>-14.1685810100749</v>
       </c>
       <c r="H99" t="n">
-        <v>431.177001015103</v>
+        <v>431.1770010146231</v>
       </c>
     </row>
     <row r="100">
@@ -3431,19 +3431,19 @@
         <v>66169.86</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03040547672694413</v>
+        <v>0.03040547672694397</v>
       </c>
       <c r="E100" t="n">
-        <v>2011.926138255151</v>
+        <v>2011.926138255141</v>
       </c>
       <c r="F100" t="n">
-        <v>2.011926138255152</v>
+        <v>2.011926138255141</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>431.177001015103</v>
+        <v>431.1770010146231</v>
       </c>
     </row>
     <row r="101">
@@ -3461,19 +3461,19 @@
         <v>64831.24</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.03040547672694413</v>
+        <v>-0.03040547672694397</v>
       </c>
       <c r="E101" t="n">
-        <v>2011.926138255151</v>
+        <v>2011.926138255141</v>
       </c>
       <c r="F101" t="n">
-        <v>1.97122475899893</v>
+        <v>1.971224758998919</v>
       </c>
       <c r="G101" t="n">
-        <v>-40.70137925622203</v>
+        <v>-40.70137925622182</v>
       </c>
       <c r="H101" t="n">
-        <v>390.475621758881</v>
+        <v>390.4756217584013</v>
       </c>
     </row>
     <row r="102">
@@ -3491,19 +3491,19 @@
         <v>61828.17</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03252614695853549</v>
+        <v>0.03252614695853532</v>
       </c>
       <c r="E102" t="n">
-        <v>2011.032143597315</v>
+        <v>2011.032143597305</v>
       </c>
       <c r="F102" t="n">
-        <v>2.011032143597316</v>
+        <v>2.011032143597305</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>390.475621758881</v>
+        <v>390.4756217584013</v>
       </c>
     </row>
     <row r="103">
@@ -3521,19 +3521,19 @@
         <v>61350.01</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.03252614695853549</v>
+        <v>-0.03252614695853532</v>
       </c>
       <c r="E103" t="n">
-        <v>2011.032143597315</v>
+        <v>2011.032143597305</v>
       </c>
       <c r="F103" t="n">
-        <v>1.995479441167622</v>
+        <v>1.995479441167612</v>
       </c>
       <c r="G103" t="n">
-        <v>-15.55270242969321</v>
+        <v>-15.55270242969313</v>
       </c>
       <c r="H103" t="n">
-        <v>374.9229193291878</v>
+        <v>374.9229193287082</v>
       </c>
     </row>
     <row r="104">
@@ -3551,19 +3551,19 @@
         <v>61717.9</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03257792243930896</v>
+        <v>0.03257792243930879</v>
       </c>
       <c r="E104" t="n">
-        <v>2010.640959317026</v>
+        <v>2010.640959317016</v>
       </c>
       <c r="F104" t="n">
-        <v>2.010640959317027</v>
+        <v>2.010640959317016</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>374.9229193291878</v>
+        <v>374.9229193287082</v>
       </c>
     </row>
     <row r="105">
@@ -3581,19 +3581,19 @@
         <v>62026.83</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03241826210447033</v>
+        <v>0.03241826210447016</v>
       </c>
       <c r="E105" t="n">
-        <v>2010.802032449423</v>
+        <v>2010.802032449413</v>
       </c>
       <c r="F105" t="n">
-        <v>2.010802032449424</v>
+        <v>2.010802032449413</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>374.9229193291878</v>
+        <v>374.9229193287082</v>
       </c>
     </row>
     <row r="106">
@@ -3608,22 +3608,22 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>62814.74137500168</v>
+        <v>62814.74137500099</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.06499618454377928</v>
+        <v>-0.06499618454377895</v>
       </c>
       <c r="E106" t="n">
-        <v>4021.44299176645</v>
+        <v>4021.442991766429</v>
       </c>
       <c r="F106" t="n">
-        <v>4.082718522479378</v>
+        <v>4.082718522479311</v>
       </c>
       <c r="G106" t="n">
-        <v>51.21123313375187</v>
+        <v>51.21123313370668</v>
       </c>
       <c r="H106" t="n">
-        <v>426.1341524629397</v>
+        <v>426.1341524624149</v>
       </c>
     </row>
     <row r="107">
@@ -3641,19 +3641,19 @@
         <v>57862.01</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03476727453299669</v>
+        <v>0.03476727453299649</v>
       </c>
       <c r="E107" t="n">
-        <v>2011.704386701</v>
+        <v>2011.704386700988</v>
       </c>
       <c r="F107" t="n">
-        <v>2.011704386701</v>
+        <v>2.011704386700988</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>426.1341524629397</v>
+        <v>426.1341524624149</v>
       </c>
     </row>
     <row r="108">
@@ -3671,19 +3671,19 @@
         <v>58050</v>
       </c>
       <c r="D108" t="n">
-        <v>0.03465624238780457</v>
+        <v>0.03465624238780436</v>
       </c>
       <c r="E108" t="n">
-        <v>2011.794870612055</v>
+        <v>2011.794870612043</v>
       </c>
       <c r="F108" t="n">
-        <v>2.011794870612055</v>
+        <v>2.011794870612043</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>426.1341524629397</v>
+        <v>426.1341524624149</v>
       </c>
     </row>
     <row r="109">
@@ -3698,22 +3698,22 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>58012.84144474992</v>
+        <v>58012.84144474913</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.06942351692080126</v>
+        <v>-0.06942351692080084</v>
       </c>
       <c r="E109" t="n">
-        <v>4023.499257313055</v>
+        <v>4023.499257313031</v>
       </c>
       <c r="F109" t="n">
-        <v>4.027455479663357</v>
+        <v>4.027455479663278</v>
       </c>
       <c r="G109" t="n">
-        <v>-2.579677589156212</v>
+        <v>-2.579677589211255</v>
       </c>
       <c r="H109" t="n">
-        <v>423.5544748737834</v>
+        <v>423.5544748732036</v>
       </c>
     </row>
     <row r="110">
@@ -3731,19 +3731,19 @@
         <v>58777.99</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03422407761907589</v>
+        <v>0.03422407761907567</v>
       </c>
       <c r="E110" t="n">
-        <v>2011.622492053267</v>
+        <v>2011.622492053254</v>
       </c>
       <c r="F110" t="n">
-        <v>2.011622492053267</v>
+        <v>2.011622492053254</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>423.5544748737834</v>
+        <v>423.5544748732036</v>
       </c>
     </row>
     <row r="111">
@@ -3761,19 +3761,19 @@
         <v>57402.01</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.03422407761907589</v>
+        <v>-0.03422407761907567</v>
       </c>
       <c r="E111" t="n">
-        <v>2011.622492053267</v>
+        <v>2011.622492053254</v>
       </c>
       <c r="F111" t="n">
-        <v>1.964530845730971</v>
+        <v>1.964530845730958</v>
       </c>
       <c r="G111" t="n">
-        <v>-47.09164632229591</v>
+        <v>-47.0916463222956</v>
       </c>
       <c r="H111" t="n">
-        <v>376.4628285514875</v>
+        <v>376.462828550908</v>
       </c>
     </row>
     <row r="112">
@@ -3791,19 +3791,19 @@
         <v>58534</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03434928650117992</v>
+        <v>0.03434928650117969</v>
       </c>
       <c r="E112" t="n">
-        <v>2010.601136060065</v>
+        <v>2010.601136060052</v>
       </c>
       <c r="F112" t="n">
-        <v>2.010601136060065</v>
+        <v>2.010601136060052</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>376.4628285514875</v>
+        <v>376.462828550908</v>
       </c>
     </row>
     <row r="113">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>62867.12614824093</v>
+        <v>62867.1261482406</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.03434928650117992</v>
+        <v>-0.03434928650117969</v>
       </c>
       <c r="E113" t="n">
-        <v>2010.601136060065</v>
+        <v>2010.601136060052</v>
       </c>
       <c r="F113" t="n">
-        <v>2.159440927571747</v>
+        <v>2.159440927571722</v>
       </c>
       <c r="G113" t="n">
-        <v>148.839791511682</v>
+        <v>148.8397915116695</v>
       </c>
       <c r="H113" t="n">
-        <v>525.3026200631695</v>
+        <v>525.3026200625775</v>
       </c>
     </row>
     <row r="114">
@@ -3851,19 +3851,19 @@
         <v>65836.75999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.03058313053706957</v>
+        <v>0.03058313053706937</v>
       </c>
       <c r="E114" t="n">
-        <v>2013.49422521772</v>
+        <v>2013.494225217707</v>
       </c>
       <c r="F114" t="n">
-        <v>2.013494225217721</v>
+        <v>2.013494225217707</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>525.3026200631695</v>
+        <v>525.3026200625775</v>
       </c>
     </row>
     <row r="115">
@@ -3878,22 +3878,22 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>66662.71030690277</v>
+        <v>66662.71030690223</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.03058313053706957</v>
+        <v>-0.03058313053706937</v>
       </c>
       <c r="E115" t="n">
-        <v>2013.49422521772</v>
+        <v>2013.494225217707</v>
       </c>
       <c r="F115" t="n">
-        <v>2.038754371270861</v>
+        <v>2.03875437127083</v>
       </c>
       <c r="G115" t="n">
-        <v>25.26014605314011</v>
+        <v>25.26014605312347</v>
       </c>
       <c r="H115" t="n">
-        <v>550.5627661163096</v>
+        <v>550.5627661157009</v>
       </c>
     </row>
     <row r="116">
@@ -3911,19 +3911,19 @@
         <v>67422.03</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02987034041694626</v>
+        <v>0.02987034041694605</v>
       </c>
       <c r="E116" t="n">
-        <v>2013.918987701563</v>
+        <v>2013.918987701549</v>
       </c>
       <c r="F116" t="n">
-        <v>2.013918987701564</v>
+        <v>2.013918987701549</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>550.5627661163096</v>
+        <v>550.5627661157009</v>
       </c>
     </row>
     <row r="117">
@@ -3941,19 +3941,19 @@
         <v>68165.35000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02955053798709302</v>
+        <v>0.02955053798709282</v>
       </c>
       <c r="E117" t="n">
-        <v>2014.322764578492</v>
+        <v>2014.322764578478</v>
       </c>
       <c r="F117" t="n">
-        <v>2.014322764578492</v>
+        <v>2.014322764578478</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>550.5627661163096</v>
+        <v>550.5627661157009</v>
       </c>
     </row>
     <row r="118">
@@ -3971,19 +3971,19 @@
         <v>66562.33</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.05942087840403928</v>
+        <v>-0.05942087840403887</v>
       </c>
       <c r="E118" t="n">
-        <v>4028.241752280055</v>
+        <v>4028.241752280027</v>
       </c>
       <c r="F118" t="n">
-        <v>3.955192117219537</v>
+        <v>3.955192117219509</v>
       </c>
       <c r="G118" t="n">
-        <v>-95.25285649924329</v>
+        <v>-95.25285649924263</v>
       </c>
       <c r="H118" t="n">
-        <v>455.3099096170663</v>
+        <v>455.3099096164583</v>
       </c>
     </row>
     <row r="119">
@@ -4001,19 +4001,19 @@
         <v>68232.08</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02949196803819024</v>
+        <v>0.02949196803819003</v>
       </c>
       <c r="E119" t="n">
-        <v>2012.298322539239</v>
+        <v>2012.298322539225</v>
       </c>
       <c r="F119" t="n">
-        <v>2.012298322539239</v>
+        <v>2.012298322539225</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>455.3099096170663</v>
+        <v>455.3099096164583</v>
       </c>
     </row>
     <row r="120">
@@ -4031,19 +4031,19 @@
         <v>67532</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.02949196803819024</v>
+        <v>-0.02949196803819003</v>
       </c>
       <c r="E120" t="n">
-        <v>2012.298322539239</v>
+        <v>2012.298322539225</v>
       </c>
       <c r="F120" t="n">
-        <v>1.991651585555063</v>
+        <v>1.991651585555049</v>
       </c>
       <c r="G120" t="n">
-        <v>-20.64673698417627</v>
+        <v>-20.64673698417613</v>
       </c>
       <c r="H120" t="n">
-        <v>434.66317263289</v>
+        <v>434.6631726322822</v>
       </c>
     </row>
     <row r="121">
@@ -4061,19 +4061,19 @@
         <v>67042</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03000812496346266</v>
+        <v>0.03000812496346246</v>
       </c>
       <c r="E121" t="n">
-        <v>2011.804713800464</v>
+        <v>2011.80471380045</v>
       </c>
       <c r="F121" t="n">
-        <v>2.011804713800464</v>
+        <v>2.01180471380045</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>434.66317263289</v>
+        <v>434.6631726322822</v>
       </c>
     </row>
     <row r="122">
@@ -4091,19 +4091,19 @@
         <v>69347.66</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02902979371126857</v>
+        <v>0.02902979371126837</v>
       </c>
       <c r="E122" t="n">
-        <v>2013.148264159191</v>
+        <v>2013.148264159177</v>
       </c>
       <c r="F122" t="n">
-        <v>2.013148264159191</v>
+        <v>2.013148264159177</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>434.66317263289</v>
+        <v>434.6631726322822</v>
       </c>
     </row>
     <row r="123">
@@ -4118,22 +4118,22 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>68640.67203543986</v>
+        <v>68640.67203543911</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.05903791867473123</v>
+        <v>-0.05903791867473082</v>
       </c>
       <c r="E123" t="n">
-        <v>4024.952977959655</v>
+        <v>4024.952977959627</v>
       </c>
       <c r="F123" t="n">
-        <v>4.052402413407197</v>
+        <v>4.052402413407124</v>
       </c>
       <c r="G123" t="n">
-        <v>-41.73909795571571</v>
+        <v>-41.73909795575923</v>
       </c>
       <c r="H123" t="n">
-        <v>392.9240746771743</v>
+        <v>392.9240746765229</v>
       </c>
     </row>
     <row r="124">
@@ -4151,19 +4151,19 @@
         <v>57049.74</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03527084357409582</v>
+        <v>0.03527084357409556</v>
       </c>
       <c r="E124" t="n">
-        <v>2012.192455482837</v>
+        <v>2012.192455482822</v>
       </c>
       <c r="F124" t="n">
-        <v>2.012192455482837</v>
+        <v>2.012192455482822</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>392.9240746771743</v>
+        <v>392.9240746765229</v>
       </c>
     </row>
     <row r="125">
@@ -4178,22 +4178,22 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>59711.2779885398</v>
+        <v>59711.27798853946</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.03527084357409582</v>
+        <v>-0.03527084357409556</v>
       </c>
       <c r="E125" t="n">
-        <v>2012.192455482837</v>
+        <v>2012.192455482822</v>
       </c>
       <c r="F125" t="n">
-        <v>2.106067145543138</v>
+        <v>2.10606714554311</v>
       </c>
       <c r="G125" t="n">
-        <v>93.87469006030118</v>
+        <v>93.87469006028842</v>
       </c>
       <c r="H125" t="n">
-        <v>486.7987647374755</v>
+        <v>486.7987647368113</v>
       </c>
     </row>
     <row r="126">
@@ -4211,19 +4211,19 @@
         <v>60820.16</v>
       </c>
       <c r="D126" t="n">
-        <v>0.03311382139129914</v>
+        <v>0.03311382139129889</v>
       </c>
       <c r="E126" t="n">
-        <v>2013.987915230236</v>
+        <v>2013.987915230221</v>
       </c>
       <c r="F126" t="n">
-        <v>2.013987915230236</v>
+        <v>2.013987915230221</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>486.7987647374755</v>
+        <v>486.7987647368113</v>
       </c>
     </row>
     <row r="127">
@@ -4241,19 +4241,19 @@
         <v>59848.02</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.03311382139129914</v>
+        <v>-0.03311382139129889</v>
       </c>
       <c r="E127" t="n">
-        <v>2013.987915230236</v>
+        <v>2013.987915230221</v>
       </c>
       <c r="F127" t="n">
-        <v>1.981796644902899</v>
+        <v>1.981796644902884</v>
       </c>
       <c r="G127" t="n">
-        <v>-32.19127032733777</v>
+        <v>-32.19127032733753</v>
       </c>
       <c r="H127" t="n">
-        <v>454.6074944101377</v>
+        <v>454.6074944094738</v>
       </c>
     </row>
     <row r="128">
@@ -4271,19 +4271,19 @@
         <v>59473.19</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03385162025097818</v>
+        <v>0.03385162025097793</v>
       </c>
       <c r="E128" t="n">
-        <v>2013.263842994273</v>
+        <v>2013.263842994258</v>
       </c>
       <c r="F128" t="n">
-        <v>2.013263842994273</v>
+        <v>2.013263842994258</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>454.6074944101377</v>
+        <v>454.6074944094738</v>
       </c>
     </row>
     <row r="129">
@@ -4301,19 +4301,19 @@
         <v>60024</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03354651748036738</v>
+        <v>0.03354651748036713</v>
       </c>
       <c r="E129" t="n">
-        <v>2013.596165241571</v>
+        <v>2013.596165241556</v>
       </c>
       <c r="F129" t="n">
-        <v>2.013596165241571</v>
+        <v>2.013596165241556</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>454.6074944101377</v>
+        <v>454.6074944094738</v>
       </c>
     </row>
     <row r="130">
@@ -4331,19 +4331,19 @@
         <v>58954.42</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.06739813773134556</v>
+        <v>-0.06739813773134506</v>
       </c>
       <c r="E130" t="n">
-        <v>4026.860008235844</v>
+        <v>4026.860008235814</v>
       </c>
       <c r="F130" t="n">
-        <v>3.973418119031594</v>
+        <v>3.973418119031564</v>
       </c>
       <c r="G130" t="n">
-        <v>-72.08770015469271</v>
+        <v>-72.08770015469217</v>
       </c>
       <c r="H130" t="n">
-        <v>382.519794255445</v>
+        <v>382.5197942547816</v>
       </c>
     </row>
     <row r="131">
@@ -4361,19 +4361,19 @@
         <v>60619.19</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03319139255344006</v>
+        <v>0.03319139255343981</v>
       </c>
       <c r="E131" t="n">
-        <v>2012.035331561568</v>
+        <v>2012.035331561553</v>
       </c>
       <c r="F131" t="n">
-        <v>2.012035331561568</v>
+        <v>2.012035331561553</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>382.519794255445</v>
+        <v>382.5197942547816</v>
       </c>
     </row>
     <row r="132">
@@ -4388,22 +4388,22 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>60010.4209736084</v>
+        <v>60010.42097360697</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.03319139255344006</v>
+        <v>-0.03319139255343981</v>
       </c>
       <c r="E132" t="n">
-        <v>2012.035331561568</v>
+        <v>2012.035331561553</v>
       </c>
       <c r="F132" t="n">
-        <v>1.991829439832229</v>
+        <v>1.991829439832167</v>
       </c>
       <c r="G132" t="n">
-        <v>-20.20589172933915</v>
+        <v>-20.20589172938657</v>
       </c>
       <c r="H132" t="n">
-        <v>362.3139025261059</v>
+        <v>362.3139025253951</v>
       </c>
     </row>
     <row r="133">
@@ -4421,19 +4421,19 @@
         <v>61570</v>
       </c>
       <c r="D133" t="n">
-        <v>0.03267095670809856</v>
+        <v>0.0326709567080983</v>
       </c>
       <c r="E133" t="n">
-        <v>2011.550804517628</v>
+        <v>2011.550804517612</v>
       </c>
       <c r="F133" t="n">
-        <v>2.011550804517629</v>
+        <v>2.011550804517612</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>362.3139025261059</v>
+        <v>362.3139025253951</v>
       </c>
     </row>
     <row r="134">
@@ -4448,22 +4448,22 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>60331.0889258894</v>
+        <v>60331.08892588856</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.03267095670809856</v>
+        <v>-0.0326709567080983</v>
       </c>
       <c r="E134" t="n">
-        <v>2011.550804517628</v>
+        <v>2011.550804517612</v>
       </c>
       <c r="F134" t="n">
-        <v>1.971074394450177</v>
+        <v>1.971074394450134</v>
       </c>
       <c r="G134" t="n">
-        <v>-40.47641006745123</v>
+        <v>-40.47641006747848</v>
       </c>
       <c r="H134" t="n">
-        <v>321.8374924586547</v>
+        <v>321.8374924579166</v>
       </c>
     </row>
     <row r="135">
@@ -4481,19 +4481,19 @@
         <v>61533.04</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03267612484367832</v>
+        <v>0.03267612484367804</v>
       </c>
       <c r="E135" t="n">
-        <v>2010.661297051052</v>
+        <v>2010.661297051035</v>
       </c>
       <c r="F135" t="n">
-        <v>2.010661297051052</v>
+        <v>2.010661297051035</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>321.8374924586547</v>
+        <v>321.8374924579166</v>
       </c>
     </row>
     <row r="136">
@@ -4511,19 +4511,19 @@
         <v>63628.84</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03162074089414967</v>
+        <v>0.03162074089414942</v>
       </c>
       <c r="E136" t="n">
-        <v>2011.991063035306</v>
+        <v>2011.99106303529</v>
       </c>
       <c r="F136" t="n">
-        <v>2.011991063035306</v>
+        <v>2.01199106303529</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>321.8374924586547</v>
+        <v>321.8374924579166</v>
       </c>
     </row>
     <row r="137">
@@ -4541,19 +4541,19 @@
         <v>63868.26999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.06429686573782799</v>
+        <v>-0.06429686573782746</v>
       </c>
       <c r="E137" t="n">
-        <v>4022.652360086358</v>
+        <v>4022.652360086325</v>
       </c>
       <c r="F137" t="n">
-        <v>4.106529581097347</v>
+        <v>4.106529581097313</v>
       </c>
       <c r="G137" t="n">
-        <v>15.39459856360771</v>
+        <v>15.39459856360758</v>
       </c>
       <c r="H137" t="n">
-        <v>337.2320910222624</v>
+        <v>337.2320910215242</v>
       </c>
     </row>
     <row r="138">
@@ -4571,19 +4571,19 @@
         <v>59132.12</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03402848137879857</v>
+        <v>0.03402848137879829</v>
       </c>
       <c r="E138" t="n">
-        <v>2012.176244308883</v>
+        <v>2012.176244308866</v>
       </c>
       <c r="F138" t="n">
-        <v>2.012176244308883</v>
+        <v>2.012176244308866</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>337.2320910222624</v>
+        <v>337.2320910215242</v>
       </c>
     </row>
     <row r="139">
@@ -4601,19 +4601,19 @@
         <v>58580.29</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.03402848137879857</v>
+        <v>-0.03402848137879829</v>
       </c>
       <c r="E139" t="n">
-        <v>2012.176244308883</v>
+        <v>2012.176244308866</v>
       </c>
       <c r="F139" t="n">
-        <v>1.99339830742962</v>
+        <v>1.993398307429604</v>
       </c>
       <c r="G139" t="n">
-        <v>-18.77793687926247</v>
+        <v>-18.77793687926232</v>
       </c>
       <c r="H139" t="n">
-        <v>318.4541541429999</v>
+        <v>318.4541541422619</v>
       </c>
     </row>
     <row r="140">
@@ -4631,19 +4631,19 @@
         <v>55264.87</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03640144117529049</v>
+        <v>0.03640144117529018</v>
       </c>
       <c r="E140" t="n">
-        <v>2011.720914365076</v>
+        <v>2011.720914365059</v>
       </c>
       <c r="F140" t="n">
-        <v>2.011720914365076</v>
+        <v>2.01172091436506</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>318.4541541429999</v>
+        <v>318.4541541422619</v>
       </c>
     </row>
     <row r="141">
@@ -4658,22 +4658,22 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>56753.76233853807</v>
+        <v>56753.76233853751</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.03640144117529049</v>
+        <v>-0.03640144117529018</v>
       </c>
       <c r="E141" t="n">
-        <v>2011.720914365076</v>
+        <v>2011.720914365059</v>
       </c>
       <c r="F141" t="n">
-        <v>2.065918741242711</v>
+        <v>2.065918741242673</v>
       </c>
       <c r="G141" t="n">
-        <v>54.19782687763423</v>
+        <v>54.19782687761338</v>
       </c>
       <c r="H141" t="n">
-        <v>372.6519810206341</v>
+        <v>372.6519810198753</v>
       </c>
     </row>
     <row r="142">
@@ -4691,19 +4691,19 @@
         <v>57585.5</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03495191181998102</v>
+        <v>0.03495191181998072</v>
       </c>
       <c r="E142" t="n">
-        <v>2012.723318109517</v>
+        <v>2012.7233181095</v>
       </c>
       <c r="F142" t="n">
-        <v>2.012723318109517</v>
+        <v>2.012723318109499</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>372.6519810206341</v>
+        <v>372.6519810198753</v>
       </c>
     </row>
     <row r="143">
@@ -4721,19 +4721,19 @@
         <v>59666.01</v>
       </c>
       <c r="D143" t="n">
-        <v>0.03375610555326462</v>
+        <v>0.03375610555326433</v>
       </c>
       <c r="E143" t="n">
-        <v>2014.092131502143</v>
+        <v>2014.092131502125</v>
       </c>
       <c r="F143" t="n">
-        <v>2.014092131502143</v>
+        <v>2.014092131502125</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>372.6519810206341</v>
+        <v>372.6519810198753</v>
       </c>
     </row>
     <row r="144">
@@ -4748,22 +4748,22 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>59560.3963100316</v>
+        <v>59560.396310031</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.06870801737324564</v>
+        <v>-0.06870801737324506</v>
       </c>
       <c r="E144" t="n">
-        <v>4026.815449611659</v>
+        <v>4026.815449611625</v>
       </c>
       <c r="F144" t="n">
-        <v>4.092276744427047</v>
+        <v>4.092276744426971</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.256507245201325</v>
+        <v>-7.256507245242757</v>
       </c>
       <c r="H144" t="n">
-        <v>365.3954737754328</v>
+        <v>365.3954737746325</v>
       </c>
     </row>
     <row r="145">
@@ -4781,19 +4781,19 @@
         <v>60155.93</v>
       </c>
       <c r="D145" t="n">
-        <v>0.03347750025910902</v>
+        <v>0.03347750025910871</v>
       </c>
       <c r="E145" t="n">
-        <v>2013.870162161944</v>
+        <v>2013.870162161926</v>
       </c>
       <c r="F145" t="n">
-        <v>2.013870162161944</v>
+        <v>2.013870162161925</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>365.3954737754328</v>
+        <v>365.3954737746325</v>
       </c>
     </row>
     <row r="146">
@@ -4811,19 +4811,19 @@
         <v>60335.41</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03337923875206335</v>
+        <v>0.03337923875206305</v>
       </c>
       <c r="E146" t="n">
-        <v>2013.950055593631</v>
+        <v>2013.950055593612</v>
       </c>
       <c r="F146" t="n">
-        <v>2.01395005559363</v>
+        <v>2.013950055593612</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>365.3954737754328</v>
+        <v>365.3954737746325</v>
       </c>
     </row>
     <row r="147">
@@ -4841,19 +4841,19 @@
         <v>59318.34</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.06685673901117237</v>
+        <v>-0.06685673901117176</v>
       </c>
       <c r="E147" t="n">
-        <v>4027.820217755575</v>
+        <v>4027.820217755538</v>
       </c>
       <c r="F147" t="n">
-        <v>3.965830775955986</v>
+        <v>3.96583077595595</v>
       </c>
       <c r="G147" t="n">
-        <v>-67.99798354609355</v>
+        <v>-67.99798354609293</v>
       </c>
       <c r="H147" t="n">
-        <v>297.3974902293392</v>
+        <v>297.3974902285396</v>
       </c>
     </row>
     <row r="148">
@@ -4871,19 +4871,19 @@
         <v>61135.49</v>
       </c>
       <c r="D148" t="n">
-        <v>0.03291819810594626</v>
+        <v>0.03291819810594597</v>
       </c>
       <c r="E148" t="n">
-        <v>2012.470171124097</v>
+        <v>2012.470171124079</v>
       </c>
       <c r="F148" t="n">
-        <v>2.012470171124097</v>
+        <v>2.012470171124079</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>297.3974902293392</v>
+        <v>297.3974902285396</v>
       </c>
     </row>
     <row r="149">
@@ -4901,19 +4901,19 @@
         <v>59967.98</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.03291819810594626</v>
+        <v>-0.03291819810594597</v>
       </c>
       <c r="E149" t="n">
-        <v>2012.470171124097</v>
+        <v>2012.470171124079</v>
       </c>
       <c r="F149" t="n">
-        <v>1.974037845653424</v>
+        <v>1.974037845653406</v>
       </c>
       <c r="G149" t="n">
-        <v>-38.43232547067315</v>
+        <v>-38.43232547067281</v>
       </c>
       <c r="H149" t="n">
-        <v>258.965164758666</v>
+        <v>258.9651647578668</v>
       </c>
     </row>
     <row r="150">
@@ -4931,19 +4931,19 @@
         <v>60510</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03324446299918955</v>
+        <v>0.03324446299918925</v>
       </c>
       <c r="E150" t="n">
-        <v>2011.622456080959</v>
+        <v>2011.622456080941</v>
       </c>
       <c r="F150" t="n">
-        <v>2.01162245608096</v>
+        <v>2.011622456080941</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>258.965164758666</v>
+        <v>258.9651647578668</v>
       </c>
     </row>
     <row r="151">
@@ -4961,19 +4961,19 @@
         <v>59382.24</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.03324446299918955</v>
+        <v>-0.03324446299918925</v>
       </c>
       <c r="E151" t="n">
-        <v>2011.622456080959</v>
+        <v>2011.622456080941</v>
       </c>
       <c r="F151" t="n">
-        <v>1.974130680488994</v>
+        <v>1.974130680488976</v>
       </c>
       <c r="G151" t="n">
-        <v>-37.49177559196607</v>
+        <v>-37.49177559196573</v>
       </c>
       <c r="H151" t="n">
-        <v>221.4733891667</v>
+        <v>221.473389165901</v>
       </c>
     </row>
     <row r="152">
@@ -4991,19 +4991,19 @@
         <v>61759.98</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03255817517233663</v>
+        <v>0.03255817517233634</v>
       </c>
       <c r="E152" t="n">
-        <v>2010.792247480007</v>
+        <v>2010.792247479989</v>
       </c>
       <c r="F152" t="n">
-        <v>2.010792247480007</v>
+        <v>2.010792247479989</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>221.4733891667</v>
+        <v>221.473389165901</v>
       </c>
     </row>
     <row r="153">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>62829.25520239606</v>
+        <v>62829.25520239564</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.03255817517233663</v>
+        <v>-0.03255817517233634</v>
       </c>
       <c r="E153" t="n">
-        <v>2010.792247480007</v>
+        <v>2010.792247479989</v>
       </c>
       <c r="F153" t="n">
-        <v>2.045605896827053</v>
+        <v>2.045605896827022</v>
       </c>
       <c r="G153" t="n">
-        <v>34.81364934704651</v>
+        <v>34.81364934703247</v>
       </c>
       <c r="H153" t="n">
-        <v>256.2870385137465</v>
+        <v>256.2870385129335</v>
       </c>
     </row>
     <row r="154">
@@ -5051,19 +5051,19 @@
         <v>63578.76</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0316364729051937</v>
+        <v>0.03163647290519342</v>
       </c>
       <c r="E154" t="n">
-        <v>2011.407718085813</v>
+        <v>2011.407718085795</v>
       </c>
       <c r="F154" t="n">
-        <v>2.011407718085813</v>
+        <v>2.011407718085795</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>256.2870385137465</v>
+        <v>256.2870385129335</v>
       </c>
     </row>
     <row r="155">
@@ -5078,22 +5078,22 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>63425.62025431253</v>
+        <v>63425.62025430989</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.0316364729051937</v>
+        <v>-0.03163647290519342</v>
       </c>
       <c r="E155" t="n">
-        <v>2011.407718085813</v>
+        <v>2011.407718085795</v>
       </c>
       <c r="F155" t="n">
-        <v>2.006562916670663</v>
+        <v>2.006562916670562</v>
       </c>
       <c r="G155" t="n">
-        <v>-4.844801415150106</v>
+        <v>-4.844801415233389</v>
       </c>
       <c r="H155" t="n">
-        <v>251.4422370985964</v>
+        <v>251.4422370977001</v>
       </c>
     </row>
     <row r="156">
@@ -5111,19 +5111,19 @@
         <v>64354</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03126236142456649</v>
+        <v>0.03126236142456621</v>
       </c>
       <c r="E156" t="n">
-        <v>2011.858007116552</v>
+        <v>2011.858007116534</v>
       </c>
       <c r="F156" t="n">
-        <v>2.011858007116552</v>
+        <v>2.011858007116534</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>251.4422370985964</v>
+        <v>251.4422370977001</v>
       </c>
     </row>
     <row r="157">
@@ -5141,19 +5141,19 @@
         <v>63548.83</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.03126236142456649</v>
+        <v>-0.03126236142456621</v>
       </c>
       <c r="E157" t="n">
-        <v>2011.858007116552</v>
+        <v>2011.858007116534</v>
       </c>
       <c r="F157" t="n">
-        <v>1.986686491568334</v>
+        <v>1.986686491568316</v>
       </c>
       <c r="G157" t="n">
-        <v>-25.17151554821815</v>
+        <v>-25.17151554821792</v>
       </c>
       <c r="H157" t="n">
-        <v>226.2707215503783</v>
+        <v>226.2707215494822</v>
       </c>
     </row>
     <row r="158">
@@ -5171,19 +5171,19 @@
         <v>63617.99</v>
       </c>
       <c r="D158" t="n">
-        <v>0.03160500269489574</v>
+        <v>0.03160500269489543</v>
       </c>
       <c r="E158" t="n">
-        <v>2010.64674539385</v>
+        <v>2010.64674539383</v>
       </c>
       <c r="F158" t="n">
-        <v>2.01064674539385</v>
+        <v>2.01064674539383</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>226.2707215503783</v>
+        <v>226.2707215494822</v>
       </c>
     </row>
     <row r="159">
@@ -5201,19 +5201,19 @@
         <v>63228.39</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.03160500269489574</v>
+        <v>-0.03160500269489543</v>
       </c>
       <c r="E159" t="n">
-        <v>2010.64674539385</v>
+        <v>2010.64674539383</v>
       </c>
       <c r="F159" t="n">
-        <v>1.998333436343919</v>
+        <v>1.998333436343899</v>
       </c>
       <c r="G159" t="n">
-        <v>-12.31330904993133</v>
+        <v>-12.31330904993121</v>
       </c>
       <c r="H159" t="n">
-        <v>213.9574125004469</v>
+        <v>213.957412499551</v>
       </c>
     </row>
     <row r="160">
@@ -5231,19 +5231,19 @@
         <v>64292.35</v>
       </c>
       <c r="D160" t="n">
-        <v>0.03126843128838123</v>
+        <v>0.03126843128838092</v>
       </c>
       <c r="E160" t="n">
-        <v>2010.320928343557</v>
+        <v>2010.320928343537</v>
       </c>
       <c r="F160" t="n">
-        <v>2.010320928343557</v>
+        <v>2.010320928343537</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>213.9574125004469</v>
+        <v>213.957412499551</v>
       </c>
     </row>
     <row r="161">
@@ -5258,22 +5258,22 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>63863.12540900785</v>
+        <v>63863.12540900626</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.03126843128838123</v>
+        <v>-0.03126843128838092</v>
       </c>
       <c r="E161" t="n">
-        <v>2010.320928343557</v>
+        <v>2010.320928343537</v>
       </c>
       <c r="F161" t="n">
-        <v>1.996899748712835</v>
+        <v>1.996899748712766</v>
       </c>
       <c r="G161" t="n">
-        <v>-13.4211796307215</v>
+        <v>-13.42117963077097</v>
       </c>
       <c r="H161" t="n">
-        <v>200.5362328697254</v>
+        <v>200.53623286878</v>
       </c>
     </row>
     <row r="162">
@@ -5291,19 +5291,19 @@
         <v>64393.98</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03121365903329004</v>
+        <v>0.03121365903328971</v>
       </c>
       <c r="E162" t="n">
-        <v>2009.971735516498</v>
+        <v>2009.971735516477</v>
       </c>
       <c r="F162" t="n">
-        <v>2.009971735516498</v>
+        <v>2.009971735516477</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>200.5362328697254</v>
+        <v>200.53623286878</v>
       </c>
     </row>
     <row r="163">
@@ -5318,22 +5318,22 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>65584.98861098854</v>
+        <v>65584.98861098778</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.03121365903329004</v>
+        <v>-0.03121365903328971</v>
       </c>
       <c r="E163" t="n">
-        <v>2009.971735516498</v>
+        <v>2009.971735516477</v>
       </c>
       <c r="F163" t="n">
-        <v>2.047147472205607</v>
+        <v>2.047147472205562</v>
       </c>
       <c r="G163" t="n">
-        <v>37.1757366891086</v>
+        <v>37.17573668908459</v>
       </c>
       <c r="H163" t="n">
-        <v>237.711969558834</v>
+        <v>237.7119695578646</v>
       </c>
     </row>
     <row r="164">
@@ -5351,19 +5351,19 @@
         <v>65958.81</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03048317753414503</v>
+        <v>0.0304831775341447</v>
       </c>
       <c r="E164" t="n">
-        <v>2010.63411517094</v>
+        <v>2010.634115170919</v>
       </c>
       <c r="F164" t="n">
-        <v>2.01063411517094</v>
+        <v>2.010634115170919</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>237.711969558834</v>
+        <v>237.7119695578646</v>
       </c>
     </row>
     <row r="165">
@@ -5381,19 +5381,19 @@
         <v>65602.00999999999</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.03048317753414503</v>
+        <v>-0.0304831775341447</v>
       </c>
       <c r="E165" t="n">
-        <v>2010.63411517094</v>
+        <v>2010.634115170919</v>
       </c>
       <c r="F165" t="n">
-        <v>1.999757717426757</v>
+        <v>1.999757717426736</v>
       </c>
       <c r="G165" t="n">
-        <v>-10.87639774418303</v>
+        <v>-10.87639774418292</v>
       </c>
       <c r="H165" t="n">
-        <v>226.835571814651</v>
+        <v>226.8355718136817</v>
       </c>
     </row>
     <row r="166">
@@ -5411,19 +5411,19 @@
         <v>62368</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0322334640233963</v>
+        <v>0.03223346402339596</v>
       </c>
       <c r="E166" t="n">
-        <v>2010.336684211181</v>
+        <v>2010.336684211159</v>
       </c>
       <c r="F166" t="n">
-        <v>2.01033668421118</v>
+        <v>2.010336684211159</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>226.835571814651</v>
+        <v>226.8355718136817</v>
       </c>
     </row>
     <row r="167">
@@ -5441,19 +5441,19 @@
         <v>62720.01</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03205553391191924</v>
+        <v>0.0320555339119189</v>
       </c>
       <c r="E167" t="n">
-        <v>2010.523407510914</v>
+        <v>2010.523407510892</v>
       </c>
       <c r="F167" t="n">
-        <v>2.010523407510914</v>
+        <v>2.010523407510893</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>226.835571814651</v>
+        <v>226.8355718136817</v>
       </c>
     </row>
     <row r="168">
@@ -5468,22 +5468,22 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>62870.70627593587</v>
+        <v>62870.70627593464</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.06428899793531553</v>
+        <v>-0.06428899793531485</v>
       </c>
       <c r="E168" t="n">
-        <v>4020.860091722095</v>
+        <v>4020.860091722051</v>
       </c>
       <c r="F168" t="n">
-        <v>4.04189470596547</v>
+        <v>4.041894705965349</v>
       </c>
       <c r="G168" t="n">
-        <v>9.688112572500554</v>
+        <v>9.688112572421867</v>
       </c>
       <c r="H168" t="n">
-        <v>236.5236843871515</v>
+        <v>236.5236843861036</v>
       </c>
     </row>
     <row r="169">
@@ -5501,19 +5501,19 @@
         <v>63086</v>
       </c>
       <c r="D169" t="n">
-        <v>0.03187071303764645</v>
+        <v>0.03187071303764608</v>
       </c>
       <c r="E169" t="n">
-        <v>2010.595802692964</v>
+        <v>2010.595802692941</v>
       </c>
       <c r="F169" t="n">
-        <v>2.010595802692964</v>
+        <v>2.010595802692941</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>236.5236843871515</v>
+        <v>236.5236843861036</v>
       </c>
     </row>
     <row r="170">
@@ -5531,19 +5531,19 @@
         <v>64300</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03128040492731728</v>
+        <v>0.03128040492731692</v>
       </c>
       <c r="E170" t="n">
-        <v>2011.330036826501</v>
+        <v>2011.330036826478</v>
       </c>
       <c r="F170" t="n">
-        <v>2.011330036826501</v>
+        <v>2.011330036826477</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>236.5236843871515</v>
+        <v>236.5236843861036</v>
       </c>
     </row>
     <row r="171">
@@ -5558,22 +5558,22 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>65141.35514202646</v>
+        <v>65141.35514202592</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.06315111796496373</v>
+        <v>-0.06315111796496301</v>
       </c>
       <c r="E171" t="n">
-        <v>4021.925839519466</v>
+        <v>4021.925839519418</v>
       </c>
       <c r="F171" t="n">
-        <v>4.11374940297171</v>
+        <v>4.113749402971628</v>
       </c>
       <c r="G171" t="n">
-        <v>53.13251782454152</v>
+        <v>53.13251782450691</v>
       </c>
       <c r="H171" t="n">
-        <v>289.6562022116931</v>
+        <v>289.6562022106104</v>
       </c>
     </row>
     <row r="172">
@@ -5591,19 +5591,19 @@
         <v>67969.69</v>
       </c>
       <c r="D172" t="n">
-        <v>0.02960539592148103</v>
+        <v>0.02960539592148068</v>
       </c>
       <c r="E172" t="n">
-        <v>2012.26958311033</v>
+        <v>2012.269583110306</v>
       </c>
       <c r="F172" t="n">
-        <v>2.01226958311033</v>
+        <v>2.012269583110307</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>289.6562022116931</v>
+        <v>289.6562022106104</v>
       </c>
     </row>
     <row r="173">
@@ -5618,22 +5618,22 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>68211.39169937499</v>
+        <v>68211.39169937411</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.02960539592148103</v>
+        <v>-0.02960539592148068</v>
       </c>
       <c r="E173" t="n">
-        <v>2012.26958311033</v>
+        <v>2012.269583110306</v>
       </c>
       <c r="F173" t="n">
-        <v>2.019425257615222</v>
+        <v>2.019425257615172</v>
       </c>
       <c r="G173" t="n">
-        <v>7.155674504891238</v>
+        <v>7.155674504865305</v>
       </c>
       <c r="H173" t="n">
-        <v>296.8118767165843</v>
+        <v>296.8118767154758</v>
       </c>
     </row>
     <row r="174">
@@ -5651,19 +5651,19 @@
         <v>68625.99000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>0.02932318147625371</v>
+        <v>0.02932318147625336</v>
       </c>
       <c r="E174" t="n">
-        <v>2012.332358757572</v>
+        <v>2012.332358757548</v>
       </c>
       <c r="F174" t="n">
-        <v>2.012332358757572</v>
+        <v>2.012332358757548</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>296.8118767165843</v>
+        <v>296.8118767154758</v>
       </c>
     </row>
     <row r="175">
@@ -5681,19 +5681,19 @@
         <v>68309.31</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.02932318147625371</v>
+        <v>-0.02932318147625336</v>
       </c>
       <c r="E175" t="n">
-        <v>2012.332358757572</v>
+        <v>2012.332358757548</v>
       </c>
       <c r="F175" t="n">
-        <v>2.003046293647672</v>
+        <v>2.003046293647648</v>
       </c>
       <c r="G175" t="n">
-        <v>-9.286065109900246</v>
+        <v>-9.286065109900136</v>
       </c>
       <c r="H175" t="n">
-        <v>287.5258116066841</v>
+        <v>287.5258116055757</v>
       </c>
     </row>
     <row r="176">
@@ -5711,19 +5711,19 @@
         <v>67701.21000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>0.02971979426489399</v>
+        <v>0.02971979426489364</v>
       </c>
       <c r="E176" t="n">
-        <v>2012.066032684384</v>
+        <v>2012.06603268436</v>
       </c>
       <c r="F176" t="n">
-        <v>2.012066032684384</v>
+        <v>2.01206603268436</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>287.5258116066841</v>
+        <v>287.5258116055757</v>
       </c>
     </row>
     <row r="177">
@@ -5738,22 +5738,22 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>67774.55381364406</v>
+        <v>67774.55381364224</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.02971979426489399</v>
+        <v>-0.02971979426489364</v>
       </c>
       <c r="E177" t="n">
-        <v>2012.066032684384</v>
+        <v>2012.06603268436</v>
       </c>
       <c r="F177" t="n">
-        <v>2.014245795736488</v>
+        <v>2.01424579573641</v>
       </c>
       <c r="G177" t="n">
-        <v>2.179763052103971</v>
+        <v>2.179763052049886</v>
       </c>
       <c r="H177" t="n">
-        <v>289.7055746587881</v>
+        <v>289.7055746576256</v>
       </c>
     </row>
     <row r="178">
@@ -5771,19 +5771,19 @@
         <v>68021.69</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0295792283772208</v>
+        <v>0.02957922837722043</v>
       </c>
       <c r="E178" t="n">
-        <v>2012.029103114516</v>
+        <v>2012.029103114492</v>
       </c>
       <c r="F178" t="n">
-        <v>2.012029103114517</v>
+        <v>2.012029103114492</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>289.7055746587881</v>
+        <v>289.7055746576256</v>
       </c>
     </row>
     <row r="179">
@@ -5798,22 +5798,22 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>71693.31614319699</v>
+        <v>71693.31614319651</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0295792283772208</v>
+        <v>-0.02957922837722043</v>
       </c>
       <c r="E179" t="n">
-        <v>2012.029103114516</v>
+        <v>2012.029103114492</v>
       </c>
       <c r="F179" t="n">
-        <v>2.120632971319914</v>
+        <v>2.120632971319874</v>
       </c>
       <c r="G179" t="n">
-        <v>108.6038682053982</v>
+        <v>108.6038682053826</v>
       </c>
       <c r="H179" t="n">
-        <v>398.3094428641863</v>
+        <v>398.3094428630082</v>
       </c>
     </row>
     <row r="180">
@@ -5831,19 +5831,19 @@
         <v>69640</v>
       </c>
       <c r="D180" t="n">
-        <v>0.02892187122699786</v>
+        <v>0.02892187122699751</v>
       </c>
       <c r="E180" t="n">
-        <v>2014.119112248131</v>
+        <v>2014.119112248106</v>
       </c>
       <c r="F180" t="n">
-        <v>2.014119112248131</v>
+        <v>2.014119112248106</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>398.3094428641863</v>
+        <v>398.3094428630082</v>
       </c>
     </row>
     <row r="181">
@@ -5861,19 +5861,19 @@
         <v>74348.53</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02712632153740959</v>
+        <v>0.02712632153740926</v>
       </c>
       <c r="E181" t="n">
-        <v>2016.802130613743</v>
+        <v>2016.802130613718</v>
       </c>
       <c r="F181" t="n">
-        <v>2.016802130613743</v>
+        <v>2.016802130613718</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>398.3094428641863</v>
+        <v>398.3094428630082</v>
       </c>
     </row>
     <row r="182">
@@ -5888,22 +5888,22 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>75726.81264137248</v>
+        <v>75726.81264137218</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.05604819276440746</v>
+        <v>-0.05604819276440676</v>
       </c>
       <c r="E182" t="n">
-        <v>4030.921242861875</v>
+        <v>4030.921242861825</v>
       </c>
       <c r="F182" t="n">
-        <v>4.244350992357813</v>
+        <v>4.244350992357743</v>
       </c>
       <c r="G182" t="n">
-        <v>77.25025116748162</v>
+        <v>77.25025116746353</v>
       </c>
       <c r="H182" t="n">
-        <v>475.5596940316679</v>
+        <v>475.5596940304717</v>
       </c>
     </row>
     <row r="183">
@@ -5921,19 +5921,19 @@
         <v>76912.58</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02624046563741111</v>
+        <v>0.02624046563741078</v>
       </c>
       <c r="E183" t="n">
-        <v>2018.221912574633</v>
+        <v>2018.221912574608</v>
       </c>
       <c r="F183" t="n">
-        <v>2.018221912574633</v>
+        <v>2.018221912574608</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>475.5596940316679</v>
+        <v>475.5596940304717</v>
       </c>
     </row>
     <row r="184">
@@ -5951,19 +5951,19 @@
         <v>76529.07000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02636880364646933</v>
+        <v>0.02636880364646899</v>
       </c>
       <c r="E184" t="n">
-        <v>2017.980020076907</v>
+        <v>2017.980020076881</v>
       </c>
       <c r="F184" t="n">
-        <v>2.017980020076907</v>
+        <v>2.017980020076881</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>475.5596940316679</v>
+        <v>475.5596940304717</v>
       </c>
     </row>
     <row r="185">
@@ -5981,19 +5981,19 @@
         <v>76677.46000000001</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02631928669397537</v>
+        <v>0.02631928669397504</v>
       </c>
       <c r="E185" t="n">
-        <v>2018.096052705829</v>
+        <v>2018.096052705804</v>
       </c>
       <c r="F185" t="n">
-        <v>2.018096052705829</v>
+        <v>2.018096052705804</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>475.5596940316679</v>
+        <v>475.5596940304717</v>
       </c>
     </row>
     <row r="186">
@@ -6011,19 +6011,19 @@
         <v>77205.97</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02614940563683763</v>
+        <v>0.0261494056368373</v>
       </c>
       <c r="E186" t="n">
-        <v>2018.890227115517</v>
+        <v>2018.890227115491</v>
       </c>
       <c r="F186" t="n">
-        <v>2.018890227115517</v>
+        <v>2.018890227115492</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>475.5596940316679</v>
+        <v>475.5596940304717</v>
       </c>
     </row>
     <row r="187">
@@ -6041,19 +6041,19 @@
         <v>87136</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1050779616146935</v>
+        <v>-0.1050779616146921</v>
       </c>
       <c r="E187" t="n">
-        <v>8073.188212472888</v>
+        <v>8073.188212472785</v>
       </c>
       <c r="F187" t="n">
-        <v>9.15607326325793</v>
+        <v>9.156073263257811</v>
       </c>
       <c r="G187" t="n">
-        <v>1043.427311172754</v>
+        <v>1043.427311172741</v>
       </c>
       <c r="H187" t="n">
-        <v>1518.987005204422</v>
+        <v>1518.987005203213</v>
       </c>
     </row>
     <row r="188">
@@ -6071,19 +6071,19 @@
         <v>92540</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02203949435882727</v>
+        <v>0.022039494358827</v>
       </c>
       <c r="E188" t="n">
-        <v>2039.534807965876</v>
+        <v>2039.53480796585</v>
       </c>
       <c r="F188" t="n">
-        <v>2.039534807965876</v>
+        <v>2.03953480796585</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>1518.987005204422</v>
+        <v>1518.987005203213</v>
       </c>
     </row>
     <row r="189">
@@ -6101,19 +6101,19 @@
         <v>87849.78999999999</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.02203949435882727</v>
+        <v>-0.022039494358827</v>
       </c>
       <c r="E189" t="n">
-        <v>2039.534807965876</v>
+        <v>2039.53480796585</v>
       </c>
       <c r="F189" t="n">
-        <v>1.936164951129161</v>
+        <v>1.936164951129136</v>
       </c>
       <c r="G189" t="n">
-        <v>-103.3698568367154</v>
+        <v>-103.3698568367141</v>
       </c>
       <c r="H189" t="n">
-        <v>1415.617148367707</v>
+        <v>1415.617148366499</v>
       </c>
     </row>
     <row r="190">
@@ -6131,19 +6131,19 @@
         <v>91032.08</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02238099295367998</v>
+        <v>0.0223809929536797</v>
       </c>
       <c r="E190" t="n">
-        <v>2037.388341038833</v>
+        <v>2037.388341038807</v>
       </c>
       <c r="F190" t="n">
-        <v>2.037388341038833</v>
+        <v>2.037388341038807</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1415.617148367707</v>
+        <v>1415.617148366499</v>
       </c>
     </row>
     <row r="191">
@@ -6161,19 +6161,19 @@
         <v>90031.61</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.02238099295367998</v>
+        <v>-0.0223809929536797</v>
       </c>
       <c r="E191" t="n">
-        <v>2037.388341038833</v>
+        <v>2037.388341038807</v>
       </c>
       <c r="F191" t="n">
-        <v>2.014996829018465</v>
+        <v>2.014996829018439</v>
       </c>
       <c r="G191" t="n">
-        <v>-22.39151202036824</v>
+        <v>-22.39151202036796</v>
       </c>
       <c r="H191" t="n">
-        <v>1393.225636347339</v>
+        <v>1393.225636346131</v>
       </c>
     </row>
     <row r="192">
@@ -6191,19 +6191,19 @@
         <v>91719.89999999999</v>
       </c>
       <c r="D192" t="n">
-        <v>0.02220738617557471</v>
+        <v>0.02220738617557443</v>
       </c>
       <c r="E192" t="n">
-        <v>2036.859239285095</v>
+        <v>2036.859239285069</v>
       </c>
       <c r="F192" t="n">
-        <v>2.036859239285095</v>
+        <v>2.036859239285069</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1393.225636347339</v>
+        <v>1393.225636346131</v>
       </c>
     </row>
     <row r="193">
@@ -6221,19 +6221,19 @@
         <v>90260.28999999999</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.02220738617557471</v>
+        <v>-0.02220738617557443</v>
       </c>
       <c r="E193" t="n">
-        <v>2036.859239285095</v>
+        <v>2036.859239285069</v>
       </c>
       <c r="F193" t="n">
-        <v>2.004445116349364</v>
+        <v>2.004445116349339</v>
       </c>
       <c r="G193" t="n">
-        <v>-32.41412293573062</v>
+        <v>-32.41412293573021</v>
       </c>
       <c r="H193" t="n">
-        <v>1360.811513411608</v>
+        <v>1360.8115134104</v>
       </c>
     </row>
     <row r="194">
@@ -6251,19 +6251,19 @@
         <v>91428</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02227031249441382</v>
+        <v>0.02227031249441354</v>
       </c>
       <c r="E194" t="n">
-        <v>2036.130130739267</v>
+        <v>2036.130130739241</v>
       </c>
       <c r="F194" t="n">
-        <v>2.036130130739267</v>
+        <v>2.036130130739242</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1360.811513411608</v>
+        <v>1360.8115134104</v>
       </c>
     </row>
     <row r="195">
@@ -6281,19 +6281,19 @@
         <v>91620</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02222412910226372</v>
+        <v>0.02222412910226344</v>
       </c>
       <c r="E195" t="n">
-        <v>2036.174708349402</v>
+        <v>2036.174708349377</v>
       </c>
       <c r="F195" t="n">
-        <v>2.036174708349402</v>
+        <v>2.036174708349376</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1360.811513411608</v>
+        <v>1360.8115134104</v>
       </c>
     </row>
     <row r="196">
@@ -6308,22 +6308,22 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>91620.17041709626</v>
+        <v>91620.17041709424</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.04449444159667755</v>
+        <v>-0.04449444159667698</v>
       </c>
       <c r="E196" t="n">
-        <v>4072.30483908867</v>
+        <v>4072.304839088618</v>
       </c>
       <c r="F196" t="n">
-        <v>4.076588321701134</v>
+        <v>4.076588321700992</v>
       </c>
       <c r="G196" t="n">
-        <v>0.00758261353670935</v>
+        <v>0.007582613446709624</v>
       </c>
       <c r="H196" t="n">
-        <v>1360.819096025145</v>
+        <v>1360.819096023847</v>
       </c>
     </row>
     <row r="197">
@@ -6341,19 +6341,19 @@
         <v>95643.99000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02128783037393781</v>
+        <v>0.02128783037393752</v>
       </c>
       <c r="E197" t="n">
-        <v>2036.053035406605</v>
+        <v>2036.053035406577</v>
       </c>
       <c r="F197" t="n">
-        <v>2.036053035406604</v>
+        <v>2.036053035406577</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>1360.819096025145</v>
+        <v>1360.819096023847</v>
       </c>
     </row>
     <row r="198">
@@ -6371,19 +6371,19 @@
         <v>96590.35000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02108300481278061</v>
+        <v>0.02108300481278033</v>
       </c>
       <c r="E198" t="n">
-        <v>2036.414813918164</v>
+        <v>2036.414813918137</v>
       </c>
       <c r="F198" t="n">
-        <v>2.036414813918164</v>
+        <v>2.036414813918137</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1360.819096025145</v>
+        <v>1360.819096023847</v>
       </c>
     </row>
     <row r="199">
@@ -6401,19 +6401,319 @@
         <v>96282.99000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.04237083518671843</v>
+        <v>-0.04237083518671786</v>
       </c>
       <c r="E199" t="n">
-        <v>4072.467849324768</v>
+        <v>4072.467849324714</v>
       </c>
       <c r="F199" t="n">
-        <v>4.079590700574459</v>
+        <v>4.079590700574404</v>
       </c>
       <c r="G199" t="n">
-        <v>-13.0230999029898</v>
+        <v>-13.02309990298963</v>
       </c>
       <c r="H199" t="n">
-        <v>1347.795996122155</v>
+        <v>1347.795996120858</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-12-05</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>97209.64</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.02094475649104625</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2036.032238382269</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.036032238382269</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1347.795996120858</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-12-06</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>99514.4455763662</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.02094475649104625</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2036.032238382269</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.084305829938465</v>
+      </c>
+      <c r="G201" t="n">
+        <v>48.27359155619551</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1396.069587677053</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>101439.99</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.02008000299933021</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2036.915303452026</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.036915303452027</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1396.069587677053</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-12-08</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>99662.71000000001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-0.02008000299933021</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2036.915303452026</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.001227515721377</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-35.68778773064957</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1360.381799946404</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>101109.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.02013776126320985</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2036.120986218643</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.036120986218643</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1360.381799946404</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-12-09</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>99090.84</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.02013776126320985</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2036.120986218643</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.995467679290925</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-40.65330692771771</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1319.728493018686</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>100361.64</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.02027893413189706</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2035.227086929166</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2.035227086929166</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1319.728493018686</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>101462.34</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.02006293963694714</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2035.632802843407</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2.035632802843407</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1319.728493018686</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>100708.12</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.0403418737688442</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4070.859889772572</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4.062754264537613</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-30.42664803393772</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1289.301844984748</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>101733.83</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.02000222052156677</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2034.902502163585</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.034902502163586</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1289.301844984748</v>
       </c>
     </row>
   </sheetData>
@@ -6467,20 +6767,20 @@
         <v>100000</v>
       </c>
       <c r="B2" t="n">
-        <v>101801.6119191148</v>
+        <v>101744.2259317583</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.15%</t>
+          <t>14.90%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
